--- a/src/test/java/testData/TestSuite1Data.xlsx
+++ b/src/test/java/testData/TestSuite1Data.xlsx
@@ -9,15 +9,20 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17280" windowHeight="9195" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17280" windowHeight="9195" tabRatio="500" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="TC01" sheetId="1" r:id="rId1"/>
     <sheet name="TC02" sheetId="2" r:id="rId2"/>
     <sheet name="TC03" sheetId="3" r:id="rId3"/>
     <sheet name="TC04" sheetId="4" r:id="rId4"/>
+    <sheet name="TC06" sheetId="6" r:id="rId5"/>
+    <sheet name="TC07" sheetId="7" r:id="rId6"/>
+    <sheet name="TC08" sheetId="8" r:id="rId7"/>
+    <sheet name="TC09" sheetId="9" r:id="rId8"/>
+    <sheet name="TC05" sheetId="5" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="0" iterateDelta="1E-4"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -27,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="998" uniqueCount="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1570" uniqueCount="272">
   <si>
     <t>Gateway_PartnerCode</t>
   </si>
@@ -647,9 +652,6 @@
     <t>79227</t>
   </si>
   <si>
-    <t>520733</t>
-  </si>
-  <si>
     <t>41014H258</t>
   </si>
   <si>
@@ -701,9 +703,6 @@
     <t>One</t>
   </si>
   <si>
-    <t>520825</t>
-  </si>
-  <si>
     <t>Eclipse Survivor II IUL</t>
   </si>
   <si>
@@ -713,9 +712,6 @@
     <t>93742</t>
   </si>
   <si>
-    <t>NV</t>
-  </si>
-  <si>
     <t>Carson City</t>
   </si>
   <si>
@@ -746,31 +742,112 @@
     <t>Trust Certification</t>
   </si>
   <si>
-    <t>520913</t>
-  </si>
-  <si>
     <t>PC_DriverLicenseStateAL</t>
   </si>
   <si>
-    <t>520955</t>
-  </si>
-  <si>
-    <t>520957</t>
-  </si>
-  <si>
-    <t>520966</t>
-  </si>
-  <si>
-    <t>521000</t>
-  </si>
-  <si>
-    <t>521007</t>
-  </si>
-  <si>
-    <t>521016</t>
-  </si>
-  <si>
-    <t>521028</t>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Boise</t>
+  </si>
+  <si>
+    <t>CareMatters I</t>
+  </si>
+  <si>
+    <t>63890A504</t>
+  </si>
+  <si>
+    <t>66869</t>
+  </si>
+  <si>
+    <t>MyEbix_Txn_Id</t>
+  </si>
+  <si>
+    <t>Tran_ID</t>
+  </si>
+  <si>
+    <t>AppID</t>
+  </si>
+  <si>
+    <t>TheLanguage</t>
+  </si>
+  <si>
+    <t>AZ</t>
+  </si>
+  <si>
+    <t>UT</t>
+  </si>
+  <si>
+    <t>525261</t>
+  </si>
+  <si>
+    <t>EngLang</t>
+  </si>
+  <si>
+    <t>Chinese</t>
+  </si>
+  <si>
+    <t>525400</t>
+  </si>
+  <si>
+    <t>NJ</t>
+  </si>
+  <si>
+    <t>525703</t>
+  </si>
+  <si>
+    <t>525549</t>
+  </si>
+  <si>
+    <t>47804V480</t>
+  </si>
+  <si>
+    <t>John Hancock Protection Term</t>
+  </si>
+  <si>
+    <t>525888</t>
+  </si>
+  <si>
+    <t>StateForm</t>
+  </si>
+  <si>
+    <t>KY</t>
+  </si>
+  <si>
+    <t>ProdJPMC</t>
+  </si>
+  <si>
+    <t>TrusteeForm</t>
+  </si>
+  <si>
+    <t>OwnerTrust</t>
+  </si>
+  <si>
+    <t>Term</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>EntitTrustType</t>
+  </si>
+  <si>
+    <t>EntityOwnerType</t>
+  </si>
+  <si>
+    <t>Individual/Person</t>
+  </si>
+  <si>
+    <t>Protection IUL 22</t>
+  </si>
+  <si>
+    <t>47804V241</t>
+  </si>
+  <si>
+    <t>526193</t>
+  </si>
+  <si>
+    <t>526735</t>
   </si>
 </sst>
 </file>
@@ -863,7 +940,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -927,12 +1004,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
@@ -986,12 +1074,36 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="6">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1378,8 +1490,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CP5"/>
   <sheetViews>
-    <sheetView topLeftCell="CJ1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="CO2" sqref="CO2"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1732,23 +1844,23 @@
       <c r="C2" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>54</v>
+      <c r="D2" s="9" t="s">
+        <v>239</v>
       </c>
       <c r="E2" s="22" t="s">
-        <v>205</v>
+        <v>241</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>204</v>
       </c>
       <c r="G2" s="22" t="s">
-        <v>178</v>
+        <v>238</v>
       </c>
       <c r="H2" s="22" t="s">
-        <v>179</v>
+        <v>237</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>55</v>
+        <v>240</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>56</v>
@@ -1994,7 +2106,7 @@
         <v>93</v>
       </c>
       <c r="CM2" s="1" t="s">
-        <v>241</v>
+        <v>251</v>
       </c>
       <c r="CN2" s="8" t="s">
         <v>87</v>
@@ -2018,6 +2130,18 @@
       </c>
       <c r="D3" s="1" t="s">
         <v>54</v>
+      </c>
+      <c r="E3" s="22" t="s">
+        <v>205</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="G3" s="22" t="s">
+        <v>178</v>
+      </c>
+      <c r="H3" s="22" t="s">
+        <v>179</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>55</v>
@@ -2524,7 +2648,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="BA1:BG1">
-    <cfRule type="duplicateValues" dxfId="3" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -2533,28 +2657,29 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:DE2"/>
+  <dimension ref="A1:DD2"/>
   <sheetViews>
-    <sheetView topLeftCell="DB1" workbookViewId="0">
-      <selection activeCell="DG9" sqref="DG9"/>
+    <sheetView topLeftCell="CZ1" workbookViewId="0">
+      <selection activeCell="DJ12" sqref="DJ12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="4" max="7" customWidth="true" width="41.140625" collapsed="true"/>
     <col min="8" max="8" customWidth="true" width="26.42578125" collapsed="true"/>
-    <col min="9" max="11" customWidth="true" width="15.85546875" collapsed="true"/>
-    <col min="92" max="92" customWidth="true" width="15.5703125" collapsed="true"/>
-    <col min="96" max="96" bestFit="true" customWidth="true" width="9.5703125" collapsed="true"/>
-    <col min="100" max="100" bestFit="true" customWidth="true" width="9.5703125" collapsed="true"/>
-    <col min="105" max="105" customWidth="true" width="23.28515625" collapsed="true"/>
-    <col min="106" max="106" bestFit="true" customWidth="true" width="12.1015625" collapsed="true"/>
-    <col min="107" max="107" customWidth="true" width="21.5703125" collapsed="true"/>
-    <col min="108" max="108" bestFit="true" customWidth="true" width="10.26171875" collapsed="true"/>
-    <col min="109" max="109" bestFit="true" customWidth="true" width="13.04296875" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="15.85546875" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="17.28515625" collapsed="true"/>
+    <col min="91" max="91" customWidth="true" width="15.5703125" collapsed="true"/>
+    <col min="95" max="95" bestFit="true" customWidth="true" width="9.5703125" collapsed="true"/>
+    <col min="99" max="99" bestFit="true" customWidth="true" width="9.5703125" collapsed="true"/>
+    <col min="104" max="104" customWidth="true" width="23.28515625" collapsed="true"/>
+    <col min="105" max="105" bestFit="true" customWidth="true" width="12.140625" collapsed="true"/>
+    <col min="106" max="106" customWidth="true" width="21.5703125" collapsed="true"/>
+    <col min="107" max="107" bestFit="true" customWidth="true" width="10.28515625" collapsed="true"/>
+    <col min="108" max="108" bestFit="true" customWidth="true" width="13.0" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:109" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:108" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
@@ -2585,305 +2710,302 @@
       <c r="J1" s="35" t="s">
         <v>168</v>
       </c>
-      <c r="K1" s="35" t="s">
-        <v>169</v>
+      <c r="K1" s="24" t="s">
+        <v>6</v>
       </c>
       <c r="L1" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="M1" s="24" t="s">
         <v>7</v>
       </c>
+      <c r="M1" s="26" t="s">
+        <v>8</v>
+      </c>
       <c r="N1" s="26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O1" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="P1" s="26" t="s">
         <v>10</v>
       </c>
+      <c r="P1" s="27" t="s">
+        <v>11</v>
+      </c>
       <c r="Q1" s="27" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="R1" s="27" t="s">
-        <v>12</v>
-      </c>
-      <c r="S1" s="27" t="s">
         <v>13</v>
       </c>
+      <c r="S1" s="24" t="s">
+        <v>14</v>
+      </c>
       <c r="T1" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="U1" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="V1" s="28" t="s">
+      <c r="U1" s="28" t="s">
         <v>16</v>
       </c>
+      <c r="V1" s="29" t="s">
+        <v>17</v>
+      </c>
       <c r="W1" s="29" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="X1" s="29" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="Y1" s="29" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="Z1" s="29" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AA1" s="29" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AB1" s="29" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AC1" s="29" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AD1" s="29" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AE1" s="29" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AF1" s="29" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AG1" s="29" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AH1" s="29" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AI1" s="29" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AJ1" s="29" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="AK1" s="29" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="AL1" s="29" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="AM1" s="29" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="AN1" s="29" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AO1" s="29" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="AP1" s="29" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="AQ1" s="29" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="AR1" s="29" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AS1" s="29" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AT1" s="29" t="s">
-        <v>40</v>
-      </c>
-      <c r="AU1" s="29" t="s">
         <v>41</v>
       </c>
-      <c r="AV1" s="28" t="s">
+      <c r="AU1" s="28" t="s">
         <v>42</v>
       </c>
+      <c r="AV1" s="27" t="s">
+        <v>99</v>
+      </c>
       <c r="AW1" s="27" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AX1" s="27" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AY1" s="27" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AZ1" s="27" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="BA1" s="27" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="BB1" s="27" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="BC1" s="27" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="BD1" s="27" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="BE1" s="27" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="BF1" s="27" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="BG1" s="27" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="BH1" s="27" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="BI1" s="27" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="BJ1" s="27" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="BK1" s="27" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="BL1" s="27" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="BM1" s="27" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="BN1" s="27" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="BO1" s="27" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="BP1" s="27" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="BQ1" s="27" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="BR1" s="27" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="BS1" s="27" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="BT1" s="27" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="BU1" s="27" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="BV1" s="27" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="BW1" s="27" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="BX1" s="27" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="BY1" s="27" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="BZ1" s="27" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="CA1" s="27" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="CB1" s="27" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="CC1" s="27" t="s">
-        <v>131</v>
-      </c>
-      <c r="CD1" s="27" t="s">
         <v>132</v>
       </c>
+      <c r="CD1" s="28" t="s">
+        <v>43</v>
+      </c>
       <c r="CE1" s="28" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="CF1" s="28" t="s">
-        <v>44</v>
-      </c>
-      <c r="CG1" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="CH1" s="26" t="s">
+      <c r="CG1" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="CI1" s="30" t="s">
+      <c r="CH1" s="30" t="s">
         <v>47</v>
       </c>
+      <c r="CI1" s="36" t="s">
+        <v>181</v>
+      </c>
       <c r="CJ1" s="36" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="CK1" s="36" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="CL1" s="36" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="CM1" s="36" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="CN1" s="36" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="CO1" s="36" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="CP1" s="36" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="CQ1" s="36" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="CR1" s="36" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="CS1" s="36" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="CT1" s="36" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="CU1" s="36" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="CV1" s="36" t="s">
-        <v>194</v>
-      </c>
-      <c r="CW1" s="36" t="s">
         <v>190</v>
       </c>
-      <c r="CX1" s="27" t="s">
+      <c r="CW1" s="27" t="s">
         <v>92</v>
       </c>
+      <c r="CX1" s="31" t="s">
+        <v>90</v>
+      </c>
       <c r="CY1" s="31" t="s">
-        <v>90</v>
-      </c>
-      <c r="CZ1" s="31" t="s">
         <v>91</v>
       </c>
-      <c r="DA1" s="32" t="s">
+      <c r="CZ1" s="32" t="s">
         <v>95</v>
       </c>
-      <c r="DB1" s="33" t="s">
+      <c r="DA1" s="33" t="s">
         <v>48</v>
       </c>
-      <c r="DC1" s="34" t="s">
+      <c r="DB1" s="34" t="s">
         <v>49</v>
       </c>
+      <c r="DC1" s="24" t="s">
+        <v>50</v>
+      </c>
       <c r="DD1" s="24" t="s">
-        <v>50</v>
-      </c>
-      <c r="DE1" s="24" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="2" spans="1:109" s="1" customFormat="1" ht="180" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:108" s="1" customFormat="1" ht="180" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>51</v>
       </c>
@@ -2903,7 +3025,7 @@
         <v>178</v>
       </c>
       <c r="G2" s="22" t="s">
-        <v>179</v>
+        <v>252</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>176</v>
@@ -2915,220 +3037,220 @@
         <v>171</v>
       </c>
       <c r="K2" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="L2" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="M2" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="N2" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="L2" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="M2" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="N2" s="10" t="s">
-        <v>97</v>
-      </c>
       <c r="O2" s="10" t="s">
-        <v>98</v>
+        <v>61</v>
       </c>
       <c r="P2" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q2" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="R2" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="Q2" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="R2" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="S2" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="T2" s="1" t="s">
+      <c r="S2" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="U2" s="9" t="s">
+      <c r="T2" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="V2" s="3" t="s">
+      <c r="U2" s="3" t="s">
         <v>64</v>
       </c>
+      <c r="V2" s="11" t="s">
+        <v>65</v>
+      </c>
       <c r="W2" s="11" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="X2" s="11" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="Y2" s="11" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="Z2" s="11" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="AA2" s="11" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AB2" s="11" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AC2" s="11" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AD2" s="11" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AE2" s="11" t="s">
         <v>73</v>
       </c>
       <c r="AF2" s="11" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AG2" s="11" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AH2" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="AI2" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="AJ2" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="AK2" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="AL2" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="AM2" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="AN2" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="AO2" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="AP2" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="AQ2" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="AR2" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="AS2" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="AT2" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="AU2" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="AI2" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="AJ2" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="AK2" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="AL2" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="AM2" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="AN2" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="AO2" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="AP2" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="AQ2" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="AR2" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="AS2" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="AT2" s="12" t="s">
-        <v>83</v>
-      </c>
-      <c r="AU2" s="8" t="s">
-        <v>170</v>
-      </c>
-      <c r="AV2" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="AW2" s="19" t="s">
+      <c r="AV2" s="19" t="s">
         <v>133</v>
       </c>
-      <c r="AX2" s="1" t="s">
+      <c r="AW2" s="1" t="s">
         <v>134</v>
       </c>
+      <c r="AX2" s="19" t="s">
+        <v>135</v>
+      </c>
       <c r="AY2" s="19" t="s">
-        <v>135</v>
-      </c>
-      <c r="AZ2" s="19" t="s">
         <v>136</v>
       </c>
-      <c r="BA2" s="21" t="s">
+      <c r="AZ2" s="21" t="s">
         <v>165</v>
       </c>
-      <c r="BB2" s="22" t="s">
+      <c r="BA2" s="22" t="s">
         <v>137</v>
       </c>
+      <c r="BB2" s="1" t="s">
+        <v>138</v>
+      </c>
       <c r="BC2" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="BD2" s="1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="BE2" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="BF2" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="BG2" s="19" t="s">
+      <c r="BF2" s="19" t="s">
         <v>142</v>
       </c>
-      <c r="BH2" s="4" t="s">
+      <c r="BG2" s="4" t="s">
         <v>143</v>
       </c>
+      <c r="BH2" s="22" t="s">
+        <v>144</v>
+      </c>
       <c r="BI2" s="22" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="BJ2" s="22" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="BK2" s="22" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="BL2" s="22" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="BM2" s="22" t="s">
-        <v>148</v>
-      </c>
-      <c r="BN2" s="22" t="s">
         <v>149</v>
       </c>
-      <c r="BO2" s="19" t="s">
+      <c r="BN2" s="19" t="s">
         <v>60</v>
       </c>
+      <c r="BO2" s="1" t="s">
+        <v>150</v>
+      </c>
       <c r="BP2" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="BQ2" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="BR2" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="BS2" s="1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="BT2" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="BU2" s="1" t="s">
         <v>155</v>
       </c>
+      <c r="BU2" s="22" t="s">
+        <v>156</v>
+      </c>
       <c r="BV2" s="22" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="BW2" s="22" t="s">
-        <v>157</v>
-      </c>
-      <c r="BX2" s="22" t="s">
         <v>158</v>
       </c>
-      <c r="BY2" s="21" t="s">
+      <c r="BX2" s="21" t="s">
         <v>159</v>
       </c>
+      <c r="BY2" s="1" t="s">
+        <v>160</v>
+      </c>
       <c r="BZ2" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="CA2" s="1" t="s">
         <v>161</v>
       </c>
+      <c r="CA2" s="22" t="s">
+        <v>162</v>
+      </c>
       <c r="CB2" s="22" t="s">
-        <v>162</v>
-      </c>
-      <c r="CC2" s="22" t="s">
         <v>163</v>
       </c>
-      <c r="CD2" s="21" t="s">
+      <c r="CC2" s="21" t="s">
         <v>164</v>
+      </c>
+      <c r="CD2" s="4" t="s">
+        <v>85</v>
       </c>
       <c r="CE2" s="4" t="s">
         <v>85</v>
@@ -3139,86 +3261,83 @@
       <c r="CG2" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="CH2" s="4" t="s">
+      <c r="CH2" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="CI2" s="14" t="s">
-        <v>85</v>
-      </c>
-      <c r="CJ2" s="37" t="s">
+      <c r="CI2" s="37" t="s">
         <v>146</v>
       </c>
+      <c r="CJ2" s="14" t="s">
+        <v>195</v>
+      </c>
       <c r="CK2" s="14" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="CL2" s="14" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="CM2" s="14" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="CN2" s="14" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="CO2" s="14" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="CP2" s="14" t="s">
-        <v>200</v>
-      </c>
-      <c r="CQ2" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="CR2" s="14">
+      <c r="CQ2" s="14">
         <v>8218828905</v>
       </c>
-      <c r="CS2" s="38" t="s">
+      <c r="CR2" s="38" t="s">
         <v>201</v>
       </c>
+      <c r="CS2" s="14" t="s">
+        <v>202</v>
+      </c>
       <c r="CT2" s="14" t="s">
-        <v>202</v>
-      </c>
-      <c r="CU2" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="CV2" s="14">
+      <c r="CU2" s="14">
         <v>8218828905</v>
       </c>
-      <c r="CW2" s="38" t="s">
+      <c r="CV2" s="38" t="s">
         <v>203</v>
       </c>
-      <c r="CX2" s="17" t="s">
+      <c r="CW2" s="17" t="s">
         <v>89</v>
       </c>
-      <c r="CY2" s="16" t="s">
+      <c r="CX2" s="16" t="s">
         <v>96</v>
       </c>
-      <c r="CZ2" s="17" t="s">
+      <c r="CY2" s="17" t="s">
         <v>94</v>
       </c>
-      <c r="DA2" s="16" t="s">
+      <c r="CZ2" s="16" t="s">
         <v>93</v>
       </c>
-      <c r="DB2" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="DC2" s="8" t="s">
+      <c r="DA2" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="DB2" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="DD2" s="1" t="s">
+      <c r="DC2" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="DE2" t="s">
+      <c r="DD2" t="s">
         <v>166</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="BB1:BH1">
-    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
+  <conditionalFormatting sqref="BA1:BG1">
+    <cfRule type="duplicateValues" dxfId="4" priority="1"/>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="CS2" r:id="rId1"/>
-    <hyperlink ref="CW2" r:id="rId2"/>
+    <hyperlink ref="CR2" r:id="rId1"/>
+    <hyperlink ref="CV2" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId3"/>
@@ -3227,22 +3346,23 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:DL3"/>
+  <dimension ref="A1:DK3"/>
   <sheetViews>
-    <sheetView topLeftCell="DJ1" workbookViewId="0">
-      <selection activeCell="DJ15" sqref="DJ15"/>
+    <sheetView topLeftCell="DC1" workbookViewId="0">
+      <selection activeCell="DT8" sqref="DT8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="7" max="7" customWidth="true" width="24.5703125" collapsed="true"/>
     <col min="9" max="9" customWidth="true" width="25.85546875" collapsed="true"/>
-    <col min="111" max="111" customWidth="true" width="54.7109375" collapsed="true"/>
-    <col min="113" max="113" bestFit="true" customWidth="true" width="12.140625" collapsed="true"/>
-    <col min="115" max="115" bestFit="true" customWidth="true" width="10.28515625" collapsed="true"/>
-    <col min="116" max="116" bestFit="true" customWidth="true" width="13.0" collapsed="true"/>
+    <col min="110" max="110" customWidth="true" width="54.7109375" collapsed="true"/>
+    <col min="112" max="112" bestFit="true" customWidth="true" width="12.140625" collapsed="true"/>
+    <col min="114" max="114" bestFit="true" customWidth="true" width="10.28515625" collapsed="true"/>
+    <col min="115" max="115" bestFit="true" customWidth="true" width="13.0" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:116" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:115" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
@@ -3273,11 +3393,11 @@
       <c r="J1" s="35" t="s">
         <v>168</v>
       </c>
-      <c r="K1" s="35" t="s">
-        <v>169</v>
-      </c>
-      <c r="L1" s="24" t="s">
+      <c r="K1" s="24" t="s">
         <v>6</v>
+      </c>
+      <c r="L1" s="39" t="s">
+        <v>209</v>
       </c>
       <c r="M1" s="39" t="s">
         <v>210</v>
@@ -3288,125 +3408,125 @@
       <c r="O1" s="39" t="s">
         <v>212</v>
       </c>
-      <c r="P1" s="39" t="s">
-        <v>213</v>
-      </c>
-      <c r="Q1" s="24" t="s">
+      <c r="P1" s="24" t="s">
         <v>7</v>
       </c>
+      <c r="Q1" s="26" t="s">
+        <v>8</v>
+      </c>
       <c r="R1" s="26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="S1" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="T1" s="26" t="s">
         <v>10</v>
       </c>
+      <c r="T1" s="27" t="s">
+        <v>11</v>
+      </c>
       <c r="U1" s="27" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="V1" s="27" t="s">
-        <v>12</v>
-      </c>
-      <c r="W1" s="27" t="s">
         <v>13</v>
       </c>
+      <c r="W1" s="24" t="s">
+        <v>14</v>
+      </c>
       <c r="X1" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="Y1" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="Z1" s="28" t="s">
+      <c r="Y1" s="28" t="s">
         <v>16</v>
       </c>
+      <c r="Z1" s="29" t="s">
+        <v>17</v>
+      </c>
       <c r="AA1" s="29" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AB1" s="29" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AC1" s="29" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AD1" s="29" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AE1" s="29" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AF1" s="29" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AG1" s="29" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AH1" s="29" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AI1" s="29" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AJ1" s="29" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AK1" s="29" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AL1" s="29" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AM1" s="29" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AN1" s="29" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="AO1" s="29" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="AP1" s="29" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="AQ1" s="29" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="AR1" s="29" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AS1" s="29" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="AT1" s="29" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="AU1" s="29" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="AV1" s="29" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AW1" s="29" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AX1" s="29" t="s">
-        <v>40</v>
-      </c>
-      <c r="AY1" s="29" t="s">
         <v>41</v>
       </c>
-      <c r="AZ1" s="28" t="s">
+      <c r="AY1" s="28" t="s">
         <v>42</v>
       </c>
+      <c r="AZ1" s="27" t="s">
+        <v>99</v>
+      </c>
       <c r="BA1" s="27" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="BB1" s="27" t="s">
-        <v>100</v>
-      </c>
-      <c r="BC1" s="27" t="s">
         <v>101</v>
+      </c>
+      <c r="BC1" s="39" t="s">
+        <v>217</v>
       </c>
       <c r="BD1" s="39" t="s">
         <v>218</v>
@@ -3414,185 +3534,182 @@
       <c r="BE1" s="39" t="s">
         <v>219</v>
       </c>
-      <c r="BF1" s="39" t="s">
-        <v>220</v>
+      <c r="BF1" s="27" t="s">
+        <v>102</v>
       </c>
       <c r="BG1" s="27" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="BH1" s="27" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="BI1" s="27" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="BJ1" s="27" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="BK1" s="27" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="BL1" s="27" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="BM1" s="27" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="BN1" s="27" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="BO1" s="27" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="BP1" s="27" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="BQ1" s="27" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="BR1" s="27" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="BS1" s="27" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="BT1" s="27" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="BU1" s="27" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="BV1" s="27" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="BW1" s="27" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="BX1" s="27" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="BY1" s="27" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="BZ1" s="27" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="CA1" s="27" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="CB1" s="27" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="CC1" s="27" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="CD1" s="27" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="CE1" s="27" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="CF1" s="27" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="CG1" s="27" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="CH1" s="27" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="CI1" s="27" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="CJ1" s="27" t="s">
-        <v>131</v>
-      </c>
-      <c r="CK1" s="27" t="s">
         <v>132</v>
       </c>
+      <c r="CK1" s="28" t="s">
+        <v>43</v>
+      </c>
       <c r="CL1" s="28" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="CM1" s="28" t="s">
-        <v>44</v>
-      </c>
-      <c r="CN1" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="CO1" s="26" t="s">
+      <c r="CN1" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="CP1" s="30" t="s">
+      <c r="CO1" s="30" t="s">
         <v>47</v>
       </c>
+      <c r="CP1" s="36" t="s">
+        <v>181</v>
+      </c>
       <c r="CQ1" s="36" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="CR1" s="36" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="CS1" s="36" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="CT1" s="36" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="CU1" s="36" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="CV1" s="36" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="CW1" s="36" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="CX1" s="36" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="CY1" s="36" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="CZ1" s="36" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="DA1" s="36" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="DB1" s="36" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="DC1" s="36" t="s">
-        <v>194</v>
-      </c>
-      <c r="DD1" s="36" t="s">
         <v>190</v>
       </c>
-      <c r="DE1" s="27" t="s">
+      <c r="DD1" s="27" t="s">
         <v>92</v>
       </c>
+      <c r="DE1" s="31" t="s">
+        <v>90</v>
+      </c>
       <c r="DF1" s="31" t="s">
-        <v>90</v>
-      </c>
-      <c r="DG1" s="31" t="s">
         <v>91</v>
       </c>
-      <c r="DH1" s="32" t="s">
+      <c r="DG1" s="32" t="s">
         <v>95</v>
       </c>
-      <c r="DI1" s="33" t="s">
+      <c r="DH1" s="33" t="s">
         <v>48</v>
       </c>
-      <c r="DJ1" s="34" t="s">
+      <c r="DI1" s="34" t="s">
         <v>49</v>
       </c>
+      <c r="DJ1" s="24" t="s">
+        <v>50</v>
+      </c>
       <c r="DK1" s="24" t="s">
-        <v>50</v>
-      </c>
-      <c r="DL1" s="24" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="2" spans="1:116" s="1" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:115" s="1" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>51</v>
       </c>
@@ -3603,7 +3720,7 @@
         <v>53</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E2" s="22" t="s">
         <v>175</v>
@@ -3612,253 +3729,253 @@
         <v>178</v>
       </c>
       <c r="G2" s="22" t="s">
-        <v>179</v>
+        <v>247</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>171</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>98</v>
+        <v>57</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>57</v>
+        <v>213</v>
       </c>
       <c r="M2" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="N2" s="22" t="s">
         <v>215</v>
       </c>
       <c r="O2" s="22" t="s">
         <v>216</v>
       </c>
-      <c r="P2" s="22" t="s">
-        <v>217</v>
-      </c>
-      <c r="Q2" s="9" t="s">
+      <c r="P2" s="9" t="s">
         <v>58</v>
       </c>
+      <c r="Q2" s="10" t="s">
+        <v>97</v>
+      </c>
       <c r="R2" s="10" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="S2" s="10" t="s">
-        <v>98</v>
+        <v>61</v>
       </c>
       <c r="T2" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="U2" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="V2" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="U2" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="V2" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="W2" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="X2" s="1" t="s">
+      <c r="W2" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="Y2" s="9" t="s">
+      <c r="X2" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="Z2" s="3" t="s">
+      <c r="Y2" s="3" t="s">
         <v>64</v>
       </c>
+      <c r="Z2" s="11" t="s">
+        <v>65</v>
+      </c>
       <c r="AA2" s="11" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="AB2" s="11" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AC2" s="11" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AD2" s="11" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="AE2" s="11" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AF2" s="11" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AG2" s="11" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AH2" s="11" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AI2" s="11" t="s">
         <v>73</v>
       </c>
       <c r="AJ2" s="11" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AK2" s="11" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AL2" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="AM2" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="AN2" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="AO2" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="AP2" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="AQ2" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="AR2" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="AS2" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="AT2" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="AU2" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="AV2" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="AW2" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="AX2" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="AY2" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="AM2" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="AN2" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="AO2" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="AP2" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="AQ2" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="AR2" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="AS2" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="AT2" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="AU2" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="AV2" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="AW2" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="AX2" s="12" t="s">
-        <v>83</v>
-      </c>
-      <c r="AY2" s="8" t="s">
-        <v>170</v>
-      </c>
-      <c r="AZ2" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="BA2" s="19" t="s">
+      <c r="AZ2" s="19" t="s">
         <v>133</v>
       </c>
-      <c r="BB2" s="1" t="s">
+      <c r="BA2" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="BC2" s="19" t="s">
+      <c r="BB2" s="19" t="s">
         <v>135</v>
       </c>
-      <c r="BD2" s="1" t="s">
+      <c r="BC2" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="BD2" s="22" t="s">
         <v>221</v>
       </c>
-      <c r="BE2" s="22" t="s">
+      <c r="BE2" s="19" t="s">
         <v>222</v>
       </c>
       <c r="BF2" s="19" t="s">
-        <v>223</v>
-      </c>
-      <c r="BG2" s="19" t="s">
         <v>136</v>
       </c>
-      <c r="BH2" s="21" t="s">
+      <c r="BG2" s="21" t="s">
         <v>165</v>
       </c>
-      <c r="BI2" s="22" t="s">
+      <c r="BH2" s="22" t="s">
         <v>137</v>
       </c>
+      <c r="BI2" s="1" t="s">
+        <v>138</v>
+      </c>
       <c r="BJ2" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="BK2" s="1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="BL2" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="BM2" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="BN2" s="19" t="s">
+      <c r="BM2" s="19" t="s">
         <v>142</v>
       </c>
-      <c r="BO2" s="4" t="s">
+      <c r="BN2" s="4" t="s">
         <v>143</v>
       </c>
+      <c r="BO2" s="22" t="s">
+        <v>144</v>
+      </c>
       <c r="BP2" s="22" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="BQ2" s="22" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="BR2" s="22" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="BS2" s="22" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="BT2" s="22" t="s">
-        <v>148</v>
-      </c>
-      <c r="BU2" s="22" t="s">
         <v>149</v>
       </c>
-      <c r="BV2" s="19" t="s">
+      <c r="BU2" s="19" t="s">
         <v>60</v>
       </c>
+      <c r="BV2" s="1" t="s">
+        <v>150</v>
+      </c>
       <c r="BW2" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="BX2" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="BY2" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="BZ2" s="1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="CA2" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="CB2" s="1" t="s">
         <v>155</v>
       </c>
+      <c r="CB2" s="22" t="s">
+        <v>156</v>
+      </c>
       <c r="CC2" s="22" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="CD2" s="22" t="s">
-        <v>157</v>
-      </c>
-      <c r="CE2" s="22" t="s">
         <v>158</v>
       </c>
-      <c r="CF2" s="21" t="s">
+      <c r="CE2" s="21" t="s">
         <v>159</v>
       </c>
+      <c r="CF2" s="1" t="s">
+        <v>160</v>
+      </c>
       <c r="CG2" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="CH2" s="1" t="s">
         <v>161</v>
       </c>
+      <c r="CH2" s="22" t="s">
+        <v>162</v>
+      </c>
       <c r="CI2" s="22" t="s">
-        <v>162</v>
-      </c>
-      <c r="CJ2" s="22" t="s">
         <v>163</v>
       </c>
-      <c r="CK2" s="21" t="s">
+      <c r="CJ2" s="21" t="s">
         <v>164</v>
+      </c>
+      <c r="CK2" s="4" t="s">
+        <v>85</v>
       </c>
       <c r="CL2" s="4" t="s">
         <v>85</v>
@@ -3869,89 +3986,86 @@
       <c r="CN2" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="CO2" s="4" t="s">
+      <c r="CO2" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="CP2" s="14" t="s">
-        <v>85</v>
-      </c>
-      <c r="CQ2" s="37" t="s">
+      <c r="CP2" s="37" t="s">
         <v>146</v>
       </c>
+      <c r="CQ2" s="14" t="s">
+        <v>195</v>
+      </c>
       <c r="CR2" s="14" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="CS2" s="14" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="CT2" s="14" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="CU2" s="14" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="CV2" s="14" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="CW2" s="14" t="s">
-        <v>200</v>
-      </c>
-      <c r="CX2" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="CY2" s="14">
+      <c r="CX2" s="14">
         <v>8218828905</v>
       </c>
-      <c r="CZ2" s="38" t="s">
+      <c r="CY2" s="38" t="s">
         <v>201</v>
       </c>
+      <c r="CZ2" s="14" t="s">
+        <v>202</v>
+      </c>
       <c r="DA2" s="14" t="s">
-        <v>202</v>
-      </c>
-      <c r="DB2" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="DC2" s="14">
+      <c r="DB2" s="14">
         <v>8218828905</v>
       </c>
-      <c r="DD2" s="38" t="s">
+      <c r="DC2" s="38" t="s">
         <v>203</v>
       </c>
-      <c r="DE2" s="17" t="s">
+      <c r="DD2" s="17" t="s">
         <v>89</v>
       </c>
-      <c r="DF2" s="16" t="s">
+      <c r="DE2" s="16" t="s">
         <v>96</v>
       </c>
-      <c r="DG2" s="17" t="s">
+      <c r="DF2" s="17" t="s">
         <v>94</v>
       </c>
-      <c r="DH2" s="16" t="s">
+      <c r="DG2" s="16" t="s">
         <v>93</v>
       </c>
-      <c r="DI2" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="DJ2" s="8" t="s">
+      <c r="DH2" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="DI2" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="DK2" s="1" t="s">
+      <c r="DJ2" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="DL2" t="s">
+      <c r="DK2" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="3" spans="1:116" x14ac:dyDescent="0.25">
-      <c r="BE3" s="40"/>
+    <row r="3" spans="1:115" x14ac:dyDescent="0.25">
+      <c r="BD3" s="40"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="BI1:BO1">
-    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+  <conditionalFormatting sqref="BH1:BN1">
+    <cfRule type="duplicateValues" dxfId="3" priority="1"/>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="CZ2" r:id="rId1"/>
-    <hyperlink ref="DD2" r:id="rId2"/>
+    <hyperlink ref="CY2" r:id="rId1"/>
+    <hyperlink ref="DC2" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId3"/>
@@ -3962,8 +4076,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CV2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="CL1" workbookViewId="0">
-      <selection activeCell="CU9" sqref="CU9"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3972,8 +4086,8 @@
     <col min="7" max="7" customWidth="true" width="12.7109375" collapsed="true"/>
     <col min="10" max="10" customWidth="true" width="19.5703125" collapsed="true"/>
     <col min="15" max="15" customWidth="true" width="16.85546875" collapsed="true"/>
-    <col min="97" max="97" bestFit="true" customWidth="true" width="12.1015625" collapsed="true"/>
-    <col min="99" max="99" bestFit="true" customWidth="true" width="10.26171875" collapsed="true"/>
+    <col min="97" max="97" bestFit="true" customWidth="true" width="12.140625" collapsed="true"/>
+    <col min="99" max="99" bestFit="true" customWidth="true" width="10.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:100" s="24" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -4023,16 +4137,16 @@
         <v>10</v>
       </c>
       <c r="P1" s="36" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="Q1" s="36" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="R1" s="36" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="S1" s="36" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="T1" s="27" t="s">
         <v>11</v>
@@ -4251,7 +4365,7 @@
         <v>92</v>
       </c>
       <c r="CN1" s="31" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="CO1" s="31" t="s">
         <v>91</v>
@@ -4289,25 +4403,25 @@
         <v>53</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="E2" s="22" t="s">
         <v>225</v>
-      </c>
-      <c r="E2" s="22" t="s">
-        <v>227</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>204</v>
       </c>
       <c r="G2" s="22" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="H2" s="22" t="s">
-        <v>228</v>
+        <v>246</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="K2" s="1" t="s">
         <v>57</v>
@@ -4325,16 +4439,16 @@
         <v>61</v>
       </c>
       <c r="P2" s="10" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="Q2" s="10" t="s">
         <v>98</v>
       </c>
       <c r="R2" s="10" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="S2" s="10" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="T2" s="10" t="s">
         <v>59</v>
@@ -4553,7 +4667,7 @@
         <v>89</v>
       </c>
       <c r="CN2" s="16" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="CO2" s="17" t="s">
         <v>94</v>
@@ -4567,8 +4681,8 @@
       <c r="CR2" s="16" t="s">
         <v>93</v>
       </c>
-      <c r="CS2" s="1" t="s">
-        <v>246</v>
+      <c r="CS2" s="1">
+        <v>523525</v>
       </c>
       <c r="CT2" s="8" t="s">
         <v>87</v>
@@ -4579,9 +4693,2022 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="BE1:BK1">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:CV2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" customWidth="true" width="19.85546875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="22.85546875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="23.28515625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="17.85546875" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="20.5703125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="26.42578125" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="20.140625" collapsed="true"/>
+    <col min="97" max="97" bestFit="true" customWidth="true" width="12.140625" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:100" s="24" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="25" t="s">
+        <v>173</v>
+      </c>
+      <c r="F1" s="35" t="s">
+        <v>168</v>
+      </c>
+      <c r="G1" s="25" t="s">
+        <v>177</v>
+      </c>
+      <c r="H1" s="25" t="s">
+        <v>169</v>
+      </c>
+      <c r="I1" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="K1" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="L1" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="M1" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="N1" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="O1" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="P1" s="36" t="s">
+        <v>228</v>
+      </c>
+      <c r="Q1" s="36" t="s">
+        <v>236</v>
+      </c>
+      <c r="R1" s="36" t="s">
+        <v>229</v>
+      </c>
+      <c r="S1" s="36" t="s">
+        <v>230</v>
+      </c>
+      <c r="T1" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="U1" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="V1" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="W1" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="X1" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="Y1" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="Z1" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="AA1" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="AB1" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="AC1" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="AD1" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="AE1" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="AF1" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="AG1" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="AH1" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="AI1" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="AJ1" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="AK1" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="AL1" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="AM1" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="AN1" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="AO1" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="AP1" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="AQ1" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="AR1" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="AS1" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="AT1" s="29" t="s">
+        <v>37</v>
+      </c>
+      <c r="AU1" s="29" t="s">
+        <v>38</v>
+      </c>
+      <c r="AV1" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="AW1" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="AX1" s="29" t="s">
+        <v>41</v>
+      </c>
+      <c r="AY1" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="AZ1" s="27" t="s">
+        <v>99</v>
+      </c>
+      <c r="BA1" s="27" t="s">
+        <v>100</v>
+      </c>
+      <c r="BB1" s="27" t="s">
+        <v>101</v>
+      </c>
+      <c r="BC1" s="27" t="s">
+        <v>102</v>
+      </c>
+      <c r="BD1" s="27" t="s">
+        <v>103</v>
+      </c>
+      <c r="BE1" s="27" t="s">
+        <v>104</v>
+      </c>
+      <c r="BF1" s="27" t="s">
+        <v>105</v>
+      </c>
+      <c r="BG1" s="27" t="s">
+        <v>106</v>
+      </c>
+      <c r="BH1" s="27" t="s">
+        <v>107</v>
+      </c>
+      <c r="BI1" s="27" t="s">
+        <v>108</v>
+      </c>
+      <c r="BJ1" s="27" t="s">
+        <v>109</v>
+      </c>
+      <c r="BK1" s="27" t="s">
+        <v>110</v>
+      </c>
+      <c r="BL1" s="27" t="s">
+        <v>111</v>
+      </c>
+      <c r="BM1" s="27" t="s">
+        <v>112</v>
+      </c>
+      <c r="BN1" s="27" t="s">
+        <v>113</v>
+      </c>
+      <c r="BO1" s="27" t="s">
+        <v>114</v>
+      </c>
+      <c r="BP1" s="27" t="s">
+        <v>115</v>
+      </c>
+      <c r="BQ1" s="27" t="s">
+        <v>116</v>
+      </c>
+      <c r="BR1" s="27" t="s">
+        <v>117</v>
+      </c>
+      <c r="BS1" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="BT1" s="27" t="s">
+        <v>119</v>
+      </c>
+      <c r="BU1" s="27" t="s">
+        <v>120</v>
+      </c>
+      <c r="BV1" s="27" t="s">
+        <v>121</v>
+      </c>
+      <c r="BW1" s="27" t="s">
+        <v>122</v>
+      </c>
+      <c r="BX1" s="27" t="s">
+        <v>123</v>
+      </c>
+      <c r="BY1" s="27" t="s">
+        <v>124</v>
+      </c>
+      <c r="BZ1" s="27" t="s">
+        <v>125</v>
+      </c>
+      <c r="CA1" s="27" t="s">
+        <v>126</v>
+      </c>
+      <c r="CB1" s="27" t="s">
+        <v>127</v>
+      </c>
+      <c r="CC1" s="27" t="s">
+        <v>128</v>
+      </c>
+      <c r="CD1" s="27" t="s">
+        <v>129</v>
+      </c>
+      <c r="CE1" s="27" t="s">
+        <v>130</v>
+      </c>
+      <c r="CF1" s="27" t="s">
+        <v>131</v>
+      </c>
+      <c r="CG1" s="27" t="s">
+        <v>132</v>
+      </c>
+      <c r="CH1" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="CI1" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="CJ1" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="CK1" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="CL1" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="CM1" s="27" t="s">
+        <v>92</v>
+      </c>
+      <c r="CN1" s="31" t="s">
+        <v>234</v>
+      </c>
+      <c r="CO1" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="CP1" s="31" t="s">
+        <v>90</v>
+      </c>
+      <c r="CQ1" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="CR1" s="32" t="s">
+        <v>95</v>
+      </c>
+      <c r="CS1" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="CT1" s="34" t="s">
+        <v>49</v>
+      </c>
+      <c r="CU1" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="CV1" s="24" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="2" spans="1:100" s="1" customFormat="1" ht="180" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="E2" s="22" t="s">
+        <v>175</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="G2" s="22" t="s">
+        <v>226</v>
+      </c>
+      <c r="H2" s="22" t="s">
+        <v>246</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="L2" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="M2" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="N2" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="O2" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="P2" s="10" t="s">
+        <v>231</v>
+      </c>
+      <c r="Q2" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="R2" s="10" t="s">
+        <v>232</v>
+      </c>
+      <c r="S2" s="10" t="s">
+        <v>233</v>
+      </c>
+      <c r="T2" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="U2" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="V2" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="X2" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="Y2" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z2" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="AA2" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="AB2" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="AC2" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="AD2" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="AE2" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="AF2" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="AG2" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="AH2" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="AI2" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="AJ2" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="AK2" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="AL2" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="AM2" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="AN2" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="AO2" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="AP2" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="AQ2" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="AR2" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="AS2" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="AT2" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="AU2" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="AV2" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="AW2" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="AX2" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="AY2" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="AZ2" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="BA2" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="BB2" s="19" t="s">
+        <v>135</v>
+      </c>
+      <c r="BC2" s="19" t="s">
+        <v>136</v>
+      </c>
+      <c r="BD2" s="21" t="s">
+        <v>165</v>
+      </c>
+      <c r="BE2" s="22" t="s">
+        <v>137</v>
+      </c>
+      <c r="BF2" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="BG2" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="BH2" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="BI2" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="BJ2" s="19" t="s">
+        <v>142</v>
+      </c>
+      <c r="BK2" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="BL2" s="22" t="s">
+        <v>144</v>
+      </c>
+      <c r="BM2" s="22" t="s">
+        <v>145</v>
+      </c>
+      <c r="BN2" s="22" t="s">
+        <v>146</v>
+      </c>
+      <c r="BO2" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="BP2" s="22" t="s">
+        <v>148</v>
+      </c>
+      <c r="BQ2" s="22" t="s">
+        <v>149</v>
+      </c>
+      <c r="BR2" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="BS2" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="BT2" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="BU2" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="BV2" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="BW2" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="BX2" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="BY2" s="22" t="s">
+        <v>156</v>
+      </c>
+      <c r="BZ2" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="CA2" s="22" t="s">
+        <v>158</v>
+      </c>
+      <c r="CB2" s="21" t="s">
+        <v>159</v>
+      </c>
+      <c r="CC2" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="CD2" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="CE2" s="22" t="s">
+        <v>162</v>
+      </c>
+      <c r="CF2" s="22" t="s">
+        <v>163</v>
+      </c>
+      <c r="CG2" s="21" t="s">
+        <v>164</v>
+      </c>
+      <c r="CH2" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="CI2" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="CJ2" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="CK2" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="CL2" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="CM2" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="CN2" s="16" t="s">
+        <v>235</v>
+      </c>
+      <c r="CO2" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="CP2" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="CQ2" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="CR2" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="CS2" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="CT2" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="CU2" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="BE1:BK1">
+    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O7" sqref="O7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" customWidth="true" width="16.85546875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="15.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="20.7109375" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="9.28515625" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="9.7109375" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="41" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="41" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="41" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="41" t="s">
+        <v>243</v>
+      </c>
+      <c r="E1" s="41" t="s">
+        <v>242</v>
+      </c>
+      <c r="F1" s="41" t="s">
+        <v>258</v>
+      </c>
+      <c r="G1" s="44" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2" s="42" t="s">
+        <v>244</v>
+      </c>
+      <c r="E2" s="43" t="s">
+        <v>254</v>
+      </c>
+      <c r="F2" s="16" t="s">
+        <v>259</v>
+      </c>
+      <c r="G2" t="s">
+        <v>263</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="5" customWidth="true" width="19.7109375" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="11.28515625" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="10.5703125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="19.7109375" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="15.42578125" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="41" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="41" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="41" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="41" t="s">
+        <v>243</v>
+      </c>
+      <c r="E1" s="41" t="s">
+        <v>242</v>
+      </c>
+      <c r="F1" s="41" t="s">
+        <v>261</v>
+      </c>
+      <c r="G1" s="41" t="s">
+        <v>262</v>
+      </c>
+      <c r="H1" s="44" t="s">
+        <v>265</v>
+      </c>
+      <c r="I1" s="44" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2" s="42" t="s">
+        <v>244</v>
+      </c>
+      <c r="E2" s="43" t="s">
+        <v>254</v>
+      </c>
+      <c r="F2" s="16" t="s">
+        <v>264</v>
+      </c>
+      <c r="G2" s="16" t="s">
+        <v>264</v>
+      </c>
+      <c r="I2" t="s">
+        <v>267</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:CP5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" customWidth="true" style="1" width="32.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="1" width="29.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="1" width="31.7109375" collapsed="true"/>
+    <col min="4" max="5" customWidth="true" style="1" width="24.42578125" collapsed="true"/>
+    <col min="6" max="8" customWidth="true" width="15.85546875" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="1" width="26.7109375" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="1" width="24.85546875" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" style="1" width="20.5703125" collapsed="true"/>
+    <col min="12" max="12" style="1" width="8.7109375" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" style="1" width="13.85546875" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" style="1" width="17.42578125" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" style="1" width="15.85546875" collapsed="true"/>
+    <col min="16" max="19" customWidth="true" style="1" width="24.42578125" collapsed="true"/>
+    <col min="20" max="20" customWidth="true" style="1" width="29.0" collapsed="true"/>
+    <col min="21" max="21" customWidth="true" style="1" width="31.140625" collapsed="true"/>
+    <col min="22" max="22" customWidth="true" style="1" width="30.140625" collapsed="true"/>
+    <col min="23" max="23" customWidth="true" style="1" width="19.85546875" collapsed="true"/>
+    <col min="24" max="24" customWidth="true" style="1" width="20.140625" collapsed="true"/>
+    <col min="25" max="25" customWidth="true" style="1" width="22.140625" collapsed="true"/>
+    <col min="26" max="26" customWidth="true" style="1" width="19.140625" collapsed="true"/>
+    <col min="27" max="27" customWidth="true" style="1" width="25.140625" collapsed="true"/>
+    <col min="28" max="28" customWidth="true" style="1" width="18.85546875" collapsed="true"/>
+    <col min="29" max="29" customWidth="true" style="1" width="17.140625" collapsed="true"/>
+    <col min="30" max="30" customWidth="true" style="1" width="10.0" collapsed="true"/>
+    <col min="31" max="31" customWidth="true" style="1" width="27.5703125" collapsed="true"/>
+    <col min="32" max="32" customWidth="true" style="1" width="20.7109375" collapsed="true"/>
+    <col min="33" max="33" customWidth="true" style="1" width="11.7109375" collapsed="true"/>
+    <col min="34" max="34" customWidth="true" style="1" width="26.85546875" collapsed="true"/>
+    <col min="35" max="35" customWidth="true" style="1" width="16.28515625" collapsed="true"/>
+    <col min="36" max="36" customWidth="true" style="1" width="19.7109375" collapsed="true"/>
+    <col min="37" max="37" customWidth="true" style="1" width="19.85546875" collapsed="true"/>
+    <col min="38" max="38" customWidth="true" style="1" width="17.0" collapsed="true"/>
+    <col min="39" max="39" customWidth="true" style="1" width="20.28515625" collapsed="true"/>
+    <col min="40" max="40" customWidth="true" style="1" width="20.0" collapsed="true"/>
+    <col min="41" max="41" customWidth="true" style="1" width="20.85546875" collapsed="true"/>
+    <col min="42" max="42" customWidth="true" style="1" width="24.5703125" collapsed="true"/>
+    <col min="43" max="43" customWidth="true" style="1" width="19.7109375" collapsed="true"/>
+    <col min="44" max="44" customWidth="true" style="1" width="25.0" collapsed="true"/>
+    <col min="45" max="76" customWidth="true" style="1" width="18.0" collapsed="true"/>
+    <col min="77" max="77" customWidth="true" style="1" width="21.140625" collapsed="true"/>
+    <col min="78" max="81" customWidth="true" style="1" width="18.0" collapsed="true"/>
+    <col min="82" max="82" customWidth="true" style="1" width="17.7109375" collapsed="true"/>
+    <col min="83" max="83" customWidth="true" style="1" width="15.5703125" collapsed="true"/>
+    <col min="84" max="84" customWidth="true" style="1" width="17.28515625" collapsed="true"/>
+    <col min="85" max="85" customWidth="true" style="1" width="22.5703125" collapsed="true"/>
+    <col min="86" max="89" customWidth="true" style="1" width="20.7109375" collapsed="true"/>
+    <col min="90" max="90" customWidth="true" style="1" width="25.42578125" collapsed="true"/>
+    <col min="91" max="91" bestFit="true" customWidth="true" style="1" width="11.80859375" collapsed="true"/>
+    <col min="92" max="92" customWidth="true" style="1" width="19.85546875" collapsed="true"/>
+    <col min="93" max="93" bestFit="true" customWidth="true" style="1" width="9.85546875" collapsed="true"/>
+    <col min="94" max="94" bestFit="true" customWidth="true" style="1" width="12.28515625" collapsed="true"/>
+    <col min="95" max="16384" style="1" width="8.7109375" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:94" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="25" t="s">
+        <v>173</v>
+      </c>
+      <c r="F1" s="35" t="s">
+        <v>168</v>
+      </c>
+      <c r="G1" s="25" t="s">
+        <v>177</v>
+      </c>
+      <c r="H1" s="25" t="s">
+        <v>169</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="P1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="R1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="U1" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="V1" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="W1" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="X1" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y1" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z1" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="AA1" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="AB1" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="AC1" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="AD1" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="AE1" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="AF1" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="AG1" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="AH1" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="AI1" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="AJ1" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="AK1" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="AL1" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="AM1" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="AN1" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="AO1" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="AP1" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="AQ1" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="AR1" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="AS1" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="AT1" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="AU1" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="AV1" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="AW1" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="AX1" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="AY1" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="AZ1" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="BA1" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="BB1" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="BC1" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="BD1" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="BE1" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="BF1" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="BG1" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="BH1" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="BI1" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="BJ1" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="BK1" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="BL1" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="BM1" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="BN1" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="BO1" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="BP1" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="BQ1" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="BR1" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="BS1" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="BT1" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="BU1" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="BV1" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="BW1" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="BX1" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="BY1" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="BZ1" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="CA1" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="CB1" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="CC1" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="CD1" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="CE1" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="CF1" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="CG1" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="CH1" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="CI1" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="CJ1" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="CK1" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="CL1" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="CM1" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="CN1" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="CO1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="CP1" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="2" spans="1:94" ht="75" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>268</v>
+      </c>
+      <c r="E2" s="22" t="s">
+        <v>175</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="G2" s="22" t="s">
+        <v>238</v>
+      </c>
+      <c r="H2" s="22" t="s">
+        <v>237</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="L2" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="M2" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="N2" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="O2" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="P2" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q2" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="R2" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="T2" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="U2" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="V2" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="W2" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="X2" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="Y2" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z2" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="AA2" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="AB2" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="AC2" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="AD2" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="AE2" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="AF2" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="AG2" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="AH2" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="AI2" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="AJ2" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="AK2" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="AL2" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="AM2" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="AN2" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="AO2" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="AP2" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="AQ2" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="AR2" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="AS2" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="AT2" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="AU2" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="AV2" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="AW2" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="AX2" s="19" t="s">
+        <v>135</v>
+      </c>
+      <c r="AY2" s="19" t="s">
+        <v>136</v>
+      </c>
+      <c r="AZ2" s="21" t="s">
+        <v>165</v>
+      </c>
+      <c r="BA2" s="22" t="s">
+        <v>137</v>
+      </c>
+      <c r="BB2" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="BC2" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="BD2" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="BE2" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="BF2" s="19" t="s">
+        <v>142</v>
+      </c>
+      <c r="BG2" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="BH2" s="22" t="s">
+        <v>144</v>
+      </c>
+      <c r="BI2" s="22" t="s">
+        <v>145</v>
+      </c>
+      <c r="BJ2" s="22" t="s">
+        <v>146</v>
+      </c>
+      <c r="BK2" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="BL2" s="22" t="s">
+        <v>148</v>
+      </c>
+      <c r="BM2" s="22" t="s">
+        <v>149</v>
+      </c>
+      <c r="BN2" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="BO2" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="BP2" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="BQ2" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="BR2" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="BS2" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="BT2" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="BU2" s="22" t="s">
+        <v>156</v>
+      </c>
+      <c r="BV2" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="BW2" s="22" t="s">
+        <v>158</v>
+      </c>
+      <c r="BX2" s="21" t="s">
+        <v>159</v>
+      </c>
+      <c r="BY2" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="BZ2" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="CA2" s="22" t="s">
+        <v>162</v>
+      </c>
+      <c r="CB2" s="22" t="s">
+        <v>163</v>
+      </c>
+      <c r="CC2" s="21" t="s">
+        <v>164</v>
+      </c>
+      <c r="CD2" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="CE2" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="CF2" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="CG2" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="CH2" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="CI2" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="CJ2" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="CK2" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="CL2" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="CM2" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="CN2" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="CO2" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="CP2" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="3" spans="1:94" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E3" s="22" t="s">
+        <v>205</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="G3" s="22" t="s">
+        <v>178</v>
+      </c>
+      <c r="H3" s="22" t="s">
+        <v>179</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="L3" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="M3" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="N3" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="O3" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="P3" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q3" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="R3" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="T3" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="U3" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="V3" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="W3" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="X3" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="Y3" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z3" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="AA3" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="AB3" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="AC3" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="AD3" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="AE3" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="AF3" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="AG3" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="AH3" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="AI3" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="AJ3" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="AK3" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="AL3" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="AM3" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="AN3" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="AO3" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="AP3" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="AQ3" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="AR3" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="AS3" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="AT3" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="AU3" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="AV3" s="19"/>
+      <c r="AX3" s="19"/>
+      <c r="AY3" s="19"/>
+      <c r="AZ3" s="20"/>
+      <c r="BE3" s="19"/>
+      <c r="BF3" s="19"/>
+      <c r="BG3" s="4"/>
+      <c r="BM3" s="19"/>
+      <c r="BN3" s="19"/>
+      <c r="BW3" s="19"/>
+      <c r="BX3" s="19"/>
+      <c r="CB3" s="23"/>
+      <c r="CC3" s="20"/>
+      <c r="CD3" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="CE3" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="CF3" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="CG3" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="CH3" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="CI3" s="4"/>
+      <c r="CJ3" s="4"/>
+      <c r="CK3" s="4"/>
+      <c r="CL3" s="19"/>
+      <c r="CM3" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="CN3" s="8" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="4" spans="1:94" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="L4" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="M4" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="N4" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="O4" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="P4" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q4" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="R4" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="S4" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="T4" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="U4" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="V4" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="W4" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="X4" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="Y4" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z4" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="AA4" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="AB4" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="AC4" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="AD4" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="AE4" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="AF4" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="AG4" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="AH4" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="AI4" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="AJ4" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="AK4" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="AL4" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="AM4" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="AN4" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="AO4" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="AP4" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="AQ4" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="AR4" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="AS4" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="AT4" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="AU4" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="AV4" s="19"/>
+      <c r="AX4" s="19"/>
+      <c r="AY4" s="19"/>
+      <c r="AZ4" s="19"/>
+      <c r="BE4" s="19"/>
+      <c r="BF4" s="19"/>
+      <c r="BL4" s="19"/>
+      <c r="BM4" s="19"/>
+      <c r="BN4" s="19"/>
+      <c r="BV4" s="19"/>
+      <c r="BW4" s="19"/>
+      <c r="BX4" s="19"/>
+      <c r="CA4" s="19"/>
+      <c r="CB4" s="19"/>
+      <c r="CC4" s="19"/>
+      <c r="CD4" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="CE4" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="CF4" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="CG4" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="CH4" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="CI4" s="4"/>
+      <c r="CJ4" s="4"/>
+      <c r="CK4" s="4"/>
+      <c r="CL4" s="19"/>
+      <c r="CM4" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="CN4" s="8" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="5" spans="1:94" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="L5" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="M5" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="N5" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="O5" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="P5" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q5" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="R5" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="S5" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="T5" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="U5" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="V5" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="W5" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="X5" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="Y5" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z5" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="AA5" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="AB5" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="AC5" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="AD5" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="AE5" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="AF5" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="AG5" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="AH5" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="AI5" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="AJ5" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="AK5" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="AL5" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="AM5" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="AN5" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="AO5" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="AP5" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="AQ5" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="AR5" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="AS5" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="AT5" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="AU5" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="AV5" s="19"/>
+      <c r="AX5" s="19"/>
+      <c r="AY5" s="19"/>
+      <c r="AZ5" s="19"/>
+      <c r="BC5" s="19"/>
+      <c r="BD5" s="19"/>
+      <c r="BE5" s="19"/>
+      <c r="BF5" s="19"/>
+      <c r="BK5" s="19"/>
+      <c r="BL5" s="19"/>
+      <c r="BM5" s="19"/>
+      <c r="BN5" s="19"/>
+      <c r="BU5" s="19"/>
+      <c r="BV5" s="19"/>
+      <c r="BW5" s="19"/>
+      <c r="BX5" s="19"/>
+      <c r="BZ5" s="19"/>
+      <c r="CA5" s="19"/>
+      <c r="CB5" s="19"/>
+      <c r="CC5" s="19"/>
+      <c r="CD5" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="CE5" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="CF5" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="CG5" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="CH5" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="CI5" s="4"/>
+      <c r="CJ5" s="4"/>
+      <c r="CK5" s="4"/>
+      <c r="CL5" s="19"/>
+      <c r="CM5" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="CN5" s="8" t="s">
+        <v>87</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="BA1:BG1">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" customWidth="true" width="24.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="18.7109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="16.7109375" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="8.28515625" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="11.85546875" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="41" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="41" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="41" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="41" t="s">
+        <v>243</v>
+      </c>
+      <c r="E1" s="41" t="s">
+        <v>242</v>
+      </c>
+      <c r="F1" s="41" t="s">
+        <v>249</v>
+      </c>
+      <c r="G1" s="41" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2" s="42" t="s">
+        <v>244</v>
+      </c>
+      <c r="E2" s="43" t="s">
+        <v>254</v>
+      </c>
+      <c r="F2" s="16" t="s">
+        <v>204</v>
+      </c>
+      <c r="G2" s="16" t="s">
+        <v>250</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/src/test/java/testData/TestSuite1Data.xlsx
+++ b/src/test/java/testData/TestSuite1Data.xlsx
@@ -9,20 +9,21 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17280" windowHeight="9195" tabRatio="500" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17280" windowHeight="9195" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="TC01" sheetId="1" r:id="rId1"/>
-    <sheet name="TC02" sheetId="2" r:id="rId2"/>
-    <sheet name="TC03" sheetId="3" r:id="rId3"/>
-    <sheet name="TC04" sheetId="4" r:id="rId4"/>
-    <sheet name="TC06" sheetId="6" r:id="rId5"/>
-    <sheet name="TC07" sheetId="7" r:id="rId6"/>
-    <sheet name="TC08" sheetId="8" r:id="rId7"/>
-    <sheet name="TC09" sheetId="9" r:id="rId8"/>
-    <sheet name="TC05" sheetId="5" r:id="rId9"/>
+    <sheet name="TC10" sheetId="10" r:id="rId2"/>
+    <sheet name="TC02" sheetId="2" r:id="rId3"/>
+    <sheet name="TC03" sheetId="3" r:id="rId4"/>
+    <sheet name="TC04" sheetId="4" r:id="rId5"/>
+    <sheet name="TC06" sheetId="6" r:id="rId6"/>
+    <sheet name="TC07" sheetId="7" r:id="rId7"/>
+    <sheet name="TC08" sheetId="8" r:id="rId8"/>
+    <sheet name="TC09" sheetId="9" r:id="rId9"/>
+    <sheet name="TC05" sheetId="5" r:id="rId10"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1570" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1759" uniqueCount="277">
   <si>
     <t>Gateway_PartnerCode</t>
   </si>
@@ -844,10 +845,25 @@
     <t>47804V241</t>
   </si>
   <si>
-    <t>526193</t>
-  </si>
-  <si>
-    <t>526735</t>
+    <t>526784</t>
+  </si>
+  <si>
+    <t>Symetra Protector IUL 5.0</t>
+  </si>
+  <si>
+    <t>68608</t>
+  </si>
+  <si>
+    <t>87151W426</t>
+  </si>
+  <si>
+    <t>526786</t>
+  </si>
+  <si>
+    <t>526826</t>
+  </si>
+  <si>
+    <t>526851</t>
   </si>
 </sst>
 </file>
@@ -902,7 +918,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -936,6 +952,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor rgb="FFCCFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
@@ -1020,7 +1054,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
@@ -1078,12 +1112,46 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="49" fontId="2" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="49" fontId="2" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="49" fontId="1" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="8">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1491,7 +1559,7 @@
   <dimension ref="A1:CP5"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection sqref="A1:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2648,14 +2716,674 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="BA1:BG1">
-    <cfRule type="duplicateValues" dxfId="5" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" customWidth="true" width="24.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="18.7109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="16.7109375" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="8.28515625" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="11.85546875" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="41" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="41" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="41" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="41" t="s">
+        <v>243</v>
+      </c>
+      <c r="E1" s="41" t="s">
+        <v>242</v>
+      </c>
+      <c r="F1" s="41" t="s">
+        <v>249</v>
+      </c>
+      <c r="G1" s="41" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2" s="42" t="s">
+        <v>244</v>
+      </c>
+      <c r="E2" s="43" t="s">
+        <v>254</v>
+      </c>
+      <c r="F2" s="16" t="s">
+        <v>204</v>
+      </c>
+      <c r="G2" s="16" t="s">
+        <v>250</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:CP2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="CL1" workbookViewId="0">
+      <selection activeCell="CT8" sqref="CT8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" customWidth="true" width="21.0" collapsed="true"/>
+    <col min="91" max="91" bestFit="true" customWidth="true" width="11.80859375" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:94" s="45" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="45" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="45" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="46" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="46" t="s">
+        <v>173</v>
+      </c>
+      <c r="F1" s="47" t="s">
+        <v>168</v>
+      </c>
+      <c r="G1" s="46" t="s">
+        <v>177</v>
+      </c>
+      <c r="H1" s="46" t="s">
+        <v>169</v>
+      </c>
+      <c r="I1" s="46" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" s="46" t="s">
+        <v>5</v>
+      </c>
+      <c r="K1" s="45" t="s">
+        <v>6</v>
+      </c>
+      <c r="L1" s="45" t="s">
+        <v>7</v>
+      </c>
+      <c r="M1" s="48" t="s">
+        <v>8</v>
+      </c>
+      <c r="N1" s="48" t="s">
+        <v>9</v>
+      </c>
+      <c r="O1" s="48" t="s">
+        <v>10</v>
+      </c>
+      <c r="P1" s="49" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q1" s="49" t="s">
+        <v>12</v>
+      </c>
+      <c r="R1" s="49" t="s">
+        <v>13</v>
+      </c>
+      <c r="S1" s="45" t="s">
+        <v>14</v>
+      </c>
+      <c r="T1" s="45" t="s">
+        <v>15</v>
+      </c>
+      <c r="U1" s="50" t="s">
+        <v>16</v>
+      </c>
+      <c r="V1" s="51" t="s">
+        <v>17</v>
+      </c>
+      <c r="W1" s="51" t="s">
+        <v>18</v>
+      </c>
+      <c r="X1" s="51" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y1" s="51" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z1" s="51" t="s">
+        <v>21</v>
+      </c>
+      <c r="AA1" s="51" t="s">
+        <v>22</v>
+      </c>
+      <c r="AB1" s="51" t="s">
+        <v>23</v>
+      </c>
+      <c r="AC1" s="51" t="s">
+        <v>24</v>
+      </c>
+      <c r="AD1" s="51" t="s">
+        <v>25</v>
+      </c>
+      <c r="AE1" s="51" t="s">
+        <v>26</v>
+      </c>
+      <c r="AF1" s="51" t="s">
+        <v>27</v>
+      </c>
+      <c r="AG1" s="51" t="s">
+        <v>28</v>
+      </c>
+      <c r="AH1" s="51" t="s">
+        <v>29</v>
+      </c>
+      <c r="AI1" s="51" t="s">
+        <v>30</v>
+      </c>
+      <c r="AJ1" s="51" t="s">
+        <v>31</v>
+      </c>
+      <c r="AK1" s="51" t="s">
+        <v>32</v>
+      </c>
+      <c r="AL1" s="51" t="s">
+        <v>33</v>
+      </c>
+      <c r="AM1" s="51" t="s">
+        <v>34</v>
+      </c>
+      <c r="AN1" s="51" t="s">
+        <v>35</v>
+      </c>
+      <c r="AO1" s="51" t="s">
+        <v>36</v>
+      </c>
+      <c r="AP1" s="51" t="s">
+        <v>37</v>
+      </c>
+      <c r="AQ1" s="51" t="s">
+        <v>38</v>
+      </c>
+      <c r="AR1" s="51" t="s">
+        <v>39</v>
+      </c>
+      <c r="AS1" s="51" t="s">
+        <v>40</v>
+      </c>
+      <c r="AT1" s="51" t="s">
+        <v>41</v>
+      </c>
+      <c r="AU1" s="50" t="s">
+        <v>42</v>
+      </c>
+      <c r="AV1" s="49" t="s">
+        <v>99</v>
+      </c>
+      <c r="AW1" s="49" t="s">
+        <v>100</v>
+      </c>
+      <c r="AX1" s="49" t="s">
+        <v>101</v>
+      </c>
+      <c r="AY1" s="49" t="s">
+        <v>102</v>
+      </c>
+      <c r="AZ1" s="49" t="s">
+        <v>103</v>
+      </c>
+      <c r="BA1" s="49" t="s">
+        <v>104</v>
+      </c>
+      <c r="BB1" s="49" t="s">
+        <v>105</v>
+      </c>
+      <c r="BC1" s="49" t="s">
+        <v>106</v>
+      </c>
+      <c r="BD1" s="49" t="s">
+        <v>107</v>
+      </c>
+      <c r="BE1" s="49" t="s">
+        <v>108</v>
+      </c>
+      <c r="BF1" s="49" t="s">
+        <v>109</v>
+      </c>
+      <c r="BG1" s="49" t="s">
+        <v>110</v>
+      </c>
+      <c r="BH1" s="49" t="s">
+        <v>111</v>
+      </c>
+      <c r="BI1" s="49" t="s">
+        <v>112</v>
+      </c>
+      <c r="BJ1" s="49" t="s">
+        <v>113</v>
+      </c>
+      <c r="BK1" s="49" t="s">
+        <v>114</v>
+      </c>
+      <c r="BL1" s="49" t="s">
+        <v>115</v>
+      </c>
+      <c r="BM1" s="49" t="s">
+        <v>116</v>
+      </c>
+      <c r="BN1" s="49" t="s">
+        <v>117</v>
+      </c>
+      <c r="BO1" s="49" t="s">
+        <v>118</v>
+      </c>
+      <c r="BP1" s="49" t="s">
+        <v>119</v>
+      </c>
+      <c r="BQ1" s="49" t="s">
+        <v>120</v>
+      </c>
+      <c r="BR1" s="49" t="s">
+        <v>121</v>
+      </c>
+      <c r="BS1" s="49" t="s">
+        <v>122</v>
+      </c>
+      <c r="BT1" s="49" t="s">
+        <v>123</v>
+      </c>
+      <c r="BU1" s="49" t="s">
+        <v>124</v>
+      </c>
+      <c r="BV1" s="49" t="s">
+        <v>125</v>
+      </c>
+      <c r="BW1" s="49" t="s">
+        <v>126</v>
+      </c>
+      <c r="BX1" s="49" t="s">
+        <v>127</v>
+      </c>
+      <c r="BY1" s="49" t="s">
+        <v>128</v>
+      </c>
+      <c r="BZ1" s="49" t="s">
+        <v>129</v>
+      </c>
+      <c r="CA1" s="49" t="s">
+        <v>130</v>
+      </c>
+      <c r="CB1" s="49" t="s">
+        <v>131</v>
+      </c>
+      <c r="CC1" s="49" t="s">
+        <v>132</v>
+      </c>
+      <c r="CD1" s="50" t="s">
+        <v>43</v>
+      </c>
+      <c r="CE1" s="50" t="s">
+        <v>44</v>
+      </c>
+      <c r="CF1" s="50" t="s">
+        <v>45</v>
+      </c>
+      <c r="CG1" s="48" t="s">
+        <v>46</v>
+      </c>
+      <c r="CH1" s="52" t="s">
+        <v>47</v>
+      </c>
+      <c r="CI1" s="49" t="s">
+        <v>92</v>
+      </c>
+      <c r="CJ1" s="53" t="s">
+        <v>90</v>
+      </c>
+      <c r="CK1" s="53" t="s">
+        <v>91</v>
+      </c>
+      <c r="CL1" s="54" t="s">
+        <v>95</v>
+      </c>
+      <c r="CM1" s="55" t="s">
+        <v>48</v>
+      </c>
+      <c r="CN1" s="56" t="s">
+        <v>49</v>
+      </c>
+      <c r="CO1" s="45" t="s">
+        <v>50</v>
+      </c>
+      <c r="CP1" s="45" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="2" spans="1:94" s="1" customFormat="1" ht="180" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>271</v>
+      </c>
+      <c r="E2" s="22" t="s">
+        <v>272</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="G2" s="22" t="s">
+        <v>238</v>
+      </c>
+      <c r="H2" s="22" t="s">
+        <v>237</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="L2" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="M2" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="N2" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="O2" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="P2" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q2" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="R2" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="T2" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="U2" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="V2" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="W2" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="X2" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="Y2" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z2" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="AA2" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="AB2" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="AC2" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="AD2" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="AE2" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="AF2" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="AG2" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="AH2" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="AI2" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="AJ2" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="AK2" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="AL2" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="AM2" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="AN2" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="AO2" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="AP2" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="AQ2" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="AR2" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="AS2" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="AT2" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="AU2" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="AV2" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="AW2" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="AX2" s="19" t="s">
+        <v>135</v>
+      </c>
+      <c r="AY2" s="19" t="s">
+        <v>136</v>
+      </c>
+      <c r="AZ2" s="21" t="s">
+        <v>165</v>
+      </c>
+      <c r="BA2" s="22" t="s">
+        <v>137</v>
+      </c>
+      <c r="BB2" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="BC2" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="BD2" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="BE2" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="BF2" s="19" t="s">
+        <v>142</v>
+      </c>
+      <c r="BG2" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="BH2" s="22" t="s">
+        <v>144</v>
+      </c>
+      <c r="BI2" s="22" t="s">
+        <v>145</v>
+      </c>
+      <c r="BJ2" s="22" t="s">
+        <v>146</v>
+      </c>
+      <c r="BK2" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="BL2" s="22" t="s">
+        <v>148</v>
+      </c>
+      <c r="BM2" s="22" t="s">
+        <v>149</v>
+      </c>
+      <c r="BN2" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="BO2" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="BP2" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="BQ2" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="BR2" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="BS2" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="BT2" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="BU2" s="22" t="s">
+        <v>156</v>
+      </c>
+      <c r="BV2" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="BW2" s="22" t="s">
+        <v>158</v>
+      </c>
+      <c r="BX2" s="21" t="s">
+        <v>159</v>
+      </c>
+      <c r="BY2" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="BZ2" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="CA2" s="22" t="s">
+        <v>162</v>
+      </c>
+      <c r="CB2" s="22" t="s">
+        <v>163</v>
+      </c>
+      <c r="CC2" s="21" t="s">
+        <v>164</v>
+      </c>
+      <c r="CD2" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="CE2" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="CF2" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="CG2" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="CH2" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="CI2" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="CJ2" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="CK2" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="CL2" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="CM2" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="CN2" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="CO2" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="CP2" t="s">
+        <v>166</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="BA1:BG1">
+    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:DD2"/>
   <sheetViews>
@@ -3333,7 +4061,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="BA1:BG1">
-    <cfRule type="duplicateValues" dxfId="4" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="1"/>
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="CR2" r:id="rId1"/>
@@ -3344,7 +4072,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:DK3"/>
   <sheetViews>
@@ -4061,7 +4789,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="BH1:BN1">
-    <cfRule type="duplicateValues" dxfId="3" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="1"/>
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="CY2" r:id="rId1"/>
@@ -4072,12 +4800,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CV2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD2"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4693,19 +5421,19 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="BE1:BK1">
-    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CV2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5323,13 +6051,13 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="BE1:BK1">
-    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G2"/>
   <sheetViews>
@@ -5398,7 +6126,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
@@ -5475,11 +6203,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CP5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
@@ -5532,7 +6260,7 @@
     <col min="85" max="85" customWidth="true" style="1" width="22.5703125" collapsed="true"/>
     <col min="86" max="89" customWidth="true" style="1" width="20.7109375" collapsed="true"/>
     <col min="90" max="90" customWidth="true" style="1" width="25.42578125" collapsed="true"/>
-    <col min="91" max="91" bestFit="true" customWidth="true" style="1" width="11.80859375" collapsed="true"/>
+    <col min="91" max="91" bestFit="true" customWidth="true" style="1" width="11.85546875" collapsed="true"/>
     <col min="92" max="92" customWidth="true" style="1" width="19.85546875" collapsed="true"/>
     <col min="93" max="93" bestFit="true" customWidth="true" style="1" width="9.85546875" collapsed="true"/>
     <col min="94" max="94" bestFit="true" customWidth="true" style="1" width="12.28515625" collapsed="true"/>
@@ -6095,7 +6823,7 @@
         <v>93</v>
       </c>
       <c r="CM2" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="CN2" s="8" t="s">
         <v>87</v>
@@ -6637,78 +7365,8 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="BA1:BG1">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" customWidth="true" width="24.140625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="18.7109375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="18.0" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="16.7109375" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="8.28515625" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="11.85546875" collapsed="true"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="41" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="41" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="41" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="41" t="s">
-        <v>243</v>
-      </c>
-      <c r="E1" s="41" t="s">
-        <v>242</v>
-      </c>
-      <c r="F1" s="41" t="s">
-        <v>249</v>
-      </c>
-      <c r="G1" s="41" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="D2" s="42" t="s">
-        <v>244</v>
-      </c>
-      <c r="E2" s="43" t="s">
-        <v>254</v>
-      </c>
-      <c r="F2" s="16" t="s">
-        <v>204</v>
-      </c>
-      <c r="G2" s="16" t="s">
-        <v>250</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>
--- a/src/test/java/testData/TestSuite1Data.xlsx
+++ b/src/test/java/testData/TestSuite1Data.xlsx
@@ -9,20 +9,21 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17280" windowHeight="9195" tabRatio="500" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17280" windowHeight="9195" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="TC01" sheetId="1" r:id="rId1"/>
-    <sheet name="TC02" sheetId="2" r:id="rId2"/>
-    <sheet name="TC03" sheetId="3" r:id="rId3"/>
-    <sheet name="TC04" sheetId="4" r:id="rId4"/>
-    <sheet name="TC06" sheetId="6" r:id="rId5"/>
-    <sheet name="TC07" sheetId="7" r:id="rId6"/>
-    <sheet name="TC08" sheetId="8" r:id="rId7"/>
-    <sheet name="TC09" sheetId="9" r:id="rId8"/>
-    <sheet name="TC05" sheetId="5" r:id="rId9"/>
+    <sheet name="TC10" sheetId="10" r:id="rId2"/>
+    <sheet name="TC02" sheetId="2" r:id="rId3"/>
+    <sheet name="TC03" sheetId="3" r:id="rId4"/>
+    <sheet name="TC04" sheetId="4" r:id="rId5"/>
+    <sheet name="TC06" sheetId="6" r:id="rId6"/>
+    <sheet name="TC07" sheetId="7" r:id="rId7"/>
+    <sheet name="TC08" sheetId="8" r:id="rId8"/>
+    <sheet name="TC09" sheetId="9" r:id="rId9"/>
+    <sheet name="TC05" sheetId="5" r:id="rId10"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1570" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1760" uniqueCount="278">
   <si>
     <t>Gateway_PartnerCode</t>
   </si>
@@ -844,10 +845,28 @@
     <t>47804V241</t>
   </si>
   <si>
-    <t>526193</t>
-  </si>
-  <si>
-    <t>526735</t>
+    <t>526784</t>
+  </si>
+  <si>
+    <t>Symetra Protector IUL 5.0</t>
+  </si>
+  <si>
+    <t>68608</t>
+  </si>
+  <si>
+    <t>87151W426</t>
+  </si>
+  <si>
+    <t>526786</t>
+  </si>
+  <si>
+    <t>526826</t>
+  </si>
+  <si>
+    <t>526851</t>
+  </si>
+  <si>
+    <t>526900</t>
   </si>
 </sst>
 </file>
@@ -902,7 +921,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -936,6 +955,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor rgb="FFCCFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
@@ -1020,7 +1057,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
@@ -1078,12 +1115,46 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="49" fontId="2" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="49" fontId="2" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="49" fontId="1" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="8">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1491,7 +1562,7 @@
   <dimension ref="A1:CP5"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection sqref="A1:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2648,14 +2719,674 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="BA1:BG1">
-    <cfRule type="duplicateValues" dxfId="5" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" customWidth="true" width="24.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="18.7109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="16.7109375" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="8.28515625" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="11.85546875" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="41" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="41" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="41" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="41" t="s">
+        <v>243</v>
+      </c>
+      <c r="E1" s="41" t="s">
+        <v>242</v>
+      </c>
+      <c r="F1" s="41" t="s">
+        <v>249</v>
+      </c>
+      <c r="G1" s="41" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2" s="42" t="s">
+        <v>244</v>
+      </c>
+      <c r="E2" s="43" t="s">
+        <v>254</v>
+      </c>
+      <c r="F2" s="16" t="s">
+        <v>204</v>
+      </c>
+      <c r="G2" s="16" t="s">
+        <v>250</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:CP2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="CL1" workbookViewId="0">
+      <selection activeCell="CT8" sqref="CT8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" customWidth="true" width="21.0" collapsed="true"/>
+    <col min="91" max="91" bestFit="true" customWidth="true" width="11.80859375" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:94" s="45" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="45" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="45" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="46" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="46" t="s">
+        <v>173</v>
+      </c>
+      <c r="F1" s="47" t="s">
+        <v>168</v>
+      </c>
+      <c r="G1" s="46" t="s">
+        <v>177</v>
+      </c>
+      <c r="H1" s="46" t="s">
+        <v>169</v>
+      </c>
+      <c r="I1" s="46" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" s="46" t="s">
+        <v>5</v>
+      </c>
+      <c r="K1" s="45" t="s">
+        <v>6</v>
+      </c>
+      <c r="L1" s="45" t="s">
+        <v>7</v>
+      </c>
+      <c r="M1" s="48" t="s">
+        <v>8</v>
+      </c>
+      <c r="N1" s="48" t="s">
+        <v>9</v>
+      </c>
+      <c r="O1" s="48" t="s">
+        <v>10</v>
+      </c>
+      <c r="P1" s="49" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q1" s="49" t="s">
+        <v>12</v>
+      </c>
+      <c r="R1" s="49" t="s">
+        <v>13</v>
+      </c>
+      <c r="S1" s="45" t="s">
+        <v>14</v>
+      </c>
+      <c r="T1" s="45" t="s">
+        <v>15</v>
+      </c>
+      <c r="U1" s="50" t="s">
+        <v>16</v>
+      </c>
+      <c r="V1" s="51" t="s">
+        <v>17</v>
+      </c>
+      <c r="W1" s="51" t="s">
+        <v>18</v>
+      </c>
+      <c r="X1" s="51" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y1" s="51" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z1" s="51" t="s">
+        <v>21</v>
+      </c>
+      <c r="AA1" s="51" t="s">
+        <v>22</v>
+      </c>
+      <c r="AB1" s="51" t="s">
+        <v>23</v>
+      </c>
+      <c r="AC1" s="51" t="s">
+        <v>24</v>
+      </c>
+      <c r="AD1" s="51" t="s">
+        <v>25</v>
+      </c>
+      <c r="AE1" s="51" t="s">
+        <v>26</v>
+      </c>
+      <c r="AF1" s="51" t="s">
+        <v>27</v>
+      </c>
+      <c r="AG1" s="51" t="s">
+        <v>28</v>
+      </c>
+      <c r="AH1" s="51" t="s">
+        <v>29</v>
+      </c>
+      <c r="AI1" s="51" t="s">
+        <v>30</v>
+      </c>
+      <c r="AJ1" s="51" t="s">
+        <v>31</v>
+      </c>
+      <c r="AK1" s="51" t="s">
+        <v>32</v>
+      </c>
+      <c r="AL1" s="51" t="s">
+        <v>33</v>
+      </c>
+      <c r="AM1" s="51" t="s">
+        <v>34</v>
+      </c>
+      <c r="AN1" s="51" t="s">
+        <v>35</v>
+      </c>
+      <c r="AO1" s="51" t="s">
+        <v>36</v>
+      </c>
+      <c r="AP1" s="51" t="s">
+        <v>37</v>
+      </c>
+      <c r="AQ1" s="51" t="s">
+        <v>38</v>
+      </c>
+      <c r="AR1" s="51" t="s">
+        <v>39</v>
+      </c>
+      <c r="AS1" s="51" t="s">
+        <v>40</v>
+      </c>
+      <c r="AT1" s="51" t="s">
+        <v>41</v>
+      </c>
+      <c r="AU1" s="50" t="s">
+        <v>42</v>
+      </c>
+      <c r="AV1" s="49" t="s">
+        <v>99</v>
+      </c>
+      <c r="AW1" s="49" t="s">
+        <v>100</v>
+      </c>
+      <c r="AX1" s="49" t="s">
+        <v>101</v>
+      </c>
+      <c r="AY1" s="49" t="s">
+        <v>102</v>
+      </c>
+      <c r="AZ1" s="49" t="s">
+        <v>103</v>
+      </c>
+      <c r="BA1" s="49" t="s">
+        <v>104</v>
+      </c>
+      <c r="BB1" s="49" t="s">
+        <v>105</v>
+      </c>
+      <c r="BC1" s="49" t="s">
+        <v>106</v>
+      </c>
+      <c r="BD1" s="49" t="s">
+        <v>107</v>
+      </c>
+      <c r="BE1" s="49" t="s">
+        <v>108</v>
+      </c>
+      <c r="BF1" s="49" t="s">
+        <v>109</v>
+      </c>
+      <c r="BG1" s="49" t="s">
+        <v>110</v>
+      </c>
+      <c r="BH1" s="49" t="s">
+        <v>111</v>
+      </c>
+      <c r="BI1" s="49" t="s">
+        <v>112</v>
+      </c>
+      <c r="BJ1" s="49" t="s">
+        <v>113</v>
+      </c>
+      <c r="BK1" s="49" t="s">
+        <v>114</v>
+      </c>
+      <c r="BL1" s="49" t="s">
+        <v>115</v>
+      </c>
+      <c r="BM1" s="49" t="s">
+        <v>116</v>
+      </c>
+      <c r="BN1" s="49" t="s">
+        <v>117</v>
+      </c>
+      <c r="BO1" s="49" t="s">
+        <v>118</v>
+      </c>
+      <c r="BP1" s="49" t="s">
+        <v>119</v>
+      </c>
+      <c r="BQ1" s="49" t="s">
+        <v>120</v>
+      </c>
+      <c r="BR1" s="49" t="s">
+        <v>121</v>
+      </c>
+      <c r="BS1" s="49" t="s">
+        <v>122</v>
+      </c>
+      <c r="BT1" s="49" t="s">
+        <v>123</v>
+      </c>
+      <c r="BU1" s="49" t="s">
+        <v>124</v>
+      </c>
+      <c r="BV1" s="49" t="s">
+        <v>125</v>
+      </c>
+      <c r="BW1" s="49" t="s">
+        <v>126</v>
+      </c>
+      <c r="BX1" s="49" t="s">
+        <v>127</v>
+      </c>
+      <c r="BY1" s="49" t="s">
+        <v>128</v>
+      </c>
+      <c r="BZ1" s="49" t="s">
+        <v>129</v>
+      </c>
+      <c r="CA1" s="49" t="s">
+        <v>130</v>
+      </c>
+      <c r="CB1" s="49" t="s">
+        <v>131</v>
+      </c>
+      <c r="CC1" s="49" t="s">
+        <v>132</v>
+      </c>
+      <c r="CD1" s="50" t="s">
+        <v>43</v>
+      </c>
+      <c r="CE1" s="50" t="s">
+        <v>44</v>
+      </c>
+      <c r="CF1" s="50" t="s">
+        <v>45</v>
+      </c>
+      <c r="CG1" s="48" t="s">
+        <v>46</v>
+      </c>
+      <c r="CH1" s="52" t="s">
+        <v>47</v>
+      </c>
+      <c r="CI1" s="49" t="s">
+        <v>92</v>
+      </c>
+      <c r="CJ1" s="53" t="s">
+        <v>90</v>
+      </c>
+      <c r="CK1" s="53" t="s">
+        <v>91</v>
+      </c>
+      <c r="CL1" s="54" t="s">
+        <v>95</v>
+      </c>
+      <c r="CM1" s="55" t="s">
+        <v>48</v>
+      </c>
+      <c r="CN1" s="56" t="s">
+        <v>49</v>
+      </c>
+      <c r="CO1" s="45" t="s">
+        <v>50</v>
+      </c>
+      <c r="CP1" s="45" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="2" spans="1:94" s="1" customFormat="1" ht="180" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>271</v>
+      </c>
+      <c r="E2" s="22" t="s">
+        <v>272</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="G2" s="22" t="s">
+        <v>238</v>
+      </c>
+      <c r="H2" s="22" t="s">
+        <v>237</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="L2" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="M2" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="N2" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="O2" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="P2" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q2" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="R2" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="T2" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="U2" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="V2" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="W2" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="X2" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="Y2" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z2" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="AA2" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="AB2" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="AC2" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="AD2" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="AE2" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="AF2" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="AG2" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="AH2" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="AI2" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="AJ2" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="AK2" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="AL2" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="AM2" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="AN2" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="AO2" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="AP2" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="AQ2" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="AR2" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="AS2" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="AT2" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="AU2" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="AV2" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="AW2" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="AX2" s="19" t="s">
+        <v>135</v>
+      </c>
+      <c r="AY2" s="19" t="s">
+        <v>136</v>
+      </c>
+      <c r="AZ2" s="21" t="s">
+        <v>165</v>
+      </c>
+      <c r="BA2" s="22" t="s">
+        <v>137</v>
+      </c>
+      <c r="BB2" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="BC2" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="BD2" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="BE2" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="BF2" s="19" t="s">
+        <v>142</v>
+      </c>
+      <c r="BG2" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="BH2" s="22" t="s">
+        <v>144</v>
+      </c>
+      <c r="BI2" s="22" t="s">
+        <v>145</v>
+      </c>
+      <c r="BJ2" s="22" t="s">
+        <v>146</v>
+      </c>
+      <c r="BK2" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="BL2" s="22" t="s">
+        <v>148</v>
+      </c>
+      <c r="BM2" s="22" t="s">
+        <v>149</v>
+      </c>
+      <c r="BN2" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="BO2" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="BP2" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="BQ2" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="BR2" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="BS2" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="BT2" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="BU2" s="22" t="s">
+        <v>156</v>
+      </c>
+      <c r="BV2" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="BW2" s="22" t="s">
+        <v>158</v>
+      </c>
+      <c r="BX2" s="21" t="s">
+        <v>159</v>
+      </c>
+      <c r="BY2" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="BZ2" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="CA2" s="22" t="s">
+        <v>162</v>
+      </c>
+      <c r="CB2" s="22" t="s">
+        <v>163</v>
+      </c>
+      <c r="CC2" s="21" t="s">
+        <v>164</v>
+      </c>
+      <c r="CD2" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="CE2" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="CF2" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="CG2" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="CH2" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="CI2" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="CJ2" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="CK2" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="CL2" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="CM2" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="CN2" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="CO2" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="CP2" t="s">
+        <v>166</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="BA1:BG1">
+    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:DD2"/>
   <sheetViews>
@@ -2673,7 +3404,7 @@
     <col min="95" max="95" bestFit="true" customWidth="true" width="9.5703125" collapsed="true"/>
     <col min="99" max="99" bestFit="true" customWidth="true" width="9.5703125" collapsed="true"/>
     <col min="104" max="104" customWidth="true" width="23.28515625" collapsed="true"/>
-    <col min="105" max="105" bestFit="true" customWidth="true" width="12.140625" collapsed="true"/>
+    <col min="105" max="105" bestFit="true" customWidth="true" width="12.1015625" collapsed="true"/>
     <col min="106" max="106" customWidth="true" width="21.5703125" collapsed="true"/>
     <col min="107" max="107" bestFit="true" customWidth="true" width="10.28515625" collapsed="true"/>
     <col min="108" max="108" bestFit="true" customWidth="true" width="13.0" collapsed="true"/>
@@ -3319,7 +4050,7 @@
         <v>93</v>
       </c>
       <c r="DA2" s="1" t="s">
-        <v>253</v>
+        <v>277</v>
       </c>
       <c r="DB2" s="8" t="s">
         <v>87</v>
@@ -3333,7 +4064,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="BA1:BG1">
-    <cfRule type="duplicateValues" dxfId="4" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="1"/>
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="CR2" r:id="rId1"/>
@@ -3344,7 +4075,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:DK3"/>
   <sheetViews>
@@ -4061,7 +4792,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="BH1:BN1">
-    <cfRule type="duplicateValues" dxfId="3" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="1"/>
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="CY2" r:id="rId1"/>
@@ -4072,12 +4803,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CV2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD2"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4693,19 +5424,19 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="BE1:BK1">
-    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CV2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5323,13 +6054,13 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="BE1:BK1">
-    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G2"/>
   <sheetViews>
@@ -5398,7 +6129,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
@@ -5475,11 +6206,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CP5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
@@ -5532,7 +6263,7 @@
     <col min="85" max="85" customWidth="true" style="1" width="22.5703125" collapsed="true"/>
     <col min="86" max="89" customWidth="true" style="1" width="20.7109375" collapsed="true"/>
     <col min="90" max="90" customWidth="true" style="1" width="25.42578125" collapsed="true"/>
-    <col min="91" max="91" bestFit="true" customWidth="true" style="1" width="11.80859375" collapsed="true"/>
+    <col min="91" max="91" bestFit="true" customWidth="true" style="1" width="11.85546875" collapsed="true"/>
     <col min="92" max="92" customWidth="true" style="1" width="19.85546875" collapsed="true"/>
     <col min="93" max="93" bestFit="true" customWidth="true" style="1" width="9.85546875" collapsed="true"/>
     <col min="94" max="94" bestFit="true" customWidth="true" style="1" width="12.28515625" collapsed="true"/>
@@ -6095,7 +6826,7 @@
         <v>93</v>
       </c>
       <c r="CM2" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="CN2" s="8" t="s">
         <v>87</v>
@@ -6637,78 +7368,8 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="BA1:BG1">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" customWidth="true" width="24.140625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="18.7109375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="18.0" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="16.7109375" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="8.28515625" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="11.85546875" collapsed="true"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="41" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="41" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="41" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="41" t="s">
-        <v>243</v>
-      </c>
-      <c r="E1" s="41" t="s">
-        <v>242</v>
-      </c>
-      <c r="F1" s="41" t="s">
-        <v>249</v>
-      </c>
-      <c r="G1" s="41" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="D2" s="42" t="s">
-        <v>244</v>
-      </c>
-      <c r="E2" s="43" t="s">
-        <v>254</v>
-      </c>
-      <c r="F2" s="16" t="s">
-        <v>204</v>
-      </c>
-      <c r="G2" s="16" t="s">
-        <v>250</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>
--- a/src/test/java/testData/TestSuite1Data.xlsx
+++ b/src/test/java/testData/TestSuite1Data.xlsx
@@ -3,27 +3,29 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yashi.agrawal\Downloads\LifeSpeed_Stability (1)\LifeSpeed_Stability\src\test\java\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17280" windowHeight="9195" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17280" windowHeight="9195" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="TC01" sheetId="1" r:id="rId1"/>
-    <sheet name="TC10" sheetId="10" r:id="rId2"/>
-    <sheet name="TC02" sheetId="2" r:id="rId3"/>
-    <sheet name="TC03" sheetId="3" r:id="rId4"/>
-    <sheet name="TC04" sheetId="4" r:id="rId5"/>
-    <sheet name="TC06" sheetId="6" r:id="rId6"/>
-    <sheet name="TC07" sheetId="7" r:id="rId7"/>
-    <sheet name="TC08" sheetId="8" r:id="rId8"/>
-    <sheet name="TC09" sheetId="9" r:id="rId9"/>
-    <sheet name="TC05" sheetId="5" r:id="rId10"/>
+    <sheet name="TC12" sheetId="12" r:id="rId2"/>
+    <sheet name="TC10" sheetId="10" r:id="rId3"/>
+    <sheet name="TC11" sheetId="11" r:id="rId4"/>
+    <sheet name="TC02" sheetId="2" r:id="rId5"/>
+    <sheet name="TC03" sheetId="3" r:id="rId6"/>
+    <sheet name="TC04" sheetId="4" r:id="rId7"/>
+    <sheet name="TC06" sheetId="6" r:id="rId8"/>
+    <sheet name="TC07" sheetId="7" r:id="rId9"/>
+    <sheet name="TC08" sheetId="8" r:id="rId10"/>
+    <sheet name="TC09" sheetId="9" r:id="rId11"/>
+    <sheet name="TC05" sheetId="5" r:id="rId12"/>
   </sheets>
-  <calcPr calcId="0" iterateDelta="1E-4"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -33,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1760" uniqueCount="278">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2265" uniqueCount="287">
   <si>
     <t>Gateway_PartnerCode</t>
   </si>
@@ -776,27 +778,12 @@
     <t>AZ</t>
   </si>
   <si>
-    <t>UT</t>
-  </si>
-  <si>
-    <t>525261</t>
-  </si>
-  <si>
     <t>EngLang</t>
   </si>
   <si>
     <t>Chinese</t>
   </si>
   <si>
-    <t>525400</t>
-  </si>
-  <si>
-    <t>NJ</t>
-  </si>
-  <si>
-    <t>525703</t>
-  </si>
-  <si>
     <t>525549</t>
   </si>
   <si>
@@ -806,9 +793,6 @@
     <t>John Hancock Protection Term</t>
   </si>
   <si>
-    <t>525888</t>
-  </si>
-  <si>
     <t>StateForm</t>
   </si>
   <si>
@@ -845,9 +829,6 @@
     <t>47804V241</t>
   </si>
   <si>
-    <t>526784</t>
-  </si>
-  <si>
     <t>Symetra Protector IUL 5.0</t>
   </si>
   <si>
@@ -857,23 +838,70 @@
     <t>87151W426</t>
   </si>
   <si>
-    <t>526786</t>
-  </si>
-  <si>
-    <t>526826</t>
-  </si>
-  <si>
     <t>526851</t>
   </si>
   <si>
-    <t>526900</t>
+    <t>VT</t>
+  </si>
+  <si>
+    <t>527051</t>
+  </si>
+  <si>
+    <t>527655</t>
+  </si>
+  <si>
+    <t>527978</t>
+  </si>
+  <si>
+    <t>AK</t>
+  </si>
+  <si>
+    <t>Protection VUL 21</t>
+  </si>
+  <si>
+    <t>41014H100</t>
+  </si>
+  <si>
+    <t>Insured</t>
+  </si>
+  <si>
+    <t>529048</t>
+  </si>
+  <si>
+    <t>PScollected</t>
+  </si>
+  <si>
+    <t>529068</t>
+  </si>
+  <si>
+    <t>529100</t>
+  </si>
+  <si>
+    <t>529138</t>
+  </si>
+  <si>
+    <t>OWNERSAMEASINSURED</t>
+  </si>
+  <si>
+    <t>EBIXSAMPLE</t>
+  </si>
+  <si>
+    <t>529181</t>
+  </si>
+  <si>
+    <t>DL_Number</t>
+  </si>
+  <si>
+    <t>DL_State</t>
+  </si>
+  <si>
+    <t>DL6778788789</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1134,7 +1162,17 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="8">
+  <dxfs count="9">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1567,58 +1605,58 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="1" width="32.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="1" width="29.5703125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="1" width="31.7109375" collapsed="true"/>
-    <col min="4" max="5" customWidth="true" style="1" width="24.42578125" collapsed="true"/>
-    <col min="6" max="8" customWidth="true" width="15.85546875" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" style="1" width="26.7109375" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" style="1" width="24.85546875" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" style="1" width="20.5703125" collapsed="true"/>
-    <col min="12" max="12" style="1" width="8.7109375" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" style="1" width="13.85546875" collapsed="true"/>
-    <col min="14" max="14" customWidth="true" style="1" width="17.42578125" collapsed="true"/>
-    <col min="15" max="15" customWidth="true" style="1" width="15.85546875" collapsed="true"/>
-    <col min="16" max="19" customWidth="true" style="1" width="24.42578125" collapsed="true"/>
-    <col min="20" max="20" customWidth="true" style="1" width="29.0" collapsed="true"/>
-    <col min="21" max="21" customWidth="true" style="1" width="31.140625" collapsed="true"/>
-    <col min="22" max="22" customWidth="true" style="1" width="30.140625" collapsed="true"/>
-    <col min="23" max="23" customWidth="true" style="1" width="19.85546875" collapsed="true"/>
-    <col min="24" max="24" customWidth="true" style="1" width="20.140625" collapsed="true"/>
-    <col min="25" max="25" customWidth="true" style="1" width="22.140625" collapsed="true"/>
-    <col min="26" max="26" customWidth="true" style="1" width="19.140625" collapsed="true"/>
-    <col min="27" max="27" customWidth="true" style="1" width="25.140625" collapsed="true"/>
-    <col min="28" max="28" customWidth="true" style="1" width="18.85546875" collapsed="true"/>
-    <col min="29" max="29" customWidth="true" style="1" width="17.140625" collapsed="true"/>
-    <col min="30" max="30" customWidth="true" style="1" width="10.0" collapsed="true"/>
-    <col min="31" max="31" customWidth="true" style="1" width="27.5703125" collapsed="true"/>
-    <col min="32" max="32" customWidth="true" style="1" width="20.7109375" collapsed="true"/>
-    <col min="33" max="33" customWidth="true" style="1" width="11.7109375" collapsed="true"/>
-    <col min="34" max="34" customWidth="true" style="1" width="26.85546875" collapsed="true"/>
-    <col min="35" max="35" customWidth="true" style="1" width="16.28515625" collapsed="true"/>
-    <col min="36" max="36" customWidth="true" style="1" width="19.7109375" collapsed="true"/>
-    <col min="37" max="37" customWidth="true" style="1" width="19.85546875" collapsed="true"/>
-    <col min="38" max="38" customWidth="true" style="1" width="17.0" collapsed="true"/>
-    <col min="39" max="39" customWidth="true" style="1" width="20.28515625" collapsed="true"/>
-    <col min="40" max="40" customWidth="true" style="1" width="20.0" collapsed="true"/>
-    <col min="41" max="41" customWidth="true" style="1" width="20.85546875" collapsed="true"/>
-    <col min="42" max="42" customWidth="true" style="1" width="24.5703125" collapsed="true"/>
-    <col min="43" max="43" customWidth="true" style="1" width="19.7109375" collapsed="true"/>
-    <col min="44" max="44" customWidth="true" style="1" width="25.0" collapsed="true"/>
-    <col min="45" max="76" customWidth="true" style="1" width="18.0" collapsed="true"/>
-    <col min="77" max="77" customWidth="true" style="1" width="21.140625" collapsed="true"/>
-    <col min="78" max="81" customWidth="true" style="1" width="18.0" collapsed="true"/>
-    <col min="82" max="82" customWidth="true" style="1" width="17.7109375" collapsed="true"/>
-    <col min="83" max="83" customWidth="true" style="1" width="15.5703125" collapsed="true"/>
-    <col min="84" max="84" customWidth="true" style="1" width="17.28515625" collapsed="true"/>
-    <col min="85" max="85" customWidth="true" style="1" width="22.5703125" collapsed="true"/>
-    <col min="86" max="89" customWidth="true" style="1" width="20.7109375" collapsed="true"/>
-    <col min="90" max="90" customWidth="true" style="1" width="25.42578125" collapsed="true"/>
-    <col min="91" max="91" bestFit="true" customWidth="true" style="1" width="11.85546875" collapsed="true"/>
-    <col min="92" max="92" customWidth="true" style="1" width="19.85546875" collapsed="true"/>
-    <col min="93" max="93" bestFit="true" customWidth="true" style="1" width="9.85546875" collapsed="true"/>
-    <col min="94" max="94" bestFit="true" customWidth="true" style="1" width="12.28515625" collapsed="true"/>
-    <col min="95" max="16384" style="1" width="8.7109375" collapsed="true"/>
+    <col min="1" max="1" width="32" style="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="29.5703125" style="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="31.7109375" style="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="5" width="24.42578125" style="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="8" width="15.85546875" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="26.7109375" style="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="24.85546875" style="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="20.5703125" style="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="8.7109375" style="1" collapsed="1"/>
+    <col min="13" max="13" width="13.85546875" style="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="17.42578125" style="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="15.85546875" style="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="19" width="24.42578125" style="1" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="29" style="1" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="31.140625" style="1" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="30.140625" style="1" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="19.85546875" style="1" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="20.140625" style="1" customWidth="1" collapsed="1"/>
+    <col min="25" max="25" width="22.140625" style="1" customWidth="1" collapsed="1"/>
+    <col min="26" max="26" width="19.140625" style="1" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="25.140625" style="1" customWidth="1" collapsed="1"/>
+    <col min="28" max="28" width="18.85546875" style="1" customWidth="1" collapsed="1"/>
+    <col min="29" max="29" width="17.140625" style="1" customWidth="1" collapsed="1"/>
+    <col min="30" max="30" width="10" style="1" customWidth="1" collapsed="1"/>
+    <col min="31" max="31" width="27.5703125" style="1" customWidth="1" collapsed="1"/>
+    <col min="32" max="32" width="20.7109375" style="1" customWidth="1" collapsed="1"/>
+    <col min="33" max="33" width="11.7109375" style="1" customWidth="1" collapsed="1"/>
+    <col min="34" max="34" width="26.85546875" style="1" customWidth="1" collapsed="1"/>
+    <col min="35" max="35" width="16.28515625" style="1" customWidth="1" collapsed="1"/>
+    <col min="36" max="36" width="19.7109375" style="1" customWidth="1" collapsed="1"/>
+    <col min="37" max="37" width="19.85546875" style="1" customWidth="1" collapsed="1"/>
+    <col min="38" max="38" width="17" style="1" customWidth="1" collapsed="1"/>
+    <col min="39" max="39" width="20.28515625" style="1" customWidth="1" collapsed="1"/>
+    <col min="40" max="40" width="20" style="1" customWidth="1" collapsed="1"/>
+    <col min="41" max="41" width="20.85546875" style="1" customWidth="1" collapsed="1"/>
+    <col min="42" max="42" width="24.5703125" style="1" customWidth="1" collapsed="1"/>
+    <col min="43" max="43" width="19.7109375" style="1" customWidth="1" collapsed="1"/>
+    <col min="44" max="44" width="25" style="1" customWidth="1" collapsed="1"/>
+    <col min="45" max="76" width="18" style="1" customWidth="1" collapsed="1"/>
+    <col min="77" max="77" width="21.140625" style="1" customWidth="1" collapsed="1"/>
+    <col min="78" max="81" width="18" style="1" customWidth="1" collapsed="1"/>
+    <col min="82" max="82" width="17.7109375" style="1" customWidth="1" collapsed="1"/>
+    <col min="83" max="83" width="15.5703125" style="1" customWidth="1" collapsed="1"/>
+    <col min="84" max="84" width="17.28515625" style="1" customWidth="1" collapsed="1"/>
+    <col min="85" max="85" width="22.5703125" style="1" customWidth="1" collapsed="1"/>
+    <col min="86" max="89" width="20.7109375" style="1" customWidth="1" collapsed="1"/>
+    <col min="90" max="90" width="25.42578125" style="1" customWidth="1" collapsed="1"/>
+    <col min="91" max="91" width="11.85546875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="92" max="92" width="19.85546875" style="1" customWidth="1" collapsed="1"/>
+    <col min="93" max="93" width="9.85546875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="94" max="94" width="12.28515625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="95" max="16384" width="8.7109375" style="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:94" x14ac:dyDescent="0.25">
@@ -2177,7 +2215,1577 @@
         <v>93</v>
       </c>
       <c r="CM2" s="1" t="s">
-        <v>251</v>
+        <v>280</v>
+      </c>
+      <c r="CN2" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="CO2" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="CP2" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="3" spans="1:94" ht="75" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>264</v>
+      </c>
+      <c r="E3" s="22" t="s">
+        <v>265</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="G3" s="22" t="s">
+        <v>238</v>
+      </c>
+      <c r="H3" s="22" t="s">
+        <v>237</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="L3" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="M3" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="N3" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="O3" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="P3" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q3" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="R3" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="T3" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="U3" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="V3" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="W3" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="X3" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="Y3" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z3" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="AA3" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="AB3" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="AC3" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="AD3" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="AE3" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="AF3" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="AG3" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="AH3" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="AI3" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="AJ3" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="AK3" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="AL3" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="AM3" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="AN3" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="AO3" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="AP3" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="AQ3" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="AR3" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="AS3" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="AT3" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="AU3" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="AV3" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="AW3" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="AX3" s="19" t="s">
+        <v>135</v>
+      </c>
+      <c r="AY3" s="19" t="s">
+        <v>136</v>
+      </c>
+      <c r="AZ3" s="21" t="s">
+        <v>165</v>
+      </c>
+      <c r="BA3" s="22" t="s">
+        <v>137</v>
+      </c>
+      <c r="BB3" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="BC3" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="BD3" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="BE3" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="BF3" s="19" t="s">
+        <v>142</v>
+      </c>
+      <c r="BG3" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="BH3" s="22" t="s">
+        <v>144</v>
+      </c>
+      <c r="BI3" s="22" t="s">
+        <v>145</v>
+      </c>
+      <c r="BJ3" s="22" t="s">
+        <v>146</v>
+      </c>
+      <c r="BK3" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="BL3" s="22" t="s">
+        <v>148</v>
+      </c>
+      <c r="BM3" s="22" t="s">
+        <v>149</v>
+      </c>
+      <c r="BN3" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="BO3" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="BP3" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="BQ3" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="BR3" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="BS3" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="BT3" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="BU3" s="22" t="s">
+        <v>156</v>
+      </c>
+      <c r="BV3" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="BW3" s="22" t="s">
+        <v>158</v>
+      </c>
+      <c r="BX3" s="21" t="s">
+        <v>159</v>
+      </c>
+      <c r="BY3" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="BZ3" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="CA3" s="22" t="s">
+        <v>162</v>
+      </c>
+      <c r="CB3" s="22" t="s">
+        <v>163</v>
+      </c>
+      <c r="CC3" s="21" t="s">
+        <v>164</v>
+      </c>
+      <c r="CD3" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="CE3" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="CF3" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="CG3" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="CH3" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="CI3" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="CJ3" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="CK3" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="CL3" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="CM3" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="CN3" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="CO3" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="CP3" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="4" spans="1:94" ht="75" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>262</v>
+      </c>
+      <c r="E4" s="22" t="s">
+        <v>175</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="G4" s="22" t="s">
+        <v>238</v>
+      </c>
+      <c r="H4" s="22" t="s">
+        <v>268</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="L4" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="M4" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="N4" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="O4" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="P4" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q4" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="R4" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="S4" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="T4" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="U4" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="V4" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="W4" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="X4" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="Y4" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z4" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="AA4" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="AB4" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="AC4" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="AD4" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="AE4" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="AF4" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="AG4" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="AH4" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="AI4" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="AJ4" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="AK4" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="AL4" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="AM4" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="AN4" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="AO4" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="AP4" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="AQ4" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="AR4" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="AS4" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="AT4" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="AU4" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="AV4" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="AW4" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="AX4" s="19" t="s">
+        <v>135</v>
+      </c>
+      <c r="AY4" s="19" t="s">
+        <v>136</v>
+      </c>
+      <c r="AZ4" s="21" t="s">
+        <v>165</v>
+      </c>
+      <c r="BA4" s="22" t="s">
+        <v>137</v>
+      </c>
+      <c r="BB4" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="BC4" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="BD4" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="BE4" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="BF4" s="19" t="s">
+        <v>142</v>
+      </c>
+      <c r="BG4" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="BH4" s="22" t="s">
+        <v>144</v>
+      </c>
+      <c r="BI4" s="22" t="s">
+        <v>145</v>
+      </c>
+      <c r="BJ4" s="22" t="s">
+        <v>146</v>
+      </c>
+      <c r="BK4" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="BL4" s="22" t="s">
+        <v>148</v>
+      </c>
+      <c r="BM4" s="22" t="s">
+        <v>149</v>
+      </c>
+      <c r="BN4" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="BO4" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="BP4" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="BQ4" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="BR4" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="BS4" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="BT4" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="BU4" s="22" t="s">
+        <v>156</v>
+      </c>
+      <c r="BV4" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="BW4" s="22" t="s">
+        <v>158</v>
+      </c>
+      <c r="BX4" s="21" t="s">
+        <v>159</v>
+      </c>
+      <c r="BY4" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="BZ4" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="CA4" s="22" t="s">
+        <v>162</v>
+      </c>
+      <c r="CB4" s="22" t="s">
+        <v>163</v>
+      </c>
+      <c r="CC4" s="21" t="s">
+        <v>164</v>
+      </c>
+      <c r="CD4" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="CE4" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="CF4" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="CG4" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="CH4" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="CI4" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="CJ4" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="CK4" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="CL4" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="CM4" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="CN4" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="CO4" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="CP4" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="5" spans="1:94" ht="75" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>273</v>
+      </c>
+      <c r="E5" s="22" t="s">
+        <v>175</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="G5" s="22" t="s">
+        <v>238</v>
+      </c>
+      <c r="H5" s="22" t="s">
+        <v>98</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="L5" s="9" t="s">
+        <v>275</v>
+      </c>
+      <c r="M5" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="N5" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="O5" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="P5" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q5" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="R5" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="S5" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="T5" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="U5" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="V5" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="W5" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="X5" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="Y5" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z5" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="AA5" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="AB5" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="AC5" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="AD5" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="AE5" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="AF5" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="AG5" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="AH5" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="AI5" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="AJ5" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="AK5" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="AL5" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="AM5" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="AN5" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="AO5" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="AP5" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="AQ5" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="AR5" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="AS5" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="AT5" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="AU5" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="AV5" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="AW5" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="AX5" s="19" t="s">
+        <v>135</v>
+      </c>
+      <c r="AY5" s="19" t="s">
+        <v>136</v>
+      </c>
+      <c r="AZ5" s="21" t="s">
+        <v>165</v>
+      </c>
+      <c r="BA5" s="22" t="s">
+        <v>137</v>
+      </c>
+      <c r="BB5" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="BC5" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="BD5" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="BE5" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="BF5" s="19" t="s">
+        <v>142</v>
+      </c>
+      <c r="BG5" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="BH5" s="22" t="s">
+        <v>144</v>
+      </c>
+      <c r="BI5" s="22" t="s">
+        <v>145</v>
+      </c>
+      <c r="BJ5" s="22" t="s">
+        <v>146</v>
+      </c>
+      <c r="BK5" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="BL5" s="22" t="s">
+        <v>148</v>
+      </c>
+      <c r="BM5" s="22" t="s">
+        <v>149</v>
+      </c>
+      <c r="BN5" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="BO5" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="BP5" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="BQ5" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="BR5" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="BS5" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="BT5" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="BU5" s="22" t="s">
+        <v>156</v>
+      </c>
+      <c r="BV5" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="BW5" s="22" t="s">
+        <v>158</v>
+      </c>
+      <c r="BX5" s="21" t="s">
+        <v>159</v>
+      </c>
+      <c r="BY5" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="BZ5" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="CA5" s="22" t="s">
+        <v>162</v>
+      </c>
+      <c r="CB5" s="22" t="s">
+        <v>163</v>
+      </c>
+      <c r="CC5" s="21" t="s">
+        <v>164</v>
+      </c>
+      <c r="CD5" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="CE5" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="CF5" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="CG5" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="CH5" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="CI5" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="CJ5" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="CK5" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="CL5" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="CM5" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="CN5" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="CO5" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="CP5" t="s">
+        <v>166</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="BA1:BG1">
+    <cfRule type="duplicateValues" dxfId="8" priority="1"/>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="5" width="19.7109375" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="11.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="10.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="19.7109375" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="16.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="41" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="41" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="41" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="41" t="s">
+        <v>243</v>
+      </c>
+      <c r="E1" s="41" t="s">
+        <v>242</v>
+      </c>
+      <c r="F1" s="41" t="s">
+        <v>255</v>
+      </c>
+      <c r="G1" s="41" t="s">
+        <v>256</v>
+      </c>
+      <c r="H1" s="44" t="s">
+        <v>259</v>
+      </c>
+      <c r="I1" s="44" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2" s="42" t="s">
+        <v>244</v>
+      </c>
+      <c r="E2" s="43" t="s">
+        <v>249</v>
+      </c>
+      <c r="F2" s="16" t="s">
+        <v>258</v>
+      </c>
+      <c r="G2" s="16" t="s">
+        <v>258</v>
+      </c>
+      <c r="I2" t="s">
+        <v>261</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:CP5"/>
+  <sheetViews>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="K18" sqref="K18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="32" style="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="29.5703125" style="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="31.7109375" style="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="5" width="24.42578125" style="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="8" width="15.85546875" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="26.7109375" style="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="24.85546875" style="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="20.5703125" style="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="8.7109375" style="1" collapsed="1"/>
+    <col min="13" max="13" width="13.85546875" style="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="17.42578125" style="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="15.85546875" style="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="19" width="24.42578125" style="1" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="29" style="1" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="31.140625" style="1" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="30.140625" style="1" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="19.85546875" style="1" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="20.140625" style="1" customWidth="1" collapsed="1"/>
+    <col min="25" max="25" width="22.140625" style="1" customWidth="1" collapsed="1"/>
+    <col min="26" max="26" width="19.140625" style="1" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="25.140625" style="1" customWidth="1" collapsed="1"/>
+    <col min="28" max="28" width="18.85546875" style="1" customWidth="1" collapsed="1"/>
+    <col min="29" max="29" width="17.140625" style="1" customWidth="1" collapsed="1"/>
+    <col min="30" max="30" width="10" style="1" customWidth="1" collapsed="1"/>
+    <col min="31" max="31" width="27.5703125" style="1" customWidth="1" collapsed="1"/>
+    <col min="32" max="32" width="20.7109375" style="1" customWidth="1" collapsed="1"/>
+    <col min="33" max="33" width="11.7109375" style="1" customWidth="1" collapsed="1"/>
+    <col min="34" max="34" width="26.85546875" style="1" customWidth="1" collapsed="1"/>
+    <col min="35" max="35" width="16.28515625" style="1" customWidth="1" collapsed="1"/>
+    <col min="36" max="36" width="19.7109375" style="1" customWidth="1" collapsed="1"/>
+    <col min="37" max="37" width="19.85546875" style="1" customWidth="1" collapsed="1"/>
+    <col min="38" max="38" width="17" style="1" customWidth="1" collapsed="1"/>
+    <col min="39" max="39" width="20.28515625" style="1" customWidth="1" collapsed="1"/>
+    <col min="40" max="40" width="20" style="1" customWidth="1" collapsed="1"/>
+    <col min="41" max="41" width="20.85546875" style="1" customWidth="1" collapsed="1"/>
+    <col min="42" max="42" width="24.5703125" style="1" customWidth="1" collapsed="1"/>
+    <col min="43" max="43" width="19.7109375" style="1" customWidth="1" collapsed="1"/>
+    <col min="44" max="44" width="25" style="1" customWidth="1" collapsed="1"/>
+    <col min="45" max="76" width="18" style="1" customWidth="1" collapsed="1"/>
+    <col min="77" max="77" width="21.140625" style="1" customWidth="1" collapsed="1"/>
+    <col min="78" max="81" width="18" style="1" customWidth="1" collapsed="1"/>
+    <col min="82" max="82" width="17.7109375" style="1" customWidth="1" collapsed="1"/>
+    <col min="83" max="83" width="15.5703125" style="1" customWidth="1" collapsed="1"/>
+    <col min="84" max="84" width="17.28515625" style="1" customWidth="1" collapsed="1"/>
+    <col min="85" max="85" width="22.5703125" style="1" customWidth="1" collapsed="1"/>
+    <col min="86" max="89" width="20.7109375" style="1" customWidth="1" collapsed="1"/>
+    <col min="90" max="90" width="25.42578125" style="1" customWidth="1" collapsed="1"/>
+    <col min="91" max="91" width="11.85546875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="92" max="92" width="19.85546875" style="1" customWidth="1" collapsed="1"/>
+    <col min="93" max="93" width="9.85546875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="94" max="94" width="12.28515625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="95" max="16384" width="8.7109375" style="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:94" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="25" t="s">
+        <v>173</v>
+      </c>
+      <c r="F1" s="35" t="s">
+        <v>168</v>
+      </c>
+      <c r="G1" s="25" t="s">
+        <v>177</v>
+      </c>
+      <c r="H1" s="25" t="s">
+        <v>169</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="P1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="R1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="U1" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="V1" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="W1" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="X1" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y1" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z1" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="AA1" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="AB1" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="AC1" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="AD1" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="AE1" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="AF1" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="AG1" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="AH1" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="AI1" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="AJ1" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="AK1" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="AL1" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="AM1" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="AN1" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="AO1" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="AP1" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="AQ1" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="AR1" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="AS1" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="AT1" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="AU1" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="AV1" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="AW1" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="AX1" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="AY1" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="AZ1" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="BA1" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="BB1" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="BC1" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="BD1" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="BE1" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="BF1" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="BG1" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="BH1" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="BI1" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="BJ1" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="BK1" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="BL1" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="BM1" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="BN1" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="BO1" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="BP1" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="BQ1" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="BR1" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="BS1" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="BT1" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="BU1" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="BV1" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="BW1" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="BX1" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="BY1" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="BZ1" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="CA1" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="CB1" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="CC1" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="CD1" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="CE1" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="CF1" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="CG1" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="CH1" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="CI1" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="CJ1" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="CK1" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="CL1" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="CM1" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="CN1" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="CO1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="CP1" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="2" spans="1:94" ht="75" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>262</v>
+      </c>
+      <c r="E2" s="22" t="s">
+        <v>175</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="G2" s="22" t="s">
+        <v>238</v>
+      </c>
+      <c r="H2" s="22" t="s">
+        <v>268</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="L2" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="M2" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="N2" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="O2" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="P2" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q2" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="R2" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="T2" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="U2" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="V2" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="W2" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="X2" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="Y2" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z2" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="AA2" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="AB2" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="AC2" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="AD2" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="AE2" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="AF2" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="AG2" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="AH2" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="AI2" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="AJ2" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="AK2" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="AL2" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="AM2" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="AN2" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="AO2" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="AP2" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="AQ2" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="AR2" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="AS2" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="AT2" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="AU2" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="AV2" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="AW2" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="AX2" s="19" t="s">
+        <v>135</v>
+      </c>
+      <c r="AY2" s="19" t="s">
+        <v>136</v>
+      </c>
+      <c r="AZ2" s="21" t="s">
+        <v>165</v>
+      </c>
+      <c r="BA2" s="22" t="s">
+        <v>137</v>
+      </c>
+      <c r="BB2" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="BC2" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="BD2" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="BE2" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="BF2" s="19" t="s">
+        <v>142</v>
+      </c>
+      <c r="BG2" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="BH2" s="22" t="s">
+        <v>144</v>
+      </c>
+      <c r="BI2" s="22" t="s">
+        <v>145</v>
+      </c>
+      <c r="BJ2" s="22" t="s">
+        <v>146</v>
+      </c>
+      <c r="BK2" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="BL2" s="22" t="s">
+        <v>148</v>
+      </c>
+      <c r="BM2" s="22" t="s">
+        <v>149</v>
+      </c>
+      <c r="BN2" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="BO2" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="BP2" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="BQ2" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="BR2" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="BS2" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="BT2" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="BU2" s="22" t="s">
+        <v>156</v>
+      </c>
+      <c r="BV2" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="BW2" s="22" t="s">
+        <v>158</v>
+      </c>
+      <c r="BX2" s="21" t="s">
+        <v>159</v>
+      </c>
+      <c r="BY2" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="BZ2" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="CA2" s="22" t="s">
+        <v>162</v>
+      </c>
+      <c r="CB2" s="22" t="s">
+        <v>163</v>
+      </c>
+      <c r="CC2" s="21" t="s">
+        <v>164</v>
+      </c>
+      <c r="CD2" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="CE2" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="CF2" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="CG2" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="CH2" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="CI2" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="CJ2" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="CK2" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="CL2" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="CM2" s="1" t="s">
+        <v>279</v>
       </c>
       <c r="CN2" s="8" t="s">
         <v>87</v>
@@ -2719,14 +4327,13 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="BA1:BG1">
-    <cfRule type="duplicateValues" dxfId="7" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G2"/>
   <sheetViews>
@@ -2736,12 +4343,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="24.140625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="18.7109375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="18.0" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="16.7109375" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="8.28515625" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="11.85546875" collapsed="true"/>
+    <col min="1" max="1" width="24.140625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="18.7109375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="18" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="16.7109375" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="8.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="11.85546875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -2761,7 +4368,7 @@
         <v>242</v>
       </c>
       <c r="F1" s="41" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="G1" s="41" t="s">
         <v>245</v>
@@ -2781,13 +4388,13 @@
         <v>244</v>
       </c>
       <c r="E2" s="43" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="F2" s="16" t="s">
         <v>204</v>
       </c>
       <c r="G2" s="16" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
   </sheetData>
@@ -2800,297 +4407,296 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CP2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="CL1" workbookViewId="0">
-      <selection activeCell="CT8" sqref="CT8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" customWidth="true" width="21.0" collapsed="true"/>
-    <col min="91" max="91" bestFit="true" customWidth="true" width="11.80859375" collapsed="true"/>
+    <col min="10" max="10" width="34.85546875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:94" s="45" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="45" t="s">
+    <row r="1" spans="1:94" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="45" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="45" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="46" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="46" t="s">
+      <c r="E1" s="25" t="s">
         <v>173</v>
       </c>
-      <c r="F1" s="47" t="s">
+      <c r="F1" s="35" t="s">
         <v>168</v>
       </c>
-      <c r="G1" s="46" t="s">
+      <c r="G1" s="25" t="s">
         <v>177</v>
       </c>
-      <c r="H1" s="46" t="s">
+      <c r="H1" s="25" t="s">
         <v>169</v>
       </c>
-      <c r="I1" s="46" t="s">
+      <c r="I1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="46" t="s">
+      <c r="J1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="45" t="s">
+      <c r="K1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="L1" s="45" t="s">
+      <c r="L1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="M1" s="48" t="s">
+      <c r="M1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N1" s="48" t="s">
+      <c r="N1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="O1" s="48" t="s">
+      <c r="O1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="P1" s="49" t="s">
+      <c r="P1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="Q1" s="49" t="s">
+      <c r="Q1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="R1" s="49" t="s">
+      <c r="R1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="S1" s="45" t="s">
+      <c r="S1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="T1" s="45" t="s">
+      <c r="T1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="U1" s="50" t="s">
+      <c r="U1" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="V1" s="51" t="s">
+      <c r="V1" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="W1" s="51" t="s">
+      <c r="W1" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="X1" s="51" t="s">
+      <c r="X1" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="Y1" s="51" t="s">
+      <c r="Y1" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="Z1" s="51" t="s">
+      <c r="Z1" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="AA1" s="51" t="s">
+      <c r="AA1" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="AB1" s="51" t="s">
+      <c r="AB1" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="AC1" s="51" t="s">
+      <c r="AC1" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="AD1" s="51" t="s">
+      <c r="AD1" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="AE1" s="51" t="s">
+      <c r="AE1" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="AF1" s="51" t="s">
+      <c r="AF1" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="AG1" s="51" t="s">
+      <c r="AG1" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="AH1" s="51" t="s">
+      <c r="AH1" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="AI1" s="51" t="s">
+      <c r="AI1" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="AJ1" s="51" t="s">
+      <c r="AJ1" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="AK1" s="51" t="s">
+      <c r="AK1" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="AL1" s="51" t="s">
+      <c r="AL1" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="AM1" s="51" t="s">
+      <c r="AM1" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="AN1" s="51" t="s">
+      <c r="AN1" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="AO1" s="51" t="s">
+      <c r="AO1" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="AP1" s="51" t="s">
+      <c r="AP1" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="AQ1" s="51" t="s">
+      <c r="AQ1" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="AR1" s="51" t="s">
+      <c r="AR1" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="AS1" s="51" t="s">
+      <c r="AS1" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="AT1" s="51" t="s">
+      <c r="AT1" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="AU1" s="50" t="s">
+      <c r="AU1" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="AV1" s="49" t="s">
+      <c r="AV1" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="AW1" s="49" t="s">
+      <c r="AW1" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="AX1" s="49" t="s">
+      <c r="AX1" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="AY1" s="49" t="s">
+      <c r="AY1" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="AZ1" s="49" t="s">
+      <c r="AZ1" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="BA1" s="49" t="s">
+      <c r="BA1" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="BB1" s="49" t="s">
+      <c r="BB1" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="BC1" s="49" t="s">
+      <c r="BC1" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="BD1" s="49" t="s">
+      <c r="BD1" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="BE1" s="49" t="s">
+      <c r="BE1" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="BF1" s="49" t="s">
+      <c r="BF1" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="BG1" s="49" t="s">
+      <c r="BG1" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="BH1" s="49" t="s">
+      <c r="BH1" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="BI1" s="49" t="s">
+      <c r="BI1" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="BJ1" s="49" t="s">
+      <c r="BJ1" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="BK1" s="49" t="s">
+      <c r="BK1" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="BL1" s="49" t="s">
+      <c r="BL1" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="BM1" s="49" t="s">
+      <c r="BM1" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="BN1" s="49" t="s">
+      <c r="BN1" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="BO1" s="49" t="s">
+      <c r="BO1" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="BP1" s="49" t="s">
+      <c r="BP1" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="BQ1" s="49" t="s">
+      <c r="BQ1" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="BR1" s="49" t="s">
+      <c r="BR1" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="BS1" s="49" t="s">
+      <c r="BS1" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="BT1" s="49" t="s">
+      <c r="BT1" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="BU1" s="49" t="s">
+      <c r="BU1" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="BV1" s="49" t="s">
+      <c r="BV1" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="BW1" s="49" t="s">
+      <c r="BW1" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="BX1" s="49" t="s">
+      <c r="BX1" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="BY1" s="49" t="s">
+      <c r="BY1" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="BZ1" s="49" t="s">
+      <c r="BZ1" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="CA1" s="49" t="s">
+      <c r="CA1" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="CB1" s="49" t="s">
+      <c r="CB1" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="CC1" s="49" t="s">
+      <c r="CC1" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="CD1" s="50" t="s">
+      <c r="CD1" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="CE1" s="50" t="s">
+      <c r="CE1" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="CF1" s="50" t="s">
+      <c r="CF1" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="CG1" s="48" t="s">
+      <c r="CG1" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="CH1" s="52" t="s">
+      <c r="CH1" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="CI1" s="49" t="s">
+      <c r="CI1" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="CJ1" s="53" t="s">
+      <c r="CJ1" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="CK1" s="53" t="s">
+      <c r="CK1" s="15" t="s">
         <v>91</v>
       </c>
-      <c r="CL1" s="54" t="s">
+      <c r="CL1" s="18" t="s">
         <v>95</v>
       </c>
-      <c r="CM1" s="55" t="s">
+      <c r="CM1" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="CN1" s="56" t="s">
+      <c r="CN1" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="CO1" s="45" t="s">
+      <c r="CO1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="CP1" s="45" t="s">
+      <c r="CP1" s="1" t="s">
         <v>167</v>
       </c>
     </row>
@@ -3105,10 +4711,10 @@
         <v>53</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>271</v>
+        <v>239</v>
       </c>
       <c r="E2" s="22" t="s">
-        <v>272</v>
+        <v>241</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>204</v>
@@ -3120,10 +4726,10 @@
         <v>237</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>273</v>
+        <v>240</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>56</v>
+        <v>282</v>
       </c>
       <c r="K2" s="1" t="s">
         <v>57</v>
@@ -3366,7 +4972,7 @@
         <v>93</v>
       </c>
       <c r="CM2" s="1" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="CN2" s="8" t="s">
         <v>87</v>
@@ -3380,7 +4986,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="BA1:BG1">
-    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3388,26 +4994,1219 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:DD2"/>
+  <dimension ref="A1:CP2"/>
   <sheetViews>
-    <sheetView topLeftCell="CZ1" workbookViewId="0">
-      <selection activeCell="DJ12" sqref="DJ12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="7" customWidth="true" width="41.140625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="26.42578125" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="15.85546875" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="17.28515625" collapsed="true"/>
-    <col min="91" max="91" customWidth="true" width="15.5703125" collapsed="true"/>
-    <col min="95" max="95" bestFit="true" customWidth="true" width="9.5703125" collapsed="true"/>
-    <col min="99" max="99" bestFit="true" customWidth="true" width="9.5703125" collapsed="true"/>
-    <col min="104" max="104" customWidth="true" width="23.28515625" collapsed="true"/>
-    <col min="105" max="105" bestFit="true" customWidth="true" width="12.1015625" collapsed="true"/>
-    <col min="106" max="106" customWidth="true" width="21.5703125" collapsed="true"/>
-    <col min="107" max="107" bestFit="true" customWidth="true" width="10.28515625" collapsed="true"/>
-    <col min="108" max="108" bestFit="true" customWidth="true" width="13.0" collapsed="true"/>
+    <col min="4" max="4" width="21" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="17.85546875" customWidth="1" collapsed="1"/>
+    <col min="91" max="91" width="11.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:94" s="45" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="45" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="45" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="46" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="46" t="s">
+        <v>173</v>
+      </c>
+      <c r="F1" s="47" t="s">
+        <v>168</v>
+      </c>
+      <c r="G1" s="46" t="s">
+        <v>177</v>
+      </c>
+      <c r="H1" s="46" t="s">
+        <v>169</v>
+      </c>
+      <c r="I1" s="46" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" s="46" t="s">
+        <v>5</v>
+      </c>
+      <c r="K1" s="45" t="s">
+        <v>6</v>
+      </c>
+      <c r="L1" s="45" t="s">
+        <v>7</v>
+      </c>
+      <c r="M1" s="48" t="s">
+        <v>8</v>
+      </c>
+      <c r="N1" s="48" t="s">
+        <v>9</v>
+      </c>
+      <c r="O1" s="48" t="s">
+        <v>10</v>
+      </c>
+      <c r="P1" s="49" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q1" s="49" t="s">
+        <v>12</v>
+      </c>
+      <c r="R1" s="49" t="s">
+        <v>13</v>
+      </c>
+      <c r="S1" s="45" t="s">
+        <v>14</v>
+      </c>
+      <c r="T1" s="45" t="s">
+        <v>15</v>
+      </c>
+      <c r="U1" s="50" t="s">
+        <v>16</v>
+      </c>
+      <c r="V1" s="51" t="s">
+        <v>17</v>
+      </c>
+      <c r="W1" s="51" t="s">
+        <v>18</v>
+      </c>
+      <c r="X1" s="51" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y1" s="51" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z1" s="51" t="s">
+        <v>21</v>
+      </c>
+      <c r="AA1" s="51" t="s">
+        <v>22</v>
+      </c>
+      <c r="AB1" s="51" t="s">
+        <v>23</v>
+      </c>
+      <c r="AC1" s="51" t="s">
+        <v>24</v>
+      </c>
+      <c r="AD1" s="51" t="s">
+        <v>25</v>
+      </c>
+      <c r="AE1" s="51" t="s">
+        <v>26</v>
+      </c>
+      <c r="AF1" s="51" t="s">
+        <v>27</v>
+      </c>
+      <c r="AG1" s="51" t="s">
+        <v>28</v>
+      </c>
+      <c r="AH1" s="51" t="s">
+        <v>29</v>
+      </c>
+      <c r="AI1" s="51" t="s">
+        <v>30</v>
+      </c>
+      <c r="AJ1" s="51" t="s">
+        <v>31</v>
+      </c>
+      <c r="AK1" s="51" t="s">
+        <v>32</v>
+      </c>
+      <c r="AL1" s="51" t="s">
+        <v>33</v>
+      </c>
+      <c r="AM1" s="51" t="s">
+        <v>34</v>
+      </c>
+      <c r="AN1" s="51" t="s">
+        <v>35</v>
+      </c>
+      <c r="AO1" s="51" t="s">
+        <v>36</v>
+      </c>
+      <c r="AP1" s="51" t="s">
+        <v>37</v>
+      </c>
+      <c r="AQ1" s="51" t="s">
+        <v>38</v>
+      </c>
+      <c r="AR1" s="51" t="s">
+        <v>39</v>
+      </c>
+      <c r="AS1" s="51" t="s">
+        <v>40</v>
+      </c>
+      <c r="AT1" s="51" t="s">
+        <v>41</v>
+      </c>
+      <c r="AU1" s="50" t="s">
+        <v>42</v>
+      </c>
+      <c r="AV1" s="49" t="s">
+        <v>99</v>
+      </c>
+      <c r="AW1" s="49" t="s">
+        <v>100</v>
+      </c>
+      <c r="AX1" s="49" t="s">
+        <v>101</v>
+      </c>
+      <c r="AY1" s="49" t="s">
+        <v>102</v>
+      </c>
+      <c r="AZ1" s="49" t="s">
+        <v>103</v>
+      </c>
+      <c r="BA1" s="49" t="s">
+        <v>104</v>
+      </c>
+      <c r="BB1" s="49" t="s">
+        <v>105</v>
+      </c>
+      <c r="BC1" s="49" t="s">
+        <v>106</v>
+      </c>
+      <c r="BD1" s="49" t="s">
+        <v>107</v>
+      </c>
+      <c r="BE1" s="49" t="s">
+        <v>108</v>
+      </c>
+      <c r="BF1" s="49" t="s">
+        <v>109</v>
+      </c>
+      <c r="BG1" s="49" t="s">
+        <v>110</v>
+      </c>
+      <c r="BH1" s="49" t="s">
+        <v>111</v>
+      </c>
+      <c r="BI1" s="49" t="s">
+        <v>112</v>
+      </c>
+      <c r="BJ1" s="49" t="s">
+        <v>113</v>
+      </c>
+      <c r="BK1" s="49" t="s">
+        <v>114</v>
+      </c>
+      <c r="BL1" s="49" t="s">
+        <v>115</v>
+      </c>
+      <c r="BM1" s="49" t="s">
+        <v>116</v>
+      </c>
+      <c r="BN1" s="49" t="s">
+        <v>117</v>
+      </c>
+      <c r="BO1" s="49" t="s">
+        <v>118</v>
+      </c>
+      <c r="BP1" s="49" t="s">
+        <v>119</v>
+      </c>
+      <c r="BQ1" s="49" t="s">
+        <v>120</v>
+      </c>
+      <c r="BR1" s="49" t="s">
+        <v>121</v>
+      </c>
+      <c r="BS1" s="49" t="s">
+        <v>122</v>
+      </c>
+      <c r="BT1" s="49" t="s">
+        <v>123</v>
+      </c>
+      <c r="BU1" s="49" t="s">
+        <v>124</v>
+      </c>
+      <c r="BV1" s="49" t="s">
+        <v>125</v>
+      </c>
+      <c r="BW1" s="49" t="s">
+        <v>126</v>
+      </c>
+      <c r="BX1" s="49" t="s">
+        <v>127</v>
+      </c>
+      <c r="BY1" s="49" t="s">
+        <v>128</v>
+      </c>
+      <c r="BZ1" s="49" t="s">
+        <v>129</v>
+      </c>
+      <c r="CA1" s="49" t="s">
+        <v>130</v>
+      </c>
+      <c r="CB1" s="49" t="s">
+        <v>131</v>
+      </c>
+      <c r="CC1" s="49" t="s">
+        <v>132</v>
+      </c>
+      <c r="CD1" s="50" t="s">
+        <v>43</v>
+      </c>
+      <c r="CE1" s="50" t="s">
+        <v>44</v>
+      </c>
+      <c r="CF1" s="50" t="s">
+        <v>45</v>
+      </c>
+      <c r="CG1" s="48" t="s">
+        <v>46</v>
+      </c>
+      <c r="CH1" s="52" t="s">
+        <v>47</v>
+      </c>
+      <c r="CI1" s="49" t="s">
+        <v>92</v>
+      </c>
+      <c r="CJ1" s="53" t="s">
+        <v>90</v>
+      </c>
+      <c r="CK1" s="53" t="s">
+        <v>91</v>
+      </c>
+      <c r="CL1" s="54" t="s">
+        <v>95</v>
+      </c>
+      <c r="CM1" s="55" t="s">
+        <v>48</v>
+      </c>
+      <c r="CN1" s="56" t="s">
+        <v>49</v>
+      </c>
+      <c r="CO1" s="45" t="s">
+        <v>50</v>
+      </c>
+      <c r="CP1" s="45" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="2" spans="1:94" s="1" customFormat="1" ht="180" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>264</v>
+      </c>
+      <c r="E2" s="22" t="s">
+        <v>265</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="G2" s="22" t="s">
+        <v>238</v>
+      </c>
+      <c r="H2" s="22" t="s">
+        <v>237</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="L2" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="M2" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="N2" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="O2" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="P2" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q2" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="R2" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="T2" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="U2" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="V2" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="W2" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="X2" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="Y2" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z2" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="AA2" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="AB2" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="AC2" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="AD2" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="AE2" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="AF2" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="AG2" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="AH2" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="AI2" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="AJ2" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="AK2" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="AL2" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="AM2" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="AN2" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="AO2" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="AP2" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="AQ2" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="AR2" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="AS2" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="AT2" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="AU2" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="AV2" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="AW2" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="AX2" s="19" t="s">
+        <v>135</v>
+      </c>
+      <c r="AY2" s="19" t="s">
+        <v>136</v>
+      </c>
+      <c r="AZ2" s="21" t="s">
+        <v>165</v>
+      </c>
+      <c r="BA2" s="22" t="s">
+        <v>137</v>
+      </c>
+      <c r="BB2" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="BC2" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="BD2" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="BE2" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="BF2" s="19" t="s">
+        <v>142</v>
+      </c>
+      <c r="BG2" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="BH2" s="22" t="s">
+        <v>144</v>
+      </c>
+      <c r="BI2" s="22" t="s">
+        <v>145</v>
+      </c>
+      <c r="BJ2" s="22" t="s">
+        <v>146</v>
+      </c>
+      <c r="BK2" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="BL2" s="22" t="s">
+        <v>148</v>
+      </c>
+      <c r="BM2" s="22" t="s">
+        <v>149</v>
+      </c>
+      <c r="BN2" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="BO2" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="BP2" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="BQ2" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="BR2" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="BS2" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="BT2" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="BU2" s="22" t="s">
+        <v>156</v>
+      </c>
+      <c r="BV2" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="BW2" s="22" t="s">
+        <v>158</v>
+      </c>
+      <c r="BX2" s="21" t="s">
+        <v>159</v>
+      </c>
+      <c r="BY2" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="BZ2" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="CA2" s="22" t="s">
+        <v>162</v>
+      </c>
+      <c r="CB2" s="22" t="s">
+        <v>163</v>
+      </c>
+      <c r="CC2" s="21" t="s">
+        <v>164</v>
+      </c>
+      <c r="CD2" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="CE2" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="CF2" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="CG2" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="CH2" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="CI2" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="CJ2" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="CK2" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="CL2" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="CM2" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="CN2" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="CO2" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="CP2" t="s">
+        <v>166</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="BA1:BG1">
+    <cfRule type="duplicateValues" dxfId="6" priority="1"/>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:CR2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="M6" sqref="M6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="10" max="10" width="24.7109375" customWidth="1" collapsed="1"/>
+    <col min="93" max="93" width="11.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:96" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="25" t="s">
+        <v>173</v>
+      </c>
+      <c r="F1" s="35" t="s">
+        <v>168</v>
+      </c>
+      <c r="G1" s="25" t="s">
+        <v>177</v>
+      </c>
+      <c r="H1" s="25" t="s">
+        <v>169</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="P1" s="19" t="s">
+        <v>284</v>
+      </c>
+      <c r="Q1" s="19" t="s">
+        <v>285</v>
+      </c>
+      <c r="R1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="S1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="T1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="W1" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="X1" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="Y1" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="Z1" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="AA1" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="AB1" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="AC1" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="AD1" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="AE1" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="AF1" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="AG1" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="AH1" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="AI1" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="AJ1" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="AK1" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="AL1" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="AM1" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="AN1" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="AO1" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="AP1" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="AQ1" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="AR1" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="AS1" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="AT1" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="AU1" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="AV1" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="AW1" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="AX1" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="AY1" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="AZ1" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="BA1" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="BB1" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="BC1" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="BD1" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="BE1" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="BF1" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="BG1" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="BH1" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="BI1" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="BJ1" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="BK1" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="BL1" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="BM1" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="BN1" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="BO1" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="BP1" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="BQ1" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="BR1" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="BS1" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="BT1" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="BU1" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="BV1" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="BW1" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="BX1" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="BY1" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="BZ1" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="CA1" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="CB1" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="CC1" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="CD1" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="CE1" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="CF1" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="CG1" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="CH1" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="CI1" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="CJ1" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="CK1" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="CL1" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="CM1" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="CN1" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="CO1" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="CP1" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="CQ1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="CR1" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="2" spans="1:96" s="1" customFormat="1" ht="180" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>239</v>
+      </c>
+      <c r="E2" s="22" t="s">
+        <v>241</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="G2" s="22" t="s">
+        <v>238</v>
+      </c>
+      <c r="H2" s="22" t="s">
+        <v>237</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="L2" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="M2" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="N2" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="O2" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="P2" s="10" t="s">
+        <v>286</v>
+      </c>
+      <c r="Q2" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="R2" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="S2" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="T2" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="V2" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="W2" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="X2" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="Y2" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="Z2" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="AA2" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="AB2" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="AC2" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="AD2" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="AE2" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="AF2" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="AG2" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="AH2" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="AI2" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="AJ2" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="AK2" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="AL2" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="AM2" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="AN2" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="AO2" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="AP2" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="AQ2" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="AR2" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="AS2" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="AT2" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="AU2" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="AV2" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="AW2" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="AX2" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="AY2" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="AZ2" s="19" t="s">
+        <v>135</v>
+      </c>
+      <c r="BA2" s="19" t="s">
+        <v>136</v>
+      </c>
+      <c r="BB2" s="21" t="s">
+        <v>165</v>
+      </c>
+      <c r="BC2" s="22" t="s">
+        <v>137</v>
+      </c>
+      <c r="BD2" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="BE2" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="BF2" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="BG2" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="BH2" s="19" t="s">
+        <v>142</v>
+      </c>
+      <c r="BI2" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="BJ2" s="22" t="s">
+        <v>144</v>
+      </c>
+      <c r="BK2" s="22" t="s">
+        <v>145</v>
+      </c>
+      <c r="BL2" s="22" t="s">
+        <v>146</v>
+      </c>
+      <c r="BM2" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="BN2" s="22" t="s">
+        <v>148</v>
+      </c>
+      <c r="BO2" s="22" t="s">
+        <v>149</v>
+      </c>
+      <c r="BP2" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="BQ2" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="BR2" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="BS2" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="BT2" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="BU2" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="BV2" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="BW2" s="22" t="s">
+        <v>156</v>
+      </c>
+      <c r="BX2" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="BY2" s="22" t="s">
+        <v>158</v>
+      </c>
+      <c r="BZ2" s="21" t="s">
+        <v>159</v>
+      </c>
+      <c r="CA2" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="CB2" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="CC2" s="22" t="s">
+        <v>162</v>
+      </c>
+      <c r="CD2" s="22" t="s">
+        <v>163</v>
+      </c>
+      <c r="CE2" s="21" t="s">
+        <v>164</v>
+      </c>
+      <c r="CF2" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="CG2" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="CH2" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="CI2" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="CJ2" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="CK2" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="CL2" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="CM2" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="CN2" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="CO2" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="CP2" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="CQ2" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="CR2" t="s">
+        <v>166</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="BC1:BI1">
+    <cfRule type="duplicateValues" dxfId="5" priority="1"/>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:DD2"/>
+  <sheetViews>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="7" width="41.140625" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="26.42578125" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="15.85546875" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="17.28515625" customWidth="1" collapsed="1"/>
+    <col min="91" max="91" width="15.5703125" customWidth="1" collapsed="1"/>
+    <col min="95" max="95" width="9.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="99" max="99" width="9.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="104" max="104" width="23.28515625" customWidth="1" collapsed="1"/>
+    <col min="105" max="105" width="12.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="106" max="106" width="21.5703125" customWidth="1" collapsed="1"/>
+    <col min="107" max="107" width="10.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="108" max="108" width="13" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:108" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -3756,7 +6555,7 @@
         <v>178</v>
       </c>
       <c r="G2" s="22" t="s">
-        <v>252</v>
+        <v>272</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>176</v>
@@ -4050,7 +6849,7 @@
         <v>93</v>
       </c>
       <c r="DA2" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="DB2" s="8" t="s">
         <v>87</v>
@@ -4064,7 +6863,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="BA1:BG1">
-    <cfRule type="duplicateValues" dxfId="6" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="1"/>
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="CR2" r:id="rId1"/>
@@ -4075,22 +6874,22 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:DK3"/>
   <sheetViews>
-    <sheetView topLeftCell="DC1" workbookViewId="0">
-      <selection activeCell="DT8" sqref="DT8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="7" max="7" customWidth="true" width="24.5703125" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="25.85546875" collapsed="true"/>
-    <col min="110" max="110" customWidth="true" width="54.7109375" collapsed="true"/>
-    <col min="112" max="112" bestFit="true" customWidth="true" width="12.140625" collapsed="true"/>
-    <col min="114" max="114" bestFit="true" customWidth="true" width="10.28515625" collapsed="true"/>
-    <col min="115" max="115" bestFit="true" customWidth="true" width="13.0" collapsed="true"/>
+    <col min="7" max="7" width="24.5703125" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="25.85546875" customWidth="1" collapsed="1"/>
+    <col min="110" max="110" width="54.7109375" customWidth="1" collapsed="1"/>
+    <col min="112" max="112" width="12.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="114" max="114" width="10.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="115" max="115" width="13" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:115" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -4374,7 +7173,7 @@
         <v>47</v>
       </c>
       <c r="CP1" s="36" t="s">
-        <v>181</v>
+        <v>277</v>
       </c>
       <c r="CQ1" s="36" t="s">
         <v>182</v>
@@ -4460,7 +7259,7 @@
         <v>178</v>
       </c>
       <c r="G2" s="22" t="s">
-        <v>247</v>
+        <v>272</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>206</v>
@@ -4775,7 +7574,7 @@
         <v>93</v>
       </c>
       <c r="DH2" s="1" t="s">
-        <v>248</v>
+        <v>278</v>
       </c>
       <c r="DI2" s="8" t="s">
         <v>87</v>
@@ -4792,7 +7591,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="BH1:BN1">
-    <cfRule type="duplicateValues" dxfId="5" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="1"/>
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="CY2" r:id="rId1"/>
@@ -4803,7 +7602,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CV2"/>
   <sheetViews>
@@ -4813,12 +7612,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" customWidth="true" width="46.5703125" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="12.7109375" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="19.5703125" collapsed="true"/>
-    <col min="15" max="15" customWidth="true" width="16.85546875" collapsed="true"/>
-    <col min="97" max="97" bestFit="true" customWidth="true" width="12.140625" collapsed="true"/>
-    <col min="99" max="99" bestFit="true" customWidth="true" width="10.28515625" collapsed="true"/>
+    <col min="4" max="4" width="46.5703125" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="12.7109375" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="19.5703125" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="16.85546875" customWidth="1" collapsed="1"/>
+    <col min="97" max="97" width="12.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="99" max="99" width="10.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:100" s="24" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -5412,8 +8211,8 @@
       <c r="CR2" s="16" t="s">
         <v>93</v>
       </c>
-      <c r="CS2" s="1">
-        <v>523525</v>
+      <c r="CS2" s="1" t="s">
+        <v>271</v>
       </c>
       <c r="CT2" s="8" t="s">
         <v>87</v>
@@ -5424,14 +8223,14 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="BE1:BK1">
-    <cfRule type="duplicateValues" dxfId="4" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CV2"/>
   <sheetViews>
@@ -5441,14 +8240,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" customWidth="true" width="19.85546875" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="22.85546875" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="23.28515625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="17.85546875" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="20.5703125" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="26.42578125" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="20.140625" collapsed="true"/>
-    <col min="97" max="97" bestFit="true" customWidth="true" width="12.140625" collapsed="true"/>
+    <col min="3" max="3" width="19.85546875" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="22.85546875" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="23.28515625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="17.85546875" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="20.5703125" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="26.42578125" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="20.140625" customWidth="1" collapsed="1"/>
+    <col min="97" max="97" width="12.140625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:100" s="24" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -5764,7 +8563,7 @@
         <v>53</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="E2" s="22" t="s">
         <v>175</v>
@@ -5779,7 +8578,7 @@
         <v>246</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>227</v>
@@ -6043,7 +8842,7 @@
         <v>93</v>
       </c>
       <c r="CS2" s="1" t="s">
-        <v>257</v>
+        <v>270</v>
       </c>
       <c r="CT2" s="8" t="s">
         <v>87</v>
@@ -6054,13 +8853,13 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="BE1:BK1">
-    <cfRule type="duplicateValues" dxfId="3" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G2"/>
   <sheetViews>
@@ -6070,12 +8869,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" customWidth="true" width="16.85546875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="15.0" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="20.7109375" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="9.28515625" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="9.7109375" collapsed="true"/>
+    <col min="2" max="2" width="16.85546875" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="13.28515625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="15" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="20.7109375" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="9.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="9.7109375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -6095,10 +8894,10 @@
         <v>242</v>
       </c>
       <c r="F1" s="41" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="G1" s="44" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -6115,1261 +8914,16 @@
         <v>244</v>
       </c>
       <c r="E2" s="43" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="F2" s="16" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="G2" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="5" customWidth="true" width="19.7109375" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="11.28515625" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="10.5703125" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="19.7109375" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="15.42578125" collapsed="true"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="41" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="41" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="41" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="41" t="s">
-        <v>243</v>
-      </c>
-      <c r="E1" s="41" t="s">
-        <v>242</v>
-      </c>
-      <c r="F1" s="41" t="s">
-        <v>261</v>
-      </c>
-      <c r="G1" s="41" t="s">
-        <v>262</v>
-      </c>
-      <c r="H1" s="44" t="s">
-        <v>265</v>
-      </c>
-      <c r="I1" s="44" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="D2" s="42" t="s">
-        <v>244</v>
-      </c>
-      <c r="E2" s="43" t="s">
-        <v>254</v>
-      </c>
-      <c r="F2" s="16" t="s">
-        <v>264</v>
-      </c>
-      <c r="G2" s="16" t="s">
-        <v>264</v>
-      </c>
-      <c r="I2" t="s">
-        <v>267</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:CP5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" customWidth="true" style="1" width="32.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="1" width="29.5703125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="1" width="31.7109375" collapsed="true"/>
-    <col min="4" max="5" customWidth="true" style="1" width="24.42578125" collapsed="true"/>
-    <col min="6" max="8" customWidth="true" width="15.85546875" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" style="1" width="26.7109375" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" style="1" width="24.85546875" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" style="1" width="20.5703125" collapsed="true"/>
-    <col min="12" max="12" style="1" width="8.7109375" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" style="1" width="13.85546875" collapsed="true"/>
-    <col min="14" max="14" customWidth="true" style="1" width="17.42578125" collapsed="true"/>
-    <col min="15" max="15" customWidth="true" style="1" width="15.85546875" collapsed="true"/>
-    <col min="16" max="19" customWidth="true" style="1" width="24.42578125" collapsed="true"/>
-    <col min="20" max="20" customWidth="true" style="1" width="29.0" collapsed="true"/>
-    <col min="21" max="21" customWidth="true" style="1" width="31.140625" collapsed="true"/>
-    <col min="22" max="22" customWidth="true" style="1" width="30.140625" collapsed="true"/>
-    <col min="23" max="23" customWidth="true" style="1" width="19.85546875" collapsed="true"/>
-    <col min="24" max="24" customWidth="true" style="1" width="20.140625" collapsed="true"/>
-    <col min="25" max="25" customWidth="true" style="1" width="22.140625" collapsed="true"/>
-    <col min="26" max="26" customWidth="true" style="1" width="19.140625" collapsed="true"/>
-    <col min="27" max="27" customWidth="true" style="1" width="25.140625" collapsed="true"/>
-    <col min="28" max="28" customWidth="true" style="1" width="18.85546875" collapsed="true"/>
-    <col min="29" max="29" customWidth="true" style="1" width="17.140625" collapsed="true"/>
-    <col min="30" max="30" customWidth="true" style="1" width="10.0" collapsed="true"/>
-    <col min="31" max="31" customWidth="true" style="1" width="27.5703125" collapsed="true"/>
-    <col min="32" max="32" customWidth="true" style="1" width="20.7109375" collapsed="true"/>
-    <col min="33" max="33" customWidth="true" style="1" width="11.7109375" collapsed="true"/>
-    <col min="34" max="34" customWidth="true" style="1" width="26.85546875" collapsed="true"/>
-    <col min="35" max="35" customWidth="true" style="1" width="16.28515625" collapsed="true"/>
-    <col min="36" max="36" customWidth="true" style="1" width="19.7109375" collapsed="true"/>
-    <col min="37" max="37" customWidth="true" style="1" width="19.85546875" collapsed="true"/>
-    <col min="38" max="38" customWidth="true" style="1" width="17.0" collapsed="true"/>
-    <col min="39" max="39" customWidth="true" style="1" width="20.28515625" collapsed="true"/>
-    <col min="40" max="40" customWidth="true" style="1" width="20.0" collapsed="true"/>
-    <col min="41" max="41" customWidth="true" style="1" width="20.85546875" collapsed="true"/>
-    <col min="42" max="42" customWidth="true" style="1" width="24.5703125" collapsed="true"/>
-    <col min="43" max="43" customWidth="true" style="1" width="19.7109375" collapsed="true"/>
-    <col min="44" max="44" customWidth="true" style="1" width="25.0" collapsed="true"/>
-    <col min="45" max="76" customWidth="true" style="1" width="18.0" collapsed="true"/>
-    <col min="77" max="77" customWidth="true" style="1" width="21.140625" collapsed="true"/>
-    <col min="78" max="81" customWidth="true" style="1" width="18.0" collapsed="true"/>
-    <col min="82" max="82" customWidth="true" style="1" width="17.7109375" collapsed="true"/>
-    <col min="83" max="83" customWidth="true" style="1" width="15.5703125" collapsed="true"/>
-    <col min="84" max="84" customWidth="true" style="1" width="17.28515625" collapsed="true"/>
-    <col min="85" max="85" customWidth="true" style="1" width="22.5703125" collapsed="true"/>
-    <col min="86" max="89" customWidth="true" style="1" width="20.7109375" collapsed="true"/>
-    <col min="90" max="90" customWidth="true" style="1" width="25.42578125" collapsed="true"/>
-    <col min="91" max="91" bestFit="true" customWidth="true" style="1" width="11.85546875" collapsed="true"/>
-    <col min="92" max="92" customWidth="true" style="1" width="19.85546875" collapsed="true"/>
-    <col min="93" max="93" bestFit="true" customWidth="true" style="1" width="9.85546875" collapsed="true"/>
-    <col min="94" max="94" bestFit="true" customWidth="true" style="1" width="12.28515625" collapsed="true"/>
-    <col min="95" max="16384" style="1" width="8.7109375" collapsed="true"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="25" t="s">
-        <v>173</v>
-      </c>
-      <c r="F1" s="35" t="s">
-        <v>168</v>
-      </c>
-      <c r="G1" s="25" t="s">
-        <v>177</v>
-      </c>
-      <c r="H1" s="25" t="s">
-        <v>169</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="P1" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q1" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="R1" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="U1" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="V1" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="W1" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="X1" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="Y1" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="Z1" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="AA1" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="AB1" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="AC1" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="AD1" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="AE1" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="AF1" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="AG1" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="AH1" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="AI1" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="AJ1" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="AK1" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="AL1" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="AM1" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="AN1" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="AO1" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="AP1" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="AQ1" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="AR1" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="AS1" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="AT1" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="AU1" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="AV1" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="AW1" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="AX1" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="AY1" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="AZ1" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="BA1" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="BB1" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="BC1" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="BD1" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="BE1" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="BF1" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="BG1" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="BH1" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="BI1" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="BJ1" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="BK1" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="BL1" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="BM1" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="BN1" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="BO1" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="BP1" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="BQ1" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="BR1" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="BS1" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="BT1" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="BU1" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="BV1" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="BW1" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="BX1" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="BY1" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="BZ1" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="CA1" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="CB1" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="CC1" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="CD1" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="CE1" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="CF1" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="CG1" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="CH1" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="CI1" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="CJ1" s="15" t="s">
-        <v>90</v>
-      </c>
-      <c r="CK1" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="CL1" s="18" t="s">
-        <v>95</v>
-      </c>
-      <c r="CM1" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="CN1" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="CO1" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="CP1" s="1" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="2" spans="1:94" ht="75" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>268</v>
-      </c>
-      <c r="E2" s="22" t="s">
-        <v>175</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="G2" s="22" t="s">
-        <v>238</v>
-      </c>
-      <c r="H2" s="22" t="s">
-        <v>237</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="L2" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="M2" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="N2" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="O2" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="P2" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q2" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="R2" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="S2" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="T2" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="U2" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="V2" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="W2" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="X2" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="Y2" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="Z2" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="AA2" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="AB2" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="AC2" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="AD2" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="AE2" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="AF2" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="AG2" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="AH2" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="AI2" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="AJ2" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="AK2" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="AL2" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="AM2" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="AN2" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="AO2" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="AP2" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="AQ2" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="AR2" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="AS2" s="12" t="s">
-        <v>83</v>
-      </c>
-      <c r="AT2" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="AU2" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="AV2" s="19" t="s">
-        <v>133</v>
-      </c>
-      <c r="AW2" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="AX2" s="19" t="s">
-        <v>135</v>
-      </c>
-      <c r="AY2" s="19" t="s">
-        <v>136</v>
-      </c>
-      <c r="AZ2" s="21" t="s">
-        <v>165</v>
-      </c>
-      <c r="BA2" s="22" t="s">
-        <v>137</v>
-      </c>
-      <c r="BB2" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="BC2" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="BD2" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="BE2" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="BF2" s="19" t="s">
-        <v>142</v>
-      </c>
-      <c r="BG2" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="BH2" s="22" t="s">
-        <v>144</v>
-      </c>
-      <c r="BI2" s="22" t="s">
-        <v>145</v>
-      </c>
-      <c r="BJ2" s="22" t="s">
-        <v>146</v>
-      </c>
-      <c r="BK2" s="22" t="s">
-        <v>147</v>
-      </c>
-      <c r="BL2" s="22" t="s">
-        <v>148</v>
-      </c>
-      <c r="BM2" s="22" t="s">
-        <v>149</v>
-      </c>
-      <c r="BN2" s="19" t="s">
-        <v>60</v>
-      </c>
-      <c r="BO2" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="BP2" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="BQ2" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="BR2" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="BS2" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="BT2" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="BU2" s="22" t="s">
-        <v>156</v>
-      </c>
-      <c r="BV2" s="22" t="s">
-        <v>157</v>
-      </c>
-      <c r="BW2" s="22" t="s">
-        <v>158</v>
-      </c>
-      <c r="BX2" s="21" t="s">
-        <v>159</v>
-      </c>
-      <c r="BY2" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="BZ2" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="CA2" s="22" t="s">
-        <v>162</v>
-      </c>
-      <c r="CB2" s="22" t="s">
-        <v>163</v>
-      </c>
-      <c r="CC2" s="21" t="s">
-        <v>164</v>
-      </c>
-      <c r="CD2" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="CE2" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="CF2" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="CG2" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="CH2" s="14" t="s">
-        <v>85</v>
-      </c>
-      <c r="CI2" s="17" t="s">
-        <v>89</v>
-      </c>
-      <c r="CJ2" s="16" t="s">
-        <v>96</v>
-      </c>
-      <c r="CK2" s="17" t="s">
-        <v>94</v>
-      </c>
-      <c r="CL2" s="16" t="s">
-        <v>93</v>
-      </c>
-      <c r="CM2" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="CN2" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="CO2" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="CP2" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="3" spans="1:94" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="E3" s="22" t="s">
-        <v>205</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="G3" s="22" t="s">
-        <v>178</v>
-      </c>
-      <c r="H3" s="22" t="s">
-        <v>179</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="L3" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="M3" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="N3" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="O3" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="P3" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q3" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="R3" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="S3" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="T3" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="U3" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="V3" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="W3" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="X3" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="Y3" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="Z3" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="AA3" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="AB3" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="AC3" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="AD3" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="AE3" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="AF3" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="AG3" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="AH3" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="AI3" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="AJ3" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="AK3" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="AL3" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="AM3" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="AN3" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="AO3" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="AP3" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="AQ3" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="AR3" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="AS3" s="12" t="s">
-        <v>83</v>
-      </c>
-      <c r="AT3" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="AU3" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="AV3" s="19"/>
-      <c r="AX3" s="19"/>
-      <c r="AY3" s="19"/>
-      <c r="AZ3" s="20"/>
-      <c r="BE3" s="19"/>
-      <c r="BF3" s="19"/>
-      <c r="BG3" s="4"/>
-      <c r="BM3" s="19"/>
-      <c r="BN3" s="19"/>
-      <c r="BW3" s="19"/>
-      <c r="BX3" s="19"/>
-      <c r="CB3" s="23"/>
-      <c r="CC3" s="20"/>
-      <c r="CD3" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="CE3" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="CF3" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="CG3" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="CH3" s="14" t="s">
-        <v>85</v>
-      </c>
-      <c r="CI3" s="4"/>
-      <c r="CJ3" s="4"/>
-      <c r="CK3" s="4"/>
-      <c r="CL3" s="19"/>
-      <c r="CM3" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="CN3" s="8" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="4" spans="1:94" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="L4" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="M4" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="N4" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="O4" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="P4" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q4" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="R4" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="S4" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="T4" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="U4" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="V4" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="W4" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="X4" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="Y4" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="Z4" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="AA4" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="AB4" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="AC4" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="AD4" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="AE4" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="AF4" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="AG4" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="AH4" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="AI4" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="AJ4" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="AK4" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="AL4" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="AM4" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="AN4" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="AO4" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="AP4" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="AQ4" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="AR4" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="AS4" s="12" t="s">
-        <v>83</v>
-      </c>
-      <c r="AT4" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="AU4" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="AV4" s="19"/>
-      <c r="AX4" s="19"/>
-      <c r="AY4" s="19"/>
-      <c r="AZ4" s="19"/>
-      <c r="BE4" s="19"/>
-      <c r="BF4" s="19"/>
-      <c r="BL4" s="19"/>
-      <c r="BM4" s="19"/>
-      <c r="BN4" s="19"/>
-      <c r="BV4" s="19"/>
-      <c r="BW4" s="19"/>
-      <c r="BX4" s="19"/>
-      <c r="CA4" s="19"/>
-      <c r="CB4" s="19"/>
-      <c r="CC4" s="19"/>
-      <c r="CD4" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="CE4" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="CF4" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="CG4" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="CH4" s="14" t="s">
-        <v>85</v>
-      </c>
-      <c r="CI4" s="4"/>
-      <c r="CJ4" s="4"/>
-      <c r="CK4" s="4"/>
-      <c r="CL4" s="19"/>
-      <c r="CM4" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="CN4" s="8" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="5" spans="1:94" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="L5" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="M5" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="N5" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="O5" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="P5" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q5" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="R5" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="S5" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="T5" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="U5" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="V5" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="W5" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="X5" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="Y5" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="Z5" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="AA5" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="AB5" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="AC5" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="AD5" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="AE5" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="AF5" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="AG5" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="AH5" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="AI5" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="AJ5" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="AK5" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="AL5" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="AM5" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="AN5" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="AO5" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="AP5" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="AQ5" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="AR5" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="AS5" s="12" t="s">
-        <v>83</v>
-      </c>
-      <c r="AT5" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="AU5" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="AV5" s="19"/>
-      <c r="AX5" s="19"/>
-      <c r="AY5" s="19"/>
-      <c r="AZ5" s="19"/>
-      <c r="BC5" s="19"/>
-      <c r="BD5" s="19"/>
-      <c r="BE5" s="19"/>
-      <c r="BF5" s="19"/>
-      <c r="BK5" s="19"/>
-      <c r="BL5" s="19"/>
-      <c r="BM5" s="19"/>
-      <c r="BN5" s="19"/>
-      <c r="BU5" s="19"/>
-      <c r="BV5" s="19"/>
-      <c r="BW5" s="19"/>
-      <c r="BX5" s="19"/>
-      <c r="BZ5" s="19"/>
-      <c r="CA5" s="19"/>
-      <c r="CB5" s="19"/>
-      <c r="CC5" s="19"/>
-      <c r="CD5" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="CE5" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="CF5" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="CG5" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="CH5" s="14" t="s">
-        <v>85</v>
-      </c>
-      <c r="CI5" s="4"/>
-      <c r="CJ5" s="4"/>
-      <c r="CK5" s="4"/>
-      <c r="CL5" s="19"/>
-      <c r="CM5" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="CN5" s="8" t="s">
-        <v>87</v>
-      </c>
-    </row>
-  </sheetData>
-  <conditionalFormatting sqref="BA1:BG1">
-    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/src/test/java/testData/TestSuite1Data.xlsx
+++ b/src/test/java/testData/TestSuite1Data.xlsx
@@ -30,6 +30,9 @@
     <sheet name="TC08" sheetId="8" r:id="rId16"/>
     <sheet name="TC09" sheetId="9" r:id="rId17"/>
     <sheet name="TC05" sheetId="5" r:id="rId18"/>
+    <sheet name="TC19" sheetId="19" r:id="rId19"/>
+    <sheet name="TC20" sheetId="20" r:id="rId20"/>
+    <sheet name="TC21" sheetId="21" r:id="rId21"/>
   </sheets>
   <calcPr calcId="0"/>
   <extLst>
@@ -41,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3448" uniqueCount="313">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4033" uniqueCount="315">
   <si>
     <t>Gateway_PartnerCode</t>
   </si>
@@ -964,22 +967,28 @@
     <t>529746</t>
   </si>
   <si>
-    <t>529786</t>
-  </si>
-  <si>
     <t>RunMode</t>
   </si>
   <si>
     <t>Y</t>
   </si>
   <si>
-    <t>529796</t>
-  </si>
-  <si>
-    <t>529798</t>
-  </si>
-  <si>
-    <t>529806</t>
+    <t>529835</t>
+  </si>
+  <si>
+    <t>529845</t>
+  </si>
+  <si>
+    <t>529861</t>
+  </si>
+  <si>
+    <t>529872</t>
+  </si>
+  <si>
+    <t>RunModeData</t>
+  </si>
+  <si>
+    <t>529878</t>
   </si>
 </sst>
 </file>
@@ -1257,7 +1266,37 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="15">
+  <dxfs count="18">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1760,7 +1799,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="1" width="8.7109375" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" style="1" width="21.85546875" collapsed="true"/>
     <col min="2" max="2" customWidth="true" style="1" width="32.0" collapsed="true"/>
     <col min="3" max="3" customWidth="true" style="1" width="29.5703125" collapsed="true"/>
     <col min="4" max="4" customWidth="true" style="1" width="31.7109375" collapsed="true"/>
@@ -1817,7 +1856,7 @@
   <sheetData>
     <row r="1" spans="1:95" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -2104,7 +2143,7 @@
     </row>
     <row r="2" spans="1:95" ht="75" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>51</v>
@@ -2377,7 +2416,7 @@
         <v>93</v>
       </c>
       <c r="CN2" s="1" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="CO2" s="8" t="s">
         <v>87</v>
@@ -2391,7 +2430,7 @@
     </row>
     <row r="3" spans="1:95" ht="75" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>51</v>
@@ -2678,7 +2717,7 @@
     </row>
     <row r="4" spans="1:95" ht="75" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>51</v>
@@ -2965,7 +3004,7 @@
     </row>
     <row r="5" spans="1:95" ht="75" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>51</v>
@@ -3252,7 +3291,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="BB1:BH1">
-    <cfRule type="duplicateValues" dxfId="14" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="17" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -3855,7 +3894,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="BC1:BI1">
-    <cfRule type="duplicateValues" dxfId="5" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4539,7 +4578,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="BA1:BG1">
-    <cfRule type="duplicateValues" dxfId="4" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="1"/>
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="CR2" r:id="rId1"/>
@@ -5267,7 +5306,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="BH1:BN1">
-    <cfRule type="duplicateValues" dxfId="3" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="1"/>
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="CY2" r:id="rId1"/>
@@ -5899,7 +5938,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="BE1:BK1">
-    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -6529,7 +6568,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="BE1:BK1">
-    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7843,7 +7882,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="BA1:BG1">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7919,6 +7958,601 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:CQ2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M2" sqref="M2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="92" max="92" bestFit="true" customWidth="true" width="11.85546875" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:95" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="25" t="s">
+        <v>173</v>
+      </c>
+      <c r="G1" s="35" t="s">
+        <v>168</v>
+      </c>
+      <c r="H1" s="25" t="s">
+        <v>177</v>
+      </c>
+      <c r="I1" s="25" t="s">
+        <v>169</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="R1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="S1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="V1" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="W1" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="X1" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y1" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z1" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="AA1" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="AB1" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="AC1" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="AD1" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="AE1" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="AF1" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="AG1" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="AH1" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="AI1" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="AJ1" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="AK1" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="AL1" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="AM1" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="AN1" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="AO1" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="AP1" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="AQ1" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="AR1" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="AS1" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="AT1" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="AU1" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="AV1" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="AW1" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="AX1" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="AY1" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="AZ1" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="BA1" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="BB1" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="BC1" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="BD1" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="BE1" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="BF1" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="BG1" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="BH1" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="BI1" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="BJ1" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="BK1" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="BL1" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="BM1" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="BN1" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="BO1" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="BP1" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="BQ1" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="BR1" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="BS1" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="BT1" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="BU1" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="BV1" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="BW1" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="BX1" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="BY1" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="BZ1" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="CA1" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="CB1" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="CC1" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="CD1" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="CE1" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="CF1" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="CG1" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="CH1" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="CI1" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="CJ1" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="CK1" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="CL1" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="CM1" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="CN1" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="CO1" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="CP1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="CQ1" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="2" spans="1:95" s="1" customFormat="1" ht="180" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>239</v>
+      </c>
+      <c r="F2" s="22" t="s">
+        <v>241</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="H2" s="22" t="s">
+        <v>238</v>
+      </c>
+      <c r="I2" s="22" t="s">
+        <v>237</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="M2" s="9" t="s">
+        <v>298</v>
+      </c>
+      <c r="N2" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="O2" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="P2" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q2" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="R2" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="S2" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="U2" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="V2" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="W2" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="X2" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="Y2" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="Z2" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="AA2" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="AB2" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="AC2" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="AD2" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="AE2" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="AF2" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="AG2" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="AH2" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="AI2" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="AJ2" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="AK2" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="AL2" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="AM2" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="AN2" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="AO2" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="AP2" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="AQ2" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="AR2" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="AS2" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="AT2" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="AU2" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="AV2" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="AW2" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="AX2" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="AY2" s="19" t="s">
+        <v>135</v>
+      </c>
+      <c r="AZ2" s="19" t="s">
+        <v>136</v>
+      </c>
+      <c r="BA2" s="21" t="s">
+        <v>165</v>
+      </c>
+      <c r="BB2" s="22" t="s">
+        <v>137</v>
+      </c>
+      <c r="BC2" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="BD2" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="BE2" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="BF2" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="BG2" s="19" t="s">
+        <v>142</v>
+      </c>
+      <c r="BH2" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="BI2" s="22" t="s">
+        <v>144</v>
+      </c>
+      <c r="BJ2" s="22" t="s">
+        <v>145</v>
+      </c>
+      <c r="BK2" s="22" t="s">
+        <v>146</v>
+      </c>
+      <c r="BL2" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="BM2" s="22" t="s">
+        <v>148</v>
+      </c>
+      <c r="BN2" s="22" t="s">
+        <v>149</v>
+      </c>
+      <c r="BO2" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="BP2" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="BQ2" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="BR2" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="BS2" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="BT2" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="BU2" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="BV2" s="22" t="s">
+        <v>156</v>
+      </c>
+      <c r="BW2" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="BX2" s="22" t="s">
+        <v>158</v>
+      </c>
+      <c r="BY2" s="21" t="s">
+        <v>159</v>
+      </c>
+      <c r="BZ2" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="CA2" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="CB2" s="22" t="s">
+        <v>162</v>
+      </c>
+      <c r="CC2" s="22" t="s">
+        <v>163</v>
+      </c>
+      <c r="CD2" s="21" t="s">
+        <v>305</v>
+      </c>
+      <c r="CE2" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="CF2" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="CG2" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="CH2" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="CI2" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="CJ2" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="CK2" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="CL2" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="CM2" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="CN2" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="CO2" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="CP2" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="CQ2" t="s">
+        <v>166</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="BB1:BH1">
+    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CR2"/>
@@ -8519,7 +9153,1248 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="BC1:BI1">
-    <cfRule type="duplicateValues" dxfId="13" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="16" priority="1"/>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:CV2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M9" sqref="M9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="97" max="97" bestFit="true" customWidth="true" width="12.140625" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:100" s="24" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="25" t="s">
+        <v>173</v>
+      </c>
+      <c r="F1" s="35" t="s">
+        <v>168</v>
+      </c>
+      <c r="G1" s="25" t="s">
+        <v>177</v>
+      </c>
+      <c r="H1" s="25" t="s">
+        <v>169</v>
+      </c>
+      <c r="I1" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="K1" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="L1" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="M1" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="N1" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="O1" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="P1" s="36" t="s">
+        <v>228</v>
+      </c>
+      <c r="Q1" s="36" t="s">
+        <v>236</v>
+      </c>
+      <c r="R1" s="36" t="s">
+        <v>229</v>
+      </c>
+      <c r="S1" s="36" t="s">
+        <v>230</v>
+      </c>
+      <c r="T1" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="U1" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="V1" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="W1" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="X1" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="Y1" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="Z1" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="AA1" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="AB1" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="AC1" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="AD1" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="AE1" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="AF1" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="AG1" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="AH1" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="AI1" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="AJ1" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="AK1" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="AL1" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="AM1" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="AN1" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="AO1" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="AP1" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="AQ1" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="AR1" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="AS1" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="AT1" s="29" t="s">
+        <v>37</v>
+      </c>
+      <c r="AU1" s="29" t="s">
+        <v>38</v>
+      </c>
+      <c r="AV1" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="AW1" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="AX1" s="29" t="s">
+        <v>41</v>
+      </c>
+      <c r="AY1" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="AZ1" s="27" t="s">
+        <v>99</v>
+      </c>
+      <c r="BA1" s="27" t="s">
+        <v>100</v>
+      </c>
+      <c r="BB1" s="27" t="s">
+        <v>101</v>
+      </c>
+      <c r="BC1" s="27" t="s">
+        <v>102</v>
+      </c>
+      <c r="BD1" s="27" t="s">
+        <v>103</v>
+      </c>
+      <c r="BE1" s="27" t="s">
+        <v>104</v>
+      </c>
+      <c r="BF1" s="27" t="s">
+        <v>105</v>
+      </c>
+      <c r="BG1" s="27" t="s">
+        <v>106</v>
+      </c>
+      <c r="BH1" s="27" t="s">
+        <v>107</v>
+      </c>
+      <c r="BI1" s="27" t="s">
+        <v>108</v>
+      </c>
+      <c r="BJ1" s="27" t="s">
+        <v>109</v>
+      </c>
+      <c r="BK1" s="27" t="s">
+        <v>110</v>
+      </c>
+      <c r="BL1" s="27" t="s">
+        <v>111</v>
+      </c>
+      <c r="BM1" s="27" t="s">
+        <v>112</v>
+      </c>
+      <c r="BN1" s="27" t="s">
+        <v>113</v>
+      </c>
+      <c r="BO1" s="27" t="s">
+        <v>114</v>
+      </c>
+      <c r="BP1" s="27" t="s">
+        <v>115</v>
+      </c>
+      <c r="BQ1" s="27" t="s">
+        <v>116</v>
+      </c>
+      <c r="BR1" s="27" t="s">
+        <v>117</v>
+      </c>
+      <c r="BS1" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="BT1" s="27" t="s">
+        <v>119</v>
+      </c>
+      <c r="BU1" s="27" t="s">
+        <v>120</v>
+      </c>
+      <c r="BV1" s="27" t="s">
+        <v>121</v>
+      </c>
+      <c r="BW1" s="27" t="s">
+        <v>122</v>
+      </c>
+      <c r="BX1" s="27" t="s">
+        <v>123</v>
+      </c>
+      <c r="BY1" s="27" t="s">
+        <v>124</v>
+      </c>
+      <c r="BZ1" s="27" t="s">
+        <v>125</v>
+      </c>
+      <c r="CA1" s="27" t="s">
+        <v>126</v>
+      </c>
+      <c r="CB1" s="27" t="s">
+        <v>127</v>
+      </c>
+      <c r="CC1" s="27" t="s">
+        <v>128</v>
+      </c>
+      <c r="CD1" s="27" t="s">
+        <v>129</v>
+      </c>
+      <c r="CE1" s="27" t="s">
+        <v>130</v>
+      </c>
+      <c r="CF1" s="27" t="s">
+        <v>131</v>
+      </c>
+      <c r="CG1" s="27" t="s">
+        <v>132</v>
+      </c>
+      <c r="CH1" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="CI1" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="CJ1" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="CK1" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="CL1" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="CM1" s="27" t="s">
+        <v>92</v>
+      </c>
+      <c r="CN1" s="31" t="s">
+        <v>234</v>
+      </c>
+      <c r="CO1" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="CP1" s="31" t="s">
+        <v>90</v>
+      </c>
+      <c r="CQ1" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="CR1" s="32" t="s">
+        <v>95</v>
+      </c>
+      <c r="CS1" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="CT1" s="34" t="s">
+        <v>49</v>
+      </c>
+      <c r="CU1" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="CV1" s="24" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="2" spans="1:100" s="1" customFormat="1" ht="180" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="E2" s="22" t="s">
+        <v>225</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="G2" s="22" t="s">
+        <v>226</v>
+      </c>
+      <c r="H2" s="22" t="s">
+        <v>246</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="L2" s="9" t="s">
+        <v>298</v>
+      </c>
+      <c r="M2" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="N2" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="O2" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="P2" s="10" t="s">
+        <v>231</v>
+      </c>
+      <c r="Q2" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="R2" s="10" t="s">
+        <v>232</v>
+      </c>
+      <c r="S2" s="10" t="s">
+        <v>233</v>
+      </c>
+      <c r="T2" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="U2" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="V2" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="X2" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="Y2" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z2" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="AA2" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="AB2" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="AC2" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="AD2" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="AE2" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="AF2" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="AG2" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="AH2" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="AI2" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="AJ2" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="AK2" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="AL2" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="AM2" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="AN2" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="AO2" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="AP2" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="AQ2" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="AR2" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="AS2" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="AT2" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="AU2" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="AV2" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="AW2" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="AX2" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="AY2" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="AZ2" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="BA2" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="BB2" s="19" t="s">
+        <v>135</v>
+      </c>
+      <c r="BC2" s="19" t="s">
+        <v>136</v>
+      </c>
+      <c r="BD2" s="21" t="s">
+        <v>165</v>
+      </c>
+      <c r="BE2" s="22" t="s">
+        <v>137</v>
+      </c>
+      <c r="BF2" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="BG2" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="BH2" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="BI2" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="BJ2" s="19" t="s">
+        <v>142</v>
+      </c>
+      <c r="BK2" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="BL2" s="22" t="s">
+        <v>144</v>
+      </c>
+      <c r="BM2" s="22" t="s">
+        <v>145</v>
+      </c>
+      <c r="BN2" s="22" t="s">
+        <v>146</v>
+      </c>
+      <c r="BO2" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="BP2" s="22" t="s">
+        <v>148</v>
+      </c>
+      <c r="BQ2" s="22" t="s">
+        <v>149</v>
+      </c>
+      <c r="BR2" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="BS2" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="BT2" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="BU2" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="BV2" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="BW2" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="BX2" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="BY2" s="22" t="s">
+        <v>156</v>
+      </c>
+      <c r="BZ2" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="CA2" s="22" t="s">
+        <v>158</v>
+      </c>
+      <c r="CB2" s="21" t="s">
+        <v>159</v>
+      </c>
+      <c r="CC2" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="CD2" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="CE2" s="22" t="s">
+        <v>162</v>
+      </c>
+      <c r="CF2" s="22" t="s">
+        <v>163</v>
+      </c>
+      <c r="CG2" s="21" t="s">
+        <v>164</v>
+      </c>
+      <c r="CH2" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="CI2" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="CJ2" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="CK2" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="CL2" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="CM2" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="CN2" s="16" t="s">
+        <v>235</v>
+      </c>
+      <c r="CO2" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="CP2" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="CQ2" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="CR2" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="CS2" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="CT2" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="CU2" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="BE1:BK1">
+    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:CU2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="96" max="96" bestFit="true" customWidth="true" width="11.85546875" collapsed="false"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:99" s="45" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="45" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="45" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="46" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="46" t="s">
+        <v>173</v>
+      </c>
+      <c r="F1" s="47" t="s">
+        <v>168</v>
+      </c>
+      <c r="G1" s="46" t="s">
+        <v>177</v>
+      </c>
+      <c r="H1" s="46" t="s">
+        <v>169</v>
+      </c>
+      <c r="I1" s="46" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" s="46" t="s">
+        <v>5</v>
+      </c>
+      <c r="K1" s="45" t="s">
+        <v>6</v>
+      </c>
+      <c r="L1" s="45" t="s">
+        <v>7</v>
+      </c>
+      <c r="M1" s="48" t="s">
+        <v>8</v>
+      </c>
+      <c r="N1" s="48" t="s">
+        <v>9</v>
+      </c>
+      <c r="O1" s="48" t="s">
+        <v>10</v>
+      </c>
+      <c r="P1" s="64" t="s">
+        <v>296</v>
+      </c>
+      <c r="Q1" s="49" t="s">
+        <v>11</v>
+      </c>
+      <c r="R1" s="49" t="s">
+        <v>12</v>
+      </c>
+      <c r="S1" s="49" t="s">
+        <v>13</v>
+      </c>
+      <c r="T1" s="45" t="s">
+        <v>14</v>
+      </c>
+      <c r="U1" s="45" t="s">
+        <v>15</v>
+      </c>
+      <c r="V1" s="50" t="s">
+        <v>16</v>
+      </c>
+      <c r="W1" s="51" t="s">
+        <v>17</v>
+      </c>
+      <c r="X1" s="51" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y1" s="51" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z1" s="51" t="s">
+        <v>20</v>
+      </c>
+      <c r="AA1" s="51" t="s">
+        <v>21</v>
+      </c>
+      <c r="AB1" s="51" t="s">
+        <v>22</v>
+      </c>
+      <c r="AC1" s="51" t="s">
+        <v>23</v>
+      </c>
+      <c r="AD1" s="51" t="s">
+        <v>24</v>
+      </c>
+      <c r="AE1" s="51" t="s">
+        <v>25</v>
+      </c>
+      <c r="AF1" s="51" t="s">
+        <v>26</v>
+      </c>
+      <c r="AG1" s="51" t="s">
+        <v>300</v>
+      </c>
+      <c r="AH1" s="51" t="s">
+        <v>27</v>
+      </c>
+      <c r="AI1" s="51" t="s">
+        <v>28</v>
+      </c>
+      <c r="AJ1" s="51" t="s">
+        <v>29</v>
+      </c>
+      <c r="AK1" s="51" t="s">
+        <v>30</v>
+      </c>
+      <c r="AL1" s="51" t="s">
+        <v>31</v>
+      </c>
+      <c r="AM1" s="51" t="s">
+        <v>32</v>
+      </c>
+      <c r="AN1" s="51" t="s">
+        <v>33</v>
+      </c>
+      <c r="AO1" s="51" t="s">
+        <v>34</v>
+      </c>
+      <c r="AP1" s="51" t="s">
+        <v>35</v>
+      </c>
+      <c r="AQ1" s="51" t="s">
+        <v>36</v>
+      </c>
+      <c r="AR1" s="51" t="s">
+        <v>37</v>
+      </c>
+      <c r="AS1" s="51" t="s">
+        <v>38</v>
+      </c>
+      <c r="AT1" s="51" t="s">
+        <v>299</v>
+      </c>
+      <c r="AU1" s="51" t="s">
+        <v>39</v>
+      </c>
+      <c r="AV1" s="51" t="s">
+        <v>285</v>
+      </c>
+      <c r="AW1" s="51" t="s">
+        <v>286</v>
+      </c>
+      <c r="AX1" s="51" t="s">
+        <v>40</v>
+      </c>
+      <c r="AY1" s="51" t="s">
+        <v>41</v>
+      </c>
+      <c r="AZ1" s="50" t="s">
+        <v>42</v>
+      </c>
+      <c r="BA1" s="49" t="s">
+        <v>99</v>
+      </c>
+      <c r="BB1" s="49" t="s">
+        <v>100</v>
+      </c>
+      <c r="BC1" s="49" t="s">
+        <v>101</v>
+      </c>
+      <c r="BD1" s="49" t="s">
+        <v>102</v>
+      </c>
+      <c r="BE1" s="49" t="s">
+        <v>103</v>
+      </c>
+      <c r="BF1" s="49" t="s">
+        <v>104</v>
+      </c>
+      <c r="BG1" s="49" t="s">
+        <v>105</v>
+      </c>
+      <c r="BH1" s="49" t="s">
+        <v>106</v>
+      </c>
+      <c r="BI1" s="49" t="s">
+        <v>107</v>
+      </c>
+      <c r="BJ1" s="49" t="s">
+        <v>108</v>
+      </c>
+      <c r="BK1" s="49" t="s">
+        <v>109</v>
+      </c>
+      <c r="BL1" s="49" t="s">
+        <v>110</v>
+      </c>
+      <c r="BM1" s="49" t="s">
+        <v>111</v>
+      </c>
+      <c r="BN1" s="49" t="s">
+        <v>112</v>
+      </c>
+      <c r="BO1" s="49" t="s">
+        <v>113</v>
+      </c>
+      <c r="BP1" s="49" t="s">
+        <v>114</v>
+      </c>
+      <c r="BQ1" s="49" t="s">
+        <v>115</v>
+      </c>
+      <c r="BR1" s="49" t="s">
+        <v>116</v>
+      </c>
+      <c r="BS1" s="49" t="s">
+        <v>117</v>
+      </c>
+      <c r="BT1" s="49" t="s">
+        <v>118</v>
+      </c>
+      <c r="BU1" s="49" t="s">
+        <v>119</v>
+      </c>
+      <c r="BV1" s="49" t="s">
+        <v>120</v>
+      </c>
+      <c r="BW1" s="49" t="s">
+        <v>121</v>
+      </c>
+      <c r="BX1" s="49" t="s">
+        <v>122</v>
+      </c>
+      <c r="BY1" s="49" t="s">
+        <v>123</v>
+      </c>
+      <c r="BZ1" s="49" t="s">
+        <v>124</v>
+      </c>
+      <c r="CA1" s="49" t="s">
+        <v>125</v>
+      </c>
+      <c r="CB1" s="49" t="s">
+        <v>126</v>
+      </c>
+      <c r="CC1" s="49" t="s">
+        <v>127</v>
+      </c>
+      <c r="CD1" s="49" t="s">
+        <v>128</v>
+      </c>
+      <c r="CE1" s="49" t="s">
+        <v>129</v>
+      </c>
+      <c r="CF1" s="49" t="s">
+        <v>130</v>
+      </c>
+      <c r="CG1" s="49" t="s">
+        <v>131</v>
+      </c>
+      <c r="CH1" s="49" t="s">
+        <v>132</v>
+      </c>
+      <c r="CI1" s="50" t="s">
+        <v>43</v>
+      </c>
+      <c r="CJ1" s="50" t="s">
+        <v>44</v>
+      </c>
+      <c r="CK1" s="50" t="s">
+        <v>45</v>
+      </c>
+      <c r="CL1" s="48" t="s">
+        <v>46</v>
+      </c>
+      <c r="CM1" s="52" t="s">
+        <v>47</v>
+      </c>
+      <c r="CN1" s="49" t="s">
+        <v>92</v>
+      </c>
+      <c r="CO1" s="53" t="s">
+        <v>90</v>
+      </c>
+      <c r="CP1" s="53" t="s">
+        <v>91</v>
+      </c>
+      <c r="CQ1" s="54" t="s">
+        <v>95</v>
+      </c>
+      <c r="CR1" s="55" t="s">
+        <v>48</v>
+      </c>
+      <c r="CS1" s="56" t="s">
+        <v>49</v>
+      </c>
+      <c r="CT1" s="45" t="s">
+        <v>50</v>
+      </c>
+      <c r="CU1" s="45" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="2" spans="1:99" s="1" customFormat="1" ht="180" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>264</v>
+      </c>
+      <c r="E2" s="22" t="s">
+        <v>265</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="G2" s="22" t="s">
+        <v>238</v>
+      </c>
+      <c r="H2" s="22" t="s">
+        <v>237</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="L2" s="9" t="s">
+        <v>298</v>
+      </c>
+      <c r="M2" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="N2" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="O2" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="P2" s="10" t="s">
+        <v>297</v>
+      </c>
+      <c r="Q2" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="R2" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="S2" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="U2" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="V2" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="W2" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="X2" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="Y2" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="Z2" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="AA2" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="AB2" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="AC2" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="AD2" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="AE2" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="AF2" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="AG2" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="AH2" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="AI2" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="AJ2" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="AK2" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="AL2" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="AM2" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="AN2" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="AO2" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="AP2" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="AQ2" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="AR2" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="AS2" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="AT2" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="AU2" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="AV2" s="11" t="s">
+        <v>287</v>
+      </c>
+      <c r="AW2" s="11" t="s">
+        <v>288</v>
+      </c>
+      <c r="AX2" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="AY2" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="AZ2" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="BA2" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="BB2" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="BC2" s="19" t="s">
+        <v>135</v>
+      </c>
+      <c r="BD2" s="19" t="s">
+        <v>136</v>
+      </c>
+      <c r="BE2" s="21" t="s">
+        <v>165</v>
+      </c>
+      <c r="BF2" s="22" t="s">
+        <v>137</v>
+      </c>
+      <c r="BG2" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="BH2" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="BI2" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="BJ2" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="BK2" s="19" t="s">
+        <v>142</v>
+      </c>
+      <c r="BL2" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="BM2" s="22" t="s">
+        <v>144</v>
+      </c>
+      <c r="BN2" s="22" t="s">
+        <v>145</v>
+      </c>
+      <c r="BO2" s="22" t="s">
+        <v>146</v>
+      </c>
+      <c r="BP2" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="BQ2" s="22" t="s">
+        <v>148</v>
+      </c>
+      <c r="BR2" s="22" t="s">
+        <v>149</v>
+      </c>
+      <c r="BS2" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="BT2" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="BU2" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="BV2" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="BW2" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="BX2" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="BY2" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="BZ2" s="22" t="s">
+        <v>156</v>
+      </c>
+      <c r="CA2" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="CB2" s="22" t="s">
+        <v>158</v>
+      </c>
+      <c r="CC2" s="21" t="s">
+        <v>159</v>
+      </c>
+      <c r="CD2" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="CE2" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="CF2" s="22" t="s">
+        <v>162</v>
+      </c>
+      <c r="CG2" s="22" t="s">
+        <v>163</v>
+      </c>
+      <c r="CH2" s="21" t="s">
+        <v>164</v>
+      </c>
+      <c r="CI2" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="CJ2" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="CK2" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="CL2" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="CM2" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="CN2" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="CO2" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="CP2" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="CQ2" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="CR2" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="CS2" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="CT2" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="CU2" t="s">
+        <v>166</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="BF1:BL1">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -9137,7 +11012,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="BE1:BK1">
-    <cfRule type="duplicateValues" dxfId="12" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="15" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -9728,7 +11603,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="BA1:BG1">
-    <cfRule type="duplicateValues" dxfId="11" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -9738,8 +11613,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CU2"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10349,7 +12224,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="BF1:BL1">
-    <cfRule type="duplicateValues" dxfId="10" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -10973,7 +12848,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="BE1:BK1">
-    <cfRule type="duplicateValues" dxfId="9" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -10983,8 +12858,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CU2"/>
   <sheetViews>
-    <sheetView topLeftCell="BW1" workbookViewId="0">
-      <selection activeCell="CH2" sqref="CH2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11592,7 +13467,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="BF1:BL1">
-    <cfRule type="duplicateValues" dxfId="8" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -12193,7 +14068,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="BC1:BI1">
-    <cfRule type="duplicateValues" dxfId="7" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -12784,7 +14659,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="BA1:BG1">
-    <cfRule type="duplicateValues" dxfId="6" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/src/test/java/testData/TestSuite1Data.xlsx
+++ b/src/test/java/testData/TestSuite1Data.xlsx
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4033" uniqueCount="315">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4037" uniqueCount="319">
   <si>
     <t>Gateway_PartnerCode</t>
   </si>
@@ -989,6 +989,18 @@
   </si>
   <si>
     <t>529878</t>
+  </si>
+  <si>
+    <t>529883</t>
+  </si>
+  <si>
+    <t>529891</t>
+  </si>
+  <si>
+    <t>529895</t>
+  </si>
+  <si>
+    <t>529898</t>
   </si>
 </sst>
 </file>
@@ -2416,7 +2428,7 @@
         <v>93</v>
       </c>
       <c r="CN2" s="1" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="CO2" s="8" t="s">
         <v>87</v>
@@ -9791,7 +9803,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="96" max="96" bestFit="true" customWidth="true" width="11.85546875" collapsed="false"/>
+    <col min="96" max="96" bestFit="true" customWidth="true" width="11.85546875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:99" s="45" customFormat="1" ht="30" x14ac:dyDescent="0.25">

--- a/src/test/java/testData/TestSuite1Data.xlsx
+++ b/src/test/java/testData/TestSuite1Data.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\agraway\eclipse-workspace\LifeSpeed-main\src\test\java\testData\"/>
     </mc:Choice>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4822" uniqueCount="336">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4823" uniqueCount="337">
   <si>
     <t>Gateway_PartnerCode</t>
   </si>
@@ -1055,12 +1055,16 @@
   </si>
   <si>
     <t>532148</t>
+  </si>
+  <si>
+    <t>532168</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1885,59 +1889,59 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.85546875" style="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="32" style="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="29.5703125" style="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="31.7109375" style="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="6" width="24.42578125" style="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="9" width="15.85546875" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="26.7109375" style="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="24.85546875" style="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="20.5703125" style="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="8.7109375" style="1" collapsed="1"/>
-    <col min="14" max="14" width="13.85546875" style="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="17.42578125" style="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="15.85546875" style="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="20" width="24.42578125" style="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="29" style="1" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="31.140625" style="1" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="30.140625" style="1" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="19.85546875" style="1" customWidth="1" collapsed="1"/>
-    <col min="25" max="25" width="20.140625" style="1" customWidth="1" collapsed="1"/>
-    <col min="26" max="26" width="22.140625" style="1" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="19.140625" style="1" customWidth="1" collapsed="1"/>
-    <col min="28" max="28" width="25.140625" style="1" customWidth="1" collapsed="1"/>
-    <col min="29" max="29" width="18.85546875" style="1" customWidth="1" collapsed="1"/>
-    <col min="30" max="30" width="17.140625" style="1" customWidth="1" collapsed="1"/>
-    <col min="31" max="31" width="10" style="1" customWidth="1" collapsed="1"/>
-    <col min="32" max="32" width="27.5703125" style="1" customWidth="1" collapsed="1"/>
-    <col min="33" max="33" width="20.7109375" style="1" customWidth="1" collapsed="1"/>
-    <col min="34" max="34" width="11.7109375" style="1" customWidth="1" collapsed="1"/>
-    <col min="35" max="35" width="26.85546875" style="1" customWidth="1" collapsed="1"/>
-    <col min="36" max="36" width="16.28515625" style="1" customWidth="1" collapsed="1"/>
-    <col min="37" max="37" width="19.7109375" style="1" customWidth="1" collapsed="1"/>
-    <col min="38" max="38" width="19.85546875" style="1" customWidth="1" collapsed="1"/>
-    <col min="39" max="39" width="17" style="1" customWidth="1" collapsed="1"/>
-    <col min="40" max="40" width="20.28515625" style="1" customWidth="1" collapsed="1"/>
-    <col min="41" max="41" width="20" style="1" customWidth="1" collapsed="1"/>
-    <col min="42" max="42" width="20.85546875" style="1" customWidth="1" collapsed="1"/>
-    <col min="43" max="43" width="24.5703125" style="1" customWidth="1" collapsed="1"/>
-    <col min="44" max="44" width="19.7109375" style="1" customWidth="1" collapsed="1"/>
-    <col min="45" max="45" width="25" style="1" customWidth="1" collapsed="1"/>
-    <col min="46" max="77" width="18" style="1" customWidth="1" collapsed="1"/>
-    <col min="78" max="78" width="21.140625" style="1" customWidth="1" collapsed="1"/>
-    <col min="79" max="82" width="18" style="1" customWidth="1" collapsed="1"/>
-    <col min="83" max="83" width="17.7109375" style="1" customWidth="1" collapsed="1"/>
-    <col min="84" max="84" width="15.5703125" style="1" customWidth="1" collapsed="1"/>
-    <col min="85" max="85" width="17.28515625" style="1" customWidth="1" collapsed="1"/>
-    <col min="86" max="86" width="22.5703125" style="1" customWidth="1" collapsed="1"/>
-    <col min="87" max="90" width="20.7109375" style="1" customWidth="1" collapsed="1"/>
-    <col min="91" max="91" width="25.42578125" style="1" customWidth="1" collapsed="1"/>
-    <col min="92" max="92" width="11.85546875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="93" max="93" width="19.85546875" style="1" customWidth="1" collapsed="1"/>
-    <col min="94" max="94" width="9.85546875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="95" max="95" width="12.28515625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="96" max="16384" width="8.7109375" style="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="1" width="21.85546875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="1" width="32.0" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="1" width="29.5703125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="1" width="31.7109375" collapsed="true"/>
+    <col min="5" max="6" customWidth="true" style="1" width="24.42578125" collapsed="true"/>
+    <col min="7" max="9" customWidth="true" width="15.85546875" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="1" width="26.7109375" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" style="1" width="24.85546875" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" style="1" width="20.5703125" collapsed="true"/>
+    <col min="13" max="13" style="1" width="8.7109375" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" style="1" width="13.85546875" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" style="1" width="17.42578125" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" style="1" width="15.85546875" collapsed="true"/>
+    <col min="17" max="20" customWidth="true" style="1" width="24.42578125" collapsed="true"/>
+    <col min="21" max="21" customWidth="true" style="1" width="29.0" collapsed="true"/>
+    <col min="22" max="22" customWidth="true" style="1" width="31.140625" collapsed="true"/>
+    <col min="23" max="23" customWidth="true" style="1" width="30.140625" collapsed="true"/>
+    <col min="24" max="24" customWidth="true" style="1" width="19.85546875" collapsed="true"/>
+    <col min="25" max="25" customWidth="true" style="1" width="20.140625" collapsed="true"/>
+    <col min="26" max="26" customWidth="true" style="1" width="22.140625" collapsed="true"/>
+    <col min="27" max="27" customWidth="true" style="1" width="19.140625" collapsed="true"/>
+    <col min="28" max="28" customWidth="true" style="1" width="25.140625" collapsed="true"/>
+    <col min="29" max="29" customWidth="true" style="1" width="18.85546875" collapsed="true"/>
+    <col min="30" max="30" customWidth="true" style="1" width="17.140625" collapsed="true"/>
+    <col min="31" max="31" customWidth="true" style="1" width="10.0" collapsed="true"/>
+    <col min="32" max="32" customWidth="true" style="1" width="27.5703125" collapsed="true"/>
+    <col min="33" max="33" customWidth="true" style="1" width="20.7109375" collapsed="true"/>
+    <col min="34" max="34" customWidth="true" style="1" width="11.7109375" collapsed="true"/>
+    <col min="35" max="35" customWidth="true" style="1" width="26.85546875" collapsed="true"/>
+    <col min="36" max="36" customWidth="true" style="1" width="16.28515625" collapsed="true"/>
+    <col min="37" max="37" customWidth="true" style="1" width="19.7109375" collapsed="true"/>
+    <col min="38" max="38" customWidth="true" style="1" width="19.85546875" collapsed="true"/>
+    <col min="39" max="39" customWidth="true" style="1" width="17.0" collapsed="true"/>
+    <col min="40" max="40" customWidth="true" style="1" width="20.28515625" collapsed="true"/>
+    <col min="41" max="41" customWidth="true" style="1" width="20.0" collapsed="true"/>
+    <col min="42" max="42" customWidth="true" style="1" width="20.85546875" collapsed="true"/>
+    <col min="43" max="43" customWidth="true" style="1" width="24.5703125" collapsed="true"/>
+    <col min="44" max="44" customWidth="true" style="1" width="19.7109375" collapsed="true"/>
+    <col min="45" max="45" customWidth="true" style="1" width="25.0" collapsed="true"/>
+    <col min="46" max="77" customWidth="true" style="1" width="18.0" collapsed="true"/>
+    <col min="78" max="78" customWidth="true" style="1" width="21.140625" collapsed="true"/>
+    <col min="79" max="82" customWidth="true" style="1" width="18.0" collapsed="true"/>
+    <col min="83" max="83" customWidth="true" style="1" width="17.7109375" collapsed="true"/>
+    <col min="84" max="84" customWidth="true" style="1" width="15.5703125" collapsed="true"/>
+    <col min="85" max="85" customWidth="true" style="1" width="17.28515625" collapsed="true"/>
+    <col min="86" max="86" customWidth="true" style="1" width="22.5703125" collapsed="true"/>
+    <col min="87" max="90" customWidth="true" style="1" width="20.7109375" collapsed="true"/>
+    <col min="91" max="91" customWidth="true" style="1" width="25.42578125" collapsed="true"/>
+    <col min="92" max="92" bestFit="true" customWidth="true" style="1" width="11.85546875" collapsed="true"/>
+    <col min="93" max="93" customWidth="true" style="1" width="19.85546875" collapsed="true"/>
+    <col min="94" max="94" bestFit="true" customWidth="true" style="1" width="9.85546875" collapsed="true"/>
+    <col min="95" max="95" bestFit="true" customWidth="true" style="1" width="12.28515625" collapsed="true"/>
+    <col min="96" max="16384" style="1" width="8.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:95" x14ac:dyDescent="0.25">
@@ -3681,8 +3685,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="10" max="10" width="24.7109375" customWidth="1" collapsed="1"/>
-    <col min="93" max="93" width="11.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" customWidth="true" width="24.7109375" collapsed="true"/>
+    <col min="93" max="93" bestFit="true" customWidth="true" width="11.85546875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:96" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -3962,7 +3966,7 @@
       <c r="CN1" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="CO1" t="s">
+      <c r="CO1" t="s" s="0">
         <v>48</v>
       </c>
       <c r="CP1" s="7" t="s">
@@ -4261,7 +4265,7 @@
       <c r="CQ2" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="CR2" t="s">
+      <c r="CR2" t="s" s="0">
         <v>166</v>
       </c>
     </row>
@@ -4283,18 +4287,18 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="7" width="41.140625" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="26.42578125" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="15.85546875" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="17.28515625" customWidth="1" collapsed="1"/>
-    <col min="91" max="91" width="15.5703125" customWidth="1" collapsed="1"/>
-    <col min="95" max="95" width="9.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="99" max="99" width="9.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="104" max="104" width="23.28515625" customWidth="1" collapsed="1"/>
-    <col min="105" max="105" width="12.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="106" max="106" width="21.5703125" customWidth="1" collapsed="1"/>
-    <col min="107" max="107" width="10.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="108" max="108" width="13" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="7" customWidth="true" width="41.140625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="26.42578125" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="15.85546875" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="17.28515625" collapsed="true"/>
+    <col min="91" max="91" customWidth="true" width="15.5703125" collapsed="true"/>
+    <col min="95" max="95" bestFit="true" customWidth="true" width="9.5703125" collapsed="true"/>
+    <col min="99" max="99" bestFit="true" customWidth="true" width="9.5703125" collapsed="true"/>
+    <col min="104" max="104" customWidth="true" width="23.28515625" collapsed="true"/>
+    <col min="105" max="105" bestFit="true" customWidth="true" width="12.140625" collapsed="true"/>
+    <col min="106" max="106" customWidth="true" width="21.5703125" collapsed="true"/>
+    <col min="107" max="107" bestFit="true" customWidth="true" width="10.28515625" collapsed="true"/>
+    <col min="108" max="108" bestFit="true" customWidth="true" width="13.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:108" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -4945,7 +4949,7 @@
       <c r="DC2" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="DD2" t="s">
+      <c r="DD2" t="s" s="0">
         <v>166</v>
       </c>
     </row>
@@ -4972,12 +4976,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="7" max="7" width="24.5703125" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="25.85546875" customWidth="1" collapsed="1"/>
-    <col min="110" max="110" width="54.7109375" customWidth="1" collapsed="1"/>
-    <col min="112" max="112" width="12.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="114" max="114" width="10.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="115" max="115" width="13" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" customWidth="true" width="24.5703125" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="25.85546875" collapsed="true"/>
+    <col min="110" max="110" customWidth="true" width="54.7109375" collapsed="true"/>
+    <col min="112" max="112" bestFit="true" customWidth="true" width="12.140625" collapsed="true"/>
+    <col min="114" max="114" bestFit="true" customWidth="true" width="10.28515625" collapsed="true"/>
+    <col min="115" max="115" bestFit="true" customWidth="true" width="13.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:115" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -5670,7 +5674,7 @@
       <c r="DJ2" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="DK2" t="s">
+      <c r="DK2" t="s" s="0">
         <v>166</v>
       </c>
     </row>
@@ -5700,12 +5704,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="46.5703125" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="12.7109375" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="19.5703125" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="16.85546875" customWidth="1" collapsed="1"/>
-    <col min="97" max="97" width="12.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="99" max="99" width="10.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" customWidth="true" width="46.5703125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="12.7109375" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="19.5703125" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="16.85546875" collapsed="true"/>
+    <col min="97" max="97" bestFit="true" customWidth="true" width="12.140625" collapsed="true"/>
+    <col min="99" max="99" bestFit="true" customWidth="true" width="10.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:100" s="19" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -6328,14 +6332,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="19.85546875" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="22.85546875" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="23.28515625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="17.85546875" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="20.5703125" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="26.42578125" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="20.140625" customWidth="1" collapsed="1"/>
-    <col min="97" max="97" width="12.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" customWidth="true" width="19.85546875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="22.85546875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="23.28515625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="17.85546875" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="20.5703125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="26.42578125" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="20.140625" collapsed="true"/>
+    <col min="97" max="97" bestFit="true" customWidth="true" width="12.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:100" s="19" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -6957,12 +6961,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="16.85546875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="13.28515625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="15" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="20.7109375" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="9.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="9.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" customWidth="true" width="16.85546875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="15.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="20.7109375" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="9.28515625" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="9.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -7007,7 +7011,7 @@
       <c r="F2" s="15" t="s">
         <v>253</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" t="s" s="0">
         <v>257</v>
       </c>
     </row>
@@ -7026,11 +7030,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="5" width="19.7109375" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="11.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="10.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="19.7109375" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="16.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="5" customWidth="true" width="19.7109375" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="11.28515625" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="10.5703125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="19.7109375" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="16.85546875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -7084,7 +7088,7 @@
       <c r="G2" s="15" t="s">
         <v>258</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2" t="s" s="0">
         <v>261</v>
       </c>
     </row>
@@ -7103,58 +7107,58 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="32" style="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="29.5703125" style="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="31.7109375" style="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="5" width="24.42578125" style="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="8" width="15.85546875" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="26.7109375" style="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="24.85546875" style="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="20.5703125" style="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="8.7109375" style="1" collapsed="1"/>
-    <col min="13" max="13" width="13.85546875" style="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="17.42578125" style="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="15.85546875" style="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="19" width="24.42578125" style="1" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="29" style="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="31.140625" style="1" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="30.140625" style="1" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="19.85546875" style="1" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="20.140625" style="1" customWidth="1" collapsed="1"/>
-    <col min="25" max="25" width="22.140625" style="1" customWidth="1" collapsed="1"/>
-    <col min="26" max="26" width="19.140625" style="1" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="25.140625" style="1" customWidth="1" collapsed="1"/>
-    <col min="28" max="28" width="18.85546875" style="1" customWidth="1" collapsed="1"/>
-    <col min="29" max="29" width="17.140625" style="1" customWidth="1" collapsed="1"/>
-    <col min="30" max="30" width="10" style="1" customWidth="1" collapsed="1"/>
-    <col min="31" max="31" width="27.5703125" style="1" customWidth="1" collapsed="1"/>
-    <col min="32" max="32" width="20.7109375" style="1" customWidth="1" collapsed="1"/>
-    <col min="33" max="33" width="11.7109375" style="1" customWidth="1" collapsed="1"/>
-    <col min="34" max="34" width="26.85546875" style="1" customWidth="1" collapsed="1"/>
-    <col min="35" max="35" width="16.28515625" style="1" customWidth="1" collapsed="1"/>
-    <col min="36" max="36" width="19.7109375" style="1" customWidth="1" collapsed="1"/>
-    <col min="37" max="37" width="19.85546875" style="1" customWidth="1" collapsed="1"/>
-    <col min="38" max="38" width="17" style="1" customWidth="1" collapsed="1"/>
-    <col min="39" max="39" width="20.28515625" style="1" customWidth="1" collapsed="1"/>
-    <col min="40" max="40" width="20" style="1" customWidth="1" collapsed="1"/>
-    <col min="41" max="41" width="20.85546875" style="1" customWidth="1" collapsed="1"/>
-    <col min="42" max="42" width="24.5703125" style="1" customWidth="1" collapsed="1"/>
-    <col min="43" max="43" width="19.7109375" style="1" customWidth="1" collapsed="1"/>
-    <col min="44" max="44" width="25" style="1" customWidth="1" collapsed="1"/>
-    <col min="45" max="76" width="18" style="1" customWidth="1" collapsed="1"/>
-    <col min="77" max="77" width="21.140625" style="1" customWidth="1" collapsed="1"/>
-    <col min="78" max="81" width="18" style="1" customWidth="1" collapsed="1"/>
-    <col min="82" max="82" width="17.7109375" style="1" customWidth="1" collapsed="1"/>
-    <col min="83" max="83" width="15.5703125" style="1" customWidth="1" collapsed="1"/>
-    <col min="84" max="84" width="17.28515625" style="1" customWidth="1" collapsed="1"/>
-    <col min="85" max="85" width="22.5703125" style="1" customWidth="1" collapsed="1"/>
-    <col min="86" max="89" width="20.7109375" style="1" customWidth="1" collapsed="1"/>
-    <col min="90" max="90" width="25.42578125" style="1" customWidth="1" collapsed="1"/>
-    <col min="91" max="91" width="11.85546875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="92" max="92" width="19.85546875" style="1" customWidth="1" collapsed="1"/>
-    <col min="93" max="93" width="9.85546875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="94" max="94" width="12.28515625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="95" max="16384" width="8.7109375" style="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="1" width="32.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="1" width="29.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="1" width="31.7109375" collapsed="true"/>
+    <col min="4" max="5" customWidth="true" style="1" width="24.42578125" collapsed="true"/>
+    <col min="6" max="8" customWidth="true" width="15.85546875" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="1" width="26.7109375" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="1" width="24.85546875" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" style="1" width="20.5703125" collapsed="true"/>
+    <col min="12" max="12" style="1" width="8.7109375" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" style="1" width="13.85546875" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" style="1" width="17.42578125" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" style="1" width="15.85546875" collapsed="true"/>
+    <col min="16" max="19" customWidth="true" style="1" width="24.42578125" collapsed="true"/>
+    <col min="20" max="20" customWidth="true" style="1" width="29.0" collapsed="true"/>
+    <col min="21" max="21" customWidth="true" style="1" width="31.140625" collapsed="true"/>
+    <col min="22" max="22" customWidth="true" style="1" width="30.140625" collapsed="true"/>
+    <col min="23" max="23" customWidth="true" style="1" width="19.85546875" collapsed="true"/>
+    <col min="24" max="24" customWidth="true" style="1" width="20.140625" collapsed="true"/>
+    <col min="25" max="25" customWidth="true" style="1" width="22.140625" collapsed="true"/>
+    <col min="26" max="26" customWidth="true" style="1" width="19.140625" collapsed="true"/>
+    <col min="27" max="27" customWidth="true" style="1" width="25.140625" collapsed="true"/>
+    <col min="28" max="28" customWidth="true" style="1" width="18.85546875" collapsed="true"/>
+    <col min="29" max="29" customWidth="true" style="1" width="17.140625" collapsed="true"/>
+    <col min="30" max="30" customWidth="true" style="1" width="10.0" collapsed="true"/>
+    <col min="31" max="31" customWidth="true" style="1" width="27.5703125" collapsed="true"/>
+    <col min="32" max="32" customWidth="true" style="1" width="20.7109375" collapsed="true"/>
+    <col min="33" max="33" customWidth="true" style="1" width="11.7109375" collapsed="true"/>
+    <col min="34" max="34" customWidth="true" style="1" width="26.85546875" collapsed="true"/>
+    <col min="35" max="35" customWidth="true" style="1" width="16.28515625" collapsed="true"/>
+    <col min="36" max="36" customWidth="true" style="1" width="19.7109375" collapsed="true"/>
+    <col min="37" max="37" customWidth="true" style="1" width="19.85546875" collapsed="true"/>
+    <col min="38" max="38" customWidth="true" style="1" width="17.0" collapsed="true"/>
+    <col min="39" max="39" customWidth="true" style="1" width="20.28515625" collapsed="true"/>
+    <col min="40" max="40" customWidth="true" style="1" width="20.0" collapsed="true"/>
+    <col min="41" max="41" customWidth="true" style="1" width="20.85546875" collapsed="true"/>
+    <col min="42" max="42" customWidth="true" style="1" width="24.5703125" collapsed="true"/>
+    <col min="43" max="43" customWidth="true" style="1" width="19.7109375" collapsed="true"/>
+    <col min="44" max="44" customWidth="true" style="1" width="25.0" collapsed="true"/>
+    <col min="45" max="76" customWidth="true" style="1" width="18.0" collapsed="true"/>
+    <col min="77" max="77" customWidth="true" style="1" width="21.140625" collapsed="true"/>
+    <col min="78" max="81" customWidth="true" style="1" width="18.0" collapsed="true"/>
+    <col min="82" max="82" customWidth="true" style="1" width="17.7109375" collapsed="true"/>
+    <col min="83" max="83" customWidth="true" style="1" width="15.5703125" collapsed="true"/>
+    <col min="84" max="84" customWidth="true" style="1" width="17.28515625" collapsed="true"/>
+    <col min="85" max="85" customWidth="true" style="1" width="22.5703125" collapsed="true"/>
+    <col min="86" max="89" customWidth="true" style="1" width="20.7109375" collapsed="true"/>
+    <col min="90" max="90" customWidth="true" style="1" width="25.42578125" collapsed="true"/>
+    <col min="91" max="91" bestFit="true" customWidth="true" style="1" width="11.85546875" collapsed="true"/>
+    <col min="92" max="92" customWidth="true" style="1" width="19.85546875" collapsed="true"/>
+    <col min="93" max="93" bestFit="true" customWidth="true" style="1" width="9.85546875" collapsed="true"/>
+    <col min="94" max="94" bestFit="true" customWidth="true" style="1" width="12.28515625" collapsed="true"/>
+    <col min="95" max="16384" style="1" width="8.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:94" x14ac:dyDescent="0.25">
@@ -8224,12 +8228,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.140625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="18.7109375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="18" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="16.7109375" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="8.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="11.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="24.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="18.7109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="16.7109375" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="8.28515625" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="11.85546875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -8294,8 +8298,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="11" max="11" width="19.28515625" customWidth="1" collapsed="1"/>
-    <col min="92" max="92" width="11.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" customWidth="true" width="19.28515625" collapsed="true"/>
+    <col min="92" max="92" bestFit="true" customWidth="true" width="11.85546875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:95" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -8572,7 +8576,7 @@
       <c r="CM1" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="CN1" t="s">
+      <c r="CN1" t="s" s="0">
         <v>48</v>
       </c>
       <c r="CO1" s="7" t="s">
@@ -8868,7 +8872,7 @@
       <c r="CP2" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="CQ2" t="s">
+      <c r="CQ2" t="s" s="0">
         <v>166</v>
       </c>
     </row>
@@ -8890,22 +8894,22 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="11" max="11" width="34.85546875" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="24.5703125" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="37.42578125" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="28" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="23.140625" customWidth="1" collapsed="1"/>
-    <col min="50" max="50" width="20.85546875" customWidth="1"/>
-    <col min="51" max="51" width="24.28515625" customWidth="1"/>
-    <col min="52" max="52" width="36.7109375" customWidth="1"/>
-    <col min="53" max="53" width="33.85546875" customWidth="1"/>
-    <col min="54" max="54" width="28.140625" customWidth="1"/>
-    <col min="55" max="55" width="29" customWidth="1"/>
-    <col min="88" max="88" width="19.85546875" customWidth="1"/>
-    <col min="89" max="89" width="34" customWidth="1"/>
-    <col min="99" max="99" width="10.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="101" max="101" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="102" max="102" width="11" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" customWidth="true" width="34.85546875" collapsed="true"/>
+    <col min="20" max="20" customWidth="true" width="24.5703125" collapsed="true"/>
+    <col min="21" max="21" customWidth="true" width="37.42578125" collapsed="true"/>
+    <col min="22" max="22" customWidth="true" width="28.0" collapsed="true"/>
+    <col min="23" max="23" customWidth="true" width="23.140625" collapsed="true"/>
+    <col min="50" max="50" customWidth="true" width="20.85546875"/>
+    <col min="51" max="51" customWidth="true" width="24.28515625"/>
+    <col min="52" max="52" customWidth="true" width="36.7109375"/>
+    <col min="53" max="53" customWidth="true" width="33.85546875"/>
+    <col min="54" max="54" customWidth="true" width="28.140625"/>
+    <col min="55" max="55" customWidth="true" width="29.0"/>
+    <col min="88" max="88" customWidth="true" width="19.85546875"/>
+    <col min="89" max="89" customWidth="true" width="34.0"/>
+    <col min="99" max="99" bestFit="true" customWidth="true" width="10.58984375" collapsed="true"/>
+    <col min="101" max="101" bestFit="true" customWidth="true" width="8.85546875"/>
+    <col min="102" max="102" bestFit="true" customWidth="true" width="11.0"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:102" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -9203,7 +9207,7 @@
       <c r="CT1" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="CU1" t="s">
+      <c r="CU1" t="s" s="0">
         <v>48</v>
       </c>
       <c r="CV1" s="7" t="s">
@@ -9512,7 +9516,7 @@
         <v>93</v>
       </c>
       <c r="CU2" s="1" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="CV2" s="7" t="s">
         <v>87</v>
@@ -9520,7 +9524,7 @@
       <c r="CW2" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="CX2" t="s">
+      <c r="CX2" t="s" s="0">
         <v>166</v>
       </c>
     </row>
@@ -9542,8 +9546,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="10" max="10" width="23.5703125" customWidth="1" collapsed="1"/>
-    <col min="97" max="97" width="12.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" customWidth="true" width="23.5703125" collapsed="true"/>
+    <col min="97" max="97" bestFit="true" customWidth="true" width="12.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:100" s="19" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -10165,11 +10169,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="7" max="7" width="15.42578125" customWidth="1"/>
-    <col min="8" max="8" width="16" customWidth="1"/>
-    <col min="9" max="9" width="22" customWidth="1"/>
-    <col min="10" max="10" width="51" customWidth="1"/>
-    <col min="96" max="96" width="11.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" customWidth="true" width="15.42578125"/>
+    <col min="8" max="8" customWidth="true" width="16.0"/>
+    <col min="9" max="9" customWidth="true" width="22.0"/>
+    <col min="10" max="10" customWidth="true" width="51.0"/>
+    <col min="96" max="96" bestFit="true" customWidth="true" width="11.85546875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:99" s="38" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -10766,7 +10770,7 @@
       <c r="CT2" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="CU2" t="s">
+      <c r="CU2" t="s" s="0">
         <v>166</v>
       </c>
     </row>
@@ -10788,10 +10792,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="17" max="17" width="20.5703125" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="21.28515625" customWidth="1" collapsed="1"/>
-    <col min="96" max="96" width="11.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="97" max="97" width="12.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" customWidth="true" width="20.5703125" collapsed="true"/>
+    <col min="18" max="18" customWidth="true" width="21.28515625" collapsed="true"/>
+    <col min="96" max="96" bestFit="true" customWidth="true" width="11.85546875" collapsed="true"/>
+    <col min="97" max="97" bestFit="true" customWidth="true" width="12.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:100" s="19" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -11405,7 +11409,7 @@
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16ADFDC9-E8FB-45FB-A949-A1A72F8FEBC7}">
-  <dimension ref="A1:CW5"/>
+  <dimension ref="A1:CU5"/>
   <sheetViews>
     <sheetView topLeftCell="AP1" workbookViewId="0">
       <selection activeCell="AZ12" sqref="AZ12"/>
@@ -11413,16 +11417,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="28" customWidth="1"/>
-    <col min="7" max="7" width="17" customWidth="1"/>
-    <col min="92" max="92" width="37.28515625" customWidth="1" collapsed="1"/>
-    <col min="93" max="93" width="42.140625" customWidth="1" collapsed="1"/>
-    <col min="94" max="94" width="92.140625" customWidth="1" collapsed="1"/>
-    <col min="95" max="95" width="28" customWidth="1" collapsed="1"/>
-    <col min="96" max="96" width="10.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="98" max="98" width="8.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="99" max="99" width="11" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="101" max="101" width="12.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" customWidth="true" width="28.0"/>
+    <col min="7" max="7" customWidth="true" width="17.0"/>
+    <col min="92" max="92" customWidth="true" width="37.28515625" collapsed="true"/>
+    <col min="93" max="93" customWidth="true" width="42.140625" collapsed="true"/>
+    <col min="94" max="94" customWidth="true" width="92.140625" collapsed="true"/>
+    <col min="95" max="95" customWidth="true" width="28.0" collapsed="true"/>
+    <col min="96" max="96" bestFit="true" customWidth="true" width="10.5703125" collapsed="true"/>
+    <col min="98" max="98" bestFit="true" customWidth="true" width="8.85546875" collapsed="true"/>
+    <col min="99" max="99" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
+    <col min="101" max="101" bestFit="true" customWidth="true" width="12.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:99" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -11711,7 +11715,7 @@
       <c r="CQ1" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="CR1" t="s">
+      <c r="CR1" t="s" s="0">
         <v>48</v>
       </c>
       <c r="CS1" s="7" t="s">
@@ -12010,16 +12014,16 @@
       <c r="CQ2" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="CR2" t="s">
+      <c r="CR2" t="s" s="0">
         <v>324</v>
       </c>
       <c r="CS2" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="CT2" t="s">
+      <c r="CT2" t="s" s="0">
         <v>166</v>
       </c>
-      <c r="CU2" t="s">
+      <c r="CU2" t="s" s="0">
         <v>166</v>
       </c>
     </row>
@@ -12312,7 +12316,7 @@
       <c r="CS3" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="CU3"/>
+      <c r="CU3" s="0"/>
     </row>
     <row r="4" spans="1:99" ht="90" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
@@ -12894,8 +12898,8 @@
       <c r="CS5" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="CT5"/>
-      <c r="CU5"/>
+      <c r="CT5" s="0"/>
+      <c r="CU5" s="0"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="BE1:BK1">
@@ -12922,12 +12926,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="71" max="71" width="26.140625" customWidth="1" collapsed="1"/>
-    <col min="72" max="72" width="29.28515625" customWidth="1" collapsed="1"/>
-    <col min="73" max="73" width="15.28515625" customWidth="1" collapsed="1"/>
-    <col min="74" max="74" width="14.5703125" customWidth="1" collapsed="1"/>
-    <col min="81" max="81" width="21.28515625" customWidth="1" collapsed="1"/>
-    <col min="95" max="95" width="11.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="71" max="71" customWidth="true" width="26.140625" collapsed="true"/>
+    <col min="72" max="72" customWidth="true" width="29.28515625" collapsed="true"/>
+    <col min="73" max="73" customWidth="true" width="15.28515625" collapsed="true"/>
+    <col min="74" max="74" customWidth="true" width="14.5703125" collapsed="true"/>
+    <col min="81" max="81" customWidth="true" width="21.28515625" collapsed="true"/>
+    <col min="95" max="95" bestFit="true" customWidth="true" width="11.85546875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:98" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -13518,7 +13522,7 @@
       <c r="CS2" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="CT2" t="s">
+      <c r="CT2" t="s" s="0">
         <v>166</v>
       </c>
     </row>
@@ -13540,9 +13544,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="80" max="80" width="16.42578125" customWidth="1" collapsed="1"/>
-    <col min="81" max="81" width="17.140625" customWidth="1" collapsed="1"/>
-    <col min="91" max="91" width="11.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="80" max="80" customWidth="true" width="16.42578125" collapsed="true"/>
+    <col min="81" max="81" customWidth="true" width="17.140625" collapsed="true"/>
+    <col min="91" max="91" bestFit="true" customWidth="true" width="11.85546875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:94" s="38" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -14109,7 +14113,7 @@
       <c r="CO2" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="CP2" t="s">
+      <c r="CP2" t="s" s="0">
         <v>166</v>
       </c>
     </row>
@@ -14131,9 +14135,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="10" max="10" width="23.7109375" customWidth="1" collapsed="1"/>
-    <col min="47" max="47" width="37.42578125" customWidth="1" collapsed="1"/>
-    <col min="96" max="96" width="11.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" customWidth="true" width="23.7109375" collapsed="true"/>
+    <col min="47" max="47" customWidth="true" width="37.42578125" collapsed="true"/>
+    <col min="96" max="96" bestFit="true" customWidth="true" width="11.85546875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:99" s="38" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -14730,7 +14734,7 @@
       <c r="CT2" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="CU2" t="s">
+      <c r="CU2" t="s" s="0">
         <v>166</v>
       </c>
     </row>
@@ -14752,9 +14756,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="10" max="10" width="21.28515625" customWidth="1" collapsed="1"/>
-    <col min="96" max="96" width="11.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="97" max="97" width="12.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" customWidth="true" width="21.28515625" collapsed="true"/>
+    <col min="96" max="96" bestFit="true" customWidth="true" width="11.85546875" collapsed="true"/>
+    <col min="97" max="97" bestFit="true" customWidth="true" width="12.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:100" s="19" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -15376,7 +15380,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="96" max="96" width="11.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="96" max="96" bestFit="true" customWidth="true" width="11.85546875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:99" s="38" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -15973,7 +15977,7 @@
       <c r="CT2" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="CU2" t="s">
+      <c r="CU2" t="s" s="0">
         <v>166</v>
       </c>
     </row>
@@ -15995,7 +15999,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="93" max="93" width="11.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="93" max="93" bestFit="true" customWidth="true" width="11.85546875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:96" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -16275,7 +16279,7 @@
       <c r="CN1" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="CO1" t="s">
+      <c r="CO1" t="s" s="0">
         <v>48</v>
       </c>
       <c r="CP1" s="7" t="s">
@@ -16574,7 +16578,7 @@
       <c r="CQ2" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="CR2" t="s">
+      <c r="CR2" t="s" s="0">
         <v>166</v>
       </c>
     </row>
@@ -16596,9 +16600,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="21" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="17.85546875" customWidth="1" collapsed="1"/>
-    <col min="91" max="91" width="11.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" customWidth="true" width="21.0" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="17.85546875" collapsed="true"/>
+    <col min="91" max="91" bestFit="true" customWidth="true" width="11.85546875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:94" s="38" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -17165,7 +17169,7 @@
       <c r="CO2" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="CP2" t="s">
+      <c r="CP2" t="s" s="0">
         <v>166</v>
       </c>
     </row>

--- a/src/test/java/testData/TestSuite1Data.xlsx
+++ b/src/test/java/testData/TestSuite1Data.xlsx
@@ -3,14 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
   <workbookPr/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\agraway\eclipse-workspace\LifeSpeed-main\src\test\java\testData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\agraway\Desktop\LifeSpeed-mainy\LifeSpeed-main\src\test\java\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C23B4CD-C64C-47DA-AC49-777C458C3815}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{523682E0-F42C-40E8-A494-495D5B5BC877}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" firstSheet="8" activeTab="21" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TC01" sheetId="1" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4823" uniqueCount="337">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4822" uniqueCount="336">
   <si>
     <t>Gateway_PartnerCode</t>
   </si>
@@ -1052,9 +1052,6 @@
   </si>
   <si>
     <t>Quarter or Quarterly</t>
-  </si>
-  <si>
-    <t>532148</t>
   </si>
   <si>
     <t>532168</t>
@@ -1064,7 +1061,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1889,59 +1885,59 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="1" width="21.85546875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="1" width="32.0" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="1" width="29.5703125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="1" width="31.7109375" collapsed="true"/>
-    <col min="5" max="6" customWidth="true" style="1" width="24.42578125" collapsed="true"/>
-    <col min="7" max="9" customWidth="true" width="15.85546875" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" style="1" width="26.7109375" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" style="1" width="24.85546875" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" style="1" width="20.5703125" collapsed="true"/>
-    <col min="13" max="13" style="1" width="8.7109375" collapsed="true"/>
-    <col min="14" max="14" customWidth="true" style="1" width="13.85546875" collapsed="true"/>
-    <col min="15" max="15" customWidth="true" style="1" width="17.42578125" collapsed="true"/>
-    <col min="16" max="16" customWidth="true" style="1" width="15.85546875" collapsed="true"/>
-    <col min="17" max="20" customWidth="true" style="1" width="24.42578125" collapsed="true"/>
-    <col min="21" max="21" customWidth="true" style="1" width="29.0" collapsed="true"/>
-    <col min="22" max="22" customWidth="true" style="1" width="31.140625" collapsed="true"/>
-    <col min="23" max="23" customWidth="true" style="1" width="30.140625" collapsed="true"/>
-    <col min="24" max="24" customWidth="true" style="1" width="19.85546875" collapsed="true"/>
-    <col min="25" max="25" customWidth="true" style="1" width="20.140625" collapsed="true"/>
-    <col min="26" max="26" customWidth="true" style="1" width="22.140625" collapsed="true"/>
-    <col min="27" max="27" customWidth="true" style="1" width="19.140625" collapsed="true"/>
-    <col min="28" max="28" customWidth="true" style="1" width="25.140625" collapsed="true"/>
-    <col min="29" max="29" customWidth="true" style="1" width="18.85546875" collapsed="true"/>
-    <col min="30" max="30" customWidth="true" style="1" width="17.140625" collapsed="true"/>
-    <col min="31" max="31" customWidth="true" style="1" width="10.0" collapsed="true"/>
-    <col min="32" max="32" customWidth="true" style="1" width="27.5703125" collapsed="true"/>
-    <col min="33" max="33" customWidth="true" style="1" width="20.7109375" collapsed="true"/>
-    <col min="34" max="34" customWidth="true" style="1" width="11.7109375" collapsed="true"/>
-    <col min="35" max="35" customWidth="true" style="1" width="26.85546875" collapsed="true"/>
-    <col min="36" max="36" customWidth="true" style="1" width="16.28515625" collapsed="true"/>
-    <col min="37" max="37" customWidth="true" style="1" width="19.7109375" collapsed="true"/>
-    <col min="38" max="38" customWidth="true" style="1" width="19.85546875" collapsed="true"/>
-    <col min="39" max="39" customWidth="true" style="1" width="17.0" collapsed="true"/>
-    <col min="40" max="40" customWidth="true" style="1" width="20.28515625" collapsed="true"/>
-    <col min="41" max="41" customWidth="true" style="1" width="20.0" collapsed="true"/>
-    <col min="42" max="42" customWidth="true" style="1" width="20.85546875" collapsed="true"/>
-    <col min="43" max="43" customWidth="true" style="1" width="24.5703125" collapsed="true"/>
-    <col min="44" max="44" customWidth="true" style="1" width="19.7109375" collapsed="true"/>
-    <col min="45" max="45" customWidth="true" style="1" width="25.0" collapsed="true"/>
-    <col min="46" max="77" customWidth="true" style="1" width="18.0" collapsed="true"/>
-    <col min="78" max="78" customWidth="true" style="1" width="21.140625" collapsed="true"/>
-    <col min="79" max="82" customWidth="true" style="1" width="18.0" collapsed="true"/>
-    <col min="83" max="83" customWidth="true" style="1" width="17.7109375" collapsed="true"/>
-    <col min="84" max="84" customWidth="true" style="1" width="15.5703125" collapsed="true"/>
-    <col min="85" max="85" customWidth="true" style="1" width="17.28515625" collapsed="true"/>
-    <col min="86" max="86" customWidth="true" style="1" width="22.5703125" collapsed="true"/>
-    <col min="87" max="90" customWidth="true" style="1" width="20.7109375" collapsed="true"/>
-    <col min="91" max="91" customWidth="true" style="1" width="25.42578125" collapsed="true"/>
-    <col min="92" max="92" bestFit="true" customWidth="true" style="1" width="11.85546875" collapsed="true"/>
-    <col min="93" max="93" customWidth="true" style="1" width="19.85546875" collapsed="true"/>
-    <col min="94" max="94" bestFit="true" customWidth="true" style="1" width="9.85546875" collapsed="true"/>
-    <col min="95" max="95" bestFit="true" customWidth="true" style="1" width="12.28515625" collapsed="true"/>
-    <col min="96" max="16384" style="1" width="8.7109375" collapsed="true"/>
+    <col min="1" max="1" width="21.85546875" style="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="32" style="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="29.5703125" style="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="31.7109375" style="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="6" width="24.42578125" style="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="9" width="15.85546875" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="26.7109375" style="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="24.85546875" style="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="20.5703125" style="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="8.7109375" style="1" collapsed="1"/>
+    <col min="14" max="14" width="13.85546875" style="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="17.42578125" style="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="15.85546875" style="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="20" width="24.42578125" style="1" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="29" style="1" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="31.140625" style="1" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="30.140625" style="1" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="19.85546875" style="1" customWidth="1" collapsed="1"/>
+    <col min="25" max="25" width="20.140625" style="1" customWidth="1" collapsed="1"/>
+    <col min="26" max="26" width="22.140625" style="1" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="19.140625" style="1" customWidth="1" collapsed="1"/>
+    <col min="28" max="28" width="25.140625" style="1" customWidth="1" collapsed="1"/>
+    <col min="29" max="29" width="18.85546875" style="1" customWidth="1" collapsed="1"/>
+    <col min="30" max="30" width="17.140625" style="1" customWidth="1" collapsed="1"/>
+    <col min="31" max="31" width="10" style="1" customWidth="1" collapsed="1"/>
+    <col min="32" max="32" width="27.5703125" style="1" customWidth="1" collapsed="1"/>
+    <col min="33" max="33" width="20.7109375" style="1" customWidth="1" collapsed="1"/>
+    <col min="34" max="34" width="11.7109375" style="1" customWidth="1" collapsed="1"/>
+    <col min="35" max="35" width="26.85546875" style="1" customWidth="1" collapsed="1"/>
+    <col min="36" max="36" width="16.28515625" style="1" customWidth="1" collapsed="1"/>
+    <col min="37" max="37" width="19.7109375" style="1" customWidth="1" collapsed="1"/>
+    <col min="38" max="38" width="19.85546875" style="1" customWidth="1" collapsed="1"/>
+    <col min="39" max="39" width="17" style="1" customWidth="1" collapsed="1"/>
+    <col min="40" max="40" width="20.28515625" style="1" customWidth="1" collapsed="1"/>
+    <col min="41" max="41" width="20" style="1" customWidth="1" collapsed="1"/>
+    <col min="42" max="42" width="20.85546875" style="1" customWidth="1" collapsed="1"/>
+    <col min="43" max="43" width="24.5703125" style="1" customWidth="1" collapsed="1"/>
+    <col min="44" max="44" width="19.7109375" style="1" customWidth="1" collapsed="1"/>
+    <col min="45" max="45" width="25" style="1" customWidth="1" collapsed="1"/>
+    <col min="46" max="77" width="18" style="1" customWidth="1" collapsed="1"/>
+    <col min="78" max="78" width="21.140625" style="1" customWidth="1" collapsed="1"/>
+    <col min="79" max="82" width="18" style="1" customWidth="1" collapsed="1"/>
+    <col min="83" max="83" width="17.7109375" style="1" customWidth="1" collapsed="1"/>
+    <col min="84" max="84" width="15.5703125" style="1" customWidth="1" collapsed="1"/>
+    <col min="85" max="85" width="17.28515625" style="1" customWidth="1" collapsed="1"/>
+    <col min="86" max="86" width="22.5703125" style="1" customWidth="1" collapsed="1"/>
+    <col min="87" max="90" width="20.7109375" style="1" customWidth="1" collapsed="1"/>
+    <col min="91" max="91" width="25.42578125" style="1" customWidth="1" collapsed="1"/>
+    <col min="92" max="92" width="11.85546875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="93" max="93" width="19.85546875" style="1" customWidth="1" collapsed="1"/>
+    <col min="94" max="94" width="9.85546875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="95" max="95" width="12.28515625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="96" max="16384" width="8.7109375" style="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:95" x14ac:dyDescent="0.25">
@@ -3685,8 +3681,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="10" max="10" customWidth="true" width="24.7109375" collapsed="true"/>
-    <col min="93" max="93" bestFit="true" customWidth="true" width="11.85546875" collapsed="true"/>
+    <col min="10" max="10" width="24.7109375" customWidth="1" collapsed="1"/>
+    <col min="93" max="93" width="11.85546875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:96" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -3966,7 +3962,7 @@
       <c r="CN1" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="CO1" t="s" s="0">
+      <c r="CO1" t="s">
         <v>48</v>
       </c>
       <c r="CP1" s="7" t="s">
@@ -4265,7 +4261,7 @@
       <c r="CQ2" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="CR2" t="s" s="0">
+      <c r="CR2" t="s">
         <v>166</v>
       </c>
     </row>
@@ -4287,18 +4283,18 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="7" customWidth="true" width="41.140625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="26.42578125" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="15.85546875" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="17.28515625" collapsed="true"/>
-    <col min="91" max="91" customWidth="true" width="15.5703125" collapsed="true"/>
-    <col min="95" max="95" bestFit="true" customWidth="true" width="9.5703125" collapsed="true"/>
-    <col min="99" max="99" bestFit="true" customWidth="true" width="9.5703125" collapsed="true"/>
-    <col min="104" max="104" customWidth="true" width="23.28515625" collapsed="true"/>
-    <col min="105" max="105" bestFit="true" customWidth="true" width="12.140625" collapsed="true"/>
-    <col min="106" max="106" customWidth="true" width="21.5703125" collapsed="true"/>
-    <col min="107" max="107" bestFit="true" customWidth="true" width="10.28515625" collapsed="true"/>
-    <col min="108" max="108" bestFit="true" customWidth="true" width="13.0" collapsed="true"/>
+    <col min="4" max="7" width="41.140625" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="26.42578125" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="15.85546875" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="17.28515625" customWidth="1" collapsed="1"/>
+    <col min="91" max="91" width="15.5703125" customWidth="1" collapsed="1"/>
+    <col min="95" max="95" width="9.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="99" max="99" width="9.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="104" max="104" width="23.28515625" customWidth="1" collapsed="1"/>
+    <col min="105" max="105" width="12.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="106" max="106" width="21.5703125" customWidth="1" collapsed="1"/>
+    <col min="107" max="107" width="10.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="108" max="108" width="13" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:108" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -4949,7 +4945,7 @@
       <c r="DC2" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="DD2" t="s" s="0">
+      <c r="DD2" t="s">
         <v>166</v>
       </c>
     </row>
@@ -4976,12 +4972,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="7" max="7" customWidth="true" width="24.5703125" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="25.85546875" collapsed="true"/>
-    <col min="110" max="110" customWidth="true" width="54.7109375" collapsed="true"/>
-    <col min="112" max="112" bestFit="true" customWidth="true" width="12.140625" collapsed="true"/>
-    <col min="114" max="114" bestFit="true" customWidth="true" width="10.28515625" collapsed="true"/>
-    <col min="115" max="115" bestFit="true" customWidth="true" width="13.0" collapsed="true"/>
+    <col min="7" max="7" width="24.5703125" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="25.85546875" customWidth="1" collapsed="1"/>
+    <col min="110" max="110" width="54.7109375" customWidth="1" collapsed="1"/>
+    <col min="112" max="112" width="12.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="114" max="114" width="10.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="115" max="115" width="13" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:115" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -5674,7 +5670,7 @@
       <c r="DJ2" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="DK2" t="s" s="0">
+      <c r="DK2" t="s">
         <v>166</v>
       </c>
     </row>
@@ -5704,12 +5700,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" customWidth="true" width="46.5703125" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="12.7109375" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="19.5703125" collapsed="true"/>
-    <col min="15" max="15" customWidth="true" width="16.85546875" collapsed="true"/>
-    <col min="97" max="97" bestFit="true" customWidth="true" width="12.140625" collapsed="true"/>
-    <col min="99" max="99" bestFit="true" customWidth="true" width="10.28515625" collapsed="true"/>
+    <col min="4" max="4" width="46.5703125" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="12.7109375" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="19.5703125" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="16.85546875" customWidth="1" collapsed="1"/>
+    <col min="97" max="97" width="12.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="99" max="99" width="10.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:100" s="19" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -6332,14 +6328,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" customWidth="true" width="19.85546875" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="22.85546875" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="23.28515625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="17.85546875" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="20.5703125" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="26.42578125" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="20.140625" collapsed="true"/>
-    <col min="97" max="97" bestFit="true" customWidth="true" width="12.140625" collapsed="true"/>
+    <col min="3" max="3" width="19.85546875" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="22.85546875" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="23.28515625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="17.85546875" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="20.5703125" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="26.42578125" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="20.140625" customWidth="1" collapsed="1"/>
+    <col min="97" max="97" width="12.140625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:100" s="19" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -6961,12 +6957,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" customWidth="true" width="16.85546875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="15.0" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="20.7109375" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="9.28515625" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="9.7109375" collapsed="true"/>
+    <col min="2" max="2" width="16.85546875" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="13.28515625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="15" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="20.7109375" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="9.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="9.7109375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -7011,7 +7007,7 @@
       <c r="F2" s="15" t="s">
         <v>253</v>
       </c>
-      <c r="G2" t="s" s="0">
+      <c r="G2" t="s">
         <v>257</v>
       </c>
     </row>
@@ -7030,11 +7026,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="5" customWidth="true" width="19.7109375" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="11.28515625" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="10.5703125" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="19.7109375" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="16.85546875" collapsed="true"/>
+    <col min="1" max="5" width="19.7109375" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="11.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="10.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="19.7109375" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="16.85546875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -7088,7 +7084,7 @@
       <c r="G2" s="15" t="s">
         <v>258</v>
       </c>
-      <c r="I2" t="s" s="0">
+      <c r="I2" t="s">
         <v>261</v>
       </c>
     </row>
@@ -7107,58 +7103,58 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="1" width="32.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="1" width="29.5703125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="1" width="31.7109375" collapsed="true"/>
-    <col min="4" max="5" customWidth="true" style="1" width="24.42578125" collapsed="true"/>
-    <col min="6" max="8" customWidth="true" width="15.85546875" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" style="1" width="26.7109375" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" style="1" width="24.85546875" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" style="1" width="20.5703125" collapsed="true"/>
-    <col min="12" max="12" style="1" width="8.7109375" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" style="1" width="13.85546875" collapsed="true"/>
-    <col min="14" max="14" customWidth="true" style="1" width="17.42578125" collapsed="true"/>
-    <col min="15" max="15" customWidth="true" style="1" width="15.85546875" collapsed="true"/>
-    <col min="16" max="19" customWidth="true" style="1" width="24.42578125" collapsed="true"/>
-    <col min="20" max="20" customWidth="true" style="1" width="29.0" collapsed="true"/>
-    <col min="21" max="21" customWidth="true" style="1" width="31.140625" collapsed="true"/>
-    <col min="22" max="22" customWidth="true" style="1" width="30.140625" collapsed="true"/>
-    <col min="23" max="23" customWidth="true" style="1" width="19.85546875" collapsed="true"/>
-    <col min="24" max="24" customWidth="true" style="1" width="20.140625" collapsed="true"/>
-    <col min="25" max="25" customWidth="true" style="1" width="22.140625" collapsed="true"/>
-    <col min="26" max="26" customWidth="true" style="1" width="19.140625" collapsed="true"/>
-    <col min="27" max="27" customWidth="true" style="1" width="25.140625" collapsed="true"/>
-    <col min="28" max="28" customWidth="true" style="1" width="18.85546875" collapsed="true"/>
-    <col min="29" max="29" customWidth="true" style="1" width="17.140625" collapsed="true"/>
-    <col min="30" max="30" customWidth="true" style="1" width="10.0" collapsed="true"/>
-    <col min="31" max="31" customWidth="true" style="1" width="27.5703125" collapsed="true"/>
-    <col min="32" max="32" customWidth="true" style="1" width="20.7109375" collapsed="true"/>
-    <col min="33" max="33" customWidth="true" style="1" width="11.7109375" collapsed="true"/>
-    <col min="34" max="34" customWidth="true" style="1" width="26.85546875" collapsed="true"/>
-    <col min="35" max="35" customWidth="true" style="1" width="16.28515625" collapsed="true"/>
-    <col min="36" max="36" customWidth="true" style="1" width="19.7109375" collapsed="true"/>
-    <col min="37" max="37" customWidth="true" style="1" width="19.85546875" collapsed="true"/>
-    <col min="38" max="38" customWidth="true" style="1" width="17.0" collapsed="true"/>
-    <col min="39" max="39" customWidth="true" style="1" width="20.28515625" collapsed="true"/>
-    <col min="40" max="40" customWidth="true" style="1" width="20.0" collapsed="true"/>
-    <col min="41" max="41" customWidth="true" style="1" width="20.85546875" collapsed="true"/>
-    <col min="42" max="42" customWidth="true" style="1" width="24.5703125" collapsed="true"/>
-    <col min="43" max="43" customWidth="true" style="1" width="19.7109375" collapsed="true"/>
-    <col min="44" max="44" customWidth="true" style="1" width="25.0" collapsed="true"/>
-    <col min="45" max="76" customWidth="true" style="1" width="18.0" collapsed="true"/>
-    <col min="77" max="77" customWidth="true" style="1" width="21.140625" collapsed="true"/>
-    <col min="78" max="81" customWidth="true" style="1" width="18.0" collapsed="true"/>
-    <col min="82" max="82" customWidth="true" style="1" width="17.7109375" collapsed="true"/>
-    <col min="83" max="83" customWidth="true" style="1" width="15.5703125" collapsed="true"/>
-    <col min="84" max="84" customWidth="true" style="1" width="17.28515625" collapsed="true"/>
-    <col min="85" max="85" customWidth="true" style="1" width="22.5703125" collapsed="true"/>
-    <col min="86" max="89" customWidth="true" style="1" width="20.7109375" collapsed="true"/>
-    <col min="90" max="90" customWidth="true" style="1" width="25.42578125" collapsed="true"/>
-    <col min="91" max="91" bestFit="true" customWidth="true" style="1" width="11.85546875" collapsed="true"/>
-    <col min="92" max="92" customWidth="true" style="1" width="19.85546875" collapsed="true"/>
-    <col min="93" max="93" bestFit="true" customWidth="true" style="1" width="9.85546875" collapsed="true"/>
-    <col min="94" max="94" bestFit="true" customWidth="true" style="1" width="12.28515625" collapsed="true"/>
-    <col min="95" max="16384" style="1" width="8.7109375" collapsed="true"/>
+    <col min="1" max="1" width="32" style="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="29.5703125" style="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="31.7109375" style="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="5" width="24.42578125" style="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="8" width="15.85546875" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="26.7109375" style="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="24.85546875" style="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="20.5703125" style="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="8.7109375" style="1" collapsed="1"/>
+    <col min="13" max="13" width="13.85546875" style="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="17.42578125" style="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="15.85546875" style="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="19" width="24.42578125" style="1" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="29" style="1" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="31.140625" style="1" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="30.140625" style="1" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="19.85546875" style="1" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="20.140625" style="1" customWidth="1" collapsed="1"/>
+    <col min="25" max="25" width="22.140625" style="1" customWidth="1" collapsed="1"/>
+    <col min="26" max="26" width="19.140625" style="1" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="25.140625" style="1" customWidth="1" collapsed="1"/>
+    <col min="28" max="28" width="18.85546875" style="1" customWidth="1" collapsed="1"/>
+    <col min="29" max="29" width="17.140625" style="1" customWidth="1" collapsed="1"/>
+    <col min="30" max="30" width="10" style="1" customWidth="1" collapsed="1"/>
+    <col min="31" max="31" width="27.5703125" style="1" customWidth="1" collapsed="1"/>
+    <col min="32" max="32" width="20.7109375" style="1" customWidth="1" collapsed="1"/>
+    <col min="33" max="33" width="11.7109375" style="1" customWidth="1" collapsed="1"/>
+    <col min="34" max="34" width="26.85546875" style="1" customWidth="1" collapsed="1"/>
+    <col min="35" max="35" width="16.28515625" style="1" customWidth="1" collapsed="1"/>
+    <col min="36" max="36" width="19.7109375" style="1" customWidth="1" collapsed="1"/>
+    <col min="37" max="37" width="19.85546875" style="1" customWidth="1" collapsed="1"/>
+    <col min="38" max="38" width="17" style="1" customWidth="1" collapsed="1"/>
+    <col min="39" max="39" width="20.28515625" style="1" customWidth="1" collapsed="1"/>
+    <col min="40" max="40" width="20" style="1" customWidth="1" collapsed="1"/>
+    <col min="41" max="41" width="20.85546875" style="1" customWidth="1" collapsed="1"/>
+    <col min="42" max="42" width="24.5703125" style="1" customWidth="1" collapsed="1"/>
+    <col min="43" max="43" width="19.7109375" style="1" customWidth="1" collapsed="1"/>
+    <col min="44" max="44" width="25" style="1" customWidth="1" collapsed="1"/>
+    <col min="45" max="76" width="18" style="1" customWidth="1" collapsed="1"/>
+    <col min="77" max="77" width="21.140625" style="1" customWidth="1" collapsed="1"/>
+    <col min="78" max="81" width="18" style="1" customWidth="1" collapsed="1"/>
+    <col min="82" max="82" width="17.7109375" style="1" customWidth="1" collapsed="1"/>
+    <col min="83" max="83" width="15.5703125" style="1" customWidth="1" collapsed="1"/>
+    <col min="84" max="84" width="17.28515625" style="1" customWidth="1" collapsed="1"/>
+    <col min="85" max="85" width="22.5703125" style="1" customWidth="1" collapsed="1"/>
+    <col min="86" max="89" width="20.7109375" style="1" customWidth="1" collapsed="1"/>
+    <col min="90" max="90" width="25.42578125" style="1" customWidth="1" collapsed="1"/>
+    <col min="91" max="91" width="11.85546875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="92" max="92" width="19.85546875" style="1" customWidth="1" collapsed="1"/>
+    <col min="93" max="93" width="9.85546875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="94" max="94" width="12.28515625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="95" max="16384" width="8.7109375" style="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:94" x14ac:dyDescent="0.25">
@@ -8228,12 +8224,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="24.140625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="18.7109375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="18.0" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="16.7109375" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="8.28515625" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="11.85546875" collapsed="true"/>
+    <col min="1" max="1" width="24.140625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="18.7109375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="18" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="16.7109375" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="8.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="11.85546875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -8298,8 +8294,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="11" max="11" customWidth="true" width="19.28515625" collapsed="true"/>
-    <col min="92" max="92" bestFit="true" customWidth="true" width="11.85546875" collapsed="true"/>
+    <col min="11" max="11" width="19.28515625" customWidth="1" collapsed="1"/>
+    <col min="92" max="92" width="11.85546875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:95" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -8576,7 +8572,7 @@
       <c r="CM1" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="CN1" t="s" s="0">
+      <c r="CN1" t="s">
         <v>48</v>
       </c>
       <c r="CO1" s="7" t="s">
@@ -8872,7 +8868,7 @@
       <c r="CP2" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="CQ2" t="s" s="0">
+      <c r="CQ2" t="s">
         <v>166</v>
       </c>
     </row>
@@ -8888,28 +8884,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:CX2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AS1" workbookViewId="0">
+    <sheetView topLeftCell="AS1" workbookViewId="0">
       <selection activeCell="BA10" sqref="BA10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="11" max="11" customWidth="true" width="34.85546875" collapsed="true"/>
-    <col min="20" max="20" customWidth="true" width="24.5703125" collapsed="true"/>
-    <col min="21" max="21" customWidth="true" width="37.42578125" collapsed="true"/>
-    <col min="22" max="22" customWidth="true" width="28.0" collapsed="true"/>
-    <col min="23" max="23" customWidth="true" width="23.140625" collapsed="true"/>
-    <col min="50" max="50" customWidth="true" width="20.85546875"/>
-    <col min="51" max="51" customWidth="true" width="24.28515625"/>
-    <col min="52" max="52" customWidth="true" width="36.7109375"/>
-    <col min="53" max="53" customWidth="true" width="33.85546875"/>
-    <col min="54" max="54" customWidth="true" width="28.140625"/>
-    <col min="55" max="55" customWidth="true" width="29.0"/>
-    <col min="88" max="88" customWidth="true" width="19.85546875"/>
-    <col min="89" max="89" customWidth="true" width="34.0"/>
-    <col min="99" max="99" bestFit="true" customWidth="true" width="10.58984375" collapsed="true"/>
-    <col min="101" max="101" bestFit="true" customWidth="true" width="8.85546875"/>
-    <col min="102" max="102" bestFit="true" customWidth="true" width="11.0"/>
+    <col min="11" max="11" width="34.85546875" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="24.5703125" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="37.42578125" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="28" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="23.140625" customWidth="1" collapsed="1"/>
+    <col min="50" max="50" width="20.85546875" customWidth="1"/>
+    <col min="51" max="51" width="24.28515625" customWidth="1"/>
+    <col min="52" max="52" width="36.7109375" customWidth="1"/>
+    <col min="53" max="53" width="33.85546875" customWidth="1"/>
+    <col min="54" max="54" width="28.140625" customWidth="1"/>
+    <col min="55" max="55" width="29" customWidth="1"/>
+    <col min="88" max="88" width="19.85546875" customWidth="1"/>
+    <col min="89" max="89" width="34" customWidth="1"/>
+    <col min="99" max="99" width="10.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="101" max="101" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="102" max="102" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:102" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -9207,7 +9203,7 @@
       <c r="CT1" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="CU1" t="s" s="0">
+      <c r="CU1" t="s">
         <v>48</v>
       </c>
       <c r="CV1" s="7" t="s">
@@ -9516,7 +9512,7 @@
         <v>93</v>
       </c>
       <c r="CU2" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="CV2" s="7" t="s">
         <v>87</v>
@@ -9524,7 +9520,7 @@
       <c r="CW2" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="CX2" t="s" s="0">
+      <c r="CX2" t="s">
         <v>166</v>
       </c>
     </row>
@@ -9546,8 +9542,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="10" max="10" customWidth="true" width="23.5703125" collapsed="true"/>
-    <col min="97" max="97" bestFit="true" customWidth="true" width="12.140625" collapsed="true"/>
+    <col min="10" max="10" width="23.5703125" customWidth="1" collapsed="1"/>
+    <col min="97" max="97" width="12.140625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:100" s="19" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -10169,11 +10165,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="7" max="7" customWidth="true" width="15.42578125"/>
-    <col min="8" max="8" customWidth="true" width="16.0"/>
-    <col min="9" max="9" customWidth="true" width="22.0"/>
-    <col min="10" max="10" customWidth="true" width="51.0"/>
-    <col min="96" max="96" bestFit="true" customWidth="true" width="11.85546875" collapsed="true"/>
+    <col min="7" max="7" width="15.42578125" customWidth="1"/>
+    <col min="8" max="8" width="16" customWidth="1"/>
+    <col min="9" max="9" width="22" customWidth="1"/>
+    <col min="10" max="10" width="51" customWidth="1"/>
+    <col min="96" max="96" width="11.85546875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:99" s="38" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -10770,7 +10766,7 @@
       <c r="CT2" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="CU2" t="s" s="0">
+      <c r="CU2" t="s">
         <v>166</v>
       </c>
     </row>
@@ -10786,16 +10782,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCA4D2C6-261D-4A7D-B960-A3162D669DB0}">
   <dimension ref="A1:CV2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:I2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q18" sqref="Q18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="17" max="17" customWidth="true" width="20.5703125" collapsed="true"/>
-    <col min="18" max="18" customWidth="true" width="21.28515625" collapsed="true"/>
-    <col min="96" max="96" bestFit="true" customWidth="true" width="11.85546875" collapsed="true"/>
-    <col min="97" max="97" bestFit="true" customWidth="true" width="12.140625" collapsed="true"/>
+    <col min="17" max="17" width="20.5703125" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="21.28515625" customWidth="1" collapsed="1"/>
+    <col min="96" max="96" width="11.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="97" max="97" width="12.140625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:100" s="19" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -11409,7 +11405,7 @@
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16ADFDC9-E8FB-45FB-A949-A1A72F8FEBC7}">
-  <dimension ref="A1:CU5"/>
+  <dimension ref="A1:CW5"/>
   <sheetViews>
     <sheetView topLeftCell="AP1" workbookViewId="0">
       <selection activeCell="AZ12" sqref="AZ12"/>
@@ -11417,16 +11413,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" customWidth="true" width="28.0"/>
-    <col min="7" max="7" customWidth="true" width="17.0"/>
-    <col min="92" max="92" customWidth="true" width="37.28515625" collapsed="true"/>
-    <col min="93" max="93" customWidth="true" width="42.140625" collapsed="true"/>
-    <col min="94" max="94" customWidth="true" width="92.140625" collapsed="true"/>
-    <col min="95" max="95" customWidth="true" width="28.0" collapsed="true"/>
-    <col min="96" max="96" bestFit="true" customWidth="true" width="10.5703125" collapsed="true"/>
-    <col min="98" max="98" bestFit="true" customWidth="true" width="8.85546875" collapsed="true"/>
-    <col min="99" max="99" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
-    <col min="101" max="101" bestFit="true" customWidth="true" width="12.140625" collapsed="true"/>
+    <col min="4" max="4" width="28" customWidth="1"/>
+    <col min="7" max="7" width="17" customWidth="1"/>
+    <col min="92" max="92" width="37.28515625" customWidth="1" collapsed="1"/>
+    <col min="93" max="93" width="42.140625" customWidth="1" collapsed="1"/>
+    <col min="94" max="94" width="92.140625" customWidth="1" collapsed="1"/>
+    <col min="95" max="95" width="28" customWidth="1" collapsed="1"/>
+    <col min="96" max="96" width="10.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="98" max="98" width="8.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="99" max="99" width="11" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="101" max="101" width="12.140625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:99" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -11715,7 +11711,7 @@
       <c r="CQ1" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="CR1" t="s" s="0">
+      <c r="CR1" t="s">
         <v>48</v>
       </c>
       <c r="CS1" s="7" t="s">
@@ -12014,16 +12010,16 @@
       <c r="CQ2" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="CR2" t="s" s="0">
+      <c r="CR2" t="s">
         <v>324</v>
       </c>
       <c r="CS2" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="CT2" t="s" s="0">
+      <c r="CT2" t="s">
         <v>166</v>
       </c>
-      <c r="CU2" t="s" s="0">
+      <c r="CU2" t="s">
         <v>166</v>
       </c>
     </row>
@@ -12316,7 +12312,7 @@
       <c r="CS3" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="CU3" s="0"/>
+      <c r="CU3"/>
     </row>
     <row r="4" spans="1:99" ht="90" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
@@ -12898,8 +12894,8 @@
       <c r="CS5" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="CT5" s="0"/>
-      <c r="CU5" s="0"/>
+      <c r="CT5"/>
+      <c r="CU5"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="BE1:BK1">
@@ -12926,12 +12922,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="71" max="71" customWidth="true" width="26.140625" collapsed="true"/>
-    <col min="72" max="72" customWidth="true" width="29.28515625" collapsed="true"/>
-    <col min="73" max="73" customWidth="true" width="15.28515625" collapsed="true"/>
-    <col min="74" max="74" customWidth="true" width="14.5703125" collapsed="true"/>
-    <col min="81" max="81" customWidth="true" width="21.28515625" collapsed="true"/>
-    <col min="95" max="95" bestFit="true" customWidth="true" width="11.85546875" collapsed="true"/>
+    <col min="71" max="71" width="26.140625" customWidth="1" collapsed="1"/>
+    <col min="72" max="72" width="29.28515625" customWidth="1" collapsed="1"/>
+    <col min="73" max="73" width="15.28515625" customWidth="1" collapsed="1"/>
+    <col min="74" max="74" width="14.5703125" customWidth="1" collapsed="1"/>
+    <col min="81" max="81" width="21.28515625" customWidth="1" collapsed="1"/>
+    <col min="95" max="95" width="11.85546875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:98" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -13522,7 +13518,7 @@
       <c r="CS2" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="CT2" t="s" s="0">
+      <c r="CT2" t="s">
         <v>166</v>
       </c>
     </row>
@@ -13544,9 +13540,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="80" max="80" customWidth="true" width="16.42578125" collapsed="true"/>
-    <col min="81" max="81" customWidth="true" width="17.140625" collapsed="true"/>
-    <col min="91" max="91" bestFit="true" customWidth="true" width="11.85546875" collapsed="true"/>
+    <col min="80" max="80" width="16.42578125" customWidth="1" collapsed="1"/>
+    <col min="81" max="81" width="17.140625" customWidth="1" collapsed="1"/>
+    <col min="91" max="91" width="11.85546875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:94" s="38" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -14113,7 +14109,7 @@
       <c r="CO2" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="CP2" t="s" s="0">
+      <c r="CP2" t="s">
         <v>166</v>
       </c>
     </row>
@@ -14135,9 +14131,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="10" max="10" customWidth="true" width="23.7109375" collapsed="true"/>
-    <col min="47" max="47" customWidth="true" width="37.42578125" collapsed="true"/>
-    <col min="96" max="96" bestFit="true" customWidth="true" width="11.85546875" collapsed="true"/>
+    <col min="10" max="10" width="23.7109375" customWidth="1" collapsed="1"/>
+    <col min="47" max="47" width="37.42578125" customWidth="1" collapsed="1"/>
+    <col min="96" max="96" width="11.85546875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:99" s="38" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -14734,7 +14730,7 @@
       <c r="CT2" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="CU2" t="s" s="0">
+      <c r="CU2" t="s">
         <v>166</v>
       </c>
     </row>
@@ -14756,9 +14752,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="10" max="10" customWidth="true" width="21.28515625" collapsed="true"/>
-    <col min="96" max="96" bestFit="true" customWidth="true" width="11.85546875" collapsed="true"/>
-    <col min="97" max="97" bestFit="true" customWidth="true" width="12.140625" collapsed="true"/>
+    <col min="10" max="10" width="21.28515625" customWidth="1" collapsed="1"/>
+    <col min="96" max="96" width="11.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="97" max="97" width="12.140625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:100" s="19" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -15380,7 +15376,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="96" max="96" bestFit="true" customWidth="true" width="11.85546875" collapsed="true"/>
+    <col min="96" max="96" width="11.85546875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:99" s="38" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -15977,7 +15973,7 @@
       <c r="CT2" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="CU2" t="s" s="0">
+      <c r="CU2" t="s">
         <v>166</v>
       </c>
     </row>
@@ -15999,7 +15995,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="93" max="93" bestFit="true" customWidth="true" width="11.85546875" collapsed="true"/>
+    <col min="93" max="93" width="11.85546875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:96" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -16279,7 +16275,7 @@
       <c r="CN1" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="CO1" t="s" s="0">
+      <c r="CO1" t="s">
         <v>48</v>
       </c>
       <c r="CP1" s="7" t="s">
@@ -16578,7 +16574,7 @@
       <c r="CQ2" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="CR2" t="s" s="0">
+      <c r="CR2" t="s">
         <v>166</v>
       </c>
     </row>
@@ -16600,9 +16596,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" customWidth="true" width="21.0" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="17.85546875" collapsed="true"/>
-    <col min="91" max="91" bestFit="true" customWidth="true" width="11.85546875" collapsed="true"/>
+    <col min="4" max="4" width="21" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="17.85546875" customWidth="1" collapsed="1"/>
+    <col min="91" max="91" width="11.85546875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:94" s="38" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -17169,7 +17165,7 @@
       <c r="CO2" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="CP2" t="s" s="0">
+      <c r="CP2" t="s">
         <v>166</v>
       </c>
     </row>

--- a/src/test/java/testData/TestSuite1Data.xlsx
+++ b/src/test/java/testData/TestSuite1Data.xlsx
@@ -3,14 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\agraway\Desktop\LifeSpeed-mainy\LifeSpeed-main\src\test\java\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{523682E0-F42C-40E8-A494-495D5B5BC877}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3284652C-FD79-4BF4-8CF8-7E229A1F6114}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" firstSheet="8" activeTab="21" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" firstSheet="9" activeTab="22" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TC01" sheetId="1" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4822" uniqueCount="336">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4887" uniqueCount="352">
   <si>
     <t>Gateway_PartnerCode</t>
   </si>
@@ -973,9 +973,6 @@
     <t>Y</t>
   </si>
   <si>
-    <t>529845</t>
-  </si>
-  <si>
     <t>RunModeData</t>
   </si>
   <si>
@@ -1021,9 +1018,6 @@
     <t>Green Card</t>
   </si>
   <si>
-    <t>531368</t>
-  </si>
-  <si>
     <t>BGA</t>
   </si>
   <si>
@@ -1051,17 +1045,72 @@
     <t xml:space="preserve">121000358    </t>
   </si>
   <si>
-    <t>Quarter or Quarterly</t>
-  </si>
-  <si>
-    <t>532168</t>
+    <t>C:\Users\agraway\Desktop\LifeSpeed-mainy\LifeSpeed-main\Files\sample.pdf</t>
+  </si>
+  <si>
+    <t>532321</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>yashi.agrawal@zinnia.com</t>
+  </si>
+  <si>
+    <t>Yashi</t>
+  </si>
+  <si>
+    <t>FD_AnticipatedYes</t>
+  </si>
+  <si>
+    <t>TheData</t>
+  </si>
+  <si>
+    <t>532452</t>
+  </si>
+  <si>
+    <t>EmailAddress</t>
+  </si>
+  <si>
+    <t>FirstName</t>
+  </si>
+  <si>
+    <t>LastName</t>
+  </si>
+  <si>
+    <t>Zinnia</t>
+  </si>
+  <si>
+    <t>532481</t>
+  </si>
+  <si>
+    <t>532485</t>
+  </si>
+  <si>
+    <t>532487</t>
+  </si>
+  <si>
+    <t>532524</t>
+  </si>
+  <si>
+    <t>532525</t>
+  </si>
+  <si>
+    <t>532530</t>
+  </si>
+  <si>
+    <t>532531</t>
+  </si>
+  <si>
+    <t>532532</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <numFmts count="0"/>
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1106,6 +1155,19 @@
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="10">
@@ -1244,7 +1306,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1327,6 +1389,13 @@
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1885,64 +1954,64 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.85546875" style="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="32" style="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="29.5703125" style="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="31.7109375" style="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="6" width="24.42578125" style="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="9" width="15.85546875" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="26.7109375" style="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="24.85546875" style="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="20.5703125" style="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="8.7109375" style="1" collapsed="1"/>
-    <col min="14" max="14" width="13.85546875" style="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="17.42578125" style="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="15.85546875" style="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="20" width="24.42578125" style="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="29" style="1" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="31.140625" style="1" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="30.140625" style="1" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="19.85546875" style="1" customWidth="1" collapsed="1"/>
-    <col min="25" max="25" width="20.140625" style="1" customWidth="1" collapsed="1"/>
-    <col min="26" max="26" width="22.140625" style="1" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="19.140625" style="1" customWidth="1" collapsed="1"/>
-    <col min="28" max="28" width="25.140625" style="1" customWidth="1" collapsed="1"/>
-    <col min="29" max="29" width="18.85546875" style="1" customWidth="1" collapsed="1"/>
-    <col min="30" max="30" width="17.140625" style="1" customWidth="1" collapsed="1"/>
-    <col min="31" max="31" width="10" style="1" customWidth="1" collapsed="1"/>
-    <col min="32" max="32" width="27.5703125" style="1" customWidth="1" collapsed="1"/>
-    <col min="33" max="33" width="20.7109375" style="1" customWidth="1" collapsed="1"/>
-    <col min="34" max="34" width="11.7109375" style="1" customWidth="1" collapsed="1"/>
-    <col min="35" max="35" width="26.85546875" style="1" customWidth="1" collapsed="1"/>
-    <col min="36" max="36" width="16.28515625" style="1" customWidth="1" collapsed="1"/>
-    <col min="37" max="37" width="19.7109375" style="1" customWidth="1" collapsed="1"/>
-    <col min="38" max="38" width="19.85546875" style="1" customWidth="1" collapsed="1"/>
-    <col min="39" max="39" width="17" style="1" customWidth="1" collapsed="1"/>
-    <col min="40" max="40" width="20.28515625" style="1" customWidth="1" collapsed="1"/>
-    <col min="41" max="41" width="20" style="1" customWidth="1" collapsed="1"/>
-    <col min="42" max="42" width="20.85546875" style="1" customWidth="1" collapsed="1"/>
-    <col min="43" max="43" width="24.5703125" style="1" customWidth="1" collapsed="1"/>
-    <col min="44" max="44" width="19.7109375" style="1" customWidth="1" collapsed="1"/>
-    <col min="45" max="45" width="25" style="1" customWidth="1" collapsed="1"/>
-    <col min="46" max="77" width="18" style="1" customWidth="1" collapsed="1"/>
-    <col min="78" max="78" width="21.140625" style="1" customWidth="1" collapsed="1"/>
-    <col min="79" max="82" width="18" style="1" customWidth="1" collapsed="1"/>
-    <col min="83" max="83" width="17.7109375" style="1" customWidth="1" collapsed="1"/>
-    <col min="84" max="84" width="15.5703125" style="1" customWidth="1" collapsed="1"/>
-    <col min="85" max="85" width="17.28515625" style="1" customWidth="1" collapsed="1"/>
-    <col min="86" max="86" width="22.5703125" style="1" customWidth="1" collapsed="1"/>
-    <col min="87" max="90" width="20.7109375" style="1" customWidth="1" collapsed="1"/>
-    <col min="91" max="91" width="25.42578125" style="1" customWidth="1" collapsed="1"/>
-    <col min="92" max="92" width="11.85546875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="93" max="93" width="19.85546875" style="1" customWidth="1" collapsed="1"/>
-    <col min="94" max="94" width="9.85546875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="95" max="95" width="12.28515625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="96" max="16384" width="8.7109375" style="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="1" width="21.85546875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="1" width="32.0" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="1" width="29.5703125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="1" width="31.7109375" collapsed="true"/>
+    <col min="5" max="6" customWidth="true" style="1" width="24.42578125" collapsed="true"/>
+    <col min="7" max="9" customWidth="true" width="15.85546875" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="1" width="26.7109375" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" style="1" width="24.85546875" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" style="1" width="20.5703125" collapsed="true"/>
+    <col min="13" max="13" style="1" width="8.7109375" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" style="1" width="13.85546875" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" style="1" width="17.42578125" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" style="1" width="15.85546875" collapsed="true"/>
+    <col min="17" max="20" customWidth="true" style="1" width="24.42578125" collapsed="true"/>
+    <col min="21" max="21" customWidth="true" style="1" width="29.0" collapsed="true"/>
+    <col min="22" max="22" customWidth="true" style="1" width="31.140625" collapsed="true"/>
+    <col min="23" max="23" customWidth="true" style="1" width="30.140625" collapsed="true"/>
+    <col min="24" max="24" customWidth="true" style="1" width="19.85546875" collapsed="true"/>
+    <col min="25" max="25" customWidth="true" style="1" width="20.140625" collapsed="true"/>
+    <col min="26" max="26" customWidth="true" style="1" width="22.140625" collapsed="true"/>
+    <col min="27" max="27" customWidth="true" style="1" width="19.140625" collapsed="true"/>
+    <col min="28" max="28" customWidth="true" style="1" width="25.140625" collapsed="true"/>
+    <col min="29" max="29" customWidth="true" style="1" width="18.85546875" collapsed="true"/>
+    <col min="30" max="30" customWidth="true" style="1" width="17.140625" collapsed="true"/>
+    <col min="31" max="31" customWidth="true" style="1" width="10.0" collapsed="true"/>
+    <col min="32" max="32" customWidth="true" style="1" width="27.5703125" collapsed="true"/>
+    <col min="33" max="33" customWidth="true" style="1" width="20.7109375" collapsed="true"/>
+    <col min="34" max="34" customWidth="true" style="1" width="11.7109375" collapsed="true"/>
+    <col min="35" max="35" customWidth="true" style="1" width="26.85546875" collapsed="true"/>
+    <col min="36" max="36" customWidth="true" style="1" width="16.28515625" collapsed="true"/>
+    <col min="37" max="37" customWidth="true" style="1" width="19.7109375" collapsed="true"/>
+    <col min="38" max="38" customWidth="true" style="1" width="19.85546875" collapsed="true"/>
+    <col min="39" max="39" customWidth="true" style="1" width="17.0" collapsed="true"/>
+    <col min="40" max="40" customWidth="true" style="1" width="20.28515625" collapsed="true"/>
+    <col min="41" max="41" customWidth="true" style="1" width="20.0" collapsed="true"/>
+    <col min="42" max="42" customWidth="true" style="1" width="20.85546875" collapsed="true"/>
+    <col min="43" max="43" customWidth="true" style="1" width="24.5703125" collapsed="true"/>
+    <col min="44" max="44" customWidth="true" style="1" width="19.7109375" collapsed="true"/>
+    <col min="45" max="45" customWidth="true" style="1" width="25.0" collapsed="true"/>
+    <col min="46" max="77" customWidth="true" style="1" width="18.0" collapsed="true"/>
+    <col min="78" max="78" customWidth="true" style="1" width="21.140625" collapsed="true"/>
+    <col min="79" max="82" customWidth="true" style="1" width="18.0" collapsed="true"/>
+    <col min="83" max="83" customWidth="true" style="1" width="17.7109375" collapsed="true"/>
+    <col min="84" max="84" customWidth="true" style="1" width="15.5703125" collapsed="true"/>
+    <col min="85" max="85" customWidth="true" style="1" width="17.28515625" collapsed="true"/>
+    <col min="86" max="86" customWidth="true" style="1" width="22.5703125" collapsed="true"/>
+    <col min="87" max="90" customWidth="true" style="1" width="20.7109375" collapsed="true"/>
+    <col min="91" max="91" customWidth="true" style="1" width="25.42578125" collapsed="true"/>
+    <col min="92" max="92" bestFit="true" customWidth="true" style="1" width="11.85546875" collapsed="true"/>
+    <col min="93" max="93" customWidth="true" style="1" width="19.85546875" collapsed="true"/>
+    <col min="94" max="94" bestFit="true" customWidth="true" style="1" width="9.85546875" collapsed="true"/>
+    <col min="95" max="95" bestFit="true" customWidth="true" style="1" width="12.28515625" collapsed="true"/>
+    <col min="96" max="16384" style="1" width="8.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:95" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -2502,7 +2571,7 @@
         <v>93</v>
       </c>
       <c r="CN2" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="CO2" s="7" t="s">
         <v>87</v>
@@ -3681,8 +3750,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="10" max="10" width="24.7109375" customWidth="1" collapsed="1"/>
-    <col min="93" max="93" width="11.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" customWidth="true" width="24.7109375" collapsed="true"/>
+    <col min="93" max="93" bestFit="true" customWidth="true" width="11.85546875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:96" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -3962,7 +4031,7 @@
       <c r="CN1" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="CO1" t="s">
+      <c r="CO1" t="s" s="0">
         <v>48</v>
       </c>
       <c r="CP1" s="7" t="s">
@@ -4261,7 +4330,7 @@
       <c r="CQ2" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="CR2" t="s">
+      <c r="CR2" t="s" s="0">
         <v>166</v>
       </c>
     </row>
@@ -4283,18 +4352,18 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="7" width="41.140625" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="26.42578125" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="15.85546875" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="17.28515625" customWidth="1" collapsed="1"/>
-    <col min="91" max="91" width="15.5703125" customWidth="1" collapsed="1"/>
-    <col min="95" max="95" width="9.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="99" max="99" width="9.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="104" max="104" width="23.28515625" customWidth="1" collapsed="1"/>
-    <col min="105" max="105" width="12.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="106" max="106" width="21.5703125" customWidth="1" collapsed="1"/>
-    <col min="107" max="107" width="10.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="108" max="108" width="13" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="7" customWidth="true" width="41.140625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="26.42578125" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="15.85546875" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="17.28515625" collapsed="true"/>
+    <col min="91" max="91" customWidth="true" width="15.5703125" collapsed="true"/>
+    <col min="95" max="95" bestFit="true" customWidth="true" width="9.5703125" collapsed="true"/>
+    <col min="99" max="99" bestFit="true" customWidth="true" width="9.5703125" collapsed="true"/>
+    <col min="104" max="104" customWidth="true" width="23.28515625" collapsed="true"/>
+    <col min="105" max="105" bestFit="true" customWidth="true" width="12.140625" collapsed="true"/>
+    <col min="106" max="106" customWidth="true" width="21.5703125" collapsed="true"/>
+    <col min="107" max="107" bestFit="true" customWidth="true" width="10.28515625" collapsed="true"/>
+    <col min="108" max="108" bestFit="true" customWidth="true" width="13.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:108" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -4945,7 +5014,7 @@
       <c r="DC2" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="DD2" t="s">
+      <c r="DD2" t="s" s="0">
         <v>166</v>
       </c>
     </row>
@@ -4972,12 +5041,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="7" max="7" width="24.5703125" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="25.85546875" customWidth="1" collapsed="1"/>
-    <col min="110" max="110" width="54.7109375" customWidth="1" collapsed="1"/>
-    <col min="112" max="112" width="12.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="114" max="114" width="10.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="115" max="115" width="13" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" customWidth="true" width="24.5703125" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="25.85546875" collapsed="true"/>
+    <col min="110" max="110" customWidth="true" width="54.7109375" collapsed="true"/>
+    <col min="112" max="112" bestFit="true" customWidth="true" width="12.140625" collapsed="true"/>
+    <col min="114" max="114" bestFit="true" customWidth="true" width="10.28515625" collapsed="true"/>
+    <col min="115" max="115" bestFit="true" customWidth="true" width="13.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:115" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -5670,7 +5739,7 @@
       <c r="DJ2" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="DK2" t="s">
+      <c r="DK2" t="s" s="0">
         <v>166</v>
       </c>
     </row>
@@ -5700,12 +5769,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="46.5703125" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="12.7109375" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="19.5703125" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="16.85546875" customWidth="1" collapsed="1"/>
-    <col min="97" max="97" width="12.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="99" max="99" width="10.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" customWidth="true" width="46.5703125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="12.7109375" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="19.5703125" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="16.85546875" collapsed="true"/>
+    <col min="97" max="97" bestFit="true" customWidth="true" width="12.140625" collapsed="true"/>
+    <col min="99" max="99" bestFit="true" customWidth="true" width="10.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:100" s="19" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -6328,14 +6397,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="19.85546875" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="22.85546875" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="23.28515625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="17.85546875" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="20.5703125" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="26.42578125" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="20.140625" customWidth="1" collapsed="1"/>
-    <col min="97" max="97" width="12.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" customWidth="true" width="19.85546875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="22.85546875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="23.28515625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="17.85546875" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="20.5703125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="26.42578125" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="20.140625" collapsed="true"/>
+    <col min="97" max="97" bestFit="true" customWidth="true" width="12.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:100" s="19" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -6957,12 +7026,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="16.85546875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="13.28515625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="15" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="20.7109375" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="9.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="9.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" customWidth="true" width="16.85546875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="15.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="20.7109375" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="9.28515625" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="9.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -7007,7 +7076,7 @@
       <c r="F2" s="15" t="s">
         <v>253</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" t="s" s="0">
         <v>257</v>
       </c>
     </row>
@@ -7026,11 +7095,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="5" width="19.7109375" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="11.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="10.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="19.7109375" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="16.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="5" customWidth="true" width="19.7109375" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="11.28515625" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="10.5703125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="19.7109375" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="16.85546875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -7084,7 +7153,7 @@
       <c r="G2" s="15" t="s">
         <v>258</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2" t="s" s="0">
         <v>261</v>
       </c>
     </row>
@@ -7103,58 +7172,58 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="32" style="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="29.5703125" style="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="31.7109375" style="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="5" width="24.42578125" style="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="8" width="15.85546875" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="26.7109375" style="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="24.85546875" style="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="20.5703125" style="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="8.7109375" style="1" collapsed="1"/>
-    <col min="13" max="13" width="13.85546875" style="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="17.42578125" style="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="15.85546875" style="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="19" width="24.42578125" style="1" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="29" style="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="31.140625" style="1" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="30.140625" style="1" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="19.85546875" style="1" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="20.140625" style="1" customWidth="1" collapsed="1"/>
-    <col min="25" max="25" width="22.140625" style="1" customWidth="1" collapsed="1"/>
-    <col min="26" max="26" width="19.140625" style="1" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="25.140625" style="1" customWidth="1" collapsed="1"/>
-    <col min="28" max="28" width="18.85546875" style="1" customWidth="1" collapsed="1"/>
-    <col min="29" max="29" width="17.140625" style="1" customWidth="1" collapsed="1"/>
-    <col min="30" max="30" width="10" style="1" customWidth="1" collapsed="1"/>
-    <col min="31" max="31" width="27.5703125" style="1" customWidth="1" collapsed="1"/>
-    <col min="32" max="32" width="20.7109375" style="1" customWidth="1" collapsed="1"/>
-    <col min="33" max="33" width="11.7109375" style="1" customWidth="1" collapsed="1"/>
-    <col min="34" max="34" width="26.85546875" style="1" customWidth="1" collapsed="1"/>
-    <col min="35" max="35" width="16.28515625" style="1" customWidth="1" collapsed="1"/>
-    <col min="36" max="36" width="19.7109375" style="1" customWidth="1" collapsed="1"/>
-    <col min="37" max="37" width="19.85546875" style="1" customWidth="1" collapsed="1"/>
-    <col min="38" max="38" width="17" style="1" customWidth="1" collapsed="1"/>
-    <col min="39" max="39" width="20.28515625" style="1" customWidth="1" collapsed="1"/>
-    <col min="40" max="40" width="20" style="1" customWidth="1" collapsed="1"/>
-    <col min="41" max="41" width="20.85546875" style="1" customWidth="1" collapsed="1"/>
-    <col min="42" max="42" width="24.5703125" style="1" customWidth="1" collapsed="1"/>
-    <col min="43" max="43" width="19.7109375" style="1" customWidth="1" collapsed="1"/>
-    <col min="44" max="44" width="25" style="1" customWidth="1" collapsed="1"/>
-    <col min="45" max="76" width="18" style="1" customWidth="1" collapsed="1"/>
-    <col min="77" max="77" width="21.140625" style="1" customWidth="1" collapsed="1"/>
-    <col min="78" max="81" width="18" style="1" customWidth="1" collapsed="1"/>
-    <col min="82" max="82" width="17.7109375" style="1" customWidth="1" collapsed="1"/>
-    <col min="83" max="83" width="15.5703125" style="1" customWidth="1" collapsed="1"/>
-    <col min="84" max="84" width="17.28515625" style="1" customWidth="1" collapsed="1"/>
-    <col min="85" max="85" width="22.5703125" style="1" customWidth="1" collapsed="1"/>
-    <col min="86" max="89" width="20.7109375" style="1" customWidth="1" collapsed="1"/>
-    <col min="90" max="90" width="25.42578125" style="1" customWidth="1" collapsed="1"/>
-    <col min="91" max="91" width="11.85546875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="92" max="92" width="19.85546875" style="1" customWidth="1" collapsed="1"/>
-    <col min="93" max="93" width="9.85546875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="94" max="94" width="12.28515625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="95" max="16384" width="8.7109375" style="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="1" width="32.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="1" width="29.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="1" width="31.7109375" collapsed="true"/>
+    <col min="4" max="5" customWidth="true" style="1" width="24.42578125" collapsed="true"/>
+    <col min="6" max="8" customWidth="true" width="15.85546875" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="1" width="26.7109375" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="1" width="24.85546875" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" style="1" width="20.5703125" collapsed="true"/>
+    <col min="12" max="12" style="1" width="8.7109375" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" style="1" width="13.85546875" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" style="1" width="17.42578125" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" style="1" width="15.85546875" collapsed="true"/>
+    <col min="16" max="19" customWidth="true" style="1" width="24.42578125" collapsed="true"/>
+    <col min="20" max="20" customWidth="true" style="1" width="29.0" collapsed="true"/>
+    <col min="21" max="21" customWidth="true" style="1" width="31.140625" collapsed="true"/>
+    <col min="22" max="22" customWidth="true" style="1" width="30.140625" collapsed="true"/>
+    <col min="23" max="23" customWidth="true" style="1" width="19.85546875" collapsed="true"/>
+    <col min="24" max="24" customWidth="true" style="1" width="20.140625" collapsed="true"/>
+    <col min="25" max="25" customWidth="true" style="1" width="22.140625" collapsed="true"/>
+    <col min="26" max="26" customWidth="true" style="1" width="19.140625" collapsed="true"/>
+    <col min="27" max="27" customWidth="true" style="1" width="25.140625" collapsed="true"/>
+    <col min="28" max="28" customWidth="true" style="1" width="18.85546875" collapsed="true"/>
+    <col min="29" max="29" customWidth="true" style="1" width="17.140625" collapsed="true"/>
+    <col min="30" max="30" customWidth="true" style="1" width="10.0" collapsed="true"/>
+    <col min="31" max="31" customWidth="true" style="1" width="27.5703125" collapsed="true"/>
+    <col min="32" max="32" customWidth="true" style="1" width="20.7109375" collapsed="true"/>
+    <col min="33" max="33" customWidth="true" style="1" width="11.7109375" collapsed="true"/>
+    <col min="34" max="34" customWidth="true" style="1" width="26.85546875" collapsed="true"/>
+    <col min="35" max="35" customWidth="true" style="1" width="16.28515625" collapsed="true"/>
+    <col min="36" max="36" customWidth="true" style="1" width="19.7109375" collapsed="true"/>
+    <col min="37" max="37" customWidth="true" style="1" width="19.85546875" collapsed="true"/>
+    <col min="38" max="38" customWidth="true" style="1" width="17.0" collapsed="true"/>
+    <col min="39" max="39" customWidth="true" style="1" width="20.28515625" collapsed="true"/>
+    <col min="40" max="40" customWidth="true" style="1" width="20.0" collapsed="true"/>
+    <col min="41" max="41" customWidth="true" style="1" width="20.85546875" collapsed="true"/>
+    <col min="42" max="42" customWidth="true" style="1" width="24.5703125" collapsed="true"/>
+    <col min="43" max="43" customWidth="true" style="1" width="19.7109375" collapsed="true"/>
+    <col min="44" max="44" customWidth="true" style="1" width="25.0" collapsed="true"/>
+    <col min="45" max="76" customWidth="true" style="1" width="18.0" collapsed="true"/>
+    <col min="77" max="77" customWidth="true" style="1" width="21.140625" collapsed="true"/>
+    <col min="78" max="81" customWidth="true" style="1" width="18.0" collapsed="true"/>
+    <col min="82" max="82" customWidth="true" style="1" width="17.7109375" collapsed="true"/>
+    <col min="83" max="83" customWidth="true" style="1" width="15.5703125" collapsed="true"/>
+    <col min="84" max="84" customWidth="true" style="1" width="17.28515625" collapsed="true"/>
+    <col min="85" max="85" customWidth="true" style="1" width="22.5703125" collapsed="true"/>
+    <col min="86" max="89" customWidth="true" style="1" width="20.7109375" collapsed="true"/>
+    <col min="90" max="90" customWidth="true" style="1" width="25.42578125" collapsed="true"/>
+    <col min="91" max="91" bestFit="true" customWidth="true" style="1" width="11.85546875" collapsed="true"/>
+    <col min="92" max="92" customWidth="true" style="1" width="19.85546875" collapsed="true"/>
+    <col min="93" max="93" bestFit="true" customWidth="true" style="1" width="9.85546875" collapsed="true"/>
+    <col min="94" max="94" bestFit="true" customWidth="true" style="1" width="12.28515625" collapsed="true"/>
+    <col min="95" max="16384" style="1" width="8.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:94" x14ac:dyDescent="0.25">
@@ -8224,12 +8293,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.140625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="18.7109375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="18" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="16.7109375" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="8.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="11.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="24.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="18.7109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="16.7109375" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="8.28515625" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="11.85546875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -8294,8 +8363,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="11" max="11" width="19.28515625" customWidth="1" collapsed="1"/>
-    <col min="92" max="92" width="11.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" customWidth="true" width="19.28515625" collapsed="true"/>
+    <col min="92" max="92" bestFit="true" customWidth="true" width="10.5703125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:95" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -8572,7 +8641,7 @@
       <c r="CM1" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="CN1" t="s">
+      <c r="CN1" t="s" s="0">
         <v>48</v>
       </c>
       <c r="CO1" s="7" t="s">
@@ -8860,7 +8929,7 @@
         <v>93</v>
       </c>
       <c r="CN2" s="1" t="s">
-        <v>308</v>
+        <v>339</v>
       </c>
       <c r="CO2" s="7" t="s">
         <v>87</v>
@@ -8868,7 +8937,7 @@
       <c r="CP2" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="CQ2" t="s">
+      <c r="CQ2" t="s" s="0">
         <v>166</v>
       </c>
     </row>
@@ -8884,28 +8953,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:CX2"/>
   <sheetViews>
-    <sheetView topLeftCell="AS1" workbookViewId="0">
-      <selection activeCell="BA10" sqref="BA10"/>
+    <sheetView topLeftCell="AP1" workbookViewId="0">
+      <selection activeCell="AZ1" sqref="AZ1:BC2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="11" max="11" width="34.85546875" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="24.5703125" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="37.42578125" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="28" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="23.140625" customWidth="1" collapsed="1"/>
-    <col min="50" max="50" width="20.85546875" customWidth="1"/>
-    <col min="51" max="51" width="24.28515625" customWidth="1"/>
-    <col min="52" max="52" width="36.7109375" customWidth="1"/>
-    <col min="53" max="53" width="33.85546875" customWidth="1"/>
-    <col min="54" max="54" width="28.140625" customWidth="1"/>
-    <col min="55" max="55" width="29" customWidth="1"/>
-    <col min="88" max="88" width="19.85546875" customWidth="1"/>
-    <col min="89" max="89" width="34" customWidth="1"/>
-    <col min="99" max="99" width="10.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="101" max="101" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="102" max="102" width="11" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" customWidth="true" width="34.85546875" collapsed="true"/>
+    <col min="20" max="20" customWidth="true" width="24.5703125" collapsed="true"/>
+    <col min="21" max="21" customWidth="true" width="37.42578125" collapsed="true"/>
+    <col min="22" max="22" customWidth="true" width="28.0" collapsed="true"/>
+    <col min="23" max="23" customWidth="true" width="23.140625" collapsed="true"/>
+    <col min="50" max="50" customWidth="true" width="20.85546875"/>
+    <col min="51" max="51" customWidth="true" width="24.28515625"/>
+    <col min="52" max="52" customWidth="true" width="36.7109375"/>
+    <col min="53" max="53" customWidth="true" width="33.85546875"/>
+    <col min="54" max="54" customWidth="true" width="28.140625"/>
+    <col min="55" max="55" customWidth="true" width="29.0"/>
+    <col min="88" max="88" customWidth="true" width="19.85546875"/>
+    <col min="89" max="89" customWidth="true" width="34.0"/>
+    <col min="97" max="97" customWidth="true" width="21.0"/>
+    <col min="99" max="99" bestFit="true" customWidth="true" width="10.5703125" collapsed="true"/>
+    <col min="101" max="101" bestFit="true" customWidth="true" width="8.85546875"/>
+    <col min="102" max="102" bestFit="true" customWidth="true" width="11.0"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:102" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -8928,7 +8998,7 @@
         <v>168</v>
       </c>
       <c r="G1" s="30" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="H1" s="20" t="s">
         <v>177</v>
@@ -9066,13 +9136,13 @@
         <v>42</v>
       </c>
       <c r="BA1" s="61" t="s">
+        <v>327</v>
+      </c>
+      <c r="BB1" s="61" t="s">
+        <v>328</v>
+      </c>
+      <c r="BC1" s="61" t="s">
         <v>329</v>
-      </c>
-      <c r="BB1" s="61" t="s">
-        <v>330</v>
-      </c>
-      <c r="BC1" s="61" t="s">
-        <v>331</v>
       </c>
       <c r="BD1" s="4" t="s">
         <v>99</v>
@@ -9174,7 +9244,7 @@
         <v>131</v>
       </c>
       <c r="CK1" s="4" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="CL1" s="5" t="s">
         <v>43</v>
@@ -9203,7 +9273,7 @@
       <c r="CT1" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="CU1" t="s">
+      <c r="CU1" t="s" s="0">
         <v>48</v>
       </c>
       <c r="CV1" s="7" t="s">
@@ -9216,7 +9286,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="2" spans="1:102" s="1" customFormat="1" ht="180" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:102" s="1" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>51</v>
       </c>
@@ -9266,7 +9336,7 @@
         <v>61</v>
       </c>
       <c r="Q2" s="9" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="R2" s="9" t="s">
         <v>60</v>
@@ -9364,23 +9434,23 @@
       <c r="AW2" s="10" t="s">
         <v>288</v>
       </c>
-      <c r="AX2" s="11" t="s">
-        <v>334</v>
-      </c>
-      <c r="AY2" s="7" t="s">
-        <v>170</v>
+      <c r="AX2" s="62" t="s">
+        <v>320</v>
+      </c>
+      <c r="AY2" s="62" t="s">
+        <v>320</v>
       </c>
       <c r="AZ2" s="3" t="s">
         <v>75</v>
       </c>
       <c r="BA2" s="17" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="BB2" s="17" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="BC2" s="1" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="BD2" s="1" t="s">
         <v>133</v>
@@ -9506,13 +9576,13 @@
         <v>96</v>
       </c>
       <c r="CS2" s="16" t="s">
-        <v>94</v>
+        <v>332</v>
       </c>
       <c r="CT2" s="15" t="s">
         <v>93</v>
       </c>
       <c r="CU2" s="1" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="CV2" s="7" t="s">
         <v>87</v>
@@ -9520,7 +9590,7 @@
       <c r="CW2" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="CX2" t="s">
+      <c r="CX2" t="s" s="0">
         <v>166</v>
       </c>
     </row>
@@ -9542,8 +9612,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="10" max="10" width="23.5703125" customWidth="1" collapsed="1"/>
-    <col min="97" max="97" width="12.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" customWidth="true" width="23.5703125" collapsed="true"/>
+    <col min="97" max="97" bestFit="true" customWidth="true" width="12.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:100" s="19" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -10165,11 +10235,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="7" max="7" width="15.42578125" customWidth="1"/>
-    <col min="8" max="8" width="16" customWidth="1"/>
-    <col min="9" max="9" width="22" customWidth="1"/>
-    <col min="10" max="10" width="51" customWidth="1"/>
-    <col min="96" max="96" width="11.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" customWidth="true" width="15.42578125"/>
+    <col min="8" max="8" customWidth="true" width="16.0"/>
+    <col min="9" max="9" customWidth="true" width="22.0"/>
+    <col min="10" max="10" customWidth="true" width="51.0"/>
+    <col min="96" max="96" bestFit="true" customWidth="true" width="11.85546875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:99" s="38" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -10752,7 +10822,7 @@
         <v>96</v>
       </c>
       <c r="CP2" s="16" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="CQ2" s="15" t="s">
         <v>93</v>
@@ -10766,7 +10836,7 @@
       <c r="CT2" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="CU2" t="s">
+      <c r="CU2" t="s" s="0">
         <v>166</v>
       </c>
     </row>
@@ -10782,16 +10852,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCA4D2C6-261D-4A7D-B960-A3162D669DB0}">
   <dimension ref="A1:CV2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q18" sqref="Q18"/>
+    <sheetView topLeftCell="AM1" workbookViewId="0">
+      <selection activeCell="AZ9" sqref="AZ9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="17" max="17" width="20.5703125" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="21.28515625" customWidth="1" collapsed="1"/>
-    <col min="96" max="96" width="11.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="97" max="97" width="12.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" customWidth="true" width="20.5703125" collapsed="true"/>
+    <col min="18" max="18" customWidth="true" width="21.28515625" collapsed="true"/>
+    <col min="96" max="96" bestFit="true" customWidth="true" width="11.85546875" collapsed="true"/>
+    <col min="97" max="97" bestFit="true" customWidth="true" width="12.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:100" s="19" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -11096,7 +11166,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="2" spans="1:100" s="1" customFormat="1" ht="135" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:100" s="1" customFormat="1" ht="150" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>51</v>
       </c>
@@ -11125,7 +11195,7 @@
         <v>224</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="K2" s="1" t="s">
         <v>57</v>
@@ -11245,7 +11315,7 @@
         <v>83</v>
       </c>
       <c r="AX2" s="7" t="s">
-        <v>84</v>
+        <v>170</v>
       </c>
       <c r="AY2" s="3" t="s">
         <v>75</v>
@@ -11374,19 +11444,19 @@
         <v>235</v>
       </c>
       <c r="CO2" s="57" t="s">
-        <v>311</v>
+        <v>332</v>
       </c>
       <c r="CP2" s="15" t="s">
         <v>96</v>
       </c>
       <c r="CQ2" s="57" t="s">
-        <v>311</v>
+        <v>332</v>
       </c>
       <c r="CR2" s="15" t="s">
         <v>93</v>
       </c>
       <c r="CS2" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="CT2" s="7" t="s">
         <v>87</v>
@@ -11405,27 +11475,31 @@
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16ADFDC9-E8FB-45FB-A949-A1A72F8FEBC7}">
-  <dimension ref="A1:CW5"/>
+  <dimension ref="A1:DC5"/>
   <sheetViews>
-    <sheetView topLeftCell="AP1" workbookViewId="0">
-      <selection activeCell="AZ12" sqref="AZ12"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="166" zoomScaleNormal="166" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="28" customWidth="1"/>
-    <col min="7" max="7" width="17" customWidth="1"/>
-    <col min="92" max="92" width="37.28515625" customWidth="1" collapsed="1"/>
-    <col min="93" max="93" width="42.140625" customWidth="1" collapsed="1"/>
-    <col min="94" max="94" width="92.140625" customWidth="1" collapsed="1"/>
-    <col min="95" max="95" width="28" customWidth="1" collapsed="1"/>
-    <col min="96" max="96" width="10.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="98" max="98" width="8.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="99" max="99" width="11" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="101" max="101" width="12.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" customWidth="true" width="28.0"/>
+    <col min="7" max="7" customWidth="true" width="17.0"/>
+    <col min="12" max="12" customWidth="true" width="34.42578125"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="12.140625" collapsed="true"/>
+    <col min="57" max="57" customWidth="true" width="27.42578125"/>
+    <col min="58" max="58" customWidth="true" width="24.7109375"/>
+    <col min="59" max="59" customWidth="true" width="27.42578125"/>
+    <col min="100" max="100" customWidth="true" width="37.28515625" collapsed="true"/>
+    <col min="101" max="101" customWidth="true" width="42.140625" collapsed="true"/>
+    <col min="102" max="102" customWidth="true" width="92.140625" collapsed="true"/>
+    <col min="103" max="103" customWidth="true" width="28.0" collapsed="true"/>
+    <col min="104" max="104" bestFit="true" customWidth="true" width="10.58984375" collapsed="true"/>
+    <col min="106" max="106" bestFit="true" customWidth="true" width="8.8046875" collapsed="true"/>
+    <col min="107" max="107" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:99" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:107" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -11454,277 +11528,301 @@
         <v>4</v>
       </c>
       <c r="J1" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="K1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="Q1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="R1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="S1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="T1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="U1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="R1" s="4" t="s">
+      <c r="V1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="Z1" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="AB1" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="W1" s="1" t="s">
-        <v>318</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>317</v>
-      </c>
-      <c r="Y1" s="5" t="s">
+      <c r="AC1" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="Z1" s="6" t="s">
+      <c r="AD1" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="AA1" s="6" t="s">
+      <c r="AE1" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="AB1" s="6" t="s">
+      <c r="AF1" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="AC1" s="6" t="s">
+      <c r="AG1" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="AD1" s="6" t="s">
+      <c r="AH1" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="AE1" s="6" t="s">
+      <c r="AI1" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="AF1" s="6" t="s">
+      <c r="AJ1" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="AG1" s="6" t="s">
+      <c r="AK1" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="AH1" s="6" t="s">
+      <c r="AL1" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="AI1" s="6" t="s">
+      <c r="AM1" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="AJ1" s="6" t="s">
+      <c r="AN1" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="AK1" s="6" t="s">
+      <c r="AO1" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="AL1" s="6" t="s">
+      <c r="AP1" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="AM1" s="6" t="s">
+      <c r="AQ1" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="AN1" s="6" t="s">
+      <c r="AR1" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="AO1" s="6" t="s">
+      <c r="AS1" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="AP1" s="6" t="s">
+      <c r="AT1" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="AQ1" s="6" t="s">
+      <c r="AU1" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="AR1" s="6" t="s">
+      <c r="AV1" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="AS1" s="6" t="s">
+      <c r="AW1" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="AT1" s="6" t="s">
+      <c r="AX1" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="AU1" s="6" t="s">
+      <c r="AY1" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="AV1" s="6" t="s">
+      <c r="AZ1" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="AW1" s="6" t="s">
+      <c r="BA1" s="6" t="s">
+        <v>337</v>
+      </c>
+      <c r="BB1" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="AX1" s="6" t="s">
+      <c r="BC1" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="AY1" s="5" t="s">
+      <c r="BD1" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="AZ1" s="4" t="s">
+      <c r="BE1" s="61" t="s">
+        <v>327</v>
+      </c>
+      <c r="BF1" s="61" t="s">
+        <v>328</v>
+      </c>
+      <c r="BG1" s="61" t="s">
+        <v>329</v>
+      </c>
+      <c r="BH1" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="BA1" s="4" t="s">
+      <c r="BI1" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="BB1" s="4" t="s">
+      <c r="BJ1" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="BC1" s="4" t="s">
+      <c r="BK1" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="BD1" s="4" t="s">
+      <c r="BL1" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="BE1" s="4" t="s">
+      <c r="BM1" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="BF1" s="4" t="s">
+      <c r="BN1" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="BG1" s="4" t="s">
+      <c r="BO1" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="BH1" s="4" t="s">
+      <c r="BP1" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="BI1" s="4" t="s">
+      <c r="BQ1" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="BJ1" s="4" t="s">
+      <c r="BR1" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="BK1" s="4" t="s">
+      <c r="BS1" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="BL1" s="4" t="s">
+      <c r="BT1" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="BM1" s="4" t="s">
+      <c r="BU1" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="BN1" s="4" t="s">
+      <c r="BV1" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="BO1" s="4" t="s">
+      <c r="BW1" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="BP1" s="4" t="s">
+      <c r="BX1" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="BQ1" s="4" t="s">
+      <c r="BY1" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="BR1" s="4" t="s">
+      <c r="BZ1" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="BS1" s="4" t="s">
+      <c r="CA1" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="BT1" s="4" t="s">
+      <c r="CB1" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="BU1" s="4" t="s">
+      <c r="CC1" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="BV1" s="4" t="s">
+      <c r="CD1" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="BW1" s="4" t="s">
+      <c r="CE1" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="BX1" s="4" t="s">
+      <c r="CF1" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="BY1" s="4" t="s">
+      <c r="CG1" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="BZ1" s="4" t="s">
+      <c r="CH1" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="CA1" s="4" t="s">
+      <c r="CI1" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="CB1" s="4" t="s">
+      <c r="CJ1" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="CC1" s="4" t="s">
+      <c r="CK1" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="CD1" s="4" t="s">
+      <c r="CL1" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="CE1" s="4" t="s">
+      <c r="CM1" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="CF1" s="4" t="s">
+      <c r="CN1" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="CG1" s="4" t="s">
+      <c r="CO1" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="CH1" s="5" t="s">
+      <c r="CP1" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="CI1" s="5" t="s">
+      <c r="CQ1" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="CJ1" s="5" t="s">
+      <c r="CR1" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="CK1" s="3" t="s">
+      <c r="CS1" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="CL1" s="12" t="s">
+      <c r="CT1" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="CM1" s="4" t="s">
+      <c r="CU1" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="CN1" s="4" t="s">
-        <v>322</v>
-      </c>
-      <c r="CO1" s="14" t="s">
+      <c r="CV1" s="4" t="s">
+        <v>321</v>
+      </c>
+      <c r="CW1" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="CP1" s="14" t="s">
+      <c r="CX1" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="CQ1" s="17" t="s">
+      <c r="CY1" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="CR1" t="s">
+      <c r="CZ1" t="s" s="0">
         <v>48</v>
       </c>
-      <c r="CS1" s="7" t="s">
+      <c r="DA1" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="CT1" s="1" t="s">
+      <c r="DB1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="CU1" s="1" t="s">
+      <c r="DC1" s="1" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="2" spans="1:99" s="1" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:107" s="1" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>51</v>
       </c>
@@ -11753,277 +11851,301 @@
         <v>224</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>314</v>
+        <v>336</v>
       </c>
       <c r="K2" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="L2" s="64" t="s">
+        <v>335</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="O2" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="L2" s="8" t="s">
+      <c r="P2" s="8" t="s">
         <v>297</v>
       </c>
-      <c r="M2" s="9" t="s">
+      <c r="Q2" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="N2" s="9" t="s">
+      <c r="R2" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="O2" s="9" t="s">
+      <c r="S2" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="P2" s="9" t="s">
+      <c r="T2" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="Q2" s="9" t="s">
+      <c r="U2" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="R2" s="9" t="s">
+      <c r="V2" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="S2" s="1" t="s">
+      <c r="W2" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="T2" s="8" t="s">
+      <c r="X2" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="U2" s="17" t="s">
+      <c r="Y2" s="17" t="s">
         <v>163</v>
       </c>
-      <c r="V2" s="17" t="s">
+      <c r="Z2" s="17" t="s">
+        <v>318</v>
+      </c>
+      <c r="AA2" s="58" t="s">
         <v>319</v>
       </c>
-      <c r="W2" s="58" t="s">
+      <c r="AB2" s="59" t="s">
         <v>320</v>
       </c>
-      <c r="X2" s="59" t="s">
-        <v>321</v>
-      </c>
-      <c r="Y2" s="3" t="s">
+      <c r="AC2" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="Z2" s="10" t="s">
+      <c r="AD2" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="AA2" s="10" t="s">
+      <c r="AE2" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="AB2" s="10" t="s">
+      <c r="AF2" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="AC2" s="10" t="s">
+      <c r="AG2" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="AD2" s="10" t="s">
+      <c r="AH2" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="AE2" s="10" t="s">
+      <c r="AI2" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="AF2" s="10" t="s">
+      <c r="AJ2" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="AG2" s="10" t="s">
+      <c r="AK2" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="AH2" s="10" t="s">
+      <c r="AL2" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="AI2" s="10" t="s">
+      <c r="AM2" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="AJ2" s="10" t="s">
+      <c r="AN2" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="AK2" s="10" t="s">
+      <c r="AO2" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="AL2" s="10" t="s">
+      <c r="AP2" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="AM2" s="10" t="s">
+      <c r="AQ2" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="AN2" s="10" t="s">
+      <c r="AR2" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="AO2" s="10" t="s">
+      <c r="AS2" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="AP2" s="10" t="s">
+      <c r="AT2" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="AQ2" s="10" t="s">
+      <c r="AU2" s="10" t="s">
         <v>79</v>
-      </c>
-      <c r="AR2" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="AS2" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="AT2" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="AU2" s="10" t="s">
-        <v>82</v>
       </c>
       <c r="AV2" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="AW2" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="AX2" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="AY2" s="3" t="s">
+      <c r="AW2" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="AX2" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="AY2" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="AZ2" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="BA2" s="10" t="s">
+        <v>338</v>
+      </c>
+      <c r="BB2" s="62" t="s">
+        <v>320</v>
+      </c>
+      <c r="BC2" s="63" t="s">
+        <v>334</v>
+      </c>
+      <c r="BD2" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="AZ2" s="1" t="s">
+      <c r="BE2" s="60" t="s">
+        <v>331</v>
+      </c>
+      <c r="BF2" s="60" t="s">
+        <v>330</v>
+      </c>
+      <c r="BG2" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="BH2" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="BA2" s="1" t="s">
+      <c r="BI2" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="BB2" s="1" t="s">
+      <c r="BJ2" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="BC2" s="1" t="s">
+      <c r="BK2" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="BD2" s="17" t="s">
+      <c r="BL2" s="17" t="s">
         <v>165</v>
       </c>
-      <c r="BE2" s="17" t="s">
+      <c r="BM2" s="17" t="s">
         <v>137</v>
       </c>
-      <c r="BF2" s="1" t="s">
+      <c r="BN2" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="BG2" s="1" t="s">
+      <c r="BO2" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="BH2" s="1" t="s">
+      <c r="BP2" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="BI2" s="1" t="s">
+      <c r="BQ2" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="BJ2" s="1" t="s">
+      <c r="BR2" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="BK2" s="4" t="s">
+      <c r="BS2" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="BL2" s="17" t="s">
+      <c r="BT2" s="17" t="s">
         <v>144</v>
       </c>
-      <c r="BM2" s="17" t="s">
+      <c r="BU2" s="17" t="s">
         <v>145</v>
       </c>
-      <c r="BN2" s="17" t="s">
+      <c r="BV2" s="17" t="s">
         <v>146</v>
       </c>
-      <c r="BO2" s="17" t="s">
+      <c r="BW2" s="17" t="s">
         <v>147</v>
       </c>
-      <c r="BP2" s="17" t="s">
+      <c r="BX2" s="17" t="s">
         <v>148</v>
       </c>
-      <c r="BQ2" s="17" t="s">
+      <c r="BY2" s="17" t="s">
         <v>149</v>
       </c>
-      <c r="BR2" s="1" t="s">
+      <c r="BZ2" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="BS2" s="1" t="s">
+      <c r="CA2" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="BT2" s="1" t="s">
+      <c r="CB2" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="BU2" s="1" t="s">
+      <c r="CC2" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="BV2" s="1" t="s">
+      <c r="CD2" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="BW2" s="1" t="s">
+      <c r="CE2" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="BX2" s="1" t="s">
+      <c r="CF2" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="BY2" s="17" t="s">
+      <c r="CG2" s="17" t="s">
         <v>156</v>
       </c>
-      <c r="BZ2" s="17" t="s">
+      <c r="CH2" s="17" t="s">
         <v>157</v>
       </c>
-      <c r="CA2" s="17" t="s">
+      <c r="CI2" s="17" t="s">
         <v>158</v>
       </c>
-      <c r="CB2" s="17" t="s">
+      <c r="CJ2" s="17" t="s">
         <v>159</v>
       </c>
-      <c r="CC2" s="1" t="s">
+      <c r="CK2" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="CD2" s="1" t="s">
+      <c r="CL2" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="CE2" s="17" t="s">
+      <c r="CM2" s="17" t="s">
         <v>162</v>
       </c>
-      <c r="CF2" s="17" t="s">
+      <c r="CN2" s="17" t="s">
         <v>163</v>
       </c>
-      <c r="CG2" s="17" t="s">
+      <c r="CO2" s="17" t="s">
         <v>304</v>
       </c>
-      <c r="CH2" s="4" t="s">
+      <c r="CP2" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="CI2" s="4" t="s">
+      <c r="CQ2" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="CJ2" s="4" t="s">
+      <c r="CR2" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="CK2" s="4" t="s">
+      <c r="CS2" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="CL2" s="13" t="s">
+      <c r="CT2" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="CM2" s="16" t="s">
+      <c r="CU2" s="16" t="s">
         <v>89</v>
       </c>
-      <c r="CN2" s="16" t="s">
-        <v>323</v>
-      </c>
-      <c r="CO2" s="15" t="s">
+      <c r="CV2" s="16" t="s">
+        <v>322</v>
+      </c>
+      <c r="CW2" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="CP2" s="57" t="s">
-        <v>311</v>
-      </c>
-      <c r="CQ2" s="15" t="s">
+      <c r="CX2" s="57" t="s">
+        <v>310</v>
+      </c>
+      <c r="CY2" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="CR2" t="s">
-        <v>324</v>
-      </c>
-      <c r="CS2" s="7" t="s">
+      <c r="CZ2" t="s" s="0">
+        <v>348</v>
+      </c>
+      <c r="DA2" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="CT2" t="s">
+      <c r="DB2" t="s" s="0">
         <v>166</v>
       </c>
-      <c r="CU2" t="s">
+      <c r="DC2" t="s" s="0">
         <v>166</v>
       </c>
     </row>
-    <row r="3" spans="1:99" s="1" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:107" s="1" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>51</v>
       </c>
@@ -12052,269 +12174,301 @@
         <v>266</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>314</v>
+        <v>336</v>
       </c>
       <c r="K3" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="L3" s="64" t="s">
+        <v>335</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="O3" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="L3" s="8" t="s">
+      <c r="P3" s="8" t="s">
         <v>297</v>
       </c>
-      <c r="M3" s="9" t="s">
+      <c r="Q3" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="N3" s="9" t="s">
+      <c r="R3" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="O3" s="9" t="s">
+      <c r="S3" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="P3" s="9" t="s">
+      <c r="T3" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="Q3" s="9" t="s">
+      <c r="U3" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="R3" s="9" t="s">
+      <c r="V3" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="S3" s="1" t="s">
+      <c r="W3" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="T3" s="8" t="s">
+      <c r="X3" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="U3" s="17" t="s">
+      <c r="Y3" s="17" t="s">
         <v>163</v>
       </c>
-      <c r="V3" s="17" t="s">
+      <c r="Z3" s="17" t="s">
+        <v>318</v>
+      </c>
+      <c r="AA3" s="58" t="s">
         <v>319</v>
       </c>
-      <c r="W3" s="58" t="s">
+      <c r="AB3" s="59" t="s">
         <v>320</v>
       </c>
-      <c r="X3" s="59" t="s">
-        <v>321</v>
-      </c>
-      <c r="Y3" s="3" t="s">
+      <c r="AC3" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="Z3" s="10" t="s">
+      <c r="AD3" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="AA3" s="10" t="s">
+      <c r="AE3" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="AB3" s="10" t="s">
+      <c r="AF3" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="AC3" s="10" t="s">
+      <c r="AG3" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="AD3" s="10" t="s">
+      <c r="AH3" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="AE3" s="10" t="s">
+      <c r="AI3" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="AF3" s="10" t="s">
+      <c r="AJ3" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="AG3" s="10" t="s">
+      <c r="AK3" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="AH3" s="10" t="s">
+      <c r="AL3" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="AI3" s="10" t="s">
+      <c r="AM3" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="AJ3" s="10" t="s">
+      <c r="AN3" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="AK3" s="10" t="s">
+      <c r="AO3" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="AL3" s="10" t="s">
+      <c r="AP3" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="AM3" s="10" t="s">
+      <c r="AQ3" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="AN3" s="10" t="s">
+      <c r="AR3" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="AO3" s="10" t="s">
+      <c r="AS3" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="AP3" s="10" t="s">
+      <c r="AT3" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="AQ3" s="10" t="s">
+      <c r="AU3" s="10" t="s">
         <v>79</v>
-      </c>
-      <c r="AR3" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="AS3" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="AT3" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="AU3" s="10" t="s">
-        <v>82</v>
       </c>
       <c r="AV3" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="AW3" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="AX3" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="AY3" s="3" t="s">
+      <c r="AW3" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="AX3" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="AY3" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="AZ3" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="BA3" s="10" t="s">
+        <v>338</v>
+      </c>
+      <c r="BB3" s="62" t="s">
+        <v>320</v>
+      </c>
+      <c r="BC3" s="63" t="s">
+        <v>334</v>
+      </c>
+      <c r="BD3" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="AZ3" s="1" t="s">
+      <c r="BE3" s="60" t="s">
+        <v>331</v>
+      </c>
+      <c r="BF3" s="60" t="s">
+        <v>330</v>
+      </c>
+      <c r="BG3" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="BH3" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="BA3" s="1" t="s">
+      <c r="BI3" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="BB3" s="1" t="s">
+      <c r="BJ3" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="BC3" s="1" t="s">
+      <c r="BK3" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="BD3" s="17" t="s">
+      <c r="BL3" s="17" t="s">
         <v>165</v>
       </c>
-      <c r="BE3" s="17" t="s">
+      <c r="BM3" s="17" t="s">
         <v>137</v>
       </c>
-      <c r="BF3" s="1" t="s">
+      <c r="BN3" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="BG3" s="1" t="s">
+      <c r="BO3" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="BH3" s="1" t="s">
+      <c r="BP3" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="BI3" s="1" t="s">
+      <c r="BQ3" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="BJ3" s="1" t="s">
+      <c r="BR3" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="BK3" s="4" t="s">
+      <c r="BS3" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="BL3" s="17" t="s">
+      <c r="BT3" s="17" t="s">
         <v>144</v>
       </c>
-      <c r="BM3" s="17" t="s">
+      <c r="BU3" s="17" t="s">
         <v>145</v>
       </c>
-      <c r="BN3" s="17" t="s">
+      <c r="BV3" s="17" t="s">
         <v>146</v>
       </c>
-      <c r="BO3" s="17" t="s">
+      <c r="BW3" s="17" t="s">
         <v>147</v>
       </c>
-      <c r="BP3" s="17" t="s">
+      <c r="BX3" s="17" t="s">
         <v>148</v>
       </c>
-      <c r="BQ3" s="17" t="s">
+      <c r="BY3" s="17" t="s">
         <v>149</v>
       </c>
-      <c r="BR3" s="1" t="s">
+      <c r="BZ3" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="BS3" s="1" t="s">
+      <c r="CA3" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="BT3" s="1" t="s">
+      <c r="CB3" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="BU3" s="1" t="s">
+      <c r="CC3" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="BV3" s="1" t="s">
+      <c r="CD3" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="BW3" s="1" t="s">
+      <c r="CE3" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="BX3" s="1" t="s">
+      <c r="CF3" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="BY3" s="17" t="s">
+      <c r="CG3" s="17" t="s">
         <v>156</v>
       </c>
-      <c r="BZ3" s="17" t="s">
+      <c r="CH3" s="17" t="s">
         <v>157</v>
       </c>
-      <c r="CA3" s="17" t="s">
+      <c r="CI3" s="17" t="s">
         <v>158</v>
       </c>
-      <c r="CB3" s="17" t="s">
+      <c r="CJ3" s="17" t="s">
         <v>159</v>
       </c>
-      <c r="CC3" s="1" t="s">
+      <c r="CK3" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="CD3" s="1" t="s">
+      <c r="CL3" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="CE3" s="17" t="s">
+      <c r="CM3" s="17" t="s">
         <v>162</v>
       </c>
-      <c r="CF3" s="17" t="s">
+      <c r="CN3" s="17" t="s">
         <v>163</v>
       </c>
-      <c r="CG3" s="17" t="s">
+      <c r="CO3" s="17" t="s">
         <v>304</v>
       </c>
-      <c r="CH3" s="4" t="s">
+      <c r="CP3" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="CI3" s="4" t="s">
+      <c r="CQ3" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="CJ3" s="4" t="s">
+      <c r="CR3" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="CK3" s="4" t="s">
+      <c r="CS3" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="CL3" s="13" t="s">
+      <c r="CT3" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="CM3" s="16" t="s">
+      <c r="CU3" s="16" t="s">
         <v>89</v>
       </c>
-      <c r="CN3" s="16" t="s">
-        <v>323</v>
-      </c>
-      <c r="CO3" s="15" t="s">
+      <c r="CV3" s="16" t="s">
+        <v>322</v>
+      </c>
+      <c r="CW3" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="CP3" s="57" t="s">
-        <v>311</v>
-      </c>
-      <c r="CQ3" s="15" t="s">
+      <c r="CX3" s="57" t="s">
+        <v>310</v>
+      </c>
+      <c r="CY3" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="CS3" s="7" t="s">
+      <c r="CZ3" t="s" s="0">
+        <v>349</v>
+      </c>
+      <c r="DA3" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="CU3"/>
+      <c r="DB3" t="s" s="0">
+        <v>166</v>
+      </c>
+      <c r="DC3" t="s" s="0">
+        <v>166</v>
+      </c>
     </row>
-    <row r="4" spans="1:99" ht="90" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:107" ht="90" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>51</v>
       </c>
@@ -12343,269 +12497,301 @@
         <v>263</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>314</v>
+        <v>336</v>
       </c>
       <c r="K4" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="L4" s="64" t="s">
+        <v>335</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="O4" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="L4" s="8" t="s">
+      <c r="P4" s="8" t="s">
         <v>297</v>
       </c>
-      <c r="M4" s="9" t="s">
+      <c r="Q4" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="N4" s="9" t="s">
+      <c r="R4" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="O4" s="9" t="s">
+      <c r="S4" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="P4" s="9" t="s">
+      <c r="T4" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="Q4" s="9" t="s">
+      <c r="U4" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="R4" s="9" t="s">
+      <c r="V4" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="S4" s="1" t="s">
+      <c r="W4" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="T4" s="8" t="s">
+      <c r="X4" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="U4" s="17" t="s">
+      <c r="Y4" s="17" t="s">
         <v>163</v>
       </c>
-      <c r="V4" s="17" t="s">
+      <c r="Z4" s="17" t="s">
+        <v>318</v>
+      </c>
+      <c r="AA4" s="58" t="s">
         <v>319</v>
       </c>
-      <c r="W4" s="58" t="s">
+      <c r="AB4" s="59" t="s">
         <v>320</v>
       </c>
-      <c r="X4" s="59" t="s">
-        <v>321</v>
-      </c>
-      <c r="Y4" s="3" t="s">
+      <c r="AC4" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="Z4" s="10" t="s">
+      <c r="AD4" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="AA4" s="10" t="s">
+      <c r="AE4" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="AB4" s="10" t="s">
+      <c r="AF4" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="AC4" s="10" t="s">
+      <c r="AG4" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="AD4" s="10" t="s">
+      <c r="AH4" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="AE4" s="10" t="s">
+      <c r="AI4" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="AF4" s="10" t="s">
+      <c r="AJ4" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="AG4" s="10" t="s">
+      <c r="AK4" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="AH4" s="10" t="s">
+      <c r="AL4" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="AI4" s="10" t="s">
+      <c r="AM4" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="AJ4" s="10" t="s">
+      <c r="AN4" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="AK4" s="10" t="s">
+      <c r="AO4" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="AL4" s="10" t="s">
+      <c r="AP4" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="AM4" s="10" t="s">
+      <c r="AQ4" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="AN4" s="10" t="s">
+      <c r="AR4" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="AO4" s="10" t="s">
+      <c r="AS4" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="AP4" s="10" t="s">
+      <c r="AT4" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="AQ4" s="10" t="s">
+      <c r="AU4" s="10" t="s">
         <v>79</v>
-      </c>
-      <c r="AR4" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="AS4" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="AT4" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="AU4" s="10" t="s">
-        <v>82</v>
       </c>
       <c r="AV4" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="AW4" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="AX4" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="AY4" s="3" t="s">
+      <c r="AW4" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="AX4" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="AY4" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="AZ4" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="BA4" s="10" t="s">
+        <v>338</v>
+      </c>
+      <c r="BB4" s="62" t="s">
+        <v>320</v>
+      </c>
+      <c r="BC4" s="63" t="s">
+        <v>334</v>
+      </c>
+      <c r="BD4" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="AZ4" s="1" t="s">
+      <c r="BE4" s="60" t="s">
+        <v>331</v>
+      </c>
+      <c r="BF4" s="60" t="s">
+        <v>330</v>
+      </c>
+      <c r="BG4" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="BH4" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="BA4" s="1" t="s">
+      <c r="BI4" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="BB4" s="1" t="s">
+      <c r="BJ4" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="BC4" s="1" t="s">
+      <c r="BK4" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="BD4" s="17" t="s">
+      <c r="BL4" s="17" t="s">
         <v>165</v>
       </c>
-      <c r="BE4" s="17" t="s">
+      <c r="BM4" s="17" t="s">
         <v>137</v>
       </c>
-      <c r="BF4" s="1" t="s">
+      <c r="BN4" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="BG4" s="1" t="s">
+      <c r="BO4" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="BH4" s="1" t="s">
+      <c r="BP4" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="BI4" s="1" t="s">
+      <c r="BQ4" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="BJ4" s="1" t="s">
+      <c r="BR4" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="BK4" s="4" t="s">
+      <c r="BS4" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="BL4" s="17" t="s">
+      <c r="BT4" s="17" t="s">
         <v>144</v>
       </c>
-      <c r="BM4" s="17" t="s">
+      <c r="BU4" s="17" t="s">
         <v>145</v>
       </c>
-      <c r="BN4" s="17" t="s">
+      <c r="BV4" s="17" t="s">
         <v>146</v>
       </c>
-      <c r="BO4" s="17" t="s">
+      <c r="BW4" s="17" t="s">
         <v>147</v>
       </c>
-      <c r="BP4" s="17" t="s">
+      <c r="BX4" s="17" t="s">
         <v>148</v>
       </c>
-      <c r="BQ4" s="17" t="s">
+      <c r="BY4" s="17" t="s">
         <v>149</v>
       </c>
-      <c r="BR4" s="1" t="s">
+      <c r="BZ4" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="BS4" s="1" t="s">
+      <c r="CA4" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="BT4" s="1" t="s">
+      <c r="CB4" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="BU4" s="1" t="s">
+      <c r="CC4" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="BV4" s="1" t="s">
+      <c r="CD4" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="BW4" s="1" t="s">
+      <c r="CE4" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="BX4" s="1" t="s">
+      <c r="CF4" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="BY4" s="17" t="s">
+      <c r="CG4" s="17" t="s">
         <v>156</v>
       </c>
-      <c r="BZ4" s="17" t="s">
+      <c r="CH4" s="17" t="s">
         <v>157</v>
       </c>
-      <c r="CA4" s="17" t="s">
+      <c r="CI4" s="17" t="s">
         <v>158</v>
       </c>
-      <c r="CB4" s="17" t="s">
+      <c r="CJ4" s="17" t="s">
         <v>159</v>
       </c>
-      <c r="CC4" s="1" t="s">
+      <c r="CK4" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="CD4" s="1" t="s">
+      <c r="CL4" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="CE4" s="17" t="s">
+      <c r="CM4" s="17" t="s">
         <v>162</v>
       </c>
-      <c r="CF4" s="17" t="s">
+      <c r="CN4" s="17" t="s">
         <v>163</v>
       </c>
-      <c r="CG4" s="17" t="s">
+      <c r="CO4" s="17" t="s">
         <v>304</v>
       </c>
-      <c r="CH4" s="4" t="s">
+      <c r="CP4" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="CI4" s="4" t="s">
+      <c r="CQ4" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="CJ4" s="4" t="s">
+      <c r="CR4" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="CK4" s="4" t="s">
+      <c r="CS4" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="CL4" s="13" t="s">
+      <c r="CT4" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="CM4" s="16" t="s">
+      <c r="CU4" s="16" t="s">
         <v>89</v>
       </c>
-      <c r="CN4" s="16" t="s">
-        <v>323</v>
-      </c>
-      <c r="CO4" s="15" t="s">
+      <c r="CV4" s="16" t="s">
+        <v>322</v>
+      </c>
+      <c r="CW4" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="CP4" s="57" t="s">
-        <v>311</v>
-      </c>
-      <c r="CQ4" s="15" t="s">
+      <c r="CX4" s="57" t="s">
+        <v>310</v>
+      </c>
+      <c r="CY4" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="CR4" s="1"/>
-      <c r="CS4" s="7" t="s">
+      <c r="CZ4" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="DA4" s="7" t="s">
         <v>87</v>
       </c>
+      <c r="DB4" t="s" s="0">
+        <v>166</v>
+      </c>
+      <c r="DC4" t="s" s="0">
+        <v>166</v>
+      </c>
     </row>
-    <row r="5" spans="1:99" s="1" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:107" s="1" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>51</v>
       </c>
@@ -12634,281 +12820,317 @@
         <v>240</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>314</v>
+        <v>336</v>
       </c>
       <c r="K5" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="L5" s="64" t="s">
+        <v>335</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="O5" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="L5" s="8" t="s">
+      <c r="P5" s="8" t="s">
         <v>297</v>
       </c>
-      <c r="M5" s="9" t="s">
+      <c r="Q5" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="N5" s="9" t="s">
+      <c r="R5" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="O5" s="9" t="s">
+      <c r="S5" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="P5" s="9" t="s">
+      <c r="T5" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="Q5" s="9" t="s">
+      <c r="U5" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="R5" s="9" t="s">
+      <c r="V5" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="S5" s="1" t="s">
+      <c r="W5" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="T5" s="8" t="s">
+      <c r="X5" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="U5" s="17" t="s">
+      <c r="Y5" s="17" t="s">
         <v>163</v>
       </c>
-      <c r="V5" s="17" t="s">
+      <c r="Z5" s="17" t="s">
+        <v>318</v>
+      </c>
+      <c r="AA5" s="58" t="s">
         <v>319</v>
       </c>
-      <c r="W5" s="58" t="s">
+      <c r="AB5" s="59" t="s">
         <v>320</v>
       </c>
-      <c r="X5" s="59" t="s">
-        <v>321</v>
-      </c>
-      <c r="Y5" s="3" t="s">
+      <c r="AC5" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="Z5" s="10" t="s">
+      <c r="AD5" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="AA5" s="10" t="s">
+      <c r="AE5" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="AB5" s="10" t="s">
+      <c r="AF5" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="AC5" s="10" t="s">
+      <c r="AG5" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="AD5" s="10" t="s">
+      <c r="AH5" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="AE5" s="10" t="s">
+      <c r="AI5" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="AF5" s="10" t="s">
+      <c r="AJ5" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="AG5" s="10" t="s">
+      <c r="AK5" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="AH5" s="10" t="s">
+      <c r="AL5" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="AI5" s="10" t="s">
+      <c r="AM5" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="AJ5" s="10" t="s">
+      <c r="AN5" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="AK5" s="10" t="s">
+      <c r="AO5" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="AL5" s="10" t="s">
+      <c r="AP5" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="AM5" s="10" t="s">
+      <c r="AQ5" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="AN5" s="10" t="s">
+      <c r="AR5" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="AO5" s="10" t="s">
+      <c r="AS5" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="AP5" s="10" t="s">
+      <c r="AT5" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="AQ5" s="10" t="s">
+      <c r="AU5" s="10" t="s">
         <v>79</v>
-      </c>
-      <c r="AR5" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="AS5" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="AT5" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="AU5" s="10" t="s">
-        <v>82</v>
       </c>
       <c r="AV5" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="AW5" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="AX5" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="AY5" s="3" t="s">
+      <c r="AW5" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="AX5" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="AY5" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="AZ5" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="BA5" s="10" t="s">
+        <v>338</v>
+      </c>
+      <c r="BB5" s="62" t="s">
+        <v>320</v>
+      </c>
+      <c r="BC5" s="63" t="s">
+        <v>334</v>
+      </c>
+      <c r="BD5" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="AZ5" s="1" t="s">
+      <c r="BE5" s="60" t="s">
+        <v>331</v>
+      </c>
+      <c r="BF5" s="60" t="s">
+        <v>330</v>
+      </c>
+      <c r="BG5" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="BH5" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="BA5" s="1" t="s">
+      <c r="BI5" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="BB5" s="1" t="s">
+      <c r="BJ5" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="BC5" s="1" t="s">
+      <c r="BK5" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="BD5" s="17" t="s">
+      <c r="BL5" s="17" t="s">
         <v>165</v>
       </c>
-      <c r="BE5" s="17" t="s">
+      <c r="BM5" s="17" t="s">
         <v>137</v>
       </c>
-      <c r="BF5" s="1" t="s">
+      <c r="BN5" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="BG5" s="1" t="s">
+      <c r="BO5" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="BH5" s="1" t="s">
+      <c r="BP5" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="BI5" s="1" t="s">
+      <c r="BQ5" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="BJ5" s="1" t="s">
+      <c r="BR5" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="BK5" s="4" t="s">
+      <c r="BS5" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="BL5" s="17" t="s">
+      <c r="BT5" s="17" t="s">
         <v>144</v>
       </c>
-      <c r="BM5" s="17" t="s">
+      <c r="BU5" s="17" t="s">
         <v>145</v>
       </c>
-      <c r="BN5" s="17" t="s">
+      <c r="BV5" s="17" t="s">
         <v>146</v>
       </c>
-      <c r="BO5" s="17" t="s">
+      <c r="BW5" s="17" t="s">
         <v>147</v>
       </c>
-      <c r="BP5" s="17" t="s">
+      <c r="BX5" s="17" t="s">
         <v>148</v>
       </c>
-      <c r="BQ5" s="17" t="s">
+      <c r="BY5" s="17" t="s">
         <v>149</v>
       </c>
-      <c r="BR5" s="1" t="s">
+      <c r="BZ5" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="BS5" s="1" t="s">
+      <c r="CA5" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="BT5" s="1" t="s">
+      <c r="CB5" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="BU5" s="1" t="s">
+      <c r="CC5" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="BV5" s="1" t="s">
+      <c r="CD5" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="BW5" s="1" t="s">
+      <c r="CE5" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="BX5" s="1" t="s">
+      <c r="CF5" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="BY5" s="17" t="s">
+      <c r="CG5" s="17" t="s">
         <v>156</v>
       </c>
-      <c r="BZ5" s="17" t="s">
+      <c r="CH5" s="17" t="s">
         <v>157</v>
       </c>
-      <c r="CA5" s="17" t="s">
+      <c r="CI5" s="17" t="s">
         <v>158</v>
       </c>
-      <c r="CB5" s="17" t="s">
+      <c r="CJ5" s="17" t="s">
         <v>159</v>
       </c>
-      <c r="CC5" s="1" t="s">
+      <c r="CK5" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="CD5" s="1" t="s">
+      <c r="CL5" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="CE5" s="17" t="s">
+      <c r="CM5" s="17" t="s">
         <v>162</v>
       </c>
-      <c r="CF5" s="17" t="s">
+      <c r="CN5" s="17" t="s">
         <v>163</v>
       </c>
-      <c r="CG5" s="17" t="s">
+      <c r="CO5" s="17" t="s">
         <v>304</v>
       </c>
-      <c r="CH5" s="4" t="s">
+      <c r="CP5" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="CI5" s="4" t="s">
+      <c r="CQ5" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="CJ5" s="4" t="s">
+      <c r="CR5" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="CK5" s="4" t="s">
+      <c r="CS5" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="CL5" s="13" t="s">
+      <c r="CT5" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="CM5" s="16" t="s">
+      <c r="CU5" s="16" t="s">
         <v>89</v>
       </c>
-      <c r="CN5" s="16" t="s">
-        <v>323</v>
-      </c>
-      <c r="CO5" s="15" t="s">
+      <c r="CV5" s="16" t="s">
+        <v>322</v>
+      </c>
+      <c r="CW5" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="CP5" s="57" t="s">
-        <v>311</v>
-      </c>
-      <c r="CQ5" s="15" t="s">
+      <c r="CX5" s="57" t="s">
+        <v>310</v>
+      </c>
+      <c r="CY5" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="CS5" s="7" t="s">
+      <c r="CZ5" t="s" s="0">
+        <v>351</v>
+      </c>
+      <c r="DA5" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="CT5"/>
-      <c r="CU5"/>
+      <c r="DB5" t="s" s="0">
+        <v>166</v>
+      </c>
+      <c r="DC5" t="s" s="0">
+        <v>166</v>
+      </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="BE1:BK1">
+  <phoneticPr fontId="6" type="noConversion"/>
+  <conditionalFormatting sqref="BM1:BS1">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="CP5" r:id="rId1" display="file:///C:/Users/agraway/eclipse-workspace/LifeSpeed-main/Files\sample.pdf" xr:uid="{6A5AE02A-0A2B-474F-A934-24EA1A047DED}"/>
-    <hyperlink ref="CP2" r:id="rId2" display="file:///C:/Users/agraway/eclipse-workspace/LifeSpeed-main/Files\sample.pdf" xr:uid="{AEB0F94D-0438-497B-9CD1-63DDFCC95600}"/>
-    <hyperlink ref="CP3" r:id="rId3" display="file:///C:/Users/agraway/eclipse-workspace/LifeSpeed-main/Files\sample.pdf" xr:uid="{D8485F00-6025-4992-A35E-4FBBEA38CB2B}"/>
-    <hyperlink ref="CP4" r:id="rId4" display="file:///C:/Users/agraway/eclipse-workspace/LifeSpeed-main/Files\sample.pdf" xr:uid="{29531029-94A3-4055-84D8-6AF386EC85AF}"/>
+    <hyperlink ref="CX5" r:id="rId1" display="file:///C:/Users/agraway/eclipse-workspace/LifeSpeed-main/Files\sample.pdf" xr:uid="{6A5AE02A-0A2B-474F-A934-24EA1A047DED}"/>
+    <hyperlink ref="CX2" r:id="rId2" display="file:///C:/Users/agraway/eclipse-workspace/LifeSpeed-main/Files\sample.pdf" xr:uid="{AEB0F94D-0438-497B-9CD1-63DDFCC95600}"/>
+    <hyperlink ref="CX3" r:id="rId3" display="file:///C:/Users/agraway/eclipse-workspace/LifeSpeed-main/Files\sample.pdf" xr:uid="{D8485F00-6025-4992-A35E-4FBBEA38CB2B}"/>
+    <hyperlink ref="CX4" r:id="rId4" display="file:///C:/Users/agraway/eclipse-workspace/LifeSpeed-main/Files\sample.pdf" xr:uid="{29531029-94A3-4055-84D8-6AF386EC85AF}"/>
+    <hyperlink ref="L2" r:id="rId5" xr:uid="{721FA9B2-F109-405F-86F0-1EB4BC06ABA9}"/>
+    <hyperlink ref="L3" r:id="rId6" xr:uid="{753A28FB-2163-4294-ABD6-E13FD8457408}"/>
+    <hyperlink ref="L4" r:id="rId7" xr:uid="{2CB3386A-B778-4957-9DBE-71A4C8C1D272}"/>
+    <hyperlink ref="L5" r:id="rId8" xr:uid="{5CF1B7D3-ED9F-42CC-8969-22A1CC706343}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId5"/>
+  <pageSetup orientation="portrait" r:id="rId9"/>
 </worksheet>
 </file>
 
@@ -12922,12 +13144,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="71" max="71" width="26.140625" customWidth="1" collapsed="1"/>
-    <col min="72" max="72" width="29.28515625" customWidth="1" collapsed="1"/>
-    <col min="73" max="73" width="15.28515625" customWidth="1" collapsed="1"/>
-    <col min="74" max="74" width="14.5703125" customWidth="1" collapsed="1"/>
-    <col min="81" max="81" width="21.28515625" customWidth="1" collapsed="1"/>
-    <col min="95" max="95" width="11.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="71" max="71" customWidth="true" width="26.140625" collapsed="true"/>
+    <col min="72" max="72" customWidth="true" width="29.28515625" collapsed="true"/>
+    <col min="73" max="73" customWidth="true" width="15.28515625" collapsed="true"/>
+    <col min="74" max="74" customWidth="true" width="14.5703125" collapsed="true"/>
+    <col min="81" max="81" customWidth="true" width="21.28515625" collapsed="true"/>
+    <col min="95" max="95" bestFit="true" customWidth="true" width="11.85546875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:98" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -13518,7 +13740,7 @@
       <c r="CS2" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="CT2" t="s">
+      <c r="CT2" t="s" s="0">
         <v>166</v>
       </c>
     </row>
@@ -13540,9 +13762,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="80" max="80" width="16.42578125" customWidth="1" collapsed="1"/>
-    <col min="81" max="81" width="17.140625" customWidth="1" collapsed="1"/>
-    <col min="91" max="91" width="11.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="80" max="80" customWidth="true" width="16.42578125" collapsed="true"/>
+    <col min="81" max="81" customWidth="true" width="17.140625" collapsed="true"/>
+    <col min="91" max="91" bestFit="true" customWidth="true" width="11.85546875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:94" s="38" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -14109,7 +14331,7 @@
       <c r="CO2" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="CP2" t="s">
+      <c r="CP2" t="s" s="0">
         <v>166</v>
       </c>
     </row>
@@ -14131,9 +14353,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="10" max="10" width="23.7109375" customWidth="1" collapsed="1"/>
-    <col min="47" max="47" width="37.42578125" customWidth="1" collapsed="1"/>
-    <col min="96" max="96" width="11.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" customWidth="true" width="23.7109375" collapsed="true"/>
+    <col min="47" max="47" customWidth="true" width="37.42578125" collapsed="true"/>
+    <col min="96" max="96" bestFit="true" customWidth="true" width="11.85546875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:99" s="38" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -14730,7 +14952,7 @@
       <c r="CT2" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="CU2" t="s">
+      <c r="CU2" t="s" s="0">
         <v>166</v>
       </c>
     </row>
@@ -14752,9 +14974,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="10" max="10" width="21.28515625" customWidth="1" collapsed="1"/>
-    <col min="96" max="96" width="11.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="97" max="97" width="12.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" customWidth="true" width="21.28515625" collapsed="true"/>
+    <col min="96" max="96" bestFit="true" customWidth="true" width="11.85546875" collapsed="true"/>
+    <col min="97" max="97" bestFit="true" customWidth="true" width="12.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:100" s="19" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -15376,7 +15598,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="96" max="96" width="11.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="96" max="96" bestFit="true" customWidth="true" width="11.85546875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:99" s="38" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -15973,7 +16195,7 @@
       <c r="CT2" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="CU2" t="s">
+      <c r="CU2" t="s" s="0">
         <v>166</v>
       </c>
     </row>
@@ -15995,7 +16217,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="93" max="93" width="11.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="93" max="93" bestFit="true" customWidth="true" width="11.85546875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:96" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -16275,7 +16497,7 @@
       <c r="CN1" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="CO1" t="s">
+      <c r="CO1" t="s" s="0">
         <v>48</v>
       </c>
       <c r="CP1" s="7" t="s">
@@ -16574,7 +16796,7 @@
       <c r="CQ2" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="CR2" t="s">
+      <c r="CR2" t="s" s="0">
         <v>166</v>
       </c>
     </row>
@@ -16596,9 +16818,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="21" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="17.85546875" customWidth="1" collapsed="1"/>
-    <col min="91" max="91" width="11.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" customWidth="true" width="21.0" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="17.85546875" collapsed="true"/>
+    <col min="91" max="91" bestFit="true" customWidth="true" width="11.85546875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:94" s="38" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -17165,7 +17387,7 @@
       <c r="CO2" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="CP2" t="s">
+      <c r="CP2" t="s" s="0">
         <v>166</v>
       </c>
     </row>

--- a/src/test/java/testData/TestSuite1Data.xlsx
+++ b/src/test/java/testData/TestSuite1Data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
   <workbookPr/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\agraway\Desktop\LifeSpeed-mainy\LifeSpeed-main\src\test\java\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3284652C-FD79-4BF4-8CF8-7E229A1F6114}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B202EEA2-5B15-45F6-B244-AB5168A42F5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" firstSheet="9" activeTab="22" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" firstSheet="11" activeTab="24" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TC01" sheetId="1" r:id="rId1"/>
@@ -36,6 +36,8 @@
     <sheet name="TC21" sheetId="21" r:id="rId21"/>
     <sheet name="TC22" sheetId="22" r:id="rId22"/>
     <sheet name="TC23" sheetId="23" r:id="rId23"/>
+    <sheet name="TC24" sheetId="24" r:id="rId24"/>
+    <sheet name="TC25" sheetId="25" r:id="rId25"/>
   </sheets>
   <calcPr calcId="0"/>
   <extLst>
@@ -47,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4887" uniqueCount="352">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6539" uniqueCount="391">
   <si>
     <t>Gateway_PartnerCode</t>
   </si>
@@ -1081,28 +1083,145 @@
     <t>Zinnia</t>
   </si>
   <si>
-    <t>532481</t>
-  </si>
-  <si>
-    <t>532485</t>
-  </si>
-  <si>
-    <t>532487</t>
-  </si>
-  <si>
-    <t>532524</t>
-  </si>
-  <si>
-    <t>532525</t>
-  </si>
-  <si>
-    <t>532530</t>
-  </si>
-  <si>
     <t>532531</t>
   </si>
   <si>
     <t>532532</t>
+  </si>
+  <si>
+    <t>533043</t>
+  </si>
+  <si>
+    <t>533046</t>
+  </si>
+  <si>
+    <t>AG Secure Lifetime GUL 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">02640L477  </t>
+  </si>
+  <si>
+    <t>60488</t>
+  </si>
+  <si>
+    <t>FL</t>
+  </si>
+  <si>
+    <t>Select-a-Term</t>
+  </si>
+  <si>
+    <t xml:space="preserve">02640E663 </t>
+  </si>
+  <si>
+    <t>Max Accumulator+ III IUL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">02640T801  </t>
+  </si>
+  <si>
+    <t>AR</t>
+  </si>
+  <si>
+    <t>533051</t>
+  </si>
+  <si>
+    <t>NY</t>
+  </si>
+  <si>
+    <t>Max Accumulator+ II IUL (NY)</t>
+  </si>
+  <si>
+    <t>Value+ Protector III IUL (NY)</t>
+  </si>
+  <si>
+    <t>70106</t>
+  </si>
+  <si>
+    <t xml:space="preserve">91215A149 </t>
+  </si>
+  <si>
+    <t>533055</t>
+  </si>
+  <si>
+    <t>Accumulation IUL 23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">47804V183 </t>
+  </si>
+  <si>
+    <t>CO</t>
+  </si>
+  <si>
+    <t>Accumulation VUL 21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41014H308  </t>
+  </si>
+  <si>
+    <t>CT</t>
+  </si>
+  <si>
+    <t>Protection SIUL 22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41014K145  </t>
+  </si>
+  <si>
+    <t>Protection SUL 22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41014K137  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">41014H100  </t>
+  </si>
+  <si>
+    <t>DE</t>
+  </si>
+  <si>
+    <t>GA</t>
+  </si>
+  <si>
+    <t>MO</t>
+  </si>
+  <si>
+    <t>Lincoln LifeElements Level Term</t>
+  </si>
+  <si>
+    <t xml:space="preserve">53422R265  </t>
+  </si>
+  <si>
+    <t>65676</t>
+  </si>
+  <si>
+    <t>OR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MoneyGuard  Market Advantage </t>
+  </si>
+  <si>
+    <t xml:space="preserve">53423L481  </t>
+  </si>
+  <si>
+    <t>CA</t>
+  </si>
+  <si>
+    <t>07/09/2024</t>
+  </si>
+  <si>
+    <t>533071</t>
+  </si>
+  <si>
+    <t xml:space="preserve">53423F401 </t>
+  </si>
+  <si>
+    <t>Lincoln TermAccel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">53422R273    </t>
+  </si>
+  <si>
+    <t>533074</t>
   </si>
 </sst>
 </file>
@@ -1306,7 +1425,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1396,12 +1515,33 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="11" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="20">
+  <dxfs count="22">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1949,7 +2089,7 @@
   <dimension ref="A1:CQ6"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection sqref="A1:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3733,7 +3873,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="BB1:BH1">
-    <cfRule type="duplicateValues" dxfId="19" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="21" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -4336,7 +4476,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="BC1:BI1">
-    <cfRule type="duplicateValues" dxfId="10" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5020,7 +5160,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="BA1:BG1">
-    <cfRule type="duplicateValues" dxfId="9" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="1"/>
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="CR2" r:id="rId1" xr:uid="{00000000-0004-0000-0A00-000000000000}"/>
@@ -5748,7 +5888,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="BH1:BN1">
-    <cfRule type="duplicateValues" dxfId="8" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="1"/>
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="CY2" r:id="rId1" xr:uid="{00000000-0004-0000-0B00-000000000000}"/>
@@ -6380,7 +6520,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="BE1:BK1">
-    <cfRule type="duplicateValues" dxfId="7" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -7010,7 +7150,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="BE1:BK1">
-    <cfRule type="duplicateValues" dxfId="6" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8277,7 +8417,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="BA1:BG1">
-    <cfRule type="duplicateValues" dxfId="5" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8943,7 +9083,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="BB1:BH1">
-    <cfRule type="duplicateValues" dxfId="4" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -9596,7 +9736,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="BI1:BO1">
-    <cfRule type="duplicateValues" dxfId="18" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="20" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -10219,7 +10359,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="BE1:BK1">
-    <cfRule type="duplicateValues" dxfId="3" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -10842,7 +10982,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="BF1:BL1">
-    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -11467,7 +11607,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="BE1:BK1">
-    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -11477,8 +11617,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16ADFDC9-E8FB-45FB-A949-A1A72F8FEBC7}">
   <dimension ref="A1:DC5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="166" zoomScaleNormal="166" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView zoomScale="166" zoomScaleNormal="166" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11494,8 +11634,8 @@
     <col min="101" max="101" customWidth="true" width="42.140625" collapsed="true"/>
     <col min="102" max="102" customWidth="true" width="92.140625" collapsed="true"/>
     <col min="103" max="103" customWidth="true" width="28.0" collapsed="true"/>
-    <col min="104" max="104" bestFit="true" customWidth="true" width="10.58984375" collapsed="true"/>
-    <col min="106" max="106" bestFit="true" customWidth="true" width="8.8046875" collapsed="true"/>
+    <col min="104" max="104" bestFit="true" customWidth="true" width="10.5703125" collapsed="true"/>
+    <col min="106" max="106" bestFit="true" customWidth="true" width="8.85546875" collapsed="true"/>
     <col min="107" max="107" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
   </cols>
   <sheetData>
@@ -12133,7 +12273,7 @@
         <v>93</v>
       </c>
       <c r="CZ2" t="s" s="0">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="DA2" s="7" t="s">
         <v>87</v>
@@ -12456,7 +12596,7 @@
         <v>93</v>
       </c>
       <c r="CZ3" t="s" s="0">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="DA3" s="7" t="s">
         <v>87</v>
@@ -12779,7 +12919,7 @@
         <v>93</v>
       </c>
       <c r="CZ4" s="1" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="DA4" s="7" t="s">
         <v>87</v>
@@ -13102,7 +13242,7 @@
         <v>93</v>
       </c>
       <c r="CZ5" t="s" s="0">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="DA5" s="7" t="s">
         <v>87</v>
@@ -13117,7 +13257,7 @@
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <conditionalFormatting sqref="BM1:BS1">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="CX5" r:id="rId1" display="file:///C:/Users/agraway/eclipse-workspace/LifeSpeed-main/Files\sample.pdf" xr:uid="{6A5AE02A-0A2B-474F-A934-24EA1A047DED}"/>
@@ -13131,6 +13271,5118 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId9"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13BD1E7E-8248-4D7A-843E-4E1DE3646C89}">
+  <dimension ref="A1:DC11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L1" sqref="L1:N1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" customWidth="true" width="32.85546875"/>
+    <col min="5" max="5" customWidth="true" width="17.140625"/>
+    <col min="7" max="7" customWidth="true" width="27.28515625"/>
+    <col min="8" max="8" customWidth="true" width="30.7109375"/>
+    <col min="9" max="9" customWidth="true" width="24.0"/>
+    <col min="104" max="104" bestFit="true" customWidth="true" width="10.5703125"/>
+    <col min="106" max="106" bestFit="true" customWidth="true" width="8.85546875"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:107" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="20" t="s">
+        <v>173</v>
+      </c>
+      <c r="F1" s="30" t="s">
+        <v>168</v>
+      </c>
+      <c r="G1" s="20" t="s">
+        <v>177</v>
+      </c>
+      <c r="H1" s="20" t="s">
+        <v>169</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="S1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="T1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="U1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="V1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="AC1" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="AD1" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="AE1" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="AF1" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="AG1" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="AH1" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="AI1" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="AJ1" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="AK1" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="AL1" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="AM1" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="AN1" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="AO1" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="AP1" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="AQ1" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="AR1" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="AS1" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="AT1" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="AU1" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="AV1" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="AW1" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="AX1" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="AY1" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="AZ1" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="BA1" s="6" t="s">
+        <v>337</v>
+      </c>
+      <c r="BB1" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="BC1" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="BD1" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="BE1" s="61" t="s">
+        <v>327</v>
+      </c>
+      <c r="BF1" s="61" t="s">
+        <v>328</v>
+      </c>
+      <c r="BG1" s="61" t="s">
+        <v>329</v>
+      </c>
+      <c r="BH1" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="BI1" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="BJ1" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="BK1" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="BL1" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="BM1" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="BN1" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="BO1" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="BP1" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="BQ1" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="BR1" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="BS1" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="BT1" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="BU1" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="BV1" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="BW1" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="BX1" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="BY1" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="BZ1" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="CA1" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="CB1" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="CC1" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="CD1" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="CE1" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="CF1" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="CG1" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="CH1" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="CI1" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="CJ1" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="CK1" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="CL1" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="CM1" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="CN1" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="CO1" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="CP1" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="CQ1" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="CR1" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="CS1" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="CT1" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="CU1" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="CV1" s="4" t="s">
+        <v>321</v>
+      </c>
+      <c r="CW1" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="CX1" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="CY1" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="CZ1" t="s" s="0">
+        <v>48</v>
+      </c>
+      <c r="DA1" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="DB1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="DC1" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="2" spans="1:107" s="1" customFormat="1" ht="135" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="E2" s="17" t="s">
+        <v>361</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="G2" s="17" t="s">
+        <v>226</v>
+      </c>
+      <c r="H2" s="17" t="s">
+        <v>358</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="L2" s="64" t="s">
+        <v>335</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="P2" s="8" t="s">
+        <v>297</v>
+      </c>
+      <c r="Q2" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="R2" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="S2" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="T2" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="U2" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="V2" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="X2" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="Y2" s="17" t="s">
+        <v>163</v>
+      </c>
+      <c r="Z2" s="17" t="s">
+        <v>318</v>
+      </c>
+      <c r="AA2" s="58" t="s">
+        <v>319</v>
+      </c>
+      <c r="AB2" s="59" t="s">
+        <v>320</v>
+      </c>
+      <c r="AC2" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="AD2" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="AE2" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="AF2" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="AG2" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="AH2" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="AI2" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="AJ2" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="AK2" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="AL2" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="AM2" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="AN2" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="AO2" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="AP2" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="AQ2" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="AR2" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="AS2" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="AT2" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="AU2" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="AV2" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="AW2" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="AX2" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="AY2" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="AZ2" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="BA2" s="10" t="s">
+        <v>338</v>
+      </c>
+      <c r="BB2" s="62" t="s">
+        <v>320</v>
+      </c>
+      <c r="BC2" s="63" t="s">
+        <v>334</v>
+      </c>
+      <c r="BD2" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="BE2" s="60" t="s">
+        <v>331</v>
+      </c>
+      <c r="BF2" s="60" t="s">
+        <v>330</v>
+      </c>
+      <c r="BG2" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="BH2" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="BI2" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="BJ2" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="BK2" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="BL2" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="BM2" s="17" t="s">
+        <v>137</v>
+      </c>
+      <c r="BN2" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="BO2" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="BP2" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="BQ2" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="BR2" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="BS2" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="BT2" s="17" t="s">
+        <v>144</v>
+      </c>
+      <c r="BU2" s="17" t="s">
+        <v>145</v>
+      </c>
+      <c r="BV2" s="17" t="s">
+        <v>146</v>
+      </c>
+      <c r="BW2" s="17" t="s">
+        <v>147</v>
+      </c>
+      <c r="BX2" s="17" t="s">
+        <v>148</v>
+      </c>
+      <c r="BY2" s="17" t="s">
+        <v>149</v>
+      </c>
+      <c r="BZ2" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="CA2" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="CB2" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="CC2" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="CD2" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="CE2" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="CF2" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="CG2" s="17" t="s">
+        <v>156</v>
+      </c>
+      <c r="CH2" s="17" t="s">
+        <v>157</v>
+      </c>
+      <c r="CI2" s="17" t="s">
+        <v>158</v>
+      </c>
+      <c r="CJ2" s="17" t="s">
+        <v>159</v>
+      </c>
+      <c r="CK2" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="CL2" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="CM2" s="17" t="s">
+        <v>162</v>
+      </c>
+      <c r="CN2" s="17" t="s">
+        <v>163</v>
+      </c>
+      <c r="CO2" s="17" t="s">
+        <v>304</v>
+      </c>
+      <c r="CP2" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="CQ2" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="CR2" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="CS2" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="CT2" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="CU2" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="CV2" s="16" t="s">
+        <v>322</v>
+      </c>
+      <c r="CW2" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="CX2" s="57" t="s">
+        <v>310</v>
+      </c>
+      <c r="CY2" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="CZ2" t="s" s="0">
+        <v>363</v>
+      </c>
+      <c r="DA2" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="DB2" t="s" s="0">
+        <v>166</v>
+      </c>
+      <c r="DC2" t="s" s="0">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="3" spans="1:107" s="1" customFormat="1" ht="135" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="E3" s="17" t="s">
+        <v>361</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="G3" s="17" t="s">
+        <v>226</v>
+      </c>
+      <c r="H3" s="17" t="s">
+        <v>358</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="L3" s="64" t="s">
+        <v>335</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="P3" s="8" t="s">
+        <v>297</v>
+      </c>
+      <c r="Q3" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="R3" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="S3" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="T3" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="U3" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="V3" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="W3" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="X3" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="Y3" s="17" t="s">
+        <v>163</v>
+      </c>
+      <c r="Z3" s="17" t="s">
+        <v>318</v>
+      </c>
+      <c r="AA3" s="58" t="s">
+        <v>319</v>
+      </c>
+      <c r="AB3" s="59" t="s">
+        <v>320</v>
+      </c>
+      <c r="AC3" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="AD3" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="AE3" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="AF3" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="AG3" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="AH3" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="AI3" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="AJ3" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="AK3" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="AL3" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="AM3" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="AN3" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="AO3" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="AP3" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="AQ3" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="AR3" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="AS3" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="AT3" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="AU3" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="AV3" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="AW3" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="AX3" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="AY3" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="AZ3" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="BA3" s="10" t="s">
+        <v>338</v>
+      </c>
+      <c r="BB3" s="62" t="s">
+        <v>320</v>
+      </c>
+      <c r="BC3" s="63" t="s">
+        <v>334</v>
+      </c>
+      <c r="BD3" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="BE3" s="60" t="s">
+        <v>331</v>
+      </c>
+      <c r="BF3" s="60" t="s">
+        <v>330</v>
+      </c>
+      <c r="BG3" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="BH3" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="BI3" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="BJ3" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="BK3" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="BL3" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="BM3" s="17" t="s">
+        <v>137</v>
+      </c>
+      <c r="BN3" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="BO3" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="BP3" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="BQ3" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="BR3" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="BS3" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="BT3" s="17" t="s">
+        <v>144</v>
+      </c>
+      <c r="BU3" s="17" t="s">
+        <v>145</v>
+      </c>
+      <c r="BV3" s="17" t="s">
+        <v>146</v>
+      </c>
+      <c r="BW3" s="17" t="s">
+        <v>147</v>
+      </c>
+      <c r="BX3" s="17" t="s">
+        <v>148</v>
+      </c>
+      <c r="BY3" s="17" t="s">
+        <v>149</v>
+      </c>
+      <c r="BZ3" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="CA3" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="CB3" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="CC3" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="CD3" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="CE3" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="CF3" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="CG3" s="17" t="s">
+        <v>156</v>
+      </c>
+      <c r="CH3" s="17" t="s">
+        <v>157</v>
+      </c>
+      <c r="CI3" s="17" t="s">
+        <v>158</v>
+      </c>
+      <c r="CJ3" s="17" t="s">
+        <v>159</v>
+      </c>
+      <c r="CK3" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="CL3" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="CM3" s="17" t="s">
+        <v>162</v>
+      </c>
+      <c r="CN3" s="17" t="s">
+        <v>163</v>
+      </c>
+      <c r="CO3" s="17" t="s">
+        <v>304</v>
+      </c>
+      <c r="CP3" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="CQ3" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="CR3" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="CS3" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="CT3" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="CU3" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="CV3" s="16" t="s">
+        <v>322</v>
+      </c>
+      <c r="CW3" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="CX3" s="57" t="s">
+        <v>310</v>
+      </c>
+      <c r="CY3" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="CZ3" t="s" s="0">
+        <v>346</v>
+      </c>
+      <c r="DA3" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="DB3" t="s" s="0">
+        <v>166</v>
+      </c>
+      <c r="DC3" t="s" s="0">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="4" spans="1:107" s="1" customFormat="1" ht="135" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="E4" s="17" t="s">
+        <v>350</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="G4" s="17" t="s">
+        <v>226</v>
+      </c>
+      <c r="H4" s="17" t="s">
+        <v>351</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="L4" s="64" t="s">
+        <v>335</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="P4" s="8" t="s">
+        <v>297</v>
+      </c>
+      <c r="Q4" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="R4" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="S4" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="T4" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="U4" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="V4" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="W4" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="X4" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="Y4" s="17" t="s">
+        <v>163</v>
+      </c>
+      <c r="Z4" s="17" t="s">
+        <v>318</v>
+      </c>
+      <c r="AA4" s="58" t="s">
+        <v>319</v>
+      </c>
+      <c r="AB4" s="59" t="s">
+        <v>320</v>
+      </c>
+      <c r="AC4" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="AD4" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="AE4" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="AF4" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="AG4" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="AH4" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="AI4" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="AJ4" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="AK4" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="AL4" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="AM4" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="AN4" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="AO4" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="AP4" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="AQ4" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="AR4" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="AS4" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="AT4" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="AU4" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="AV4" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="AW4" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="AX4" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="AY4" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="AZ4" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="BA4" s="10" t="s">
+        <v>338</v>
+      </c>
+      <c r="BB4" s="62" t="s">
+        <v>320</v>
+      </c>
+      <c r="BC4" s="63" t="s">
+        <v>334</v>
+      </c>
+      <c r="BD4" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="BE4" s="60" t="s">
+        <v>331</v>
+      </c>
+      <c r="BF4" s="60" t="s">
+        <v>330</v>
+      </c>
+      <c r="BG4" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="BH4" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="BI4" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="BJ4" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="BK4" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="BL4" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="BM4" s="17" t="s">
+        <v>137</v>
+      </c>
+      <c r="BN4" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="BO4" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="BP4" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="BQ4" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="BR4" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="BS4" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="BT4" s="17" t="s">
+        <v>144</v>
+      </c>
+      <c r="BU4" s="17" t="s">
+        <v>145</v>
+      </c>
+      <c r="BV4" s="17" t="s">
+        <v>146</v>
+      </c>
+      <c r="BW4" s="17" t="s">
+        <v>147</v>
+      </c>
+      <c r="BX4" s="17" t="s">
+        <v>148</v>
+      </c>
+      <c r="BY4" s="17" t="s">
+        <v>149</v>
+      </c>
+      <c r="BZ4" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="CA4" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="CB4" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="CC4" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="CD4" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="CE4" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="CF4" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="CG4" s="17" t="s">
+        <v>156</v>
+      </c>
+      <c r="CH4" s="17" t="s">
+        <v>157</v>
+      </c>
+      <c r="CI4" s="17" t="s">
+        <v>158</v>
+      </c>
+      <c r="CJ4" s="17" t="s">
+        <v>159</v>
+      </c>
+      <c r="CK4" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="CL4" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="CM4" s="17" t="s">
+        <v>162</v>
+      </c>
+      <c r="CN4" s="17" t="s">
+        <v>163</v>
+      </c>
+      <c r="CO4" s="17" t="s">
+        <v>304</v>
+      </c>
+      <c r="CP4" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="CQ4" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="CR4" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="CS4" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="CT4" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="CU4" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="CV4" s="16" t="s">
+        <v>322</v>
+      </c>
+      <c r="CW4" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="CX4" s="57" t="s">
+        <v>310</v>
+      </c>
+      <c r="CY4" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="CZ4" t="s" s="0">
+        <v>357</v>
+      </c>
+      <c r="DA4" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="DB4" t="s" s="0">
+        <v>166</v>
+      </c>
+      <c r="DC4" t="s" s="0">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="5" spans="1:107" s="1" customFormat="1" ht="135" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="E5" s="17" t="s">
+        <v>350</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="G5" s="17" t="s">
+        <v>226</v>
+      </c>
+      <c r="H5" s="17" t="s">
+        <v>179</v>
+      </c>
+      <c r="I5" s="65" t="s">
+        <v>353</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="L5" s="64" t="s">
+        <v>335</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="P5" s="8" t="s">
+        <v>297</v>
+      </c>
+      <c r="Q5" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="R5" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="S5" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="T5" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="U5" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="V5" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="W5" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="X5" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="Y5" s="17" t="s">
+        <v>163</v>
+      </c>
+      <c r="Z5" s="17" t="s">
+        <v>318</v>
+      </c>
+      <c r="AA5" s="58" t="s">
+        <v>319</v>
+      </c>
+      <c r="AB5" s="59" t="s">
+        <v>320</v>
+      </c>
+      <c r="AC5" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="AD5" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="AE5" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="AF5" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="AG5" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="AH5" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="AI5" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="AJ5" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="AK5" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="AL5" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="AM5" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="AN5" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="AO5" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="AP5" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="AQ5" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="AR5" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="AS5" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="AT5" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="AU5" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="AV5" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="AW5" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="AX5" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="AY5" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="AZ5" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="BA5" s="10" t="s">
+        <v>338</v>
+      </c>
+      <c r="BB5" s="62" t="s">
+        <v>320</v>
+      </c>
+      <c r="BC5" s="63" t="s">
+        <v>334</v>
+      </c>
+      <c r="BD5" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="BE5" s="60" t="s">
+        <v>331</v>
+      </c>
+      <c r="BF5" s="60" t="s">
+        <v>330</v>
+      </c>
+      <c r="BG5" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="BH5" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="BI5" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="BJ5" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="BK5" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="BL5" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="BM5" s="17" t="s">
+        <v>137</v>
+      </c>
+      <c r="BN5" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="BO5" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="BP5" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="BQ5" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="BR5" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="BS5" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="BT5" s="17" t="s">
+        <v>144</v>
+      </c>
+      <c r="BU5" s="17" t="s">
+        <v>145</v>
+      </c>
+      <c r="BV5" s="17" t="s">
+        <v>146</v>
+      </c>
+      <c r="BW5" s="17" t="s">
+        <v>147</v>
+      </c>
+      <c r="BX5" s="17" t="s">
+        <v>148</v>
+      </c>
+      <c r="BY5" s="17" t="s">
+        <v>149</v>
+      </c>
+      <c r="BZ5" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="CA5" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="CB5" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="CC5" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="CD5" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="CE5" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="CF5" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="CG5" s="17" t="s">
+        <v>156</v>
+      </c>
+      <c r="CH5" s="17" t="s">
+        <v>157</v>
+      </c>
+      <c r="CI5" s="17" t="s">
+        <v>158</v>
+      </c>
+      <c r="CJ5" s="17" t="s">
+        <v>159</v>
+      </c>
+      <c r="CK5" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="CL5" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="CM5" s="17" t="s">
+        <v>162</v>
+      </c>
+      <c r="CN5" s="17" t="s">
+        <v>163</v>
+      </c>
+      <c r="CO5" s="17" t="s">
+        <v>304</v>
+      </c>
+      <c r="CP5" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="CQ5" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="CR5" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="CS5" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="CT5" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="CU5" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="CV5" s="16" t="s">
+        <v>322</v>
+      </c>
+      <c r="CW5" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="CX5" s="57" t="s">
+        <v>310</v>
+      </c>
+      <c r="CY5" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="CZ5" t="s" s="0">
+        <v>346</v>
+      </c>
+      <c r="DA5" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="DB5" t="s" s="0">
+        <v>166</v>
+      </c>
+      <c r="DC5" t="s" s="0">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="6" spans="1:107" s="1" customFormat="1" ht="135" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="E6" s="17" t="s">
+        <v>350</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="G6" s="17" t="s">
+        <v>226</v>
+      </c>
+      <c r="H6" s="17" t="s">
+        <v>356</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="L6" s="64" t="s">
+        <v>335</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="P6" s="8" t="s">
+        <v>297</v>
+      </c>
+      <c r="Q6" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="R6" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="S6" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="T6" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="U6" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="V6" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="W6" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="X6" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="Y6" s="17" t="s">
+        <v>163</v>
+      </c>
+      <c r="Z6" s="17" t="s">
+        <v>318</v>
+      </c>
+      <c r="AA6" s="58" t="s">
+        <v>319</v>
+      </c>
+      <c r="AB6" s="59" t="s">
+        <v>320</v>
+      </c>
+      <c r="AC6" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="AD6" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="AE6" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="AF6" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="AG6" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="AH6" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="AI6" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="AJ6" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="AK6" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="AL6" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="AM6" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="AN6" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="AO6" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="AP6" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="AQ6" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="AR6" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="AS6" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="AT6" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="AU6" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="AV6" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="AW6" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="AX6" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="AY6" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="AZ6" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="BA6" s="10" t="s">
+        <v>338</v>
+      </c>
+      <c r="BB6" s="62" t="s">
+        <v>320</v>
+      </c>
+      <c r="BC6" s="63" t="s">
+        <v>334</v>
+      </c>
+      <c r="BD6" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="BE6" s="60" t="s">
+        <v>331</v>
+      </c>
+      <c r="BF6" s="60" t="s">
+        <v>330</v>
+      </c>
+      <c r="BG6" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="BH6" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="BI6" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="BJ6" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="BK6" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="BL6" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="BM6" s="17" t="s">
+        <v>137</v>
+      </c>
+      <c r="BN6" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="BO6" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="BP6" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="BQ6" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="BR6" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="BS6" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="BT6" s="17" t="s">
+        <v>144</v>
+      </c>
+      <c r="BU6" s="17" t="s">
+        <v>145</v>
+      </c>
+      <c r="BV6" s="17" t="s">
+        <v>146</v>
+      </c>
+      <c r="BW6" s="17" t="s">
+        <v>147</v>
+      </c>
+      <c r="BX6" s="17" t="s">
+        <v>148</v>
+      </c>
+      <c r="BY6" s="17" t="s">
+        <v>149</v>
+      </c>
+      <c r="BZ6" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="CA6" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="CB6" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="CC6" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="CD6" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="CE6" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="CF6" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="CG6" s="17" t="s">
+        <v>156</v>
+      </c>
+      <c r="CH6" s="17" t="s">
+        <v>157</v>
+      </c>
+      <c r="CI6" s="17" t="s">
+        <v>158</v>
+      </c>
+      <c r="CJ6" s="17" t="s">
+        <v>159</v>
+      </c>
+      <c r="CK6" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="CL6" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="CM6" s="17" t="s">
+        <v>162</v>
+      </c>
+      <c r="CN6" s="17" t="s">
+        <v>163</v>
+      </c>
+      <c r="CO6" s="17" t="s">
+        <v>304</v>
+      </c>
+      <c r="CP6" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="CQ6" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="CR6" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="CS6" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="CT6" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="CU6" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="CV6" s="16" t="s">
+        <v>322</v>
+      </c>
+      <c r="CW6" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="CX6" s="57" t="s">
+        <v>310</v>
+      </c>
+      <c r="CY6" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="CZ6" t="s" s="0">
+        <v>346</v>
+      </c>
+      <c r="DA6" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="DB6" t="s" s="0">
+        <v>166</v>
+      </c>
+      <c r="DC6" t="s" s="0">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="7" spans="1:107" s="1" customFormat="1" ht="135" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="E7" s="17" t="s">
+        <v>175</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="G7" s="17" t="s">
+        <v>226</v>
+      </c>
+      <c r="H7" s="17" t="s">
+        <v>366</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="L7" s="64" t="s">
+        <v>335</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="O7" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="P7" s="8" t="s">
+        <v>297</v>
+      </c>
+      <c r="Q7" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="R7" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="S7" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="T7" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="U7" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="V7" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="W7" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="X7" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="Y7" s="17" t="s">
+        <v>163</v>
+      </c>
+      <c r="Z7" s="17" t="s">
+        <v>318</v>
+      </c>
+      <c r="AA7" s="58" t="s">
+        <v>319</v>
+      </c>
+      <c r="AB7" s="59" t="s">
+        <v>320</v>
+      </c>
+      <c r="AC7" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="AD7" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="AE7" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="AF7" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="AG7" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="AH7" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="AI7" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="AJ7" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="AK7" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="AL7" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="AM7" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="AN7" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="AO7" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="AP7" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="AQ7" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="AR7" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="AS7" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="AT7" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="AU7" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="AV7" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="AW7" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="AX7" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="AY7" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="AZ7" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="BA7" s="10" t="s">
+        <v>338</v>
+      </c>
+      <c r="BB7" s="62" t="s">
+        <v>320</v>
+      </c>
+      <c r="BC7" s="63" t="s">
+        <v>334</v>
+      </c>
+      <c r="BD7" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="BE7" s="60" t="s">
+        <v>331</v>
+      </c>
+      <c r="BF7" s="60" t="s">
+        <v>330</v>
+      </c>
+      <c r="BG7" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="BH7" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="BI7" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="BJ7" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="BK7" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="BL7" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="BM7" s="17" t="s">
+        <v>137</v>
+      </c>
+      <c r="BN7" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="BO7" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="BP7" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="BQ7" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="BR7" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="BS7" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="BT7" s="17" t="s">
+        <v>144</v>
+      </c>
+      <c r="BU7" s="17" t="s">
+        <v>145</v>
+      </c>
+      <c r="BV7" s="17" t="s">
+        <v>146</v>
+      </c>
+      <c r="BW7" s="17" t="s">
+        <v>147</v>
+      </c>
+      <c r="BX7" s="17" t="s">
+        <v>148</v>
+      </c>
+      <c r="BY7" s="17" t="s">
+        <v>149</v>
+      </c>
+      <c r="BZ7" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="CA7" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="CB7" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="CC7" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="CD7" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="CE7" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="CF7" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="CG7" s="17" t="s">
+        <v>156</v>
+      </c>
+      <c r="CH7" s="17" t="s">
+        <v>157</v>
+      </c>
+      <c r="CI7" s="17" t="s">
+        <v>158</v>
+      </c>
+      <c r="CJ7" s="17" t="s">
+        <v>159</v>
+      </c>
+      <c r="CK7" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="CL7" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="CM7" s="17" t="s">
+        <v>162</v>
+      </c>
+      <c r="CN7" s="17" t="s">
+        <v>163</v>
+      </c>
+      <c r="CO7" s="17" t="s">
+        <v>304</v>
+      </c>
+      <c r="CP7" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="CQ7" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="CR7" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="CS7" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="CT7" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="CU7" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="CV7" s="16" t="s">
+        <v>322</v>
+      </c>
+      <c r="CW7" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="CX7" s="57" t="s">
+        <v>310</v>
+      </c>
+      <c r="CY7" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="CZ7" t="s" s="0">
+        <v>346</v>
+      </c>
+      <c r="DA7" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="DB7" t="s" s="0">
+        <v>166</v>
+      </c>
+      <c r="DC7" t="s" s="0">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="8" spans="1:107" s="1" customFormat="1" ht="135" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="E8" s="17" t="s">
+        <v>175</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="G8" s="17" t="s">
+        <v>226</v>
+      </c>
+      <c r="H8" s="17" t="s">
+        <v>369</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="L8" s="64" t="s">
+        <v>335</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="O8" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="P8" s="8" t="s">
+        <v>297</v>
+      </c>
+      <c r="Q8" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="R8" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="S8" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="T8" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="U8" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="V8" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="W8" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="X8" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="Y8" s="17" t="s">
+        <v>163</v>
+      </c>
+      <c r="Z8" s="17" t="s">
+        <v>318</v>
+      </c>
+      <c r="AA8" s="58" t="s">
+        <v>319</v>
+      </c>
+      <c r="AB8" s="59" t="s">
+        <v>320</v>
+      </c>
+      <c r="AC8" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="AD8" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="AE8" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="AF8" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="AG8" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="AH8" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="AI8" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="AJ8" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="AK8" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="AL8" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="AM8" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="AN8" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="AO8" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="AP8" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="AQ8" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="AR8" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="AS8" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="AT8" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="AU8" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="AV8" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="AW8" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="AX8" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="AY8" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="AZ8" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="BA8" s="10" t="s">
+        <v>338</v>
+      </c>
+      <c r="BB8" s="62" t="s">
+        <v>320</v>
+      </c>
+      <c r="BC8" s="63" t="s">
+        <v>334</v>
+      </c>
+      <c r="BD8" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="BE8" s="60" t="s">
+        <v>331</v>
+      </c>
+      <c r="BF8" s="60" t="s">
+        <v>330</v>
+      </c>
+      <c r="BG8" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="BH8" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="BI8" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="BJ8" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="BK8" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="BL8" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="BM8" s="17" t="s">
+        <v>137</v>
+      </c>
+      <c r="BN8" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="BO8" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="BP8" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="BQ8" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="BR8" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="BS8" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="BT8" s="17" t="s">
+        <v>144</v>
+      </c>
+      <c r="BU8" s="17" t="s">
+        <v>145</v>
+      </c>
+      <c r="BV8" s="17" t="s">
+        <v>146</v>
+      </c>
+      <c r="BW8" s="17" t="s">
+        <v>147</v>
+      </c>
+      <c r="BX8" s="17" t="s">
+        <v>148</v>
+      </c>
+      <c r="BY8" s="17" t="s">
+        <v>149</v>
+      </c>
+      <c r="BZ8" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="CA8" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="CB8" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="CC8" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="CD8" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="CE8" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="CF8" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="CG8" s="17" t="s">
+        <v>156</v>
+      </c>
+      <c r="CH8" s="17" t="s">
+        <v>157</v>
+      </c>
+      <c r="CI8" s="17" t="s">
+        <v>158</v>
+      </c>
+      <c r="CJ8" s="17" t="s">
+        <v>159</v>
+      </c>
+      <c r="CK8" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="CL8" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="CM8" s="17" t="s">
+        <v>162</v>
+      </c>
+      <c r="CN8" s="17" t="s">
+        <v>163</v>
+      </c>
+      <c r="CO8" s="17" t="s">
+        <v>304</v>
+      </c>
+      <c r="CP8" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="CQ8" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="CR8" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="CS8" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="CT8" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="CU8" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="CV8" s="16" t="s">
+        <v>322</v>
+      </c>
+      <c r="CW8" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="CX8" s="57" t="s">
+        <v>310</v>
+      </c>
+      <c r="CY8" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="CZ8" t="s" s="0">
+        <v>357</v>
+      </c>
+      <c r="DA8" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="DB8" t="s" s="0">
+        <v>166</v>
+      </c>
+      <c r="DC8" t="s" s="0">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="9" spans="1:107" s="1" customFormat="1" ht="135" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="E9" s="17" t="s">
+        <v>175</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="G9" s="17" t="s">
+        <v>226</v>
+      </c>
+      <c r="H9" s="17" t="s">
+        <v>375</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="L9" s="64" t="s">
+        <v>335</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="N9" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="O9" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="P9" s="8" t="s">
+        <v>297</v>
+      </c>
+      <c r="Q9" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="R9" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="S9" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="T9" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="U9" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="V9" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="W9" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="X9" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="Y9" s="17" t="s">
+        <v>163</v>
+      </c>
+      <c r="Z9" s="17" t="s">
+        <v>318</v>
+      </c>
+      <c r="AA9" s="58" t="s">
+        <v>319</v>
+      </c>
+      <c r="AB9" s="59" t="s">
+        <v>320</v>
+      </c>
+      <c r="AC9" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="AD9" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="AE9" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="AF9" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="AG9" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="AH9" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="AI9" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="AJ9" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="AK9" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="AL9" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="AM9" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="AN9" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="AO9" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="AP9" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="AQ9" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="AR9" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="AS9" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="AT9" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="AU9" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="AV9" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="AW9" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="AX9" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="AY9" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="AZ9" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="BA9" s="10" t="s">
+        <v>338</v>
+      </c>
+      <c r="BB9" s="62" t="s">
+        <v>320</v>
+      </c>
+      <c r="BC9" s="63" t="s">
+        <v>334</v>
+      </c>
+      <c r="BD9" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="BE9" s="60" t="s">
+        <v>331</v>
+      </c>
+      <c r="BF9" s="60" t="s">
+        <v>330</v>
+      </c>
+      <c r="BG9" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="BH9" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="BI9" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="BJ9" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="BK9" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="BL9" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="BM9" s="17" t="s">
+        <v>137</v>
+      </c>
+      <c r="BN9" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="BO9" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="BP9" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="BQ9" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="BR9" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="BS9" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="BT9" s="17" t="s">
+        <v>144</v>
+      </c>
+      <c r="BU9" s="17" t="s">
+        <v>145</v>
+      </c>
+      <c r="BV9" s="17" t="s">
+        <v>146</v>
+      </c>
+      <c r="BW9" s="17" t="s">
+        <v>147</v>
+      </c>
+      <c r="BX9" s="17" t="s">
+        <v>148</v>
+      </c>
+      <c r="BY9" s="17" t="s">
+        <v>149</v>
+      </c>
+      <c r="BZ9" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="CA9" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="CB9" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="CC9" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="CD9" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="CE9" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="CF9" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="CG9" s="17" t="s">
+        <v>156</v>
+      </c>
+      <c r="CH9" s="17" t="s">
+        <v>157</v>
+      </c>
+      <c r="CI9" s="17" t="s">
+        <v>158</v>
+      </c>
+      <c r="CJ9" s="17" t="s">
+        <v>159</v>
+      </c>
+      <c r="CK9" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="CL9" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="CM9" s="17" t="s">
+        <v>162</v>
+      </c>
+      <c r="CN9" s="17" t="s">
+        <v>163</v>
+      </c>
+      <c r="CO9" s="17" t="s">
+        <v>304</v>
+      </c>
+      <c r="CP9" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="CQ9" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="CR9" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="CS9" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="CT9" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="CU9" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="CV9" s="16" t="s">
+        <v>322</v>
+      </c>
+      <c r="CW9" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="CX9" s="57" t="s">
+        <v>310</v>
+      </c>
+      <c r="CY9" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="CZ9" t="s" s="0">
+        <v>357</v>
+      </c>
+      <c r="DA9" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="DB9" t="s" s="0">
+        <v>166</v>
+      </c>
+      <c r="DC9" t="s" s="0">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="10" spans="1:107" s="1" customFormat="1" ht="135" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="E10" s="17" t="s">
+        <v>175</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="G10" s="17" t="s">
+        <v>226</v>
+      </c>
+      <c r="H10" s="17" t="s">
+        <v>376</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="L10" s="64" t="s">
+        <v>335</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="N10" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="O10" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="P10" s="8" t="s">
+        <v>297</v>
+      </c>
+      <c r="Q10" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="R10" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="S10" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="T10" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="U10" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="V10" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="W10" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="X10" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="Y10" s="17" t="s">
+        <v>163</v>
+      </c>
+      <c r="Z10" s="17" t="s">
+        <v>318</v>
+      </c>
+      <c r="AA10" s="58" t="s">
+        <v>319</v>
+      </c>
+      <c r="AB10" s="59" t="s">
+        <v>320</v>
+      </c>
+      <c r="AC10" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="AD10" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="AE10" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="AF10" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="AG10" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="AH10" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="AI10" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="AJ10" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="AK10" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="AL10" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="AM10" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="AN10" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="AO10" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="AP10" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="AQ10" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="AR10" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="AS10" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="AT10" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="AU10" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="AV10" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="AW10" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="AX10" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="AY10" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="AZ10" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="BA10" s="10" t="s">
+        <v>338</v>
+      </c>
+      <c r="BB10" s="62" t="s">
+        <v>320</v>
+      </c>
+      <c r="BC10" s="63" t="s">
+        <v>334</v>
+      </c>
+      <c r="BD10" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="BE10" s="60" t="s">
+        <v>331</v>
+      </c>
+      <c r="BF10" s="60" t="s">
+        <v>330</v>
+      </c>
+      <c r="BG10" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="BH10" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="BI10" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="BJ10" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="BK10" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="BL10" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="BM10" s="17" t="s">
+        <v>137</v>
+      </c>
+      <c r="BN10" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="BO10" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="BP10" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="BQ10" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="BR10" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="BS10" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="BT10" s="17" t="s">
+        <v>144</v>
+      </c>
+      <c r="BU10" s="17" t="s">
+        <v>145</v>
+      </c>
+      <c r="BV10" s="17" t="s">
+        <v>146</v>
+      </c>
+      <c r="BW10" s="17" t="s">
+        <v>147</v>
+      </c>
+      <c r="BX10" s="17" t="s">
+        <v>148</v>
+      </c>
+      <c r="BY10" s="17" t="s">
+        <v>149</v>
+      </c>
+      <c r="BZ10" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="CA10" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="CB10" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="CC10" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="CD10" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="CE10" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="CF10" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="CG10" s="17" t="s">
+        <v>156</v>
+      </c>
+      <c r="CH10" s="17" t="s">
+        <v>157</v>
+      </c>
+      <c r="CI10" s="17" t="s">
+        <v>158</v>
+      </c>
+      <c r="CJ10" s="17" t="s">
+        <v>159</v>
+      </c>
+      <c r="CK10" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="CL10" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="CM10" s="17" t="s">
+        <v>162</v>
+      </c>
+      <c r="CN10" s="17" t="s">
+        <v>163</v>
+      </c>
+      <c r="CO10" s="17" t="s">
+        <v>304</v>
+      </c>
+      <c r="CP10" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="CQ10" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="CR10" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="CS10" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="CT10" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="CU10" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="CV10" s="16" t="s">
+        <v>322</v>
+      </c>
+      <c r="CW10" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="CX10" s="57" t="s">
+        <v>310</v>
+      </c>
+      <c r="CY10" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="CZ10" t="s" s="0">
+        <v>357</v>
+      </c>
+      <c r="DA10" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="DB10" t="s" s="0">
+        <v>166</v>
+      </c>
+      <c r="DC10" t="s" s="0">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="11" spans="1:107" s="1" customFormat="1" ht="135" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="E11" s="17" t="s">
+        <v>175</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="G11" s="17" t="s">
+        <v>226</v>
+      </c>
+      <c r="H11" s="17" t="s">
+        <v>377</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="L11" s="64" t="s">
+        <v>335</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="N11" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="O11" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="P11" s="8" t="s">
+        <v>297</v>
+      </c>
+      <c r="Q11" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="R11" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="S11" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="T11" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="U11" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="V11" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="W11" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="X11" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="Y11" s="17" t="s">
+        <v>163</v>
+      </c>
+      <c r="Z11" s="17" t="s">
+        <v>318</v>
+      </c>
+      <c r="AA11" s="58" t="s">
+        <v>319</v>
+      </c>
+      <c r="AB11" s="59" t="s">
+        <v>320</v>
+      </c>
+      <c r="AC11" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="AD11" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="AE11" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="AF11" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="AG11" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="AH11" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="AI11" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="AJ11" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="AK11" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="AL11" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="AM11" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="AN11" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="AO11" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="AP11" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="AQ11" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="AR11" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="AS11" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="AT11" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="AU11" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="AV11" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="AW11" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="AX11" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="AY11" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="AZ11" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="BA11" s="10" t="s">
+        <v>338</v>
+      </c>
+      <c r="BB11" s="62" t="s">
+        <v>320</v>
+      </c>
+      <c r="BC11" s="63" t="s">
+        <v>334</v>
+      </c>
+      <c r="BD11" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="BE11" s="60" t="s">
+        <v>331</v>
+      </c>
+      <c r="BF11" s="60" t="s">
+        <v>330</v>
+      </c>
+      <c r="BG11" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="BH11" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="BI11" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="BJ11" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="BK11" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="BL11" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="BM11" s="17" t="s">
+        <v>137</v>
+      </c>
+      <c r="BN11" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="BO11" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="BP11" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="BQ11" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="BR11" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="BS11" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="BT11" s="17" t="s">
+        <v>144</v>
+      </c>
+      <c r="BU11" s="17" t="s">
+        <v>145</v>
+      </c>
+      <c r="BV11" s="17" t="s">
+        <v>146</v>
+      </c>
+      <c r="BW11" s="17" t="s">
+        <v>147</v>
+      </c>
+      <c r="BX11" s="17" t="s">
+        <v>148</v>
+      </c>
+      <c r="BY11" s="17" t="s">
+        <v>149</v>
+      </c>
+      <c r="BZ11" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="CA11" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="CB11" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="CC11" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="CD11" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="CE11" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="CF11" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="CG11" s="17" t="s">
+        <v>156</v>
+      </c>
+      <c r="CH11" s="17" t="s">
+        <v>157</v>
+      </c>
+      <c r="CI11" s="17" t="s">
+        <v>158</v>
+      </c>
+      <c r="CJ11" s="17" t="s">
+        <v>159</v>
+      </c>
+      <c r="CK11" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="CL11" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="CM11" s="17" t="s">
+        <v>162</v>
+      </c>
+      <c r="CN11" s="17" t="s">
+        <v>163</v>
+      </c>
+      <c r="CO11" s="17" t="s">
+        <v>304</v>
+      </c>
+      <c r="CP11" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="CQ11" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="CR11" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="CS11" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="CT11" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="CU11" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="CV11" s="16" t="s">
+        <v>322</v>
+      </c>
+      <c r="CW11" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="CX11" s="57" t="s">
+        <v>310</v>
+      </c>
+      <c r="CY11" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="CZ11" t="s" s="0">
+        <v>357</v>
+      </c>
+      <c r="DA11" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="DB11" t="s" s="0">
+        <v>166</v>
+      </c>
+      <c r="DC11" t="s" s="0">
+        <v>166</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="BM1:BS1">
+    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+  </conditionalFormatting>
+  <hyperlinks>
+    <hyperlink ref="CX2" r:id="rId1" display="file:///C:/Users/agraway/eclipse-workspace/LifeSpeed-main/Files\sample.pdf" xr:uid="{50267013-5F14-4A3F-95BC-5E3C48D8A112}"/>
+    <hyperlink ref="L2" r:id="rId2" xr:uid="{D6054173-A584-429F-9C62-E5E4C07FD58D}"/>
+    <hyperlink ref="CX3" r:id="rId3" display="file:///C:/Users/agraway/eclipse-workspace/LifeSpeed-main/Files\sample.pdf" xr:uid="{2A086CB0-B118-47A2-AC79-288215502169}"/>
+    <hyperlink ref="L3" r:id="rId4" xr:uid="{AD04F796-A477-4D4F-8E30-6945D57D14C2}"/>
+    <hyperlink ref="CX4" r:id="rId5" display="file:///C:/Users/agraway/eclipse-workspace/LifeSpeed-main/Files\sample.pdf" xr:uid="{A184A42E-C360-4DD2-BC69-13E7CCA87670}"/>
+    <hyperlink ref="L4" r:id="rId6" xr:uid="{ECFD1F53-1AD0-494A-B5DB-A10F03031C62}"/>
+    <hyperlink ref="CX5" r:id="rId7" display="file:///C:/Users/agraway/eclipse-workspace/LifeSpeed-main/Files\sample.pdf" xr:uid="{38A2471A-AD2D-42B0-9040-9C9B62782358}"/>
+    <hyperlink ref="L5" r:id="rId8" xr:uid="{779CE4D3-1318-4894-A7CD-CFB8DECFE96D}"/>
+    <hyperlink ref="CX6" r:id="rId9" display="file:///C:/Users/agraway/eclipse-workspace/LifeSpeed-main/Files\sample.pdf" xr:uid="{1DB73A3E-FEE2-4EEC-A73F-B615DEFA15FC}"/>
+    <hyperlink ref="L6" r:id="rId10" xr:uid="{8D65F901-4785-4C3F-8211-8AD781B6C4AC}"/>
+    <hyperlink ref="CX7" r:id="rId11" display="file:///C:/Users/agraway/eclipse-workspace/LifeSpeed-main/Files\sample.pdf" xr:uid="{0E70818F-1165-48EE-92C4-6ABC5BC59985}"/>
+    <hyperlink ref="L7" r:id="rId12" xr:uid="{C4DE8725-14EF-48E7-909C-13D0DE57A988}"/>
+    <hyperlink ref="CX8" r:id="rId13" display="file:///C:/Users/agraway/eclipse-workspace/LifeSpeed-main/Files\sample.pdf" xr:uid="{EE8C0788-9678-4658-A46C-F87B61579B3E}"/>
+    <hyperlink ref="L8" r:id="rId14" xr:uid="{4A32C0BE-57AA-4B63-974A-719741C586C9}"/>
+    <hyperlink ref="CX9" r:id="rId15" display="file:///C:/Users/agraway/eclipse-workspace/LifeSpeed-main/Files\sample.pdf" xr:uid="{3DF51BB4-62B8-4F26-B8A5-CCE560FE80C0}"/>
+    <hyperlink ref="L9" r:id="rId16" xr:uid="{ED70DA57-D1DB-4A5F-AA13-785BB85AB7E6}"/>
+    <hyperlink ref="CX10" r:id="rId17" display="file:///C:/Users/agraway/eclipse-workspace/LifeSpeed-main/Files\sample.pdf" xr:uid="{AD467F67-38EB-4675-A9F2-9AE269CACB36}"/>
+    <hyperlink ref="L10" r:id="rId18" xr:uid="{7CFF71F6-B797-406F-806D-043431D44075}"/>
+    <hyperlink ref="CX11" r:id="rId19" display="file:///C:/Users/agraway/eclipse-workspace/LifeSpeed-main/Files\sample.pdf" xr:uid="{1E463663-C104-493A-B54B-0589D23BC111}"/>
+    <hyperlink ref="L11" r:id="rId20" xr:uid="{0B961536-4BD5-4397-B3B5-6253FAEF2767}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A0EEF59-2662-474D-92CA-C4947A025C92}">
+  <dimension ref="A1:CT5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R2" sqref="R2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="5" max="5" customWidth="true" width="31.7109375"/>
+    <col min="95" max="95" bestFit="true" customWidth="true" width="10.3984375"/>
+    <col min="97" max="97" bestFit="true" customWidth="true" width="8.85546875"/>
+    <col min="98" max="98" bestFit="true" customWidth="true" width="11.0"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:98" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="20" t="s">
+        <v>173</v>
+      </c>
+      <c r="G1" s="30" t="s">
+        <v>168</v>
+      </c>
+      <c r="H1" s="20" t="s">
+        <v>177</v>
+      </c>
+      <c r="I1" s="20" t="s">
+        <v>169</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="S1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="T1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="U1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="V1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Y1" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="Z1" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="AA1" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="AB1" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="AC1" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="AD1" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="AE1" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="AF1" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="AG1" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="AH1" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="AI1" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="AJ1" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="AK1" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="AL1" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="AM1" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="AN1" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="AO1" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="AP1" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="AQ1" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="AR1" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="AS1" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="AT1" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="AU1" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="AV1" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="AW1" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="AX1" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="AY1" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="AZ1" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="BA1" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="BB1" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="BC1" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="BD1" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="BE1" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="BF1" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="BG1" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="BH1" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="BI1" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="BJ1" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="BK1" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="BL1" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="BM1" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="BN1" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="BO1" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="BP1" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="BQ1" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="BR1" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="BS1" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="BT1" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="BU1" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="BV1" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="BW1" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="BX1" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="BY1" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="BZ1" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="CA1" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="CB1" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="CC1" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="CD1" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="CE1" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="CF1" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="CG1" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="CH1" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="CI1" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="CJ1" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="CK1" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="CL1" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="CM1" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="CN1" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="CO1" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="CP1" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="CQ1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="CR1" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="CS1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="CT1" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="2" spans="1:98" s="1" customFormat="1" ht="180" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>378</v>
+      </c>
+      <c r="F2" s="17" t="s">
+        <v>380</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="H2" s="17" t="s">
+        <v>238</v>
+      </c>
+      <c r="I2" s="17" t="s">
+        <v>381</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="L2" s="64" t="s">
+        <v>335</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="P2" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q2" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="R2" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="S2" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="T2" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="U2" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="V2" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="X2" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="Y2" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z2" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="AA2" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="AB2" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="AC2" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="AD2" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="AE2" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="AF2" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="AG2" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="AH2" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="AI2" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="AJ2" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="AK2" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="AL2" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="AM2" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="AN2" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="AO2" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="AP2" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="AQ2" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="AR2" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="AS2" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="AT2" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="AU2" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="AV2" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="AW2" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="AX2" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="AY2" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="AZ2" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="BA2" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="BB2" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="BC2" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="BD2" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="BE2" s="17" t="s">
+        <v>137</v>
+      </c>
+      <c r="BF2" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="BG2" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="BH2" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="BI2" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="BJ2" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="BK2" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="BL2" s="17" t="s">
+        <v>144</v>
+      </c>
+      <c r="BM2" s="17" t="s">
+        <v>145</v>
+      </c>
+      <c r="BN2" s="17" t="s">
+        <v>146</v>
+      </c>
+      <c r="BO2" s="17" t="s">
+        <v>147</v>
+      </c>
+      <c r="BP2" s="17" t="s">
+        <v>148</v>
+      </c>
+      <c r="BQ2" s="17" t="s">
+        <v>149</v>
+      </c>
+      <c r="BR2" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BS2" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="BT2" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="BU2" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="BV2" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="BW2" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="BX2" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="BY2" s="17" t="s">
+        <v>156</v>
+      </c>
+      <c r="BZ2" s="17" t="s">
+        <v>157</v>
+      </c>
+      <c r="CA2" s="17" t="s">
+        <v>158</v>
+      </c>
+      <c r="CB2" s="17" t="s">
+        <v>159</v>
+      </c>
+      <c r="CC2" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="CD2" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="CE2" s="17" t="s">
+        <v>162</v>
+      </c>
+      <c r="CF2" s="60" t="s">
+        <v>163</v>
+      </c>
+      <c r="CG2" s="60" t="s">
+        <v>385</v>
+      </c>
+      <c r="CH2" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="CI2" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="CJ2" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="CK2" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="CL2" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="CM2" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="CN2" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="CO2" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="CP2" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="CQ2" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="CR2" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="CS2" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="CT2" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="3" spans="1:98" s="1" customFormat="1" ht="180" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>382</v>
+      </c>
+      <c r="F3" s="17" t="s">
+        <v>380</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="H3" s="17" t="s">
+        <v>238</v>
+      </c>
+      <c r="I3" s="17" t="s">
+        <v>179</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="L3" s="64" t="s">
+        <v>335</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="P3" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q3" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="R3" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="S3" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="T3" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="U3" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="V3" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="W3" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="X3" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="Y3" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z3" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="AA3" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="AB3" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="AC3" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="AD3" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="AE3" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="AF3" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="AG3" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="AH3" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="AI3" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="AJ3" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="AK3" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="AL3" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="AM3" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="AN3" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="AO3" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="AP3" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="AQ3" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="AR3" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="AS3" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="AT3" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="AU3" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="AV3" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="AW3" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="AX3" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="AY3" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="AZ3" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="BA3" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="BB3" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="BC3" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="BD3" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="BE3" s="17" t="s">
+        <v>137</v>
+      </c>
+      <c r="BF3" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="BG3" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="BH3" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="BI3" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="BJ3" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="BK3" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="BL3" s="17" t="s">
+        <v>144</v>
+      </c>
+      <c r="BM3" s="17" t="s">
+        <v>145</v>
+      </c>
+      <c r="BN3" s="17" t="s">
+        <v>146</v>
+      </c>
+      <c r="BO3" s="17" t="s">
+        <v>147</v>
+      </c>
+      <c r="BP3" s="17" t="s">
+        <v>148</v>
+      </c>
+      <c r="BQ3" s="17" t="s">
+        <v>149</v>
+      </c>
+      <c r="BR3" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BS3" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="BT3" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="BU3" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="BV3" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="BW3" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="BX3" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="BY3" s="17" t="s">
+        <v>156</v>
+      </c>
+      <c r="BZ3" s="17" t="s">
+        <v>157</v>
+      </c>
+      <c r="CA3" s="17" t="s">
+        <v>158</v>
+      </c>
+      <c r="CB3" s="17" t="s">
+        <v>159</v>
+      </c>
+      <c r="CC3" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="CD3" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="CE3" s="17" t="s">
+        <v>162</v>
+      </c>
+      <c r="CF3" s="60" t="s">
+        <v>163</v>
+      </c>
+      <c r="CG3" s="60" t="s">
+        <v>385</v>
+      </c>
+      <c r="CH3" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="CI3" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="CJ3" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="CK3" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="CL3" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="CM3" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="CN3" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="CO3" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="CP3" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="CQ3" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="CR3" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="CS3" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="CT3" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="4" spans="1:98" s="1" customFormat="1" ht="180" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>382</v>
+      </c>
+      <c r="F4" s="17" t="s">
+        <v>380</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="H4" s="17" t="s">
+        <v>238</v>
+      </c>
+      <c r="I4" s="17" t="s">
+        <v>384</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="L4" s="64" t="s">
+        <v>335</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="P4" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q4" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="R4" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="S4" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="T4" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="U4" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="V4" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="W4" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="X4" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="Y4" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z4" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="AA4" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="AB4" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="AC4" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="AD4" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="AE4" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="AF4" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="AG4" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="AH4" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="AI4" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="AJ4" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="AK4" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="AL4" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="AM4" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="AN4" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="AO4" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="AP4" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="AQ4" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="AR4" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="AS4" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="AT4" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="AU4" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="AV4" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="AW4" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="AX4" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="AY4" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="AZ4" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="BA4" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="BB4" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="BC4" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="BD4" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="BE4" s="17" t="s">
+        <v>137</v>
+      </c>
+      <c r="BF4" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="BG4" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="BH4" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="BI4" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="BJ4" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="BK4" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="BL4" s="17" t="s">
+        <v>144</v>
+      </c>
+      <c r="BM4" s="17" t="s">
+        <v>145</v>
+      </c>
+      <c r="BN4" s="17" t="s">
+        <v>146</v>
+      </c>
+      <c r="BO4" s="17" t="s">
+        <v>147</v>
+      </c>
+      <c r="BP4" s="17" t="s">
+        <v>148</v>
+      </c>
+      <c r="BQ4" s="17" t="s">
+        <v>149</v>
+      </c>
+      <c r="BR4" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BS4" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="BT4" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="BU4" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="BV4" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="BW4" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="BX4" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="BY4" s="17" t="s">
+        <v>156</v>
+      </c>
+      <c r="BZ4" s="17" t="s">
+        <v>157</v>
+      </c>
+      <c r="CA4" s="17" t="s">
+        <v>158</v>
+      </c>
+      <c r="CB4" s="17" t="s">
+        <v>159</v>
+      </c>
+      <c r="CC4" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="CD4" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="CE4" s="17" t="s">
+        <v>162</v>
+      </c>
+      <c r="CF4" s="60" t="s">
+        <v>163</v>
+      </c>
+      <c r="CG4" s="60" t="s">
+        <v>385</v>
+      </c>
+      <c r="CH4" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="CI4" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="CJ4" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="CK4" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="CL4" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="CM4" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="CN4" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="CO4" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="CP4" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="CQ4" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="CR4" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="CS4" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="CT4" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="5" spans="1:98" s="1" customFormat="1" ht="180" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>388</v>
+      </c>
+      <c r="F5" s="17" t="s">
+        <v>380</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="H5" s="17" t="s">
+        <v>238</v>
+      </c>
+      <c r="I5" s="17" t="s">
+        <v>381</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="L5" s="64" t="s">
+        <v>335</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="P5" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q5" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="R5" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="S5" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="T5" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="U5" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="V5" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="W5" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="X5" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="Y5" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z5" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="AA5" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="AB5" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="AC5" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="AD5" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="AE5" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="AF5" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="AG5" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="AH5" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="AI5" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="AJ5" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="AK5" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="AL5" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="AM5" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="AN5" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="AO5" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="AP5" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="AQ5" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="AR5" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="AS5" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="AT5" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="AU5" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="AV5" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="AW5" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="AX5" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="AY5" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="AZ5" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="BA5" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="BB5" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="BC5" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="BD5" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="BE5" s="17" t="s">
+        <v>137</v>
+      </c>
+      <c r="BF5" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="BG5" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="BH5" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="BI5" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="BJ5" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="BK5" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="BL5" s="17" t="s">
+        <v>144</v>
+      </c>
+      <c r="BM5" s="17" t="s">
+        <v>145</v>
+      </c>
+      <c r="BN5" s="17" t="s">
+        <v>146</v>
+      </c>
+      <c r="BO5" s="17" t="s">
+        <v>147</v>
+      </c>
+      <c r="BP5" s="17" t="s">
+        <v>148</v>
+      </c>
+      <c r="BQ5" s="17" t="s">
+        <v>149</v>
+      </c>
+      <c r="BR5" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BS5" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="BT5" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="BU5" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="BV5" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="BW5" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="BX5" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="BY5" s="17" t="s">
+        <v>156</v>
+      </c>
+      <c r="BZ5" s="17" t="s">
+        <v>157</v>
+      </c>
+      <c r="CA5" s="17" t="s">
+        <v>158</v>
+      </c>
+      <c r="CB5" s="17" t="s">
+        <v>159</v>
+      </c>
+      <c r="CC5" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="CD5" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="CE5" s="17" t="s">
+        <v>162</v>
+      </c>
+      <c r="CF5" s="60" t="s">
+        <v>163</v>
+      </c>
+      <c r="CG5" s="60" t="s">
+        <v>385</v>
+      </c>
+      <c r="CH5" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="CI5" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="CJ5" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="CK5" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="CL5" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="CM5" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="CN5" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="CO5" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="CP5" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="CQ5" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="CR5" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="CS5" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="CT5" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="BE1:BK1">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
+  <hyperlinks>
+    <hyperlink ref="L2" r:id="rId1" xr:uid="{A417177E-00B4-4D48-96BF-CCFA9BF46807}"/>
+    <hyperlink ref="L3" r:id="rId2" xr:uid="{F02FDF95-527E-4949-BD75-11BEE60C0CCC}"/>
+    <hyperlink ref="L4" r:id="rId3" xr:uid="{61C4420D-0225-4D6D-8B4B-FA903717CBF5}"/>
+    <hyperlink ref="L5" r:id="rId4" xr:uid="{7396F52C-6A55-417F-B89D-100D651EA3EA}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -13746,7 +18998,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="BE1:BK1">
-    <cfRule type="duplicateValues" dxfId="17" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="19" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -14337,7 +19589,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="BA1:BG1">
-    <cfRule type="duplicateValues" dxfId="16" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="18" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -14958,7 +20210,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="BF1:BL1">
-    <cfRule type="duplicateValues" dxfId="15" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="17" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -15582,7 +20834,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="BE1:BK1">
-    <cfRule type="duplicateValues" dxfId="14" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="16" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -15593,7 +20845,7 @@
   <dimension ref="A1:CU2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+      <selection activeCell="X10" sqref="X10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16201,7 +21453,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="BF1:BL1">
-    <cfRule type="duplicateValues" dxfId="13" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="15" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -16802,7 +22054,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="BC1:BI1">
-    <cfRule type="duplicateValues" dxfId="12" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -17393,7 +22645,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="BA1:BG1">
-    <cfRule type="duplicateValues" dxfId="11" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/src/test/java/testData/TestSuite1Data.xlsx
+++ b/src/test/java/testData/TestSuite1Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\agraway\Desktop\LifeSpeed-mainy\LifeSpeed-main\src\test\java\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADC8344F-F1AC-46E5-B028-5BC9FE6E3AEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66100A95-8C16-4E52-895E-6C10287032B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" firstSheet="10" activeTab="23" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" firstSheet="11" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TC01" sheetId="1" r:id="rId1"/>
@@ -25,18 +25,18 @@
     <sheet name="TC10" sheetId="10" r:id="rId10"/>
     <sheet name="TC11" sheetId="11" r:id="rId11"/>
     <sheet name="TC02" sheetId="2" r:id="rId12"/>
-    <sheet name="TC03" sheetId="3" r:id="rId13"/>
-    <sheet name="TC04" sheetId="4" r:id="rId14"/>
-    <sheet name="TC06" sheetId="6" r:id="rId15"/>
-    <sheet name="TC07" sheetId="7" r:id="rId16"/>
-    <sheet name="TC08" sheetId="8" r:id="rId17"/>
-    <sheet name="TC09" sheetId="9" r:id="rId18"/>
-    <sheet name="TC05" sheetId="5" r:id="rId19"/>
-    <sheet name="TC19" sheetId="19" r:id="rId20"/>
-    <sheet name="TC20" sheetId="20" r:id="rId21"/>
-    <sheet name="TC21" sheetId="21" r:id="rId22"/>
-    <sheet name="TC22" sheetId="22" r:id="rId23"/>
-    <sheet name="TC23" sheetId="23" r:id="rId24"/>
+    <sheet name="TC23" sheetId="23" r:id="rId13"/>
+    <sheet name="TC03" sheetId="3" r:id="rId14"/>
+    <sheet name="TC04" sheetId="4" r:id="rId15"/>
+    <sheet name="TC06" sheetId="6" r:id="rId16"/>
+    <sheet name="TC07" sheetId="7" r:id="rId17"/>
+    <sheet name="TC08" sheetId="8" r:id="rId18"/>
+    <sheet name="TC09" sheetId="9" r:id="rId19"/>
+    <sheet name="TC05" sheetId="5" r:id="rId20"/>
+    <sheet name="TC19" sheetId="19" r:id="rId21"/>
+    <sheet name="TC20" sheetId="20" r:id="rId22"/>
+    <sheet name="TC21" sheetId="21" r:id="rId23"/>
+    <sheet name="TC22" sheetId="22" r:id="rId24"/>
     <sheet name="TC24" sheetId="24" r:id="rId25"/>
   </sheets>
   <calcPr calcId="0"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7130" uniqueCount="431">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7118" uniqueCount="427">
   <si>
     <t>Gateway_PartnerCode</t>
   </si>
@@ -594,9 +594,6 @@
     <t>JHNEW45</t>
   </si>
   <si>
-    <t>Pcollected</t>
-  </si>
-  <si>
     <t>RGIveDetails</t>
   </si>
   <si>
@@ -876,9 +873,6 @@
     <t>Insured</t>
   </si>
   <si>
-    <t>529048</t>
-  </si>
-  <si>
     <t>PScollected</t>
   </si>
   <si>
@@ -1080,12 +1074,6 @@
     <t>Zinnia</t>
   </si>
   <si>
-    <t>532531</t>
-  </si>
-  <si>
-    <t>532532</t>
-  </si>
-  <si>
     <t>533043</t>
   </si>
   <si>
@@ -1263,85 +1251,85 @@
     <t>TX</t>
   </si>
   <si>
-    <t>533364</t>
-  </si>
-  <si>
-    <t>533367</t>
-  </si>
-  <si>
-    <t>533371</t>
-  </si>
-  <si>
-    <t>533376</t>
-  </si>
-  <si>
-    <t>533377</t>
-  </si>
-  <si>
-    <t>533381</t>
-  </si>
-  <si>
-    <t>533383</t>
-  </si>
-  <si>
-    <t>533385</t>
-  </si>
-  <si>
-    <t>533387</t>
-  </si>
-  <si>
-    <t>533392</t>
-  </si>
-  <si>
     <t>Payment_BankRoutingSpace</t>
   </si>
   <si>
     <t>Keys.SPACE</t>
   </si>
   <si>
-    <t>533396</t>
-  </si>
-  <si>
-    <t>533399</t>
-  </si>
-  <si>
-    <t>533403</t>
-  </si>
-  <si>
-    <t>533405</t>
-  </si>
-  <si>
-    <t>533407</t>
-  </si>
-  <si>
-    <t>533410</t>
-  </si>
-  <si>
-    <t>533412</t>
-  </si>
-  <si>
-    <t>533415</t>
-  </si>
-  <si>
-    <t>533416</t>
-  </si>
-  <si>
-    <t>533419</t>
-  </si>
-  <si>
-    <t>533423</t>
-  </si>
-  <si>
-    <t>533425</t>
-  </si>
-  <si>
-    <t>533426</t>
-  </si>
-  <si>
-    <t>533428</t>
-  </si>
-  <si>
-    <t>533429</t>
+    <t>HI</t>
+  </si>
+  <si>
+    <t>533437</t>
+  </si>
+  <si>
+    <t>533438</t>
+  </si>
+  <si>
+    <t>533439</t>
+  </si>
+  <si>
+    <t>533441</t>
+  </si>
+  <si>
+    <t>533442</t>
+  </si>
+  <si>
+    <t>533443</t>
+  </si>
+  <si>
+    <t>533444</t>
+  </si>
+  <si>
+    <t>533445</t>
+  </si>
+  <si>
+    <t>533446</t>
+  </si>
+  <si>
+    <t>533447</t>
+  </si>
+  <si>
+    <t>533449</t>
+  </si>
+  <si>
+    <t>533451</t>
+  </si>
+  <si>
+    <t>533452</t>
+  </si>
+  <si>
+    <t>533509</t>
+  </si>
+  <si>
+    <t>PrCollected</t>
+  </si>
+  <si>
+    <t>533598</t>
+  </si>
+  <si>
+    <t>533604</t>
+  </si>
+  <si>
+    <t>533609</t>
+  </si>
+  <si>
+    <t>533649</t>
+  </si>
+  <si>
+    <t>533658</t>
+  </si>
+  <si>
+    <t>533665</t>
+  </si>
+  <si>
+    <t>533672</t>
+  </si>
+  <si>
+    <t>533679</t>
+  </si>
+  <si>
+    <t>533681</t>
   </si>
 </sst>
 </file>
@@ -1545,7 +1533,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1638,6 +1626,8 @@
     <xf numFmtId="11" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2273,7 +2263,7 @@
   <sheetData>
     <row r="1" spans="1:95" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -2560,7 +2550,7 @@
     </row>
     <row r="2" spans="1:95" ht="75" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>51</v>
@@ -2572,22 +2562,22 @@
         <v>53</v>
       </c>
       <c r="E2" s="8" t="s">
+        <v>238</v>
+      </c>
+      <c r="F2" s="17" t="s">
+        <v>240</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="H2" s="17" t="s">
+        <v>237</v>
+      </c>
+      <c r="I2" s="17" t="s">
+        <v>236</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>239</v>
-      </c>
-      <c r="F2" s="17" t="s">
-        <v>241</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="H2" s="17" t="s">
-        <v>238</v>
-      </c>
-      <c r="I2" s="17" t="s">
-        <v>237</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>240</v>
       </c>
       <c r="K2" s="1" t="s">
         <v>56</v>
@@ -2803,7 +2793,7 @@
         <v>163</v>
       </c>
       <c r="CD2" s="17" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="CE2" s="4" t="s">
         <v>85</v>
@@ -2833,7 +2823,7 @@
         <v>93</v>
       </c>
       <c r="CN2" s="1" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="CO2" s="7" t="s">
         <v>87</v>
@@ -2847,7 +2837,7 @@
     </row>
     <row r="3" spans="1:95" ht="75" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>51</v>
@@ -2859,22 +2849,22 @@
         <v>53</v>
       </c>
       <c r="E3" s="8" t="s">
+        <v>263</v>
+      </c>
+      <c r="F3" s="17" t="s">
         <v>264</v>
       </c>
-      <c r="F3" s="17" t="s">
+      <c r="G3" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="H3" s="17" t="s">
+        <v>237</v>
+      </c>
+      <c r="I3" s="17" t="s">
+        <v>236</v>
+      </c>
+      <c r="J3" s="1" t="s">
         <v>265</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="H3" s="17" t="s">
-        <v>238</v>
-      </c>
-      <c r="I3" s="17" t="s">
-        <v>237</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>266</v>
       </c>
       <c r="K3" s="1" t="s">
         <v>56</v>
@@ -3090,7 +3080,7 @@
         <v>163</v>
       </c>
       <c r="CD3" s="17" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="CE3" s="4" t="s">
         <v>85</v>
@@ -3120,7 +3110,7 @@
         <v>93</v>
       </c>
       <c r="CN3" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="CO3" s="7" t="s">
         <v>87</v>
@@ -3134,7 +3124,7 @@
     </row>
     <row r="4" spans="1:95" ht="75" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>51</v>
@@ -3146,22 +3136,22 @@
         <v>53</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F4" s="17" t="s">
         <v>175</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="H4" s="17" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="I4" s="17" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="K4" s="1" t="s">
         <v>56</v>
@@ -3377,7 +3367,7 @@
         <v>163</v>
       </c>
       <c r="CD4" s="17" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="CE4" s="4" t="s">
         <v>85</v>
@@ -3407,7 +3397,7 @@
         <v>93</v>
       </c>
       <c r="CN4" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="CO4" s="7" t="s">
         <v>87</v>
@@ -3421,7 +3411,7 @@
     </row>
     <row r="5" spans="1:95" ht="75" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>51</v>
@@ -3433,22 +3423,22 @@
         <v>53</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="F5" s="17" t="s">
         <v>175</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="H5" s="17" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="I5" s="17" t="s">
         <v>98</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="K5" s="1" t="s">
         <v>56</v>
@@ -3457,7 +3447,7 @@
         <v>57</v>
       </c>
       <c r="M5" s="8" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="N5" s="9" t="s">
         <v>97</v>
@@ -3664,7 +3654,7 @@
         <v>163</v>
       </c>
       <c r="CD5" s="17" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="CE5" s="4" t="s">
         <v>85</v>
@@ -3694,7 +3684,7 @@
         <v>93</v>
       </c>
       <c r="CN5" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="CO5" s="7" t="s">
         <v>87</v>
@@ -3708,7 +3698,7 @@
     </row>
     <row r="6" spans="1:95" ht="75" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>51</v>
@@ -3720,22 +3710,22 @@
         <v>53</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="F6" s="17" t="s">
         <v>175</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="H6" s="17" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="I6" s="17" t="s">
         <v>98</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="K6" s="1" t="s">
         <v>56</v>
@@ -3744,7 +3734,7 @@
         <v>57</v>
       </c>
       <c r="M6" s="8" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="N6" s="9" t="s">
         <v>97</v>
@@ -3951,7 +3941,7 @@
         <v>163</v>
       </c>
       <c r="CD6" s="17" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="CE6" s="4" t="s">
         <v>85</v>
@@ -3981,7 +3971,7 @@
         <v>93</v>
       </c>
       <c r="CN6" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="CO6" s="7" t="s">
         <v>87</v>
@@ -4312,22 +4302,22 @@
         <v>53</v>
       </c>
       <c r="D2" s="8" t="s">
+        <v>263</v>
+      </c>
+      <c r="E2" s="17" t="s">
         <v>264</v>
       </c>
-      <c r="E2" s="17" t="s">
+      <c r="F2" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="G2" s="17" t="s">
+        <v>237</v>
+      </c>
+      <c r="H2" s="17" t="s">
+        <v>236</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>265</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="G2" s="17" t="s">
-        <v>238</v>
-      </c>
-      <c r="H2" s="17" t="s">
-        <v>237</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>266</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>56</v>
@@ -4573,7 +4563,7 @@
         <v>93</v>
       </c>
       <c r="CM2" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="CN2" s="7" t="s">
         <v>87</v>
@@ -4654,10 +4644,10 @@
         <v>10</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="R1" s="4" t="s">
         <v>11</v>
@@ -4908,25 +4898,25 @@
         <v>53</v>
       </c>
       <c r="D2" s="8" t="s">
+        <v>238</v>
+      </c>
+      <c r="E2" s="17" t="s">
+        <v>240</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="G2" s="17" t="s">
+        <v>237</v>
+      </c>
+      <c r="H2" s="17" t="s">
+        <v>236</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="E2" s="17" t="s">
-        <v>241</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="G2" s="17" t="s">
-        <v>238</v>
-      </c>
-      <c r="H2" s="17" t="s">
-        <v>237</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>240</v>
-      </c>
       <c r="J2" s="1" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="K2" s="1" t="s">
         <v>57</v>
@@ -4944,7 +4934,7 @@
         <v>61</v>
       </c>
       <c r="P2" s="9" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="Q2" s="9" t="s">
         <v>60</v>
@@ -5175,7 +5165,7 @@
         <v>93</v>
       </c>
       <c r="CO2" s="1" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="CP2" s="7" t="s">
         <v>87</v>
@@ -5197,29 +5187,32 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
-  <dimension ref="A1:DD2"/>
+  <dimension ref="A1:DG2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" topLeftCell="BR1" workbookViewId="0">
+      <selection activeCell="CK16" sqref="CK16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="4" max="7" customWidth="true" width="41.140625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="26.42578125" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="15.85546875" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="17.28515625" collapsed="true"/>
-    <col min="91" max="91" customWidth="true" width="15.5703125" collapsed="true"/>
-    <col min="95" max="95" bestFit="true" customWidth="true" width="9.5703125" collapsed="true"/>
-    <col min="99" max="99" bestFit="true" customWidth="true" width="9.5703125" collapsed="true"/>
-    <col min="104" max="104" customWidth="true" width="23.28515625" collapsed="true"/>
-    <col min="105" max="105" bestFit="true" customWidth="true" width="12.140625" collapsed="true"/>
-    <col min="106" max="106" customWidth="true" width="21.5703125" collapsed="true"/>
-    <col min="107" max="107" bestFit="true" customWidth="true" width="10.28515625" collapsed="true"/>
-    <col min="108" max="108" bestFit="true" customWidth="true" width="13.0" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="41.140625"/>
+    <col min="9" max="9" customWidth="true" width="26.42578125" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="15.85546875" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="17.28515625" collapsed="true"/>
+    <col min="12" max="13" customWidth="true" width="17.28515625"/>
+    <col min="90" max="90" customWidth="true" width="17.7109375"/>
+    <col min="94" max="94" customWidth="true" width="15.5703125" collapsed="true"/>
+    <col min="98" max="98" bestFit="true" customWidth="true" width="9.5703125" collapsed="true"/>
+    <col min="102" max="102" bestFit="true" customWidth="true" width="9.5703125" collapsed="true"/>
+    <col min="107" max="107" customWidth="true" width="23.28515625" collapsed="true"/>
+    <col min="108" max="108" bestFit="true" customWidth="true" width="10.8515625" collapsed="true"/>
+    <col min="109" max="109" customWidth="true" width="21.5703125" collapsed="true"/>
+    <col min="110" max="110" bestFit="true" customWidth="true" width="9.140625" collapsed="true"/>
+    <col min="111" max="111" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:108" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:111" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
@@ -5242,310 +5235,319 @@
         <v>169</v>
       </c>
       <c r="H1" s="20" t="s">
+        <v>320</v>
+      </c>
+      <c r="I1" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="20" t="s">
+      <c r="J1" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="30" t="s">
+      <c r="K1" s="30" t="s">
         <v>168</v>
       </c>
-      <c r="K1" s="19" t="s">
+      <c r="L1" s="68" t="s">
+        <v>337</v>
+      </c>
+      <c r="M1" s="68" t="s">
+        <v>338</v>
+      </c>
+      <c r="N1" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="L1" s="19" t="s">
+      <c r="O1" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="M1" s="21" t="s">
+      <c r="P1" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="N1" s="21" t="s">
+      <c r="Q1" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="O1" s="21" t="s">
+      <c r="R1" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="P1" s="22" t="s">
+      <c r="S1" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="Q1" s="22" t="s">
+      <c r="T1" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="R1" s="22" t="s">
+      <c r="U1" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="S1" s="19" t="s">
+      <c r="V1" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="T1" s="19" t="s">
+      <c r="W1" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="U1" s="23" t="s">
+      <c r="X1" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="V1" s="24" t="s">
+      <c r="Y1" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="W1" s="24" t="s">
+      <c r="Z1" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="X1" s="24" t="s">
+      <c r="AA1" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="Y1" s="24" t="s">
+      <c r="AB1" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="Z1" s="24" t="s">
+      <c r="AC1" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="AA1" s="24" t="s">
+      <c r="AD1" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="AB1" s="24" t="s">
+      <c r="AE1" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="AC1" s="24" t="s">
+      <c r="AF1" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="AD1" s="24" t="s">
+      <c r="AG1" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="AE1" s="24" t="s">
+      <c r="AH1" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="AF1" s="24" t="s">
+      <c r="AI1" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="AG1" s="24" t="s">
+      <c r="AJ1" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="AH1" s="24" t="s">
+      <c r="AK1" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="AI1" s="24" t="s">
+      <c r="AL1" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="AJ1" s="24" t="s">
+      <c r="AM1" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="AK1" s="24" t="s">
+      <c r="AN1" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="AL1" s="24" t="s">
+      <c r="AO1" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="AM1" s="24" t="s">
+      <c r="AP1" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="AN1" s="24" t="s">
+      <c r="AQ1" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="AO1" s="24" t="s">
+      <c r="AR1" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="AP1" s="24" t="s">
+      <c r="AS1" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="AQ1" s="24" t="s">
+      <c r="AT1" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="AR1" s="24" t="s">
+      <c r="AU1" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="AS1" s="24" t="s">
+      <c r="AV1" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="AT1" s="24" t="s">
+      <c r="AW1" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="AU1" s="23" t="s">
+      <c r="AX1" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="AV1" s="22" t="s">
+      <c r="AY1" s="22" t="s">
         <v>99</v>
       </c>
-      <c r="AW1" s="22" t="s">
+      <c r="AZ1" s="22" t="s">
         <v>100</v>
       </c>
-      <c r="AX1" s="22" t="s">
+      <c r="BA1" s="22" t="s">
         <v>101</v>
       </c>
-      <c r="AY1" s="22" t="s">
+      <c r="BB1" s="22" t="s">
         <v>102</v>
       </c>
-      <c r="AZ1" s="22" t="s">
+      <c r="BC1" s="22" t="s">
         <v>103</v>
       </c>
-      <c r="BA1" s="22" t="s">
+      <c r="BD1" s="22" t="s">
         <v>104</v>
       </c>
-      <c r="BB1" s="22" t="s">
+      <c r="BE1" s="22" t="s">
         <v>105</v>
       </c>
-      <c r="BC1" s="22" t="s">
+      <c r="BF1" s="22" t="s">
         <v>106</v>
       </c>
-      <c r="BD1" s="22" t="s">
+      <c r="BG1" s="22" t="s">
         <v>107</v>
       </c>
-      <c r="BE1" s="22" t="s">
+      <c r="BH1" s="22" t="s">
         <v>108</v>
       </c>
-      <c r="BF1" s="22" t="s">
+      <c r="BI1" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="BG1" s="22" t="s">
+      <c r="BJ1" s="22" t="s">
         <v>110</v>
       </c>
-      <c r="BH1" s="22" t="s">
+      <c r="BK1" s="22" t="s">
         <v>111</v>
       </c>
-      <c r="BI1" s="22" t="s">
+      <c r="BL1" s="22" t="s">
         <v>112</v>
       </c>
-      <c r="BJ1" s="22" t="s">
+      <c r="BM1" s="22" t="s">
         <v>113</v>
       </c>
-      <c r="BK1" s="22" t="s">
+      <c r="BN1" s="22" t="s">
         <v>114</v>
       </c>
-      <c r="BL1" s="22" t="s">
+      <c r="BO1" s="22" t="s">
         <v>115</v>
       </c>
-      <c r="BM1" s="22" t="s">
+      <c r="BP1" s="22" t="s">
         <v>116</v>
       </c>
-      <c r="BN1" s="22" t="s">
+      <c r="BQ1" s="22" t="s">
         <v>117</v>
       </c>
-      <c r="BO1" s="22" t="s">
+      <c r="BR1" s="22" t="s">
         <v>118</v>
       </c>
-      <c r="BP1" s="22" t="s">
+      <c r="BS1" s="22" t="s">
         <v>119</v>
       </c>
-      <c r="BQ1" s="22" t="s">
+      <c r="BT1" s="22" t="s">
         <v>120</v>
       </c>
-      <c r="BR1" s="22" t="s">
+      <c r="BU1" s="22" t="s">
         <v>121</v>
       </c>
-      <c r="BS1" s="22" t="s">
+      <c r="BV1" s="22" t="s">
         <v>122</v>
       </c>
-      <c r="BT1" s="22" t="s">
+      <c r="BW1" s="22" t="s">
         <v>123</v>
       </c>
-      <c r="BU1" s="22" t="s">
+      <c r="BX1" s="22" t="s">
         <v>124</v>
       </c>
-      <c r="BV1" s="22" t="s">
+      <c r="BY1" s="22" t="s">
         <v>125</v>
       </c>
-      <c r="BW1" s="22" t="s">
+      <c r="BZ1" s="22" t="s">
         <v>126</v>
       </c>
-      <c r="BX1" s="22" t="s">
+      <c r="CA1" s="22" t="s">
         <v>127</v>
       </c>
-      <c r="BY1" s="22" t="s">
+      <c r="CB1" s="22" t="s">
         <v>128</v>
       </c>
-      <c r="BZ1" s="22" t="s">
+      <c r="CC1" s="22" t="s">
         <v>129</v>
       </c>
-      <c r="CA1" s="22" t="s">
+      <c r="CD1" s="22" t="s">
         <v>130</v>
       </c>
-      <c r="CB1" s="22" t="s">
+      <c r="CE1" s="22" t="s">
         <v>131</v>
       </c>
-      <c r="CC1" s="22" t="s">
+      <c r="CF1" s="22" t="s">
         <v>132</v>
       </c>
-      <c r="CD1" s="23" t="s">
+      <c r="CG1" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="CE1" s="23" t="s">
+      <c r="CH1" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="CF1" s="23" t="s">
+      <c r="CI1" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="CG1" s="21" t="s">
+      <c r="CJ1" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="CH1" s="25" t="s">
+      <c r="CK1" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="CI1" s="19" t="s">
+      <c r="CL1" s="19" t="s">
+        <v>417</v>
+      </c>
+      <c r="CM1" s="19" t="s">
         <v>181</v>
       </c>
-      <c r="CJ1" s="19" t="s">
+      <c r="CN1" s="19" t="s">
         <v>182</v>
       </c>
-      <c r="CK1" s="19" t="s">
+      <c r="CO1" s="19" t="s">
         <v>183</v>
       </c>
-      <c r="CL1" s="19" t="s">
+      <c r="CP1" s="19" t="s">
         <v>184</v>
       </c>
-      <c r="CM1" s="19" t="s">
+      <c r="CQ1" s="19" t="s">
         <v>185</v>
       </c>
-      <c r="CN1" s="19" t="s">
+      <c r="CR1" s="19" t="s">
         <v>186</v>
       </c>
-      <c r="CO1" s="19" t="s">
+      <c r="CS1" s="19" t="s">
         <v>187</v>
       </c>
-      <c r="CP1" s="19" t="s">
+      <c r="CT1" s="19" t="s">
         <v>188</v>
       </c>
-      <c r="CQ1" s="19" t="s">
+      <c r="CU1" s="19" t="s">
+        <v>190</v>
+      </c>
+      <c r="CV1" s="19" t="s">
+        <v>191</v>
+      </c>
+      <c r="CW1" s="19" t="s">
+        <v>192</v>
+      </c>
+      <c r="CX1" s="19" t="s">
+        <v>193</v>
+      </c>
+      <c r="CY1" s="19" t="s">
         <v>189</v>
       </c>
-      <c r="CR1" s="19" t="s">
-        <v>191</v>
-      </c>
-      <c r="CS1" s="19" t="s">
-        <v>192</v>
-      </c>
-      <c r="CT1" s="19" t="s">
-        <v>193</v>
-      </c>
-      <c r="CU1" s="19" t="s">
-        <v>194</v>
-      </c>
-      <c r="CV1" s="19" t="s">
-        <v>190</v>
-      </c>
-      <c r="CW1" s="22" t="s">
+      <c r="CZ1" s="22" t="s">
         <v>92</v>
       </c>
-      <c r="CX1" s="26" t="s">
+      <c r="DA1" s="26" t="s">
         <v>90</v>
       </c>
-      <c r="CY1" s="26" t="s">
+      <c r="DB1" s="26" t="s">
         <v>91</v>
       </c>
-      <c r="CZ1" s="27" t="s">
+      <c r="DC1" s="27" t="s">
         <v>95</v>
       </c>
-      <c r="DA1" s="28" t="s">
+      <c r="DD1" s="28" t="s">
         <v>48</v>
       </c>
-      <c r="DB1" s="29" t="s">
+      <c r="DE1" s="29" t="s">
         <v>49</v>
       </c>
-      <c r="DC1" s="19" t="s">
+      <c r="DF1" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="DD1" s="19" t="s">
+      <c r="DG1" s="19" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="2" spans="1:108" s="1" customFormat="1" ht="180" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:111" s="1" customFormat="1" ht="150" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>51</v>
       </c>
@@ -5565,326 +5567,1997 @@
         <v>178</v>
       </c>
       <c r="G2" s="17" t="s">
-        <v>271</v>
-      </c>
-      <c r="H2" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="H2" s="17" t="s">
+        <v>203</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="L2" s="64" t="s">
+        <v>332</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="N2" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="L2" s="8" t="s">
+      <c r="O2" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="M2" s="9" t="s">
+      <c r="P2" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="N2" s="9" t="s">
+      <c r="Q2" s="9" t="s">
         <v>98</v>
-      </c>
-      <c r="O2" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="P2" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q2" s="9" t="s">
-        <v>60</v>
       </c>
       <c r="R2" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="S2" s="1" t="s">
+      <c r="S2" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="T2" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="U2" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="V2" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="T2" s="8" t="s">
+      <c r="W2" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="U2" s="3" t="s">
+      <c r="X2" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="V2" s="10" t="s">
+      <c r="Y2" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="W2" s="10" t="s">
+      <c r="Z2" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="X2" s="10" t="s">
+      <c r="AA2" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="Y2" s="10" t="s">
+      <c r="AB2" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="Z2" s="10" t="s">
+      <c r="AC2" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="AA2" s="10" t="s">
+      <c r="AD2" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="AB2" s="10" t="s">
+      <c r="AE2" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="AC2" s="10" t="s">
+      <c r="AF2" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="AD2" s="10" t="s">
+      <c r="AG2" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="AE2" s="10" t="s">
+      <c r="AH2" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="AF2" s="10" t="s">
+      <c r="AI2" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="AG2" s="10" t="s">
+      <c r="AJ2" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="AH2" s="10" t="s">
+      <c r="AK2" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="AI2" s="10" t="s">
+      <c r="AL2" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="AJ2" s="10" t="s">
+      <c r="AM2" s="10" t="s">
         <v>71</v>
-      </c>
-      <c r="AK2" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="AL2" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="AM2" s="10" t="s">
-        <v>79</v>
       </c>
       <c r="AN2" s="10" t="s">
         <v>72</v>
       </c>
       <c r="AO2" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="AP2" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="AQ2" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="AR2" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="AP2" s="10" t="s">
+      <c r="AS2" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="AQ2" s="10" t="s">
+      <c r="AT2" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="AR2" s="10" t="s">
+      <c r="AU2" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="AS2" s="11" t="s">
+      <c r="AV2" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="AT2" s="7" t="s">
+      <c r="AW2" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="AU2" s="3" t="s">
+      <c r="AX2" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="AV2" s="1" t="s">
+      <c r="AY2" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="AW2" s="1" t="s">
+      <c r="AZ2" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="AX2" s="1" t="s">
+      <c r="BA2" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="AY2" s="1" t="s">
+      <c r="BB2" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="AZ2" s="17" t="s">
+      <c r="BC2" s="17" t="s">
         <v>165</v>
       </c>
-      <c r="BA2" s="17" t="s">
+      <c r="BD2" s="17" t="s">
         <v>137</v>
       </c>
-      <c r="BB2" s="1" t="s">
+      <c r="BE2" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="BC2" s="1" t="s">
+      <c r="BF2" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="BD2" s="1" t="s">
+      <c r="BG2" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="BE2" s="1" t="s">
+      <c r="BH2" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="BF2" s="1" t="s">
+      <c r="BI2" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="BG2" s="4" t="s">
+      <c r="BJ2" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="BH2" s="17" t="s">
+      <c r="BK2" s="17" t="s">
         <v>144</v>
       </c>
-      <c r="BI2" s="17" t="s">
+      <c r="BL2" s="17" t="s">
         <v>145</v>
       </c>
-      <c r="BJ2" s="17" t="s">
+      <c r="BM2" s="17" t="s">
         <v>146</v>
       </c>
-      <c r="BK2" s="17" t="s">
+      <c r="BN2" s="17" t="s">
         <v>147</v>
       </c>
-      <c r="BL2" s="17" t="s">
+      <c r="BO2" s="17" t="s">
         <v>148</v>
       </c>
-      <c r="BM2" s="17" t="s">
+      <c r="BP2" s="17" t="s">
         <v>149</v>
       </c>
-      <c r="BN2" s="1" t="s">
+      <c r="BQ2" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="BO2" s="1" t="s">
+      <c r="BR2" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="BP2" s="1" t="s">
+      <c r="BS2" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="BQ2" s="1" t="s">
+      <c r="BT2" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="BR2" s="1" t="s">
+      <c r="BU2" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="BS2" s="1" t="s">
+      <c r="BV2" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="BT2" s="1" t="s">
+      <c r="BW2" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="BU2" s="17" t="s">
+      <c r="BX2" s="17" t="s">
         <v>156</v>
       </c>
-      <c r="BV2" s="17" t="s">
+      <c r="BY2" s="17" t="s">
         <v>157</v>
       </c>
-      <c r="BW2" s="17" t="s">
+      <c r="BZ2" s="17" t="s">
         <v>158</v>
       </c>
-      <c r="BX2" s="17" t="s">
+      <c r="CA2" s="17" t="s">
         <v>159</v>
       </c>
-      <c r="BY2" s="1" t="s">
+      <c r="CB2" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="BZ2" s="1" t="s">
+      <c r="CC2" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="CA2" s="17" t="s">
+      <c r="CD2" s="17" t="s">
         <v>162</v>
       </c>
-      <c r="CB2" s="17" t="s">
+      <c r="CE2" s="17" t="s">
         <v>163</v>
       </c>
-      <c r="CC2" s="17" t="s">
-        <v>164</v>
-      </c>
-      <c r="CD2" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="CE2" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="CF2" s="4" t="s">
-        <v>85</v>
+      <c r="CF2" s="60" t="s">
+        <v>302</v>
       </c>
       <c r="CG2" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="CH2" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="CI2" s="31" t="s">
+      <c r="CH2" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="CI2" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="CJ2" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="CK2" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="CL2" s="69" t="s">
         <v>146</v>
       </c>
-      <c r="CJ2" s="13" t="s">
+      <c r="CM2" s="13" t="s">
+        <v>194</v>
+      </c>
+      <c r="CN2" s="13" t="s">
         <v>195</v>
       </c>
-      <c r="CK2" s="13" t="s">
+      <c r="CO2" s="13" t="s">
         <v>196</v>
       </c>
-      <c r="CL2" s="13" t="s">
+      <c r="CP2" s="13" t="s">
         <v>197</v>
       </c>
-      <c r="CM2" s="13" t="s">
+      <c r="CQ2" s="13" t="s">
         <v>198</v>
       </c>
-      <c r="CN2" s="13" t="s">
+      <c r="CR2" s="13" t="s">
         <v>199</v>
       </c>
-      <c r="CO2" s="13" t="s">
+      <c r="CS2" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="CT2" s="13">
+        <v>8218828905</v>
+      </c>
+      <c r="CU2" s="32" t="s">
         <v>200</v>
       </c>
-      <c r="CP2" s="13" t="s">
+      <c r="CV2" s="13" t="s">
+        <v>201</v>
+      </c>
+      <c r="CW2" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="CQ2" s="13">
+      <c r="CX2" s="13">
         <v>8218828905</v>
       </c>
-      <c r="CR2" s="32" t="s">
-        <v>201</v>
-      </c>
-      <c r="CS2" s="13" t="s">
+      <c r="CY2" s="32" t="s">
         <v>202</v>
       </c>
-      <c r="CT2" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="CU2" s="13">
-        <v>8218828905</v>
-      </c>
-      <c r="CV2" s="32" t="s">
-        <v>203</v>
-      </c>
-      <c r="CW2" s="16" t="s">
+      <c r="CZ2" s="16" t="s">
         <v>89</v>
       </c>
-      <c r="CX2" s="15" t="s">
+      <c r="DA2" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="CY2" s="16" t="s">
-        <v>94</v>
-      </c>
-      <c r="CZ2" s="15" t="s">
+      <c r="DB2" s="16" t="s">
+        <v>329</v>
+      </c>
+      <c r="DC2" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="DA2" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="DB2" s="7" t="s">
+      <c r="DD2" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="DE2" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="DC2" s="1" t="s">
+      <c r="DF2" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="DD2" t="s" s="0">
+      <c r="DG2" t="s" s="0">
         <v>166</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="BA1:BG1">
+  <conditionalFormatting sqref="BD1:BJ1">
     <cfRule type="duplicateValues" dxfId="10" priority="1"/>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="CR2" r:id="rId1" xr:uid="{00000000-0004-0000-0A00-000000000000}"/>
-    <hyperlink ref="CV2" r:id="rId2" xr:uid="{00000000-0004-0000-0A00-000001000000}"/>
+    <hyperlink ref="CU2" r:id="rId1" xr:uid="{00000000-0004-0000-0A00-000000000000}"/>
+    <hyperlink ref="CY2" r:id="rId2" xr:uid="{00000000-0004-0000-0A00-000001000000}"/>
+    <hyperlink ref="L2" r:id="rId3" xr:uid="{FFF5DB8F-5356-4B3F-9CA1-EC35C3F474CC}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
+  <pageSetup orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16ADFDC9-E8FB-45FB-A949-A1A72F8FEBC7}">
+  <dimension ref="A1:DC5"/>
+  <sheetViews>
+    <sheetView zoomScale="166" zoomScaleNormal="166" workbookViewId="0">
+      <selection activeCell="K1" sqref="K1:L2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" customWidth="true" width="28.0"/>
+    <col min="7" max="7" customWidth="true" width="17.0"/>
+    <col min="11" max="11" customWidth="true" width="34.42578125"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="12.140625" collapsed="true"/>
+    <col min="56" max="57" customWidth="true" width="27.42578125"/>
+    <col min="58" max="58" customWidth="true" width="24.7109375"/>
+    <col min="59" max="59" customWidth="true" width="27.42578125"/>
+    <col min="100" max="100" customWidth="true" width="37.28515625" collapsed="true"/>
+    <col min="101" max="101" customWidth="true" width="42.140625" collapsed="true"/>
+    <col min="102" max="102" customWidth="true" width="92.140625" collapsed="true"/>
+    <col min="103" max="103" customWidth="true" width="28.0" collapsed="true"/>
+    <col min="104" max="104" bestFit="true" customWidth="true" width="10.5703125" collapsed="true"/>
+    <col min="106" max="106" bestFit="true" customWidth="true" width="8.85546875" collapsed="true"/>
+    <col min="107" max="107" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:107" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="20" t="s">
+        <v>173</v>
+      </c>
+      <c r="F1" s="30" t="s">
+        <v>168</v>
+      </c>
+      <c r="G1" s="20" t="s">
+        <v>177</v>
+      </c>
+      <c r="H1" s="20" t="s">
+        <v>169</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="S1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="T1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="U1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="AB1" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="AC1" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="AD1" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="AE1" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="AF1" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="AG1" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="AH1" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="AI1" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="AJ1" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="AK1" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="AL1" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="AM1" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="AN1" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="AO1" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="AP1" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="AQ1" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="AR1" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="AS1" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="AT1" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="AU1" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="AV1" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="AW1" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="AX1" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="AY1" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="AZ1" s="6" t="s">
+        <v>334</v>
+      </c>
+      <c r="BA1" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="BB1" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="BC1" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="BD1" s="61" t="s">
+        <v>324</v>
+      </c>
+      <c r="BE1" s="61" t="s">
+        <v>400</v>
+      </c>
+      <c r="BF1" s="61" t="s">
+        <v>325</v>
+      </c>
+      <c r="BG1" s="61" t="s">
+        <v>326</v>
+      </c>
+      <c r="BH1" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="BI1" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="BJ1" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="BK1" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="BL1" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="BM1" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="BN1" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="BO1" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="BP1" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="BQ1" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="BR1" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="BS1" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="BT1" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="BU1" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="BV1" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="BW1" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="BX1" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="BY1" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="BZ1" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="CA1" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="CB1" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="CC1" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="CD1" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="CE1" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="CF1" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="CG1" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="CH1" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="CI1" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="CJ1" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="CK1" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="CL1" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="CM1" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="CN1" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="CO1" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="CP1" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="CQ1" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="CR1" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="CS1" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="CT1" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="CU1" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="CV1" s="4" t="s">
+        <v>318</v>
+      </c>
+      <c r="CW1" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="CX1" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="CY1" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="CZ1" t="s" s="0">
+        <v>48</v>
+      </c>
+      <c r="DA1" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="DB1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="DC1" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="2" spans="1:107" s="1" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="E2" s="17" t="s">
+        <v>224</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="G2" s="17" t="s">
+        <v>225</v>
+      </c>
+      <c r="H2" s="17" t="s">
+        <v>270</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="K2" s="64" t="s">
+        <v>332</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="O2" s="8" t="s">
+        <v>295</v>
+      </c>
+      <c r="P2" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q2" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="R2" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="S2" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="T2" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="U2" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="W2" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="X2" s="17" t="s">
+        <v>163</v>
+      </c>
+      <c r="Y2" s="17" t="s">
+        <v>315</v>
+      </c>
+      <c r="Z2" s="58" t="s">
+        <v>316</v>
+      </c>
+      <c r="AA2" s="59" t="s">
+        <v>317</v>
+      </c>
+      <c r="AB2" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="AC2" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="AD2" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="AE2" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="AF2" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="AG2" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="AH2" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="AI2" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="AJ2" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK2" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="AL2" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="AM2" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="AN2" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="AO2" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="AP2" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="AQ2" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="AR2" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="AS2" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="AT2" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="AU2" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="AV2" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="AW2" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="AX2" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="AY2" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="AZ2" s="10" t="s">
+        <v>335</v>
+      </c>
+      <c r="BA2" s="62" t="s">
+        <v>317</v>
+      </c>
+      <c r="BB2" s="63" t="s">
+        <v>331</v>
+      </c>
+      <c r="BC2" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="BD2" s="60" t="s">
+        <v>328</v>
+      </c>
+      <c r="BE2" s="60" t="s">
+        <v>401</v>
+      </c>
+      <c r="BF2" s="60" t="s">
+        <v>327</v>
+      </c>
+      <c r="BG2" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="BH2" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="BI2" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="BJ2" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="BK2" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="BL2" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="BM2" s="17" t="s">
+        <v>137</v>
+      </c>
+      <c r="BN2" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="BO2" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="BP2" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="BQ2" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="BR2" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="BS2" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="BT2" s="17" t="s">
+        <v>144</v>
+      </c>
+      <c r="BU2" s="17" t="s">
+        <v>145</v>
+      </c>
+      <c r="BV2" s="17" t="s">
+        <v>146</v>
+      </c>
+      <c r="BW2" s="17" t="s">
+        <v>147</v>
+      </c>
+      <c r="BX2" s="17" t="s">
+        <v>148</v>
+      </c>
+      <c r="BY2" s="17" t="s">
+        <v>149</v>
+      </c>
+      <c r="BZ2" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="CA2" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="CB2" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="CC2" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="CD2" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="CE2" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="CF2" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="CG2" s="17" t="s">
+        <v>156</v>
+      </c>
+      <c r="CH2" s="17" t="s">
+        <v>157</v>
+      </c>
+      <c r="CI2" s="17" t="s">
+        <v>158</v>
+      </c>
+      <c r="CJ2" s="17" t="s">
+        <v>159</v>
+      </c>
+      <c r="CK2" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="CL2" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="CM2" s="17" t="s">
+        <v>162</v>
+      </c>
+      <c r="CN2" s="17" t="s">
+        <v>163</v>
+      </c>
+      <c r="CO2" s="17" t="s">
+        <v>302</v>
+      </c>
+      <c r="CP2" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="CQ2" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="CR2" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="CS2" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="CT2" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="CU2" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="CV2" s="16" t="s">
+        <v>319</v>
+      </c>
+      <c r="CW2" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="CX2" s="57" t="s">
+        <v>307</v>
+      </c>
+      <c r="CY2" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="CZ2" t="s" s="0">
+        <v>416</v>
+      </c>
+      <c r="DA2" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="DB2" t="s" s="0">
+        <v>166</v>
+      </c>
+      <c r="DC2" t="s" s="0">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="3" spans="1:107" s="1" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>263</v>
+      </c>
+      <c r="E3" s="17" t="s">
+        <v>264</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="G3" s="17" t="s">
+        <v>237</v>
+      </c>
+      <c r="H3" s="17" t="s">
+        <v>267</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="K3" s="64" t="s">
+        <v>332</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="O3" s="8" t="s">
+        <v>295</v>
+      </c>
+      <c r="P3" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q3" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="R3" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="S3" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="T3" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="U3" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="V3" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="W3" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="X3" s="17" t="s">
+        <v>163</v>
+      </c>
+      <c r="Y3" s="17" t="s">
+        <v>315</v>
+      </c>
+      <c r="Z3" s="58" t="s">
+        <v>316</v>
+      </c>
+      <c r="AA3" s="59" t="s">
+        <v>317</v>
+      </c>
+      <c r="AB3" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="AC3" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="AD3" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="AE3" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="AF3" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="AG3" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="AH3" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="AI3" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="AJ3" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK3" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="AL3" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="AM3" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="AN3" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="AO3" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="AP3" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="AQ3" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="AR3" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="AS3" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="AT3" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="AU3" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="AV3" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="AW3" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="AX3" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="AY3" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="AZ3" s="10" t="s">
+        <v>335</v>
+      </c>
+      <c r="BA3" s="62" t="s">
+        <v>317</v>
+      </c>
+      <c r="BB3" s="63" t="s">
+        <v>331</v>
+      </c>
+      <c r="BC3" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="BD3" s="60" t="s">
+        <v>328</v>
+      </c>
+      <c r="BE3" s="60" t="s">
+        <v>401</v>
+      </c>
+      <c r="BF3" s="60" t="s">
+        <v>327</v>
+      </c>
+      <c r="BG3" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="BH3" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="BI3" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="BJ3" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="BK3" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="BL3" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="BM3" s="17" t="s">
+        <v>137</v>
+      </c>
+      <c r="BN3" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="BO3" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="BP3" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="BQ3" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="BR3" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="BS3" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="BT3" s="17" t="s">
+        <v>144</v>
+      </c>
+      <c r="BU3" s="17" t="s">
+        <v>145</v>
+      </c>
+      <c r="BV3" s="17" t="s">
+        <v>146</v>
+      </c>
+      <c r="BW3" s="17" t="s">
+        <v>147</v>
+      </c>
+      <c r="BX3" s="17" t="s">
+        <v>148</v>
+      </c>
+      <c r="BY3" s="17" t="s">
+        <v>149</v>
+      </c>
+      <c r="BZ3" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="CA3" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="CB3" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="CC3" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="CD3" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="CE3" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="CF3" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="CG3" s="17" t="s">
+        <v>156</v>
+      </c>
+      <c r="CH3" s="17" t="s">
+        <v>157</v>
+      </c>
+      <c r="CI3" s="17" t="s">
+        <v>158</v>
+      </c>
+      <c r="CJ3" s="17" t="s">
+        <v>159</v>
+      </c>
+      <c r="CK3" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="CL3" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="CM3" s="17" t="s">
+        <v>162</v>
+      </c>
+      <c r="CN3" s="17" t="s">
+        <v>163</v>
+      </c>
+      <c r="CO3" s="17" t="s">
+        <v>302</v>
+      </c>
+      <c r="CP3" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="CQ3" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="CR3" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="CS3" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="CT3" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="CU3" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="CV3" s="16" t="s">
+        <v>319</v>
+      </c>
+      <c r="CW3" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="CX3" s="57" t="s">
+        <v>307</v>
+      </c>
+      <c r="CY3" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="CZ3" t="s" s="0">
+        <v>403</v>
+      </c>
+      <c r="DA3" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="DB3" t="s" s="0">
+        <v>166</v>
+      </c>
+      <c r="DC3" t="s" s="0">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="4" spans="1:107" ht="90" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>261</v>
+      </c>
+      <c r="E4" s="17" t="s">
+        <v>175</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="G4" s="17" t="s">
+        <v>237</v>
+      </c>
+      <c r="H4" s="17" t="s">
+        <v>236</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="K4" s="64" t="s">
+        <v>332</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="O4" s="8" t="s">
+        <v>295</v>
+      </c>
+      <c r="P4" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q4" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="R4" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="S4" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="T4" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="U4" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="V4" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="W4" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="X4" s="17" t="s">
+        <v>163</v>
+      </c>
+      <c r="Y4" s="17" t="s">
+        <v>315</v>
+      </c>
+      <c r="Z4" s="58" t="s">
+        <v>316</v>
+      </c>
+      <c r="AA4" s="59" t="s">
+        <v>317</v>
+      </c>
+      <c r="AB4" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="AC4" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="AD4" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="AE4" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="AF4" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="AG4" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="AH4" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="AI4" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="AJ4" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK4" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="AL4" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="AM4" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="AN4" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="AO4" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="AP4" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="AQ4" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="AR4" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="AS4" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="AT4" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="AU4" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="AV4" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="AW4" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="AX4" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="AY4" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="AZ4" s="10" t="s">
+        <v>335</v>
+      </c>
+      <c r="BA4" s="62" t="s">
+        <v>317</v>
+      </c>
+      <c r="BB4" s="63" t="s">
+        <v>331</v>
+      </c>
+      <c r="BC4" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="BD4" s="60" t="s">
+        <v>328</v>
+      </c>
+      <c r="BE4" s="60" t="s">
+        <v>401</v>
+      </c>
+      <c r="BF4" s="60" t="s">
+        <v>327</v>
+      </c>
+      <c r="BG4" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="BH4" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="BI4" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="BJ4" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="BK4" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="BL4" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="BM4" s="17" t="s">
+        <v>137</v>
+      </c>
+      <c r="BN4" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="BO4" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="BP4" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="BQ4" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="BR4" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="BS4" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="BT4" s="17" t="s">
+        <v>144</v>
+      </c>
+      <c r="BU4" s="17" t="s">
+        <v>145</v>
+      </c>
+      <c r="BV4" s="17" t="s">
+        <v>146</v>
+      </c>
+      <c r="BW4" s="17" t="s">
+        <v>147</v>
+      </c>
+      <c r="BX4" s="17" t="s">
+        <v>148</v>
+      </c>
+      <c r="BY4" s="17" t="s">
+        <v>149</v>
+      </c>
+      <c r="BZ4" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="CA4" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="CB4" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="CC4" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="CD4" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="CE4" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="CF4" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="CG4" s="17" t="s">
+        <v>156</v>
+      </c>
+      <c r="CH4" s="17" t="s">
+        <v>157</v>
+      </c>
+      <c r="CI4" s="17" t="s">
+        <v>158</v>
+      </c>
+      <c r="CJ4" s="17" t="s">
+        <v>159</v>
+      </c>
+      <c r="CK4" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="CL4" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="CM4" s="17" t="s">
+        <v>162</v>
+      </c>
+      <c r="CN4" s="17" t="s">
+        <v>163</v>
+      </c>
+      <c r="CO4" s="17" t="s">
+        <v>302</v>
+      </c>
+      <c r="CP4" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="CQ4" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="CR4" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="CS4" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="CT4" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="CU4" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="CV4" s="16" t="s">
+        <v>319</v>
+      </c>
+      <c r="CW4" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="CX4" s="57" t="s">
+        <v>307</v>
+      </c>
+      <c r="CY4" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="CZ4" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="DA4" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="DB4" t="s" s="0">
+        <v>166</v>
+      </c>
+      <c r="DC4" t="s" s="0">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="5" spans="1:107" s="1" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>238</v>
+      </c>
+      <c r="E5" s="17" t="s">
+        <v>240</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="G5" s="17" t="s">
+        <v>237</v>
+      </c>
+      <c r="H5" s="17" t="s">
+        <v>402</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="K5" s="64" t="s">
+        <v>332</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="O5" s="8" t="s">
+        <v>295</v>
+      </c>
+      <c r="P5" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q5" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="R5" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="S5" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="T5" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="U5" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="V5" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="W5" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="X5" s="17" t="s">
+        <v>163</v>
+      </c>
+      <c r="Y5" s="17" t="s">
+        <v>315</v>
+      </c>
+      <c r="Z5" s="58" t="s">
+        <v>316</v>
+      </c>
+      <c r="AA5" s="59" t="s">
+        <v>317</v>
+      </c>
+      <c r="AB5" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="AC5" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="AD5" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="AE5" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="AF5" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="AG5" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="AH5" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="AI5" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="AJ5" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK5" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="AL5" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="AM5" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="AN5" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="AO5" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="AP5" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="AQ5" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="AR5" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="AS5" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="AT5" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="AU5" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="AV5" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="AW5" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="AX5" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="AY5" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="AZ5" s="10" t="s">
+        <v>335</v>
+      </c>
+      <c r="BA5" s="62" t="s">
+        <v>317</v>
+      </c>
+      <c r="BB5" s="63" t="s">
+        <v>331</v>
+      </c>
+      <c r="BC5" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="BD5" s="60" t="s">
+        <v>328</v>
+      </c>
+      <c r="BE5" s="60" t="s">
+        <v>401</v>
+      </c>
+      <c r="BF5" s="60" t="s">
+        <v>327</v>
+      </c>
+      <c r="BG5" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="BH5" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="BI5" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="BJ5" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="BK5" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="BL5" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="BM5" s="17" t="s">
+        <v>137</v>
+      </c>
+      <c r="BN5" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="BO5" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="BP5" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="BQ5" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="BR5" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="BS5" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="BT5" s="17" t="s">
+        <v>144</v>
+      </c>
+      <c r="BU5" s="17" t="s">
+        <v>145</v>
+      </c>
+      <c r="BV5" s="17" t="s">
+        <v>146</v>
+      </c>
+      <c r="BW5" s="17" t="s">
+        <v>147</v>
+      </c>
+      <c r="BX5" s="17" t="s">
+        <v>148</v>
+      </c>
+      <c r="BY5" s="17" t="s">
+        <v>149</v>
+      </c>
+      <c r="BZ5" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="CA5" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="CB5" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="CC5" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="CD5" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="CE5" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="CF5" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="CG5" s="17" t="s">
+        <v>156</v>
+      </c>
+      <c r="CH5" s="17" t="s">
+        <v>157</v>
+      </c>
+      <c r="CI5" s="17" t="s">
+        <v>158</v>
+      </c>
+      <c r="CJ5" s="17" t="s">
+        <v>159</v>
+      </c>
+      <c r="CK5" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="CL5" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="CM5" s="17" t="s">
+        <v>162</v>
+      </c>
+      <c r="CN5" s="17" t="s">
+        <v>163</v>
+      </c>
+      <c r="CO5" s="17" t="s">
+        <v>302</v>
+      </c>
+      <c r="CP5" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="CQ5" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="CR5" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="CS5" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="CT5" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="CU5" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="CV5" s="16" t="s">
+        <v>319</v>
+      </c>
+      <c r="CW5" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="CX5" s="57" t="s">
+        <v>307</v>
+      </c>
+      <c r="CY5" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="CZ5" t="s" s="0">
+        <v>405</v>
+      </c>
+      <c r="DA5" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="DB5" t="s" s="0">
+        <v>166</v>
+      </c>
+      <c r="DC5" t="s" s="0">
+        <v>166</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <conditionalFormatting sqref="BM1:BS1">
+    <cfRule type="duplicateValues" dxfId="9" priority="1"/>
+  </conditionalFormatting>
+  <hyperlinks>
+    <hyperlink ref="CX5" r:id="rId1" display="file:///C:/Users/agraway/eclipse-workspace/LifeSpeed-main/Files\sample.pdf" xr:uid="{6A5AE02A-0A2B-474F-A934-24EA1A047DED}"/>
+    <hyperlink ref="CX2" r:id="rId2" display="file:///C:/Users/agraway/eclipse-workspace/LifeSpeed-main/Files\sample.pdf" xr:uid="{AEB0F94D-0438-497B-9CD1-63DDFCC95600}"/>
+    <hyperlink ref="CX3" r:id="rId3" display="file:///C:/Users/agraway/eclipse-workspace/LifeSpeed-main/Files\sample.pdf" xr:uid="{D8485F00-6025-4992-A35E-4FBBEA38CB2B}"/>
+    <hyperlink ref="CX4" r:id="rId4" display="file:///C:/Users/agraway/eclipse-workspace/LifeSpeed-main/Files\sample.pdf" xr:uid="{29531029-94A3-4055-84D8-6AF386EC85AF}"/>
+    <hyperlink ref="K2" r:id="rId5" xr:uid="{721FA9B2-F109-405F-86F0-1EB4BC06ABA9}"/>
+    <hyperlink ref="K3" r:id="rId6" xr:uid="{753A28FB-2163-4294-ABD6-E13FD8457408}"/>
+    <hyperlink ref="K4" r:id="rId7" xr:uid="{2CB3386A-B778-4957-9DBE-71A4C8C1D272}"/>
+    <hyperlink ref="K5" r:id="rId8" xr:uid="{5CF1B7D3-ED9F-42CC-8969-22A1CC706343}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId9"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:DK3"/>
   <sheetViews>
@@ -5937,16 +7610,16 @@
         <v>6</v>
       </c>
       <c r="L1" s="33" t="s">
+        <v>208</v>
+      </c>
+      <c r="M1" s="33" t="s">
         <v>209</v>
       </c>
-      <c r="M1" s="33" t="s">
+      <c r="N1" s="33" t="s">
         <v>210</v>
       </c>
-      <c r="N1" s="33" t="s">
+      <c r="O1" s="33" t="s">
         <v>211</v>
-      </c>
-      <c r="O1" s="33" t="s">
-        <v>212</v>
       </c>
       <c r="P1" s="19" t="s">
         <v>7</v>
@@ -6066,13 +7739,13 @@
         <v>101</v>
       </c>
       <c r="BC1" s="33" t="s">
+        <v>216</v>
+      </c>
+      <c r="BD1" s="33" t="s">
         <v>217</v>
       </c>
-      <c r="BD1" s="33" t="s">
+      <c r="BE1" s="33" t="s">
         <v>218</v>
-      </c>
-      <c r="BE1" s="33" t="s">
-        <v>219</v>
       </c>
       <c r="BF1" s="22" t="s">
         <v>102</v>
@@ -6183,46 +7856,46 @@
         <v>47</v>
       </c>
       <c r="CP1" s="19" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="CQ1" s="19" t="s">
+        <v>181</v>
+      </c>
+      <c r="CR1" s="19" t="s">
         <v>182</v>
       </c>
-      <c r="CR1" s="19" t="s">
+      <c r="CS1" s="19" t="s">
         <v>183</v>
       </c>
-      <c r="CS1" s="19" t="s">
+      <c r="CT1" s="19" t="s">
         <v>184</v>
       </c>
-      <c r="CT1" s="19" t="s">
+      <c r="CU1" s="19" t="s">
         <v>185</v>
       </c>
-      <c r="CU1" s="19" t="s">
+      <c r="CV1" s="19" t="s">
         <v>186</v>
       </c>
-      <c r="CV1" s="19" t="s">
+      <c r="CW1" s="19" t="s">
         <v>187</v>
       </c>
-      <c r="CW1" s="19" t="s">
+      <c r="CX1" s="19" t="s">
         <v>188</v>
       </c>
-      <c r="CX1" s="19" t="s">
+      <c r="CY1" s="19" t="s">
+        <v>190</v>
+      </c>
+      <c r="CZ1" s="19" t="s">
+        <v>191</v>
+      </c>
+      <c r="DA1" s="19" t="s">
+        <v>192</v>
+      </c>
+      <c r="DB1" s="19" t="s">
+        <v>193</v>
+      </c>
+      <c r="DC1" s="19" t="s">
         <v>189</v>
-      </c>
-      <c r="CY1" s="19" t="s">
-        <v>191</v>
-      </c>
-      <c r="CZ1" s="19" t="s">
-        <v>192</v>
-      </c>
-      <c r="DA1" s="19" t="s">
-        <v>193</v>
-      </c>
-      <c r="DB1" s="19" t="s">
-        <v>194</v>
-      </c>
-      <c r="DC1" s="19" t="s">
-        <v>190</v>
       </c>
       <c r="DD1" s="22" t="s">
         <v>92</v>
@@ -6260,7 +7933,7 @@
         <v>53</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E2" s="17" t="s">
         <v>175</v>
@@ -6269,13 +7942,13 @@
         <v>178</v>
       </c>
       <c r="G2" s="17" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>171</v>
@@ -6284,16 +7957,16 @@
         <v>57</v>
       </c>
       <c r="L2" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="M2" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="N2" s="17" t="s">
         <v>214</v>
       </c>
-      <c r="N2" s="17" t="s">
+      <c r="O2" s="17" t="s">
         <v>215</v>
-      </c>
-      <c r="O2" s="17" t="s">
-        <v>216</v>
       </c>
       <c r="P2" s="8" t="s">
         <v>58</v>
@@ -6413,13 +8086,13 @@
         <v>135</v>
       </c>
       <c r="BC2" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="BD2" s="17" t="s">
         <v>220</v>
       </c>
-      <c r="BD2" s="17" t="s">
+      <c r="BE2" s="1" t="s">
         <v>221</v>
-      </c>
-      <c r="BE2" s="1" t="s">
-        <v>222</v>
       </c>
       <c r="BF2" s="1" t="s">
         <v>136</v>
@@ -6533,22 +8206,22 @@
         <v>146</v>
       </c>
       <c r="CQ2" s="13" t="s">
+        <v>194</v>
+      </c>
+      <c r="CR2" s="13" t="s">
         <v>195</v>
       </c>
-      <c r="CR2" s="13" t="s">
+      <c r="CS2" s="13" t="s">
         <v>196</v>
       </c>
-      <c r="CS2" s="13" t="s">
+      <c r="CT2" s="13" t="s">
         <v>197</v>
       </c>
-      <c r="CT2" s="13" t="s">
+      <c r="CU2" s="13" t="s">
         <v>198</v>
       </c>
-      <c r="CU2" s="13" t="s">
+      <c r="CV2" s="13" t="s">
         <v>199</v>
-      </c>
-      <c r="CV2" s="13" t="s">
-        <v>200</v>
       </c>
       <c r="CW2" s="13" t="s">
         <v>51</v>
@@ -6557,10 +8230,10 @@
         <v>8218828905</v>
       </c>
       <c r="CY2" s="32" t="s">
+        <v>200</v>
+      </c>
+      <c r="CZ2" s="13" t="s">
         <v>201</v>
-      </c>
-      <c r="CZ2" s="13" t="s">
-        <v>202</v>
       </c>
       <c r="DA2" s="13" t="s">
         <v>51</v>
@@ -6569,7 +8242,7 @@
         <v>8218828905</v>
       </c>
       <c r="DC2" s="32" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="DD2" s="16" t="s">
         <v>89</v>
@@ -6584,7 +8257,7 @@
         <v>93</v>
       </c>
       <c r="DH2" s="1" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="DI2" s="7" t="s">
         <v>87</v>
@@ -6601,7 +8274,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="BH1:BN1">
-    <cfRule type="duplicateValues" dxfId="9" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="1"/>
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="CY2" r:id="rId1" xr:uid="{00000000-0004-0000-0B00-000000000000}"/>
@@ -6612,7 +8285,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:CV2"/>
   <sheetViews>
@@ -6677,16 +8350,16 @@
         <v>10</v>
       </c>
       <c r="P1" s="19" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q1" s="19" t="s">
+        <v>235</v>
+      </c>
+      <c r="R1" s="19" t="s">
         <v>228</v>
       </c>
-      <c r="Q1" s="19" t="s">
-        <v>236</v>
-      </c>
-      <c r="R1" s="19" t="s">
+      <c r="S1" s="19" t="s">
         <v>229</v>
-      </c>
-      <c r="S1" s="19" t="s">
-        <v>230</v>
       </c>
       <c r="T1" s="22" t="s">
         <v>11</v>
@@ -6905,7 +8578,7 @@
         <v>92</v>
       </c>
       <c r="CN1" s="26" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="CO1" s="26" t="s">
         <v>91</v>
@@ -6943,25 +8616,25 @@
         <v>53</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="E2" s="17" t="s">
+        <v>224</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="G2" s="17" t="s">
+        <v>225</v>
+      </c>
+      <c r="H2" s="17" t="s">
+        <v>245</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="E2" s="17" t="s">
-        <v>225</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="G2" s="17" t="s">
+      <c r="J2" s="1" t="s">
         <v>226</v>
-      </c>
-      <c r="H2" s="17" t="s">
-        <v>246</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>227</v>
       </c>
       <c r="K2" s="1" t="s">
         <v>57</v>
@@ -6979,16 +8652,16 @@
         <v>61</v>
       </c>
       <c r="P2" s="9" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="Q2" s="9" t="s">
         <v>98</v>
       </c>
       <c r="R2" s="9" t="s">
+        <v>231</v>
+      </c>
+      <c r="S2" s="9" t="s">
         <v>232</v>
-      </c>
-      <c r="S2" s="9" t="s">
-        <v>233</v>
       </c>
       <c r="T2" s="9" t="s">
         <v>59</v>
@@ -7207,7 +8880,7 @@
         <v>89</v>
       </c>
       <c r="CN2" s="15" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="CO2" s="16" t="s">
         <v>94</v>
@@ -7222,7 +8895,7 @@
         <v>93</v>
       </c>
       <c r="CS2" s="1" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="CT2" s="7" t="s">
         <v>87</v>
@@ -7233,14 +8906,14 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="BE1:BK1">
-    <cfRule type="duplicateValues" dxfId="8" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:CV2"/>
   <sheetViews>
@@ -7307,16 +8980,16 @@
         <v>10</v>
       </c>
       <c r="P1" s="19" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q1" s="19" t="s">
+        <v>235</v>
+      </c>
+      <c r="R1" s="19" t="s">
         <v>228</v>
       </c>
-      <c r="Q1" s="19" t="s">
-        <v>236</v>
-      </c>
-      <c r="R1" s="19" t="s">
+      <c r="S1" s="19" t="s">
         <v>229</v>
-      </c>
-      <c r="S1" s="19" t="s">
-        <v>230</v>
       </c>
       <c r="T1" s="22" t="s">
         <v>11</v>
@@ -7535,7 +9208,7 @@
         <v>92</v>
       </c>
       <c r="CN1" s="26" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="CO1" s="26" t="s">
         <v>91</v>
@@ -7573,25 +9246,25 @@
         <v>53</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E2" s="17" t="s">
         <v>175</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G2" s="17" t="s">
+        <v>225</v>
+      </c>
+      <c r="H2" s="17" t="s">
+        <v>245</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>226</v>
-      </c>
-      <c r="H2" s="17" t="s">
-        <v>246</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>227</v>
       </c>
       <c r="K2" s="1" t="s">
         <v>57</v>
@@ -7609,16 +9282,16 @@
         <v>61</v>
       </c>
       <c r="P2" s="9" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="Q2" s="9" t="s">
         <v>98</v>
       </c>
       <c r="R2" s="9" t="s">
+        <v>231</v>
+      </c>
+      <c r="S2" s="9" t="s">
         <v>232</v>
-      </c>
-      <c r="S2" s="9" t="s">
-        <v>233</v>
       </c>
       <c r="T2" s="9" t="s">
         <v>59</v>
@@ -7837,7 +9510,7 @@
         <v>89</v>
       </c>
       <c r="CN2" s="15" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="CO2" s="16" t="s">
         <v>94</v>
@@ -7852,7 +9525,7 @@
         <v>93</v>
       </c>
       <c r="CS2" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="CT2" s="7" t="s">
         <v>87</v>
@@ -7863,13 +9536,13 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="BE1:BK1">
-    <cfRule type="duplicateValues" dxfId="7" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:G2"/>
   <sheetViews>
@@ -7898,16 +9571,16 @@
         <v>2</v>
       </c>
       <c r="D1" s="35" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E1" s="35" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F1" s="35" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="G1" s="37" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -7921,16 +9594,16 @@
         <v>53</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E2" s="36" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F2" s="15" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G2" t="s" s="0">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
   </sheetData>
@@ -7938,7 +9611,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1:I2"/>
   <sheetViews>
@@ -7966,22 +9639,22 @@
         <v>2</v>
       </c>
       <c r="D1" s="35" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E1" s="35" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F1" s="35" t="s">
+        <v>254</v>
+      </c>
+      <c r="G1" s="35" t="s">
         <v>255</v>
       </c>
-      <c r="G1" s="35" t="s">
-        <v>256</v>
-      </c>
       <c r="H1" s="37" t="s">
+        <v>258</v>
+      </c>
+      <c r="I1" s="37" t="s">
         <v>259</v>
-      </c>
-      <c r="I1" s="37" t="s">
-        <v>260</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -7995,19 +9668,19 @@
         <v>53</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E2" s="36" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F2" s="15" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="G2" s="15" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="I2" t="s" s="0">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
   </sheetData>
@@ -8015,7 +9688,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <dimension ref="A1:CP5"/>
   <sheetViews>
@@ -8374,22 +10047,22 @@
         <v>53</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E2" s="17" t="s">
         <v>175</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G2" s="17" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H2" s="17" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>56</v>
@@ -8635,7 +10308,7 @@
         <v>93</v>
       </c>
       <c r="CM2" s="1" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="CN2" s="7" t="s">
         <v>87</v>
@@ -8661,10 +10334,10 @@
         <v>54</v>
       </c>
       <c r="E3" s="17" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G3" s="17" t="s">
         <v>178</v>
@@ -9130,79 +10803,9 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="BA1:BG1">
-    <cfRule type="duplicateValues" dxfId="6" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
-  <dimension ref="A1:G2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" customWidth="true" width="24.140625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="18.7109375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="18.0" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="16.7109375" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="8.28515625" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="11.85546875" collapsed="true"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="35" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="35" t="s">
-        <v>243</v>
-      </c>
-      <c r="E1" s="35" t="s">
-        <v>242</v>
-      </c>
-      <c r="F1" s="35" t="s">
-        <v>247</v>
-      </c>
-      <c r="G1" s="35" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>244</v>
-      </c>
-      <c r="E2" s="36" t="s">
-        <v>249</v>
-      </c>
-      <c r="F2" s="15" t="s">
-        <v>204</v>
-      </c>
-      <c r="G2" s="15" t="s">
-        <v>248</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -9222,13 +10825,13 @@
     <col min="83" max="84" customWidth="true" style="1" width="18.0" collapsed="true"/>
     <col min="91" max="91" customWidth="true" width="35.0"/>
     <col min="94" max="94" bestFit="true" customWidth="true" width="11.0"/>
-    <col min="96" max="96" bestFit="true" customWidth="true" width="9.203125"/>
-    <col min="97" max="97" bestFit="true" customWidth="true" width="11.6953125"/>
+    <col min="96" max="96" bestFit="true" customWidth="true" width="9.140625"/>
+    <col min="97" max="97" bestFit="true" customWidth="true" width="11.7109375"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:97" s="19" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="19" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="B1" s="19" t="s">
         <v>0</v>
@@ -9261,10 +10864,10 @@
         <v>5</v>
       </c>
       <c r="L1" s="19" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="M1" s="19" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="N1" s="19" t="s">
         <v>6</v>
@@ -9521,7 +11124,7 @@
     </row>
     <row r="2" spans="1:97" s="1" customFormat="1" ht="150" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>51</v>
@@ -9533,31 +11136,31 @@
         <v>53</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="F2" s="17" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="H2" s="17" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="I2" s="17" t="s">
         <v>179</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="K2" s="1" t="s">
         <v>56</v>
       </c>
       <c r="L2" s="64" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="N2" s="1" t="s">
         <v>57</v>
@@ -9770,7 +11373,7 @@
         <v>163</v>
       </c>
       <c r="CF2" s="17" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="CG2" s="4" t="s">
         <v>85</v>
@@ -9794,13 +11397,13 @@
         <v>96</v>
       </c>
       <c r="CN2" s="16" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="CO2" s="15" t="s">
         <v>93</v>
       </c>
       <c r="CP2" s="1" t="s">
-        <v>421</v>
+        <v>406</v>
       </c>
       <c r="CQ2" s="7" t="s">
         <v>87</v>
@@ -9814,7 +11417,7 @@
     </row>
     <row r="3" spans="1:97" s="1" customFormat="1" ht="150" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>51</v>
@@ -9826,31 +11429,31 @@
         <v>53</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="F3" s="17" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="H3" s="17" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="I3" s="17" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="K3" s="1" t="s">
         <v>56</v>
       </c>
       <c r="L3" s="64" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="N3" s="1" t="s">
         <v>57</v>
@@ -10063,7 +11666,7 @@
         <v>163</v>
       </c>
       <c r="CF3" s="17" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="CG3" s="4" t="s">
         <v>85</v>
@@ -10087,13 +11690,13 @@
         <v>96</v>
       </c>
       <c r="CN3" s="16" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="CO3" s="15" t="s">
         <v>93</v>
       </c>
       <c r="CP3" s="1" t="s">
-        <v>422</v>
+        <v>407</v>
       </c>
       <c r="CQ3" s="7" t="s">
         <v>87</v>
@@ -10107,7 +11710,7 @@
     </row>
     <row r="4" spans="1:97" s="1" customFormat="1" ht="150" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>51</v>
@@ -10119,31 +11722,31 @@
         <v>53</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="F4" s="17" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="H4" s="17" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="I4" s="17" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="K4" s="1" t="s">
         <v>56</v>
       </c>
       <c r="L4" s="64" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="N4" s="1" t="s">
         <v>57</v>
@@ -10356,7 +11959,7 @@
         <v>163</v>
       </c>
       <c r="CF4" s="17" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="CG4" s="4" t="s">
         <v>85</v>
@@ -10380,13 +11983,13 @@
         <v>96</v>
       </c>
       <c r="CN4" s="16" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="CO4" s="15" t="s">
         <v>93</v>
       </c>
       <c r="CP4" s="1" t="s">
-        <v>423</v>
+        <v>408</v>
       </c>
       <c r="CQ4" s="7" t="s">
         <v>87</v>
@@ -10400,7 +12003,7 @@
     </row>
     <row r="5" spans="1:97" s="1" customFormat="1" ht="150" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>51</v>
@@ -10412,34 +12015,34 @@
         <v>53</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="F5" s="17" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="H5" s="17" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="I5" s="17" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="K5" s="1" t="s">
         <v>56</v>
       </c>
       <c r="L5" s="64" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="N5" s="66" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="O5" s="8" t="s">
         <v>58</v>
@@ -10649,7 +12252,7 @@
         <v>163</v>
       </c>
       <c r="CF5" s="17" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="CG5" s="4" t="s">
         <v>85</v>
@@ -10673,13 +12276,13 @@
         <v>96</v>
       </c>
       <c r="CN5" s="16" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="CO5" s="15" t="s">
         <v>93</v>
       </c>
       <c r="CP5" s="1" t="s">
-        <v>424</v>
+        <v>409</v>
       </c>
       <c r="CQ5" s="7" t="s">
         <v>87</v>
@@ -10693,7 +12296,7 @@
     </row>
     <row r="6" spans="1:97" s="1" customFormat="1" ht="150" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>51</v>
@@ -10705,34 +12308,34 @@
         <v>53</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="F6" s="17" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="H6" s="17" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="I6" s="17" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="K6" s="1" t="s">
         <v>56</v>
       </c>
       <c r="L6" s="64" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="N6" s="66" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="O6" s="8" t="s">
         <v>58</v>
@@ -10942,7 +12545,7 @@
         <v>163</v>
       </c>
       <c r="CF6" s="17" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="CG6" s="4" t="s">
         <v>85</v>
@@ -10966,13 +12569,13 @@
         <v>96</v>
       </c>
       <c r="CN6" s="16" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="CO6" s="15" t="s">
         <v>93</v>
       </c>
       <c r="CP6" s="1" t="s">
-        <v>425</v>
+        <v>410</v>
       </c>
       <c r="CQ6" s="7" t="s">
         <v>87</v>
@@ -10986,7 +12589,7 @@
     </row>
     <row r="7" spans="1:97" s="1" customFormat="1" ht="150" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>51</v>
@@ -10998,34 +12601,34 @@
         <v>53</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="F7" s="17" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="H7" s="17" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="I7" s="17" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="K7" s="1" t="s">
         <v>56</v>
       </c>
       <c r="L7" s="64" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="N7" s="66" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="O7" s="8" t="s">
         <v>58</v>
@@ -11235,7 +12838,7 @@
         <v>163</v>
       </c>
       <c r="CF7" s="17" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="CG7" s="4" t="s">
         <v>85</v>
@@ -11259,13 +12862,13 @@
         <v>96</v>
       </c>
       <c r="CN7" s="16" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="CO7" s="15" t="s">
         <v>93</v>
       </c>
       <c r="CP7" s="1" t="s">
-        <v>426</v>
+        <v>411</v>
       </c>
       <c r="CQ7" s="7" t="s">
         <v>87</v>
@@ -11279,7 +12882,7 @@
     </row>
     <row r="8" spans="1:97" s="1" customFormat="1" ht="150" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>51</v>
@@ -11291,34 +12894,34 @@
         <v>53</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="F8" s="17" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="H8" s="17" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="I8" s="17" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="K8" s="1" t="s">
         <v>56</v>
       </c>
       <c r="L8" s="64" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="N8" s="66" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="O8" s="8" t="s">
         <v>58</v>
@@ -11528,7 +13131,7 @@
         <v>163</v>
       </c>
       <c r="CF8" s="17" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="CG8" s="4" t="s">
         <v>85</v>
@@ -11552,13 +13155,13 @@
         <v>96</v>
       </c>
       <c r="CN8" s="16" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="CO8" s="15" t="s">
         <v>93</v>
       </c>
       <c r="CP8" s="1" t="s">
-        <v>427</v>
+        <v>412</v>
       </c>
       <c r="CQ8" s="7" t="s">
         <v>87</v>
@@ -11572,7 +13175,7 @@
     </row>
     <row r="9" spans="1:97" s="1" customFormat="1" ht="150" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>51</v>
@@ -11584,34 +13187,34 @@
         <v>53</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="F9" s="17" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="H9" s="17" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="I9" s="17" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="K9" s="1" t="s">
         <v>56</v>
       </c>
       <c r="L9" s="64" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="N9" s="66" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="O9" s="8" t="s">
         <v>58</v>
@@ -11821,7 +13424,7 @@
         <v>163</v>
       </c>
       <c r="CF9" s="17" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="CG9" s="4" t="s">
         <v>85</v>
@@ -11845,13 +13448,13 @@
         <v>96</v>
       </c>
       <c r="CN9" s="16" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="CO9" s="15" t="s">
         <v>93</v>
       </c>
       <c r="CP9" s="1" t="s">
-        <v>428</v>
+        <v>413</v>
       </c>
       <c r="CQ9" s="7" t="s">
         <v>87</v>
@@ -11865,7 +13468,7 @@
     </row>
     <row r="10" spans="1:97" s="1" customFormat="1" ht="150" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>51</v>
@@ -11877,34 +13480,34 @@
         <v>53</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="F10" s="17" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="H10" s="17" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="I10" s="17" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="K10" s="1" t="s">
         <v>56</v>
       </c>
       <c r="L10" s="64" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="N10" s="66" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="O10" s="8" t="s">
         <v>58</v>
@@ -12114,7 +13717,7 @@
         <v>163</v>
       </c>
       <c r="CF10" s="17" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="CG10" s="4" t="s">
         <v>85</v>
@@ -12138,13 +13741,13 @@
         <v>96</v>
       </c>
       <c r="CN10" s="16" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="CO10" s="15" t="s">
         <v>93</v>
       </c>
       <c r="CP10" s="1" t="s">
-        <v>429</v>
+        <v>414</v>
       </c>
       <c r="CQ10" s="7" t="s">
         <v>87</v>
@@ -12158,7 +13761,7 @@
     </row>
     <row r="11" spans="1:97" s="1" customFormat="1" ht="150" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>51</v>
@@ -12170,34 +13773,34 @@
         <v>53</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="F11" s="17" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="H11" s="17" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="I11" s="17" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="K11" s="1" t="s">
         <v>56</v>
       </c>
       <c r="L11" s="64" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="N11" s="66" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="O11" s="8" t="s">
         <v>58</v>
@@ -12407,7 +14010,7 @@
         <v>163</v>
       </c>
       <c r="CF11" s="17" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="CG11" s="4" t="s">
         <v>85</v>
@@ -12431,13 +14034,13 @@
         <v>96</v>
       </c>
       <c r="CN11" s="16" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="CO11" s="15" t="s">
         <v>93</v>
       </c>
       <c r="CP11" s="1" t="s">
-        <v>430</v>
+        <v>415</v>
       </c>
       <c r="CQ11" s="7" t="s">
         <v>87</v>
@@ -12471,6 +14074,76 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" customWidth="true" width="24.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="18.7109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="16.7109375" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="8.28515625" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="11.85546875" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="35" t="s">
+        <v>242</v>
+      </c>
+      <c r="E1" s="35" t="s">
+        <v>241</v>
+      </c>
+      <c r="F1" s="35" t="s">
+        <v>246</v>
+      </c>
+      <c r="G1" s="35" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="E2" s="36" t="s">
+        <v>248</v>
+      </c>
+      <c r="F2" s="15" t="s">
+        <v>203</v>
+      </c>
+      <c r="G2" s="15" t="s">
+        <v>247</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
   <dimension ref="A1:CQ2"/>
   <sheetViews>
@@ -12486,7 +14159,7 @@
   <sheetData>
     <row r="1" spans="1:95" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -12773,7 +14446,7 @@
     </row>
     <row r="2" spans="1:95" s="1" customFormat="1" ht="180" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>51</v>
@@ -12785,22 +14458,22 @@
         <v>53</v>
       </c>
       <c r="E2" s="8" t="s">
+        <v>238</v>
+      </c>
+      <c r="F2" s="17" t="s">
+        <v>240</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="H2" s="17" t="s">
+        <v>237</v>
+      </c>
+      <c r="I2" s="17" t="s">
+        <v>236</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>239</v>
-      </c>
-      <c r="F2" s="17" t="s">
-        <v>241</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="H2" s="17" t="s">
-        <v>238</v>
-      </c>
-      <c r="I2" s="17" t="s">
-        <v>237</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>240</v>
       </c>
       <c r="K2" s="1" t="s">
         <v>56</v>
@@ -12809,7 +14482,7 @@
         <v>57</v>
       </c>
       <c r="M2" s="8" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="N2" s="9" t="s">
         <v>97</v>
@@ -13016,7 +14689,7 @@
         <v>163</v>
       </c>
       <c r="CD2" s="17" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="CE2" s="4" t="s">
         <v>85</v>
@@ -13046,7 +14719,7 @@
         <v>93</v>
       </c>
       <c r="CN2" s="1" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="CO2" s="7" t="s">
         <v>87</v>
@@ -13060,13 +14733,13 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="BB1:BH1">
-    <cfRule type="duplicateValues" dxfId="5" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
   <dimension ref="A1:CV2"/>
   <sheetViews>
@@ -13127,16 +14800,16 @@
         <v>10</v>
       </c>
       <c r="P1" s="19" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q1" s="19" t="s">
+        <v>235</v>
+      </c>
+      <c r="R1" s="19" t="s">
         <v>228</v>
       </c>
-      <c r="Q1" s="19" t="s">
-        <v>236</v>
-      </c>
-      <c r="R1" s="19" t="s">
+      <c r="S1" s="19" t="s">
         <v>229</v>
-      </c>
-      <c r="S1" s="19" t="s">
-        <v>230</v>
       </c>
       <c r="T1" s="22" t="s">
         <v>11</v>
@@ -13355,7 +15028,7 @@
         <v>92</v>
       </c>
       <c r="CN1" s="26" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="CO1" s="26" t="s">
         <v>91</v>
@@ -13393,31 +15066,31 @@
         <v>53</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="E2" s="17" t="s">
+        <v>224</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="G2" s="17" t="s">
+        <v>225</v>
+      </c>
+      <c r="H2" s="17" t="s">
+        <v>245</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="E2" s="17" t="s">
-        <v>225</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="G2" s="17" t="s">
+      <c r="J2" s="1" t="s">
         <v>226</v>
-      </c>
-      <c r="H2" s="17" t="s">
-        <v>246</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>227</v>
       </c>
       <c r="K2" s="1" t="s">
         <v>57</v>
       </c>
       <c r="L2" s="8" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="M2" s="9" t="s">
         <v>97</v>
@@ -13429,16 +15102,16 @@
         <v>61</v>
       </c>
       <c r="P2" s="9" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="Q2" s="9" t="s">
         <v>98</v>
       </c>
       <c r="R2" s="9" t="s">
+        <v>231</v>
+      </c>
+      <c r="S2" s="9" t="s">
         <v>232</v>
-      </c>
-      <c r="S2" s="9" t="s">
-        <v>233</v>
       </c>
       <c r="T2" s="9" t="s">
         <v>59</v>
@@ -13657,7 +15330,7 @@
         <v>89</v>
       </c>
       <c r="CN2" s="15" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="CO2" s="16" t="s">
         <v>94</v>
@@ -13683,13 +15356,13 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="BE1:BK1">
-    <cfRule type="duplicateValues" dxfId="4" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
   <dimension ref="A1:CU2"/>
   <sheetViews>
@@ -13753,7 +15426,7 @@
         <v>10</v>
       </c>
       <c r="P1" s="38" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="Q1" s="42" t="s">
         <v>11</v>
@@ -13804,7 +15477,7 @@
         <v>26</v>
       </c>
       <c r="AG1" s="44" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="AH1" s="44" t="s">
         <v>27</v>
@@ -13843,16 +15516,16 @@
         <v>38</v>
       </c>
       <c r="AT1" s="44" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="AU1" s="44" t="s">
         <v>39</v>
       </c>
       <c r="AV1" s="44" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="AW1" s="44" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="AX1" s="44" t="s">
         <v>40</v>
@@ -14016,31 +15689,31 @@
         <v>53</v>
       </c>
       <c r="D2" s="8" t="s">
+        <v>263</v>
+      </c>
+      <c r="E2" s="17" t="s">
         <v>264</v>
       </c>
-      <c r="E2" s="17" t="s">
+      <c r="F2" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="G2" s="17" t="s">
+        <v>237</v>
+      </c>
+      <c r="H2" s="17" t="s">
+        <v>236</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="G2" s="17" t="s">
-        <v>238</v>
-      </c>
-      <c r="H2" s="17" t="s">
-        <v>237</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>266</v>
-      </c>
       <c r="J2" s="1" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="K2" s="1" t="s">
         <v>57</v>
       </c>
       <c r="L2" s="8" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="M2" s="9" t="s">
         <v>97</v>
@@ -14052,7 +15725,7 @@
         <v>61</v>
       </c>
       <c r="P2" s="9" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="Q2" s="9" t="s">
         <v>59</v>
@@ -14148,10 +15821,10 @@
         <v>80</v>
       </c>
       <c r="AV2" s="10" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="AW2" s="10" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="AX2" s="11" t="s">
         <v>83</v>
@@ -14286,7 +15959,7 @@
         <v>96</v>
       </c>
       <c r="CP2" s="16" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="CQ2" s="15" t="s">
         <v>93</v>
@@ -14306,13 +15979,13 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="BF1:BL1">
-    <cfRule type="duplicateValues" dxfId="3" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCA4D2C6-261D-4A7D-B960-A3162D669DB0}">
   <dimension ref="A1:CV2"/>
   <sheetViews>
@@ -14375,16 +16048,16 @@
         <v>10</v>
       </c>
       <c r="P1" s="19" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q1" s="19" t="s">
+        <v>235</v>
+      </c>
+      <c r="R1" s="19" t="s">
         <v>228</v>
       </c>
-      <c r="Q1" s="19" t="s">
-        <v>236</v>
-      </c>
-      <c r="R1" s="19" t="s">
+      <c r="S1" s="19" t="s">
         <v>229</v>
-      </c>
-      <c r="S1" s="19" t="s">
-        <v>230</v>
       </c>
       <c r="T1" s="22" t="s">
         <v>11</v>
@@ -14603,7 +16276,7 @@
         <v>92</v>
       </c>
       <c r="CN1" s="26" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="CO1" s="26" t="s">
         <v>91</v>
@@ -14641,31 +16314,31 @@
         <v>53</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="E2" s="17" t="s">
+        <v>224</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="G2" s="17" t="s">
+        <v>225</v>
+      </c>
+      <c r="H2" s="17" t="s">
+        <v>245</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="E2" s="17" t="s">
-        <v>225</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="G2" s="17" t="s">
-        <v>226</v>
-      </c>
-      <c r="H2" s="17" t="s">
-        <v>246</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>224</v>
-      </c>
       <c r="J2" s="1" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="K2" s="1" t="s">
         <v>57</v>
       </c>
       <c r="L2" s="8" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="M2" s="9" t="s">
         <v>97</v>
@@ -14677,16 +16350,16 @@
         <v>61</v>
       </c>
       <c r="P2" s="9" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="Q2" s="9" t="s">
         <v>98</v>
       </c>
       <c r="R2" s="9" t="s">
+        <v>231</v>
+      </c>
+      <c r="S2" s="9" t="s">
         <v>232</v>
-      </c>
-      <c r="S2" s="9" t="s">
-        <v>233</v>
       </c>
       <c r="T2" s="9" t="s">
         <v>59</v>
@@ -14905,22 +16578,22 @@
         <v>89</v>
       </c>
       <c r="CN2" s="15" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="CO2" s="57" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="CP2" s="15" t="s">
         <v>96</v>
       </c>
       <c r="CQ2" s="57" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="CR2" s="15" t="s">
         <v>93</v>
       </c>
       <c r="CS2" s="1" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="CT2" s="7" t="s">
         <v>87</v>
@@ -14931,1670 +16604,9 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="BE1:BK1">
-    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16ADFDC9-E8FB-45FB-A949-A1A72F8FEBC7}">
-  <dimension ref="A1:DC5"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="166" zoomScaleNormal="166" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="4" max="4" customWidth="true" width="28.0"/>
-    <col min="7" max="7" customWidth="true" width="17.0"/>
-    <col min="11" max="11" customWidth="true" width="34.42578125"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="12.140625" collapsed="true"/>
-    <col min="56" max="57" customWidth="true" width="27.42578125"/>
-    <col min="58" max="58" customWidth="true" width="24.7109375"/>
-    <col min="59" max="59" customWidth="true" width="27.42578125"/>
-    <col min="100" max="100" customWidth="true" width="37.28515625" collapsed="true"/>
-    <col min="101" max="101" customWidth="true" width="42.140625" collapsed="true"/>
-    <col min="102" max="102" customWidth="true" width="92.140625" collapsed="true"/>
-    <col min="103" max="103" customWidth="true" width="28.0" collapsed="true"/>
-    <col min="104" max="104" bestFit="true" customWidth="true" width="10.58984375" collapsed="true"/>
-    <col min="106" max="106" bestFit="true" customWidth="true" width="8.8046875" collapsed="true"/>
-    <col min="107" max="107" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:107" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="20" t="s">
-        <v>173</v>
-      </c>
-      <c r="F1" s="30" t="s">
-        <v>168</v>
-      </c>
-      <c r="G1" s="20" t="s">
-        <v>177</v>
-      </c>
-      <c r="H1" s="20" t="s">
-        <v>169</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>339</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>341</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="P1" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q1" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="R1" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="S1" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="T1" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="U1" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>316</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>315</v>
-      </c>
-      <c r="AB1" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="AC1" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="AD1" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="AE1" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="AF1" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="AG1" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="AH1" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="AI1" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="AJ1" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="AK1" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="AL1" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="AM1" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="AN1" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="AO1" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="AP1" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="AQ1" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="AR1" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="AS1" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="AT1" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="AU1" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="AV1" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="AW1" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="AX1" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="AY1" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="AZ1" s="6" t="s">
-        <v>336</v>
-      </c>
-      <c r="BA1" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="BB1" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="BC1" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="BD1" s="61" t="s">
-        <v>326</v>
-      </c>
-      <c r="BE1" s="61" t="s">
-        <v>414</v>
-      </c>
-      <c r="BF1" s="61" t="s">
-        <v>327</v>
-      </c>
-      <c r="BG1" s="61" t="s">
-        <v>328</v>
-      </c>
-      <c r="BH1" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="BI1" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="BJ1" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="BK1" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="BL1" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="BM1" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="BN1" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="BO1" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="BP1" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="BQ1" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="BR1" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="BS1" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="BT1" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="BU1" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="BV1" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="BW1" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="BX1" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="BY1" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="BZ1" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="CA1" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="CB1" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="CC1" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="CD1" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="CE1" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="CF1" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="CG1" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="CH1" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="CI1" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="CJ1" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="CK1" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="CL1" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="CM1" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="CN1" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="CO1" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="CP1" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="CQ1" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="CR1" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="CS1" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="CT1" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="CU1" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="CV1" s="4" t="s">
-        <v>320</v>
-      </c>
-      <c r="CW1" s="14" t="s">
-        <v>90</v>
-      </c>
-      <c r="CX1" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="CY1" s="17" t="s">
-        <v>95</v>
-      </c>
-      <c r="CZ1" t="s" s="0">
-        <v>48</v>
-      </c>
-      <c r="DA1" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="DB1" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="DC1" s="1" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="2" spans="1:107" s="1" customFormat="1" ht="90" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="E2" s="17" t="s">
-        <v>225</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="G2" s="17" t="s">
-        <v>226</v>
-      </c>
-      <c r="H2" s="17" t="s">
-        <v>246</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="K2" s="64" t="s">
-        <v>334</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>335</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="O2" s="8" t="s">
-        <v>297</v>
-      </c>
-      <c r="P2" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="Q2" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="R2" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="S2" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="T2" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="U2" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="V2" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="W2" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="X2" s="17" t="s">
-        <v>163</v>
-      </c>
-      <c r="Y2" s="17" t="s">
-        <v>317</v>
-      </c>
-      <c r="Z2" s="58" t="s">
-        <v>318</v>
-      </c>
-      <c r="AA2" s="59" t="s">
-        <v>319</v>
-      </c>
-      <c r="AB2" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="AC2" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="AD2" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="AE2" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="AF2" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="AG2" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="AH2" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="AI2" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="AJ2" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="AK2" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="AL2" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="AM2" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="AN2" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="AO2" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="AP2" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="AQ2" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="AR2" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="AS2" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="AT2" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="AU2" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="AV2" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="AW2" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="AX2" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="AY2" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="AZ2" s="10" t="s">
-        <v>337</v>
-      </c>
-      <c r="BA2" s="62" t="s">
-        <v>319</v>
-      </c>
-      <c r="BB2" s="63" t="s">
-        <v>333</v>
-      </c>
-      <c r="BC2" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="BD2" s="60" t="s">
-        <v>330</v>
-      </c>
-      <c r="BE2" s="60" t="s">
-        <v>415</v>
-      </c>
-      <c r="BF2" s="60" t="s">
-        <v>329</v>
-      </c>
-      <c r="BG2" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="BH2" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="BI2" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="BJ2" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="BK2" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="BL2" s="17" t="s">
-        <v>165</v>
-      </c>
-      <c r="BM2" s="17" t="s">
-        <v>137</v>
-      </c>
-      <c r="BN2" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="BO2" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="BP2" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="BQ2" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="BR2" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="BS2" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="BT2" s="17" t="s">
-        <v>144</v>
-      </c>
-      <c r="BU2" s="17" t="s">
-        <v>145</v>
-      </c>
-      <c r="BV2" s="17" t="s">
-        <v>146</v>
-      </c>
-      <c r="BW2" s="17" t="s">
-        <v>147</v>
-      </c>
-      <c r="BX2" s="17" t="s">
-        <v>148</v>
-      </c>
-      <c r="BY2" s="17" t="s">
-        <v>149</v>
-      </c>
-      <c r="BZ2" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="CA2" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="CB2" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="CC2" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="CD2" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="CE2" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="CF2" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="CG2" s="17" t="s">
-        <v>156</v>
-      </c>
-      <c r="CH2" s="17" t="s">
-        <v>157</v>
-      </c>
-      <c r="CI2" s="17" t="s">
-        <v>158</v>
-      </c>
-      <c r="CJ2" s="17" t="s">
-        <v>159</v>
-      </c>
-      <c r="CK2" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="CL2" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="CM2" s="17" t="s">
-        <v>162</v>
-      </c>
-      <c r="CN2" s="17" t="s">
-        <v>163</v>
-      </c>
-      <c r="CO2" s="17" t="s">
-        <v>304</v>
-      </c>
-      <c r="CP2" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="CQ2" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="CR2" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="CS2" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="CT2" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="CU2" s="16" t="s">
-        <v>89</v>
-      </c>
-      <c r="CV2" s="16" t="s">
-        <v>321</v>
-      </c>
-      <c r="CW2" s="15" t="s">
-        <v>96</v>
-      </c>
-      <c r="CX2" s="57" t="s">
-        <v>309</v>
-      </c>
-      <c r="CY2" s="15" t="s">
-        <v>93</v>
-      </c>
-      <c r="CZ2" t="s" s="0">
-        <v>417</v>
-      </c>
-      <c r="DA2" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="DB2" t="s" s="0">
-        <v>166</v>
-      </c>
-      <c r="DC2" t="s" s="0">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="3" spans="1:107" s="1" customFormat="1" ht="90" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>264</v>
-      </c>
-      <c r="E3" s="17" t="s">
-        <v>265</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="G3" s="17" t="s">
-        <v>238</v>
-      </c>
-      <c r="H3" s="17" t="s">
-        <v>237</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="K3" s="64" t="s">
-        <v>334</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>335</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="O3" s="8" t="s">
-        <v>297</v>
-      </c>
-      <c r="P3" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="Q3" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="R3" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="S3" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="T3" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="U3" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="V3" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="W3" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="X3" s="17" t="s">
-        <v>163</v>
-      </c>
-      <c r="Y3" s="17" t="s">
-        <v>317</v>
-      </c>
-      <c r="Z3" s="58" t="s">
-        <v>318</v>
-      </c>
-      <c r="AA3" s="59" t="s">
-        <v>319</v>
-      </c>
-      <c r="AB3" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="AC3" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="AD3" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="AE3" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="AF3" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="AG3" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="AH3" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="AI3" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="AJ3" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="AK3" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="AL3" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="AM3" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="AN3" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="AO3" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="AP3" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="AQ3" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="AR3" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="AS3" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="AT3" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="AU3" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="AV3" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="AW3" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="AX3" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="AY3" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="AZ3" s="10" t="s">
-        <v>337</v>
-      </c>
-      <c r="BA3" s="62" t="s">
-        <v>319</v>
-      </c>
-      <c r="BB3" s="63" t="s">
-        <v>333</v>
-      </c>
-      <c r="BC3" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="BD3" s="60" t="s">
-        <v>330</v>
-      </c>
-      <c r="BE3" s="60" t="s">
-        <v>415</v>
-      </c>
-      <c r="BF3" s="60" t="s">
-        <v>329</v>
-      </c>
-      <c r="BG3" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="BH3" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="BI3" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="BJ3" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="BK3" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="BL3" s="17" t="s">
-        <v>165</v>
-      </c>
-      <c r="BM3" s="17" t="s">
-        <v>137</v>
-      </c>
-      <c r="BN3" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="BO3" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="BP3" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="BQ3" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="BR3" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="BS3" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="BT3" s="17" t="s">
-        <v>144</v>
-      </c>
-      <c r="BU3" s="17" t="s">
-        <v>145</v>
-      </c>
-      <c r="BV3" s="17" t="s">
-        <v>146</v>
-      </c>
-      <c r="BW3" s="17" t="s">
-        <v>147</v>
-      </c>
-      <c r="BX3" s="17" t="s">
-        <v>148</v>
-      </c>
-      <c r="BY3" s="17" t="s">
-        <v>149</v>
-      </c>
-      <c r="BZ3" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="CA3" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="CB3" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="CC3" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="CD3" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="CE3" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="CF3" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="CG3" s="17" t="s">
-        <v>156</v>
-      </c>
-      <c r="CH3" s="17" t="s">
-        <v>157</v>
-      </c>
-      <c r="CI3" s="17" t="s">
-        <v>158</v>
-      </c>
-      <c r="CJ3" s="17" t="s">
-        <v>159</v>
-      </c>
-      <c r="CK3" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="CL3" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="CM3" s="17" t="s">
-        <v>162</v>
-      </c>
-      <c r="CN3" s="17" t="s">
-        <v>163</v>
-      </c>
-      <c r="CO3" s="17" t="s">
-        <v>304</v>
-      </c>
-      <c r="CP3" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="CQ3" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="CR3" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="CS3" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="CT3" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="CU3" s="16" t="s">
-        <v>89</v>
-      </c>
-      <c r="CV3" s="16" t="s">
-        <v>321</v>
-      </c>
-      <c r="CW3" s="15" t="s">
-        <v>96</v>
-      </c>
-      <c r="CX3" s="57" t="s">
-        <v>309</v>
-      </c>
-      <c r="CY3" s="15" t="s">
-        <v>93</v>
-      </c>
-      <c r="CZ3" t="s" s="0">
-        <v>418</v>
-      </c>
-      <c r="DA3" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="DB3" t="s" s="0">
-        <v>166</v>
-      </c>
-      <c r="DC3" t="s" s="0">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="4" spans="1:107" ht="90" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>262</v>
-      </c>
-      <c r="E4" s="17" t="s">
-        <v>175</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="G4" s="17" t="s">
-        <v>238</v>
-      </c>
-      <c r="H4" s="17" t="s">
-        <v>268</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="K4" s="64" t="s">
-        <v>334</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>335</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="N4" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="O4" s="8" t="s">
-        <v>297</v>
-      </c>
-      <c r="P4" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="Q4" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="R4" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="S4" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="T4" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="U4" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="V4" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="W4" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="X4" s="17" t="s">
-        <v>163</v>
-      </c>
-      <c r="Y4" s="17" t="s">
-        <v>317</v>
-      </c>
-      <c r="Z4" s="58" t="s">
-        <v>318</v>
-      </c>
-      <c r="AA4" s="59" t="s">
-        <v>319</v>
-      </c>
-      <c r="AB4" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="AC4" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="AD4" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="AE4" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="AF4" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="AG4" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="AH4" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="AI4" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="AJ4" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="AK4" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="AL4" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="AM4" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="AN4" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="AO4" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="AP4" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="AQ4" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="AR4" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="AS4" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="AT4" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="AU4" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="AV4" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="AW4" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="AX4" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="AY4" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="AZ4" s="10" t="s">
-        <v>337</v>
-      </c>
-      <c r="BA4" s="62" t="s">
-        <v>319</v>
-      </c>
-      <c r="BB4" s="63" t="s">
-        <v>333</v>
-      </c>
-      <c r="BC4" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="BD4" s="60" t="s">
-        <v>330</v>
-      </c>
-      <c r="BE4" s="60" t="s">
-        <v>415</v>
-      </c>
-      <c r="BF4" s="60" t="s">
-        <v>329</v>
-      </c>
-      <c r="BG4" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="BH4" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="BI4" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="BJ4" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="BK4" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="BL4" s="17" t="s">
-        <v>165</v>
-      </c>
-      <c r="BM4" s="17" t="s">
-        <v>137</v>
-      </c>
-      <c r="BN4" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="BO4" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="BP4" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="BQ4" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="BR4" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="BS4" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="BT4" s="17" t="s">
-        <v>144</v>
-      </c>
-      <c r="BU4" s="17" t="s">
-        <v>145</v>
-      </c>
-      <c r="BV4" s="17" t="s">
-        <v>146</v>
-      </c>
-      <c r="BW4" s="17" t="s">
-        <v>147</v>
-      </c>
-      <c r="BX4" s="17" t="s">
-        <v>148</v>
-      </c>
-      <c r="BY4" s="17" t="s">
-        <v>149</v>
-      </c>
-      <c r="BZ4" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="CA4" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="CB4" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="CC4" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="CD4" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="CE4" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="CF4" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="CG4" s="17" t="s">
-        <v>156</v>
-      </c>
-      <c r="CH4" s="17" t="s">
-        <v>157</v>
-      </c>
-      <c r="CI4" s="17" t="s">
-        <v>158</v>
-      </c>
-      <c r="CJ4" s="17" t="s">
-        <v>159</v>
-      </c>
-      <c r="CK4" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="CL4" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="CM4" s="17" t="s">
-        <v>162</v>
-      </c>
-      <c r="CN4" s="17" t="s">
-        <v>163</v>
-      </c>
-      <c r="CO4" s="17" t="s">
-        <v>304</v>
-      </c>
-      <c r="CP4" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="CQ4" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="CR4" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="CS4" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="CT4" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="CU4" s="16" t="s">
-        <v>89</v>
-      </c>
-      <c r="CV4" s="16" t="s">
-        <v>321</v>
-      </c>
-      <c r="CW4" s="15" t="s">
-        <v>96</v>
-      </c>
-      <c r="CX4" s="57" t="s">
-        <v>309</v>
-      </c>
-      <c r="CY4" s="15" t="s">
-        <v>93</v>
-      </c>
-      <c r="CZ4" s="1" t="s">
-        <v>419</v>
-      </c>
-      <c r="DA4" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="DB4" t="s" s="0">
-        <v>166</v>
-      </c>
-      <c r="DC4" t="s" s="0">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="5" spans="1:107" s="1" customFormat="1" ht="90" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>239</v>
-      </c>
-      <c r="E5" s="17" t="s">
-        <v>241</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="G5" s="17" t="s">
-        <v>238</v>
-      </c>
-      <c r="H5" s="17" t="s">
-        <v>237</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="K5" s="64" t="s">
-        <v>334</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>335</v>
-      </c>
-      <c r="M5" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="N5" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="O5" s="8" t="s">
-        <v>297</v>
-      </c>
-      <c r="P5" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="Q5" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="R5" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="S5" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="T5" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="U5" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="V5" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="W5" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="X5" s="17" t="s">
-        <v>163</v>
-      </c>
-      <c r="Y5" s="17" t="s">
-        <v>317</v>
-      </c>
-      <c r="Z5" s="58" t="s">
-        <v>318</v>
-      </c>
-      <c r="AA5" s="59" t="s">
-        <v>319</v>
-      </c>
-      <c r="AB5" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="AC5" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="AD5" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="AE5" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="AF5" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="AG5" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="AH5" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="AI5" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="AJ5" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="AK5" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="AL5" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="AM5" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="AN5" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="AO5" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="AP5" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="AQ5" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="AR5" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="AS5" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="AT5" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="AU5" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="AV5" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="AW5" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="AX5" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="AY5" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="AZ5" s="10" t="s">
-        <v>337</v>
-      </c>
-      <c r="BA5" s="62" t="s">
-        <v>319</v>
-      </c>
-      <c r="BB5" s="63" t="s">
-        <v>333</v>
-      </c>
-      <c r="BC5" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="BD5" s="60" t="s">
-        <v>330</v>
-      </c>
-      <c r="BE5" s="60" t="s">
-        <v>415</v>
-      </c>
-      <c r="BF5" s="60" t="s">
-        <v>329</v>
-      </c>
-      <c r="BG5" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="BH5" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="BI5" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="BJ5" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="BK5" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="BL5" s="17" t="s">
-        <v>165</v>
-      </c>
-      <c r="BM5" s="17" t="s">
-        <v>137</v>
-      </c>
-      <c r="BN5" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="BO5" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="BP5" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="BQ5" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="BR5" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="BS5" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="BT5" s="17" t="s">
-        <v>144</v>
-      </c>
-      <c r="BU5" s="17" t="s">
-        <v>145</v>
-      </c>
-      <c r="BV5" s="17" t="s">
-        <v>146</v>
-      </c>
-      <c r="BW5" s="17" t="s">
-        <v>147</v>
-      </c>
-      <c r="BX5" s="17" t="s">
-        <v>148</v>
-      </c>
-      <c r="BY5" s="17" t="s">
-        <v>149</v>
-      </c>
-      <c r="BZ5" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="CA5" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="CB5" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="CC5" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="CD5" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="CE5" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="CF5" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="CG5" s="17" t="s">
-        <v>156</v>
-      </c>
-      <c r="CH5" s="17" t="s">
-        <v>157</v>
-      </c>
-      <c r="CI5" s="17" t="s">
-        <v>158</v>
-      </c>
-      <c r="CJ5" s="17" t="s">
-        <v>159</v>
-      </c>
-      <c r="CK5" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="CL5" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="CM5" s="17" t="s">
-        <v>162</v>
-      </c>
-      <c r="CN5" s="17" t="s">
-        <v>163</v>
-      </c>
-      <c r="CO5" s="17" t="s">
-        <v>304</v>
-      </c>
-      <c r="CP5" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="CQ5" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="CR5" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="CS5" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="CT5" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="CU5" s="16" t="s">
-        <v>89</v>
-      </c>
-      <c r="CV5" s="16" t="s">
-        <v>321</v>
-      </c>
-      <c r="CW5" s="15" t="s">
-        <v>96</v>
-      </c>
-      <c r="CX5" s="57" t="s">
-        <v>309</v>
-      </c>
-      <c r="CY5" s="15" t="s">
-        <v>93</v>
-      </c>
-      <c r="CZ5" t="s" s="0">
-        <v>420</v>
-      </c>
-      <c r="DA5" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="DB5" t="s" s="0">
-        <v>166</v>
-      </c>
-      <c r="DC5" t="s" s="0">
-        <v>166</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="6" type="noConversion"/>
-  <conditionalFormatting sqref="BM1:BS1">
-    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
-  </conditionalFormatting>
-  <hyperlinks>
-    <hyperlink ref="CX5" r:id="rId1" display="file:///C:/Users/agraway/eclipse-workspace/LifeSpeed-main/Files\sample.pdf" xr:uid="{6A5AE02A-0A2B-474F-A934-24EA1A047DED}"/>
-    <hyperlink ref="CX2" r:id="rId2" display="file:///C:/Users/agraway/eclipse-workspace/LifeSpeed-main/Files\sample.pdf" xr:uid="{AEB0F94D-0438-497B-9CD1-63DDFCC95600}"/>
-    <hyperlink ref="CX3" r:id="rId3" display="file:///C:/Users/agraway/eclipse-workspace/LifeSpeed-main/Files\sample.pdf" xr:uid="{D8485F00-6025-4992-A35E-4FBBEA38CB2B}"/>
-    <hyperlink ref="CX4" r:id="rId4" display="file:///C:/Users/agraway/eclipse-workspace/LifeSpeed-main/Files\sample.pdf" xr:uid="{29531029-94A3-4055-84D8-6AF386EC85AF}"/>
-    <hyperlink ref="K2" r:id="rId5" xr:uid="{721FA9B2-F109-405F-86F0-1EB4BC06ABA9}"/>
-    <hyperlink ref="K3" r:id="rId6" xr:uid="{753A28FB-2163-4294-ABD6-E13FD8457408}"/>
-    <hyperlink ref="K4" r:id="rId7" xr:uid="{2CB3386A-B778-4957-9DBE-71A4C8C1D272}"/>
-    <hyperlink ref="K5" r:id="rId8" xr:uid="{5CF1B7D3-ED9F-42CC-8969-22A1CC706343}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId9"/>
 </worksheet>
 </file>
 
@@ -16602,8 +16614,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13BD1E7E-8248-4D7A-843E-4E1DE3646C89}">
   <dimension ref="A1:DB11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+    <sheetView topLeftCell="BP1" workbookViewId="0">
+      <selection activeCell="CN2" sqref="CN2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16651,13 +16663,13 @@
         <v>5</v>
       </c>
       <c r="K1" s="19" t="s">
+        <v>337</v>
+      </c>
+      <c r="L1" s="19" t="s">
+        <v>338</v>
+      </c>
+      <c r="M1" s="19" t="s">
         <v>339</v>
-      </c>
-      <c r="L1" s="19" t="s">
-        <v>340</v>
-      </c>
-      <c r="M1" s="19" t="s">
-        <v>341</v>
       </c>
       <c r="N1" s="19" t="s">
         <v>6</v>
@@ -16690,16 +16702,16 @@
         <v>15</v>
       </c>
       <c r="X1" s="19" t="s">
+        <v>311</v>
+      </c>
+      <c r="Y1" s="19" t="s">
+        <v>312</v>
+      </c>
+      <c r="Z1" s="19" t="s">
+        <v>314</v>
+      </c>
+      <c r="AA1" s="19" t="s">
         <v>313</v>
-      </c>
-      <c r="Y1" s="19" t="s">
-        <v>314</v>
-      </c>
-      <c r="Z1" s="19" t="s">
-        <v>316</v>
-      </c>
-      <c r="AA1" s="19" t="s">
-        <v>315</v>
       </c>
       <c r="AB1" s="23" t="s">
         <v>16</v>
@@ -16774,7 +16786,7 @@
         <v>39</v>
       </c>
       <c r="AZ1" s="24" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="BA1" s="24" t="s">
         <v>40</v>
@@ -16786,13 +16798,13 @@
         <v>42</v>
       </c>
       <c r="BD1" s="67" t="s">
+        <v>324</v>
+      </c>
+      <c r="BE1" s="67" t="s">
+        <v>325</v>
+      </c>
+      <c r="BF1" s="67" t="s">
         <v>326</v>
-      </c>
-      <c r="BE1" s="67" t="s">
-        <v>327</v>
-      </c>
-      <c r="BF1" s="67" t="s">
-        <v>328</v>
       </c>
       <c r="BG1" s="22" t="s">
         <v>99</v>
@@ -16915,7 +16927,7 @@
         <v>92</v>
       </c>
       <c r="CU1" s="22" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="CV1" s="26" t="s">
         <v>90</v>
@@ -16950,40 +16962,40 @@
         <v>53</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="E2" s="17" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G2" s="17" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H2" s="17" t="s">
+        <v>352</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>356</v>
       </c>
-      <c r="I2" s="1" t="s">
-        <v>360</v>
-      </c>
       <c r="J2" s="1" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="K2" s="64" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="N2" s="1" t="s">
         <v>57</v>
       </c>
       <c r="O2" s="8" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="P2" s="9" t="s">
         <v>97</v>
@@ -17013,13 +17025,13 @@
         <v>163</v>
       </c>
       <c r="Y2" s="17" t="s">
+        <v>315</v>
+      </c>
+      <c r="Z2" s="58" t="s">
+        <v>316</v>
+      </c>
+      <c r="AA2" s="59" t="s">
         <v>317</v>
-      </c>
-      <c r="Z2" s="58" t="s">
-        <v>318</v>
-      </c>
-      <c r="AA2" s="59" t="s">
-        <v>319</v>
       </c>
       <c r="AB2" s="3" t="s">
         <v>64</v>
@@ -17094,25 +17106,25 @@
         <v>72</v>
       </c>
       <c r="AZ2" s="10" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="BA2" s="62" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="BB2" s="63" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="BC2" s="3" t="s">
         <v>75</v>
       </c>
       <c r="BD2" s="60" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="BE2" s="60" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="BF2" s="1" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="BG2" s="1" t="s">
         <v>133</v>
@@ -17214,7 +17226,7 @@
         <v>163</v>
       </c>
       <c r="CN2" s="17" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="CO2" s="4" t="s">
         <v>85</v>
@@ -17235,19 +17247,19 @@
         <v>89</v>
       </c>
       <c r="CU2" s="16" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="CV2" s="15" t="s">
         <v>96</v>
       </c>
       <c r="CW2" s="57" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="CX2" s="15" t="s">
         <v>93</v>
       </c>
       <c r="CY2" t="s" s="0">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="CZ2" s="7" t="s">
         <v>87</v>
@@ -17270,40 +17282,40 @@
         <v>53</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="E3" s="17" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G3" s="17" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H3" s="17" t="s">
+        <v>352</v>
+      </c>
+      <c r="I3" s="1" t="s">
         <v>356</v>
       </c>
-      <c r="I3" s="1" t="s">
-        <v>360</v>
-      </c>
       <c r="J3" s="1" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="K3" s="64" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="N3" s="1" t="s">
         <v>57</v>
       </c>
       <c r="O3" s="8" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="P3" s="9" t="s">
         <v>97</v>
@@ -17333,13 +17345,13 @@
         <v>163</v>
       </c>
       <c r="Y3" s="17" t="s">
+        <v>315</v>
+      </c>
+      <c r="Z3" s="58" t="s">
+        <v>316</v>
+      </c>
+      <c r="AA3" s="59" t="s">
         <v>317</v>
-      </c>
-      <c r="Z3" s="58" t="s">
-        <v>318</v>
-      </c>
-      <c r="AA3" s="59" t="s">
-        <v>319</v>
       </c>
       <c r="AB3" s="3" t="s">
         <v>64</v>
@@ -17414,25 +17426,25 @@
         <v>72</v>
       </c>
       <c r="AZ3" s="10" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="BA3" s="62" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="BB3" s="63" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="BC3" s="3" t="s">
         <v>75</v>
       </c>
       <c r="BD3" s="60" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="BE3" s="60" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="BF3" s="1" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="BG3" s="1" t="s">
         <v>133</v>
@@ -17534,7 +17546,7 @@
         <v>163</v>
       </c>
       <c r="CN3" s="17" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="CO3" s="4" t="s">
         <v>85</v>
@@ -17555,19 +17567,19 @@
         <v>89</v>
       </c>
       <c r="CU3" s="16" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="CV3" s="15" t="s">
         <v>96</v>
       </c>
       <c r="CW3" s="57" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="CX3" s="15" t="s">
         <v>93</v>
       </c>
       <c r="CY3" t="s" s="0">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="CZ3" s="7" t="s">
         <v>87</v>
@@ -17590,40 +17602,40 @@
         <v>53</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="E4" s="17" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G4" s="17" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H4" s="17" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="K4" s="64" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="N4" s="1" t="s">
         <v>57</v>
       </c>
       <c r="O4" s="8" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="P4" s="9" t="s">
         <v>97</v>
@@ -17653,13 +17665,13 @@
         <v>163</v>
       </c>
       <c r="Y4" s="17" t="s">
+        <v>315</v>
+      </c>
+      <c r="Z4" s="58" t="s">
+        <v>316</v>
+      </c>
+      <c r="AA4" s="59" t="s">
         <v>317</v>
-      </c>
-      <c r="Z4" s="58" t="s">
-        <v>318</v>
-      </c>
-      <c r="AA4" s="59" t="s">
-        <v>319</v>
       </c>
       <c r="AB4" s="3" t="s">
         <v>64</v>
@@ -17734,25 +17746,25 @@
         <v>72</v>
       </c>
       <c r="AZ4" s="10" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="BA4" s="62" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="BB4" s="63" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="BC4" s="3" t="s">
         <v>75</v>
       </c>
       <c r="BD4" s="60" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="BE4" s="60" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="BF4" s="1" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="BG4" s="1" t="s">
         <v>133</v>
@@ -17854,7 +17866,7 @@
         <v>163</v>
       </c>
       <c r="CN4" s="17" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="CO4" s="4" t="s">
         <v>85</v>
@@ -17875,19 +17887,19 @@
         <v>89</v>
       </c>
       <c r="CU4" s="16" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="CV4" s="15" t="s">
         <v>96</v>
       </c>
       <c r="CW4" s="57" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="CX4" s="15" t="s">
         <v>93</v>
       </c>
       <c r="CY4" t="s" s="0">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="CZ4" s="7" t="s">
         <v>87</v>
@@ -17910,40 +17922,40 @@
         <v>53</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="E5" s="17" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G5" s="17" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H5" s="17" t="s">
         <v>179</v>
       </c>
       <c r="I5" s="65" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="K5" s="64" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="N5" s="1" t="s">
         <v>57</v>
       </c>
       <c r="O5" s="8" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="P5" s="9" t="s">
         <v>97</v>
@@ -17973,13 +17985,13 @@
         <v>163</v>
       </c>
       <c r="Y5" s="17" t="s">
+        <v>315</v>
+      </c>
+      <c r="Z5" s="58" t="s">
+        <v>316</v>
+      </c>
+      <c r="AA5" s="59" t="s">
         <v>317</v>
-      </c>
-      <c r="Z5" s="58" t="s">
-        <v>318</v>
-      </c>
-      <c r="AA5" s="59" t="s">
-        <v>319</v>
       </c>
       <c r="AB5" s="3" t="s">
         <v>64</v>
@@ -18054,25 +18066,25 @@
         <v>72</v>
       </c>
       <c r="AZ5" s="10" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="BA5" s="62" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="BB5" s="63" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="BC5" s="3" t="s">
         <v>75</v>
       </c>
       <c r="BD5" s="60" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="BE5" s="60" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="BF5" s="1" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="BG5" s="1" t="s">
         <v>133</v>
@@ -18174,7 +18186,7 @@
         <v>163</v>
       </c>
       <c r="CN5" s="17" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="CO5" s="4" t="s">
         <v>85</v>
@@ -18195,19 +18207,19 @@
         <v>89</v>
       </c>
       <c r="CU5" s="16" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="CV5" s="15" t="s">
         <v>96</v>
       </c>
       <c r="CW5" s="57" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="CX5" s="15" t="s">
         <v>93</v>
       </c>
       <c r="CY5" t="s" s="0">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="CZ5" s="7" t="s">
         <v>87</v>
@@ -18230,40 +18242,40 @@
         <v>53</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="E6" s="17" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G6" s="17" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H6" s="17" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="K6" s="64" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="N6" s="1" t="s">
         <v>57</v>
       </c>
       <c r="O6" s="8" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="P6" s="9" t="s">
         <v>97</v>
@@ -18293,13 +18305,13 @@
         <v>163</v>
       </c>
       <c r="Y6" s="17" t="s">
+        <v>315</v>
+      </c>
+      <c r="Z6" s="58" t="s">
+        <v>316</v>
+      </c>
+      <c r="AA6" s="59" t="s">
         <v>317</v>
-      </c>
-      <c r="Z6" s="58" t="s">
-        <v>318</v>
-      </c>
-      <c r="AA6" s="59" t="s">
-        <v>319</v>
       </c>
       <c r="AB6" s="3" t="s">
         <v>64</v>
@@ -18374,25 +18386,25 @@
         <v>72</v>
       </c>
       <c r="AZ6" s="10" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="BA6" s="62" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="BB6" s="63" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="BC6" s="3" t="s">
         <v>75</v>
       </c>
       <c r="BD6" s="60" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="BE6" s="60" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="BF6" s="1" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="BG6" s="1" t="s">
         <v>133</v>
@@ -18494,7 +18506,7 @@
         <v>163</v>
       </c>
       <c r="CN6" s="17" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="CO6" s="4" t="s">
         <v>85</v>
@@ -18515,19 +18527,19 @@
         <v>89</v>
       </c>
       <c r="CU6" s="16" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="CV6" s="15" t="s">
         <v>96</v>
       </c>
       <c r="CW6" s="57" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="CX6" s="15" t="s">
         <v>93</v>
       </c>
       <c r="CY6" t="s" s="0">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="CZ6" s="7" t="s">
         <v>87</v>
@@ -18550,40 +18562,40 @@
         <v>53</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="E7" s="17" t="s">
         <v>175</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G7" s="17" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H7" s="17" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="K7" s="64" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="N7" s="1" t="s">
         <v>57</v>
       </c>
       <c r="O7" s="8" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="P7" s="9" t="s">
         <v>97</v>
@@ -18613,13 +18625,13 @@
         <v>163</v>
       </c>
       <c r="Y7" s="17" t="s">
+        <v>315</v>
+      </c>
+      <c r="Z7" s="58" t="s">
+        <v>316</v>
+      </c>
+      <c r="AA7" s="59" t="s">
         <v>317</v>
-      </c>
-      <c r="Z7" s="58" t="s">
-        <v>318</v>
-      </c>
-      <c r="AA7" s="59" t="s">
-        <v>319</v>
       </c>
       <c r="AB7" s="3" t="s">
         <v>64</v>
@@ -18694,25 +18706,25 @@
         <v>72</v>
       </c>
       <c r="AZ7" s="10" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="BA7" s="62" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="BB7" s="63" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="BC7" s="3" t="s">
         <v>75</v>
       </c>
       <c r="BD7" s="60" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="BE7" s="60" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="BF7" s="1" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="BG7" s="1" t="s">
         <v>133</v>
@@ -18814,7 +18826,7 @@
         <v>163</v>
       </c>
       <c r="CN7" s="17" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="CO7" s="4" t="s">
         <v>85</v>
@@ -18835,19 +18847,19 @@
         <v>89</v>
       </c>
       <c r="CU7" s="16" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="CV7" s="15" t="s">
         <v>96</v>
       </c>
       <c r="CW7" s="57" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="CX7" s="15" t="s">
         <v>93</v>
       </c>
       <c r="CY7" t="s" s="0">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="CZ7" s="7" t="s">
         <v>87</v>
@@ -18870,40 +18882,40 @@
         <v>53</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="E8" s="17" t="s">
         <v>175</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G8" s="17" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H8" s="17" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="K8" s="64" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="N8" s="1" t="s">
         <v>57</v>
       </c>
       <c r="O8" s="8" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="P8" s="9" t="s">
         <v>97</v>
@@ -18933,13 +18945,13 @@
         <v>163</v>
       </c>
       <c r="Y8" s="17" t="s">
+        <v>315</v>
+      </c>
+      <c r="Z8" s="58" t="s">
+        <v>316</v>
+      </c>
+      <c r="AA8" s="59" t="s">
         <v>317</v>
-      </c>
-      <c r="Z8" s="58" t="s">
-        <v>318</v>
-      </c>
-      <c r="AA8" s="59" t="s">
-        <v>319</v>
       </c>
       <c r="AB8" s="3" t="s">
         <v>64</v>
@@ -19014,25 +19026,25 @@
         <v>72</v>
       </c>
       <c r="AZ8" s="10" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="BA8" s="62" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="BB8" s="63" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="BC8" s="3" t="s">
         <v>75</v>
       </c>
       <c r="BD8" s="60" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="BE8" s="60" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="BF8" s="1" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="BG8" s="1" t="s">
         <v>133</v>
@@ -19134,7 +19146,7 @@
         <v>163</v>
       </c>
       <c r="CN8" s="17" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="CO8" s="4" t="s">
         <v>85</v>
@@ -19155,19 +19167,19 @@
         <v>89</v>
       </c>
       <c r="CU8" s="16" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="CV8" s="15" t="s">
         <v>96</v>
       </c>
       <c r="CW8" s="57" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="CX8" s="15" t="s">
         <v>93</v>
       </c>
       <c r="CY8" t="s" s="0">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="CZ8" s="7" t="s">
         <v>87</v>
@@ -19190,40 +19202,40 @@
         <v>53</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="E9" s="17" t="s">
         <v>175</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G9" s="17" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H9" s="17" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="K9" s="64" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="N9" s="1" t="s">
         <v>57</v>
       </c>
       <c r="O9" s="8" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="P9" s="9" t="s">
         <v>97</v>
@@ -19253,13 +19265,13 @@
         <v>163</v>
       </c>
       <c r="Y9" s="17" t="s">
+        <v>315</v>
+      </c>
+      <c r="Z9" s="58" t="s">
+        <v>316</v>
+      </c>
+      <c r="AA9" s="59" t="s">
         <v>317</v>
-      </c>
-      <c r="Z9" s="58" t="s">
-        <v>318</v>
-      </c>
-      <c r="AA9" s="59" t="s">
-        <v>319</v>
       </c>
       <c r="AB9" s="3" t="s">
         <v>64</v>
@@ -19334,25 +19346,25 @@
         <v>72</v>
       </c>
       <c r="AZ9" s="10" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="BA9" s="62" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="BB9" s="63" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="BC9" s="3" t="s">
         <v>75</v>
       </c>
       <c r="BD9" s="60" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="BE9" s="60" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="BF9" s="1" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="BG9" s="1" t="s">
         <v>133</v>
@@ -19454,7 +19466,7 @@
         <v>163</v>
       </c>
       <c r="CN9" s="17" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="CO9" s="4" t="s">
         <v>85</v>
@@ -19475,19 +19487,19 @@
         <v>89</v>
       </c>
       <c r="CU9" s="16" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="CV9" s="15" t="s">
         <v>96</v>
       </c>
       <c r="CW9" s="57" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="CX9" s="15" t="s">
         <v>93</v>
       </c>
       <c r="CY9" t="s" s="0">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="CZ9" s="7" t="s">
         <v>87</v>
@@ -19510,40 +19522,40 @@
         <v>53</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="E10" s="17" t="s">
         <v>175</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G10" s="17" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H10" s="17" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="K10" s="64" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="N10" s="1" t="s">
         <v>57</v>
       </c>
       <c r="O10" s="8" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="P10" s="9" t="s">
         <v>97</v>
@@ -19573,13 +19585,13 @@
         <v>163</v>
       </c>
       <c r="Y10" s="17" t="s">
+        <v>315</v>
+      </c>
+      <c r="Z10" s="58" t="s">
+        <v>316</v>
+      </c>
+      <c r="AA10" s="59" t="s">
         <v>317</v>
-      </c>
-      <c r="Z10" s="58" t="s">
-        <v>318</v>
-      </c>
-      <c r="AA10" s="59" t="s">
-        <v>319</v>
       </c>
       <c r="AB10" s="3" t="s">
         <v>64</v>
@@ -19654,25 +19666,25 @@
         <v>72</v>
       </c>
       <c r="AZ10" s="10" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="BA10" s="62" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="BB10" s="63" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="BC10" s="3" t="s">
         <v>75</v>
       </c>
       <c r="BD10" s="60" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="BE10" s="60" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="BF10" s="1" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="BG10" s="1" t="s">
         <v>133</v>
@@ -19774,7 +19786,7 @@
         <v>163</v>
       </c>
       <c r="CN10" s="17" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="CO10" s="4" t="s">
         <v>85</v>
@@ -19795,19 +19807,19 @@
         <v>89</v>
       </c>
       <c r="CU10" s="16" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="CV10" s="15" t="s">
         <v>96</v>
       </c>
       <c r="CW10" s="57" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="CX10" s="15" t="s">
         <v>93</v>
       </c>
       <c r="CY10" t="s" s="0">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="CZ10" s="7" t="s">
         <v>87</v>
@@ -19830,40 +19842,40 @@
         <v>53</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E11" s="17" t="s">
         <v>175</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G11" s="17" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H11" s="17" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="K11" s="64" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="N11" s="1" t="s">
         <v>57</v>
       </c>
       <c r="O11" s="8" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="P11" s="9" t="s">
         <v>97</v>
@@ -19893,13 +19905,13 @@
         <v>163</v>
       </c>
       <c r="Y11" s="17" t="s">
+        <v>315</v>
+      </c>
+      <c r="Z11" s="58" t="s">
+        <v>316</v>
+      </c>
+      <c r="AA11" s="59" t="s">
         <v>317</v>
-      </c>
-      <c r="Z11" s="58" t="s">
-        <v>318</v>
-      </c>
-      <c r="AA11" s="59" t="s">
-        <v>319</v>
       </c>
       <c r="AB11" s="3" t="s">
         <v>64</v>
@@ -19974,25 +19986,25 @@
         <v>72</v>
       </c>
       <c r="AZ11" s="10" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="BA11" s="62" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="BB11" s="63" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="BC11" s="3" t="s">
         <v>75</v>
       </c>
       <c r="BD11" s="60" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="BE11" s="60" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="BF11" s="1" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="BG11" s="1" t="s">
         <v>133</v>
@@ -20094,7 +20106,7 @@
         <v>163</v>
       </c>
       <c r="CN11" s="17" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="CO11" s="4" t="s">
         <v>85</v>
@@ -20115,19 +20127,19 @@
         <v>89</v>
       </c>
       <c r="CU11" s="16" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="CV11" s="15" t="s">
         <v>96</v>
       </c>
       <c r="CW11" s="57" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="CX11" s="15" t="s">
         <v>93</v>
       </c>
       <c r="CY11" t="s" s="0">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="CZ11" s="7" t="s">
         <v>87</v>
@@ -20218,7 +20230,7 @@
         <v>168</v>
       </c>
       <c r="G1" s="30" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="H1" s="20" t="s">
         <v>177</v>
@@ -20248,10 +20260,10 @@
         <v>10</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="S1" s="4" t="s">
         <v>11</v>
@@ -20341,10 +20353,10 @@
         <v>39</v>
       </c>
       <c r="AV1" s="6" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="AW1" s="6" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="AX1" s="6" t="s">
         <v>40</v>
@@ -20356,13 +20368,13 @@
         <v>42</v>
       </c>
       <c r="BA1" s="61" t="s">
+        <v>324</v>
+      </c>
+      <c r="BB1" s="61" t="s">
+        <v>325</v>
+      </c>
+      <c r="BC1" s="61" t="s">
         <v>326</v>
-      </c>
-      <c r="BB1" s="61" t="s">
-        <v>327</v>
-      </c>
-      <c r="BC1" s="61" t="s">
-        <v>328</v>
       </c>
       <c r="BD1" s="4" t="s">
         <v>99</v>
@@ -20464,7 +20476,7 @@
         <v>131</v>
       </c>
       <c r="CK1" s="4" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="CL1" s="5" t="s">
         <v>43</v>
@@ -20517,28 +20529,28 @@
         <v>53</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E2" s="17" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>171</v>
       </c>
       <c r="H2" s="17" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="I2" s="17" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="L2" s="1" t="s">
         <v>57</v>
@@ -20556,7 +20568,7 @@
         <v>61</v>
       </c>
       <c r="Q2" s="9" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="R2" s="9" t="s">
         <v>60</v>
@@ -20649,28 +20661,28 @@
         <v>72</v>
       </c>
       <c r="AV2" s="10" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="AW2" s="10" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="AX2" s="62" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="AY2" s="62" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="AZ2" s="3" t="s">
         <v>75</v>
       </c>
       <c r="BA2" s="17" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="BB2" s="17" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="BC2" s="1" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="BD2" s="1" t="s">
         <v>133</v>
@@ -20796,13 +20808,13 @@
         <v>96</v>
       </c>
       <c r="CS2" s="16" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="CT2" s="15" t="s">
         <v>93</v>
       </c>
       <c r="CU2" s="1" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="CV2" s="7" t="s">
         <v>87</v>
@@ -20884,10 +20896,10 @@
         <v>9</v>
       </c>
       <c r="O1" s="51" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="P1" s="51" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="Q1" s="51" t="s">
         <v>10</v>
@@ -20980,10 +20992,10 @@
         <v>39</v>
       </c>
       <c r="AU1" s="24" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="AV1" s="24" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="AW1" s="24" t="s">
         <v>40</v>
@@ -21147,25 +21159,25 @@
         <v>53</v>
       </c>
       <c r="D2" s="8" t="s">
+        <v>238</v>
+      </c>
+      <c r="E2" s="17" t="s">
+        <v>240</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="G2" s="17" t="s">
+        <v>237</v>
+      </c>
+      <c r="H2" s="17" t="s">
+        <v>236</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="E2" s="17" t="s">
-        <v>241</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="G2" s="17" t="s">
-        <v>238</v>
-      </c>
-      <c r="H2" s="17" t="s">
-        <v>237</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>240</v>
-      </c>
       <c r="J2" s="1" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="K2" s="1" t="s">
         <v>57</v>
@@ -21180,10 +21192,10 @@
         <v>98</v>
       </c>
       <c r="O2" s="9" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="P2" s="9" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="Q2" s="9" t="s">
         <v>61</v>
@@ -21276,10 +21288,10 @@
         <v>72</v>
       </c>
       <c r="AU2" s="10" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="AV2" s="10" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="AW2" s="11" t="s">
         <v>83</v>
@@ -21390,7 +21402,7 @@
         <v>163</v>
       </c>
       <c r="CG2" s="17" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="CH2" s="4" t="s">
         <v>85</v>
@@ -21420,7 +21432,7 @@
         <v>93</v>
       </c>
       <c r="CQ2" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="CR2" s="7" t="s">
         <v>87</v>
@@ -21750,22 +21762,22 @@
         <v>53</v>
       </c>
       <c r="D2" s="8" t="s">
+        <v>263</v>
+      </c>
+      <c r="E2" s="17" t="s">
         <v>264</v>
       </c>
-      <c r="E2" s="17" t="s">
+      <c r="F2" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="G2" s="17" t="s">
+        <v>237</v>
+      </c>
+      <c r="H2" s="17" t="s">
+        <v>236</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>265</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="G2" s="17" t="s">
-        <v>238</v>
-      </c>
-      <c r="H2" s="17" t="s">
-        <v>237</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>266</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>56</v>
@@ -21774,7 +21786,7 @@
         <v>57</v>
       </c>
       <c r="L2" s="8" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="M2" s="9" t="s">
         <v>97</v>
@@ -21981,7 +21993,7 @@
         <v>163</v>
       </c>
       <c r="CC2" s="17" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="CD2" s="4" t="s">
         <v>85</v>
@@ -22011,7 +22023,7 @@
         <v>93</v>
       </c>
       <c r="CM2" s="1" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="CN2" s="7" t="s">
         <v>87</v>
@@ -22093,7 +22105,7 @@
         <v>10</v>
       </c>
       <c r="P1" s="38" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="Q1" s="42" t="s">
         <v>11</v>
@@ -22144,7 +22156,7 @@
         <v>26</v>
       </c>
       <c r="AG1" s="44" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="AH1" s="44" t="s">
         <v>27</v>
@@ -22183,16 +22195,16 @@
         <v>38</v>
       </c>
       <c r="AT1" s="44" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="AU1" s="44" t="s">
         <v>39</v>
       </c>
       <c r="AV1" s="44" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="AW1" s="44" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="AX1" s="44" t="s">
         <v>40</v>
@@ -22356,31 +22368,31 @@
         <v>53</v>
       </c>
       <c r="D2" s="8" t="s">
+        <v>263</v>
+      </c>
+      <c r="E2" s="17" t="s">
         <v>264</v>
       </c>
-      <c r="E2" s="17" t="s">
+      <c r="F2" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="G2" s="17" t="s">
+        <v>237</v>
+      </c>
+      <c r="H2" s="17" t="s">
+        <v>236</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="G2" s="17" t="s">
-        <v>238</v>
-      </c>
-      <c r="H2" s="17" t="s">
-        <v>237</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>266</v>
-      </c>
       <c r="J2" s="1" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="K2" s="1" t="s">
         <v>57</v>
       </c>
       <c r="L2" s="8" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="M2" s="9" t="s">
         <v>97</v>
@@ -22392,7 +22404,7 @@
         <v>61</v>
       </c>
       <c r="P2" s="9" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="Q2" s="9" t="s">
         <v>59</v>
@@ -22488,10 +22500,10 @@
         <v>80</v>
       </c>
       <c r="AV2" s="10" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="AW2" s="10" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="AX2" s="11" t="s">
         <v>83</v>
@@ -22632,7 +22644,7 @@
         <v>93</v>
       </c>
       <c r="CR2" s="1" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="CS2" s="7" t="s">
         <v>87</v>
@@ -22714,16 +22726,16 @@
         <v>10</v>
       </c>
       <c r="P1" s="19" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q1" s="19" t="s">
+        <v>235</v>
+      </c>
+      <c r="R1" s="19" t="s">
         <v>228</v>
       </c>
-      <c r="Q1" s="19" t="s">
-        <v>236</v>
-      </c>
-      <c r="R1" s="19" t="s">
+      <c r="S1" s="19" t="s">
         <v>229</v>
-      </c>
-      <c r="S1" s="19" t="s">
-        <v>230</v>
       </c>
       <c r="T1" s="22" t="s">
         <v>11</v>
@@ -22942,7 +22954,7 @@
         <v>92</v>
       </c>
       <c r="CN1" s="26" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="CO1" s="26" t="s">
         <v>91</v>
@@ -22980,25 +22992,25 @@
         <v>53</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="E2" s="17" t="s">
+        <v>224</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="G2" s="17" t="s">
+        <v>225</v>
+      </c>
+      <c r="H2" s="17" t="s">
+        <v>245</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="E2" s="17" t="s">
-        <v>225</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="G2" s="17" t="s">
-        <v>226</v>
-      </c>
-      <c r="H2" s="17" t="s">
-        <v>246</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>224</v>
-      </c>
       <c r="J2" s="1" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="K2" s="1" t="s">
         <v>57</v>
@@ -23016,16 +23028,16 @@
         <v>61</v>
       </c>
       <c r="P2" s="9" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="Q2" s="9" t="s">
         <v>98</v>
       </c>
       <c r="R2" s="9" t="s">
+        <v>231</v>
+      </c>
+      <c r="S2" s="9" t="s">
         <v>232</v>
-      </c>
-      <c r="S2" s="9" t="s">
-        <v>233</v>
       </c>
       <c r="T2" s="9" t="s">
         <v>59</v>
@@ -23244,7 +23256,7 @@
         <v>89</v>
       </c>
       <c r="CN2" s="15" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="CO2" s="16" t="s">
         <v>94</v>
@@ -23259,7 +23271,7 @@
         <v>93</v>
       </c>
       <c r="CS2" s="1" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="CT2" s="7" t="s">
         <v>87</v>
@@ -23336,7 +23348,7 @@
         <v>10</v>
       </c>
       <c r="P1" s="38" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="Q1" s="42" t="s">
         <v>11</v>
@@ -23387,7 +23399,7 @@
         <v>26</v>
       </c>
       <c r="AG1" s="44" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="AH1" s="44" t="s">
         <v>27</v>
@@ -23426,16 +23438,16 @@
         <v>38</v>
       </c>
       <c r="AT1" s="44" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="AU1" s="44" t="s">
         <v>39</v>
       </c>
       <c r="AV1" s="44" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="AW1" s="44" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="AX1" s="44" t="s">
         <v>40</v>
@@ -23599,31 +23611,31 @@
         <v>53</v>
       </c>
       <c r="D2" s="8" t="s">
+        <v>263</v>
+      </c>
+      <c r="E2" s="17" t="s">
         <v>264</v>
       </c>
-      <c r="E2" s="17" t="s">
+      <c r="F2" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="G2" s="17" t="s">
+        <v>237</v>
+      </c>
+      <c r="H2" s="17" t="s">
+        <v>236</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="G2" s="17" t="s">
-        <v>238</v>
-      </c>
-      <c r="H2" s="17" t="s">
-        <v>237</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>266</v>
-      </c>
       <c r="J2" s="1" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="K2" s="1" t="s">
         <v>57</v>
       </c>
       <c r="L2" s="8" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="M2" s="9" t="s">
         <v>97</v>
@@ -23635,7 +23647,7 @@
         <v>61</v>
       </c>
       <c r="P2" s="9" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="Q2" s="9" t="s">
         <v>59</v>
@@ -23731,10 +23743,10 @@
         <v>80</v>
       </c>
       <c r="AV2" s="10" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="AW2" s="10" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="AX2" s="11" t="s">
         <v>83</v>
@@ -23845,7 +23857,7 @@
         <v>163</v>
       </c>
       <c r="CH2" s="17" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="CI2" s="4" t="s">
         <v>85</v>
@@ -23875,7 +23887,7 @@
         <v>93</v>
       </c>
       <c r="CR2" s="1" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="CS2" s="7" t="s">
         <v>87</v>
@@ -23955,10 +23967,10 @@
         <v>10</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="R1" s="4" t="s">
         <v>11</v>
@@ -24209,25 +24221,25 @@
         <v>53</v>
       </c>
       <c r="D2" s="8" t="s">
+        <v>238</v>
+      </c>
+      <c r="E2" s="17" t="s">
+        <v>240</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="G2" s="17" t="s">
+        <v>237</v>
+      </c>
+      <c r="H2" s="17" t="s">
+        <v>236</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="E2" s="17" t="s">
-        <v>241</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="G2" s="17" t="s">
-        <v>238</v>
-      </c>
-      <c r="H2" s="17" t="s">
-        <v>237</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>240</v>
-      </c>
       <c r="J2" s="1" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="K2" s="1" t="s">
         <v>57</v>
@@ -24245,7 +24257,7 @@
         <v>61</v>
       </c>
       <c r="P2" s="9" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="Q2" s="9" t="s">
         <v>60</v>
@@ -24446,7 +24458,7 @@
         <v>163</v>
       </c>
       <c r="CE2" s="17" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="CF2" s="4" t="s">
         <v>85</v>
@@ -24476,7 +24488,7 @@
         <v>93</v>
       </c>
       <c r="CO2" s="1" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="CP2" s="7" t="s">
         <v>87</v>

--- a/src/test/java/testData/TestSuite1Data.xlsx
+++ b/src/test/java/testData/TestSuite1Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\agraway\Desktop\LifeSpeed-mainy\LifeSpeed-main\src\test\java\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66100A95-8C16-4E52-895E-6C10287032B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E65ED42B-6472-4F65-A7DE-C6BAE59345B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" firstSheet="11" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7118" uniqueCount="427">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7141" uniqueCount="445">
   <si>
     <t>Gateway_PartnerCode</t>
   </si>
@@ -1305,31 +1305,86 @@
     <t>PrCollected</t>
   </si>
   <si>
-    <t>533598</t>
-  </si>
-  <si>
-    <t>533604</t>
-  </si>
-  <si>
-    <t>533609</t>
-  </si>
-  <si>
-    <t>533649</t>
-  </si>
-  <si>
-    <t>533658</t>
-  </si>
-  <si>
-    <t>533665</t>
-  </si>
-  <si>
-    <t>533672</t>
-  </si>
-  <si>
-    <t>533679</t>
-  </si>
-  <si>
-    <t>533681</t>
+    <t>You have been successfully logged out.
+Please close this browser window.</t>
+  </si>
+  <si>
+    <t>TheCloseText</t>
+  </si>
+  <si>
+    <t>RoleChange</t>
+  </si>
+  <si>
+    <t>534012</t>
+  </si>
+  <si>
+    <t>RoleChangeSU</t>
+  </si>
+  <si>
+    <t>SU</t>
+  </si>
+  <si>
+    <t>534013</t>
+  </si>
+  <si>
+    <t>534019</t>
+  </si>
+  <si>
+    <t>534039</t>
+  </si>
+  <si>
+    <t>534043</t>
+  </si>
+  <si>
+    <t>534044</t>
+  </si>
+  <si>
+    <t>534047</t>
+  </si>
+  <si>
+    <t>534048</t>
+  </si>
+  <si>
+    <t>534049</t>
+  </si>
+  <si>
+    <t>534050</t>
+  </si>
+  <si>
+    <t>534051</t>
+  </si>
+  <si>
+    <t>534053</t>
+  </si>
+  <si>
+    <t>534054</t>
+  </si>
+  <si>
+    <t>534058</t>
+  </si>
+  <si>
+    <t>534061</t>
+  </si>
+  <si>
+    <t>534064</t>
+  </si>
+  <si>
+    <t>534068</t>
+  </si>
+  <si>
+    <t>534073</t>
+  </si>
+  <si>
+    <t>534074</t>
+  </si>
+  <si>
+    <t>534078</t>
+  </si>
+  <si>
+    <t>534082</t>
+  </si>
+  <si>
+    <t>534085</t>
   </si>
 </sst>
 </file>
@@ -1533,7 +1588,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1628,6 +1683,7 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -5187,10 +5243,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
-  <dimension ref="A1:DG2"/>
+  <dimension ref="A1:DJ2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BR1" workbookViewId="0">
-      <selection activeCell="CK16" sqref="CK16"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5199,20 +5255,21 @@
     <col min="8" max="8" customWidth="true" width="41.140625"/>
     <col min="9" max="9" customWidth="true" width="26.42578125" collapsed="true"/>
     <col min="10" max="10" customWidth="true" width="15.85546875" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="17.28515625" collapsed="true"/>
-    <col min="12" max="13" customWidth="true" width="17.28515625"/>
-    <col min="90" max="90" customWidth="true" width="17.7109375"/>
-    <col min="94" max="94" customWidth="true" width="15.5703125" collapsed="true"/>
-    <col min="98" max="98" bestFit="true" customWidth="true" width="9.5703125" collapsed="true"/>
-    <col min="102" max="102" bestFit="true" customWidth="true" width="9.5703125" collapsed="true"/>
-    <col min="107" max="107" customWidth="true" width="23.28515625" collapsed="true"/>
-    <col min="108" max="108" bestFit="true" customWidth="true" width="10.8515625" collapsed="true"/>
-    <col min="109" max="109" customWidth="true" width="21.5703125" collapsed="true"/>
-    <col min="110" max="110" bestFit="true" customWidth="true" width="9.140625" collapsed="true"/>
-    <col min="111" max="111" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="15.85546875"/>
+    <col min="12" max="12" customWidth="true" width="17.28515625" collapsed="true"/>
+    <col min="13" max="15" customWidth="true" width="17.28515625"/>
+    <col min="92" max="92" customWidth="true" width="17.7109375"/>
+    <col min="96" max="96" customWidth="true" width="15.5703125" collapsed="true"/>
+    <col min="100" max="100" bestFit="true" customWidth="true" width="9.5703125" collapsed="true"/>
+    <col min="104" max="104" bestFit="true" customWidth="true" width="9.5703125" collapsed="true"/>
+    <col min="110" max="110" customWidth="true" width="23.28515625" collapsed="true"/>
+    <col min="111" max="111" bestFit="true" customWidth="true" width="10.8515625" collapsed="true"/>
+    <col min="112" max="112" customWidth="true" width="21.5703125" collapsed="true"/>
+    <col min="113" max="113" bestFit="true" customWidth="true" width="9.203125" collapsed="true"/>
+    <col min="114" max="114" bestFit="true" customWidth="true" width="11.6953125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:111" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:114" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
@@ -5243,311 +5300,320 @@
       <c r="J1" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="30" t="s">
+      <c r="K1" s="70" t="s">
+        <v>422</v>
+      </c>
+      <c r="L1" s="30" t="s">
         <v>168</v>
       </c>
-      <c r="L1" s="68" t="s">
+      <c r="M1" s="68" t="s">
         <v>337</v>
       </c>
-      <c r="M1" s="68" t="s">
+      <c r="N1" s="68" t="s">
+        <v>420</v>
+      </c>
+      <c r="O1" s="68" t="s">
         <v>338</v>
       </c>
-      <c r="N1" s="19" t="s">
+      <c r="P1" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="O1" s="19" t="s">
+      <c r="Q1" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="P1" s="21" t="s">
+      <c r="R1" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="Q1" s="21" t="s">
+      <c r="S1" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="R1" s="21" t="s">
+      <c r="T1" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="S1" s="22" t="s">
+      <c r="U1" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="T1" s="22" t="s">
+      <c r="V1" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="U1" s="22" t="s">
+      <c r="W1" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="V1" s="19" t="s">
+      <c r="X1" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="W1" s="19" t="s">
+      <c r="Y1" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="X1" s="23" t="s">
+      <c r="Z1" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="Y1" s="24" t="s">
+      <c r="AA1" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="Z1" s="24" t="s">
+      <c r="AB1" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="AA1" s="24" t="s">
+      <c r="AC1" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="AB1" s="24" t="s">
+      <c r="AD1" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="AC1" s="24" t="s">
+      <c r="AE1" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="AD1" s="24" t="s">
+      <c r="AF1" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="AE1" s="24" t="s">
+      <c r="AG1" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="AF1" s="24" t="s">
+      <c r="AH1" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="AG1" s="24" t="s">
+      <c r="AI1" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="AH1" s="24" t="s">
+      <c r="AJ1" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="AI1" s="24" t="s">
+      <c r="AK1" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="AJ1" s="24" t="s">
+      <c r="AL1" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="AK1" s="24" t="s">
+      <c r="AM1" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="AL1" s="24" t="s">
+      <c r="AN1" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="AM1" s="24" t="s">
+      <c r="AO1" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="AN1" s="24" t="s">
+      <c r="AP1" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="AO1" s="24" t="s">
+      <c r="AQ1" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="AP1" s="24" t="s">
+      <c r="AR1" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="AQ1" s="24" t="s">
+      <c r="AS1" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="AR1" s="24" t="s">
+      <c r="AT1" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="AS1" s="24" t="s">
+      <c r="AU1" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="AT1" s="24" t="s">
+      <c r="AV1" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="AU1" s="24" t="s">
+      <c r="AW1" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="AV1" s="24" t="s">
+      <c r="AX1" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="AW1" s="24" t="s">
+      <c r="AY1" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="AX1" s="23" t="s">
+      <c r="AZ1" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="AY1" s="22" t="s">
+      <c r="BA1" s="22" t="s">
         <v>99</v>
       </c>
-      <c r="AZ1" s="22" t="s">
+      <c r="BB1" s="22" t="s">
         <v>100</v>
       </c>
-      <c r="BA1" s="22" t="s">
+      <c r="BC1" s="22" t="s">
         <v>101</v>
       </c>
-      <c r="BB1" s="22" t="s">
+      <c r="BD1" s="22" t="s">
         <v>102</v>
       </c>
-      <c r="BC1" s="22" t="s">
+      <c r="BE1" s="22" t="s">
         <v>103</v>
       </c>
-      <c r="BD1" s="22" t="s">
+      <c r="BF1" s="22" t="s">
         <v>104</v>
       </c>
-      <c r="BE1" s="22" t="s">
+      <c r="BG1" s="22" t="s">
         <v>105</v>
       </c>
-      <c r="BF1" s="22" t="s">
+      <c r="BH1" s="22" t="s">
         <v>106</v>
       </c>
-      <c r="BG1" s="22" t="s">
+      <c r="BI1" s="22" t="s">
         <v>107</v>
       </c>
-      <c r="BH1" s="22" t="s">
+      <c r="BJ1" s="22" t="s">
         <v>108</v>
       </c>
-      <c r="BI1" s="22" t="s">
+      <c r="BK1" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="BJ1" s="22" t="s">
+      <c r="BL1" s="22" t="s">
         <v>110</v>
       </c>
-      <c r="BK1" s="22" t="s">
+      <c r="BM1" s="22" t="s">
         <v>111</v>
       </c>
-      <c r="BL1" s="22" t="s">
+      <c r="BN1" s="22" t="s">
         <v>112</v>
       </c>
-      <c r="BM1" s="22" t="s">
+      <c r="BO1" s="22" t="s">
         <v>113</v>
       </c>
-      <c r="BN1" s="22" t="s">
+      <c r="BP1" s="22" t="s">
         <v>114</v>
       </c>
-      <c r="BO1" s="22" t="s">
+      <c r="BQ1" s="22" t="s">
         <v>115</v>
       </c>
-      <c r="BP1" s="22" t="s">
+      <c r="BR1" s="22" t="s">
         <v>116</v>
       </c>
-      <c r="BQ1" s="22" t="s">
+      <c r="BS1" s="22" t="s">
         <v>117</v>
       </c>
-      <c r="BR1" s="22" t="s">
+      <c r="BT1" s="22" t="s">
         <v>118</v>
       </c>
-      <c r="BS1" s="22" t="s">
+      <c r="BU1" s="22" t="s">
         <v>119</v>
       </c>
-      <c r="BT1" s="22" t="s">
+      <c r="BV1" s="22" t="s">
         <v>120</v>
       </c>
-      <c r="BU1" s="22" t="s">
+      <c r="BW1" s="22" t="s">
         <v>121</v>
       </c>
-      <c r="BV1" s="22" t="s">
+      <c r="BX1" s="22" t="s">
         <v>122</v>
       </c>
-      <c r="BW1" s="22" t="s">
+      <c r="BY1" s="22" t="s">
         <v>123</v>
       </c>
-      <c r="BX1" s="22" t="s">
+      <c r="BZ1" s="22" t="s">
         <v>124</v>
       </c>
-      <c r="BY1" s="22" t="s">
+      <c r="CA1" s="22" t="s">
         <v>125</v>
       </c>
-      <c r="BZ1" s="22" t="s">
+      <c r="CB1" s="22" t="s">
         <v>126</v>
       </c>
-      <c r="CA1" s="22" t="s">
+      <c r="CC1" s="22" t="s">
         <v>127</v>
       </c>
-      <c r="CB1" s="22" t="s">
+      <c r="CD1" s="22" t="s">
         <v>128</v>
       </c>
-      <c r="CC1" s="22" t="s">
+      <c r="CE1" s="22" t="s">
         <v>129</v>
       </c>
-      <c r="CD1" s="22" t="s">
+      <c r="CF1" s="22" t="s">
         <v>130</v>
       </c>
-      <c r="CE1" s="22" t="s">
+      <c r="CG1" s="22" t="s">
         <v>131</v>
       </c>
-      <c r="CF1" s="22" t="s">
+      <c r="CH1" s="22" t="s">
         <v>132</v>
       </c>
-      <c r="CG1" s="23" t="s">
+      <c r="CI1" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="CH1" s="23" t="s">
+      <c r="CJ1" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="CI1" s="23" t="s">
+      <c r="CK1" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="CJ1" s="21" t="s">
+      <c r="CL1" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="CK1" s="25" t="s">
+      <c r="CM1" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="CL1" s="19" t="s">
+      <c r="CN1" s="19" t="s">
         <v>417</v>
       </c>
-      <c r="CM1" s="19" t="s">
+      <c r="CO1" s="19" t="s">
         <v>181</v>
       </c>
-      <c r="CN1" s="19" t="s">
+      <c r="CP1" s="19" t="s">
         <v>182</v>
       </c>
-      <c r="CO1" s="19" t="s">
+      <c r="CQ1" s="19" t="s">
         <v>183</v>
       </c>
-      <c r="CP1" s="19" t="s">
+      <c r="CR1" s="19" t="s">
         <v>184</v>
       </c>
-      <c r="CQ1" s="19" t="s">
+      <c r="CS1" s="19" t="s">
         <v>185</v>
       </c>
-      <c r="CR1" s="19" t="s">
+      <c r="CT1" s="19" t="s">
         <v>186</v>
       </c>
-      <c r="CS1" s="19" t="s">
+      <c r="CU1" s="19" t="s">
         <v>187</v>
       </c>
-      <c r="CT1" s="19" t="s">
+      <c r="CV1" s="19" t="s">
         <v>188</v>
       </c>
-      <c r="CU1" s="19" t="s">
+      <c r="CW1" s="19" t="s">
         <v>190</v>
       </c>
-      <c r="CV1" s="19" t="s">
+      <c r="CX1" s="19" t="s">
         <v>191</v>
       </c>
-      <c r="CW1" s="19" t="s">
+      <c r="CY1" s="19" t="s">
         <v>192</v>
       </c>
-      <c r="CX1" s="19" t="s">
+      <c r="CZ1" s="19" t="s">
         <v>193</v>
       </c>
-      <c r="CY1" s="19" t="s">
+      <c r="DA1" s="19" t="s">
         <v>189</v>
       </c>
-      <c r="CZ1" s="22" t="s">
+      <c r="DB1" s="22" t="s">
         <v>92</v>
       </c>
-      <c r="DA1" s="26" t="s">
+      <c r="DC1" s="22" t="s">
+        <v>419</v>
+      </c>
+      <c r="DD1" s="26" t="s">
         <v>90</v>
       </c>
-      <c r="DB1" s="26" t="s">
+      <c r="DE1" s="26" t="s">
         <v>91</v>
       </c>
-      <c r="DC1" s="27" t="s">
+      <c r="DF1" s="27" t="s">
         <v>95</v>
       </c>
-      <c r="DD1" s="28" t="s">
+      <c r="DG1" s="28" t="s">
         <v>48</v>
       </c>
-      <c r="DE1" s="29" t="s">
+      <c r="DH1" s="29" t="s">
         <v>49</v>
       </c>
-      <c r="DF1" s="19" t="s">
+      <c r="DI1" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="DG1" s="19" t="s">
+      <c r="DJ1" s="19" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="2" spans="1:111" s="1" customFormat="1" ht="150" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:114" s="1" customFormat="1" ht="165" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>51</v>
       </c>
@@ -5579,317 +5645,326 @@
         <v>180</v>
       </c>
       <c r="K2" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="L2" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="L2" s="64" t="s">
+      <c r="M2" s="64" t="s">
         <v>332</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="N2" s="66" t="s">
+        <v>320</v>
+      </c>
+      <c r="O2" s="1" t="s">
         <v>333</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="P2" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="O2" s="8" t="s">
+      <c r="Q2" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="P2" s="9" t="s">
+      <c r="R2" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="Q2" s="9" t="s">
+      <c r="S2" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="R2" s="9" t="s">
+      <c r="T2" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="S2" s="9" t="s">
+      <c r="U2" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="T2" s="9" t="s">
+      <c r="V2" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="U2" s="9" t="s">
+      <c r="W2" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="V2" s="1" t="s">
+      <c r="X2" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="W2" s="8" t="s">
+      <c r="Y2" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="X2" s="3" t="s">
+      <c r="Z2" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="Y2" s="10" t="s">
+      <c r="AA2" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="Z2" s="10" t="s">
+      <c r="AB2" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="AA2" s="10" t="s">
+      <c r="AC2" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="AB2" s="10" t="s">
+      <c r="AD2" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="AC2" s="10" t="s">
+      <c r="AE2" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="AD2" s="10" t="s">
+      <c r="AF2" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="AE2" s="10" t="s">
+      <c r="AG2" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="AF2" s="10" t="s">
+      <c r="AH2" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="AG2" s="10" t="s">
+      <c r="AI2" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="AH2" s="10" t="s">
+      <c r="AJ2" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="AI2" s="10" t="s">
+      <c r="AK2" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="AJ2" s="10" t="s">
+      <c r="AL2" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="AK2" s="10" t="s">
+      <c r="AM2" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="AL2" s="10" t="s">
+      <c r="AN2" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="AM2" s="10" t="s">
+      <c r="AO2" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="AN2" s="10" t="s">
+      <c r="AP2" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="AO2" s="10" t="s">
+      <c r="AQ2" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="AP2" s="10" t="s">
+      <c r="AR2" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="AQ2" s="10" t="s">
+      <c r="AS2" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="AR2" s="10" t="s">
+      <c r="AT2" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="AS2" s="10" t="s">
+      <c r="AU2" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="AT2" s="10" t="s">
+      <c r="AV2" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="AU2" s="10" t="s">
+      <c r="AW2" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="AV2" s="11" t="s">
+      <c r="AX2" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="AW2" s="7" t="s">
+      <c r="AY2" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="AX2" s="3" t="s">
+      <c r="AZ2" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="AY2" s="1" t="s">
+      <c r="BA2" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="AZ2" s="1" t="s">
+      <c r="BB2" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="BA2" s="1" t="s">
+      <c r="BC2" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="BB2" s="1" t="s">
+      <c r="BD2" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="BC2" s="17" t="s">
+      <c r="BE2" s="17" t="s">
         <v>165</v>
       </c>
-      <c r="BD2" s="17" t="s">
+      <c r="BF2" s="17" t="s">
         <v>137</v>
       </c>
-      <c r="BE2" s="1" t="s">
+      <c r="BG2" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="BF2" s="1" t="s">
+      <c r="BH2" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="BG2" s="1" t="s">
+      <c r="BI2" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="BH2" s="1" t="s">
+      <c r="BJ2" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="BI2" s="1" t="s">
+      <c r="BK2" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="BJ2" s="4" t="s">
+      <c r="BL2" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="BK2" s="17" t="s">
+      <c r="BM2" s="17" t="s">
         <v>144</v>
       </c>
-      <c r="BL2" s="17" t="s">
+      <c r="BN2" s="17" t="s">
         <v>145</v>
       </c>
-      <c r="BM2" s="17" t="s">
+      <c r="BO2" s="17" t="s">
         <v>146</v>
       </c>
-      <c r="BN2" s="17" t="s">
+      <c r="BP2" s="17" t="s">
         <v>147</v>
       </c>
-      <c r="BO2" s="17" t="s">
+      <c r="BQ2" s="17" t="s">
         <v>148</v>
       </c>
-      <c r="BP2" s="17" t="s">
+      <c r="BR2" s="17" t="s">
         <v>149</v>
       </c>
-      <c r="BQ2" s="1" t="s">
+      <c r="BS2" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="BR2" s="1" t="s">
+      <c r="BT2" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="BS2" s="1" t="s">
+      <c r="BU2" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="BT2" s="1" t="s">
+      <c r="BV2" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="BU2" s="1" t="s">
+      <c r="BW2" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="BV2" s="1" t="s">
+      <c r="BX2" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="BW2" s="1" t="s">
+      <c r="BY2" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="BX2" s="17" t="s">
+      <c r="BZ2" s="17" t="s">
         <v>156</v>
       </c>
-      <c r="BY2" s="17" t="s">
+      <c r="CA2" s="17" t="s">
         <v>157</v>
       </c>
-      <c r="BZ2" s="17" t="s">
+      <c r="CB2" s="17" t="s">
         <v>158</v>
       </c>
-      <c r="CA2" s="17" t="s">
+      <c r="CC2" s="17" t="s">
         <v>159</v>
       </c>
-      <c r="CB2" s="1" t="s">
+      <c r="CD2" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="CC2" s="1" t="s">
+      <c r="CE2" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="CD2" s="17" t="s">
+      <c r="CF2" s="17" t="s">
         <v>162</v>
       </c>
-      <c r="CE2" s="17" t="s">
+      <c r="CG2" s="17" t="s">
         <v>163</v>
       </c>
-      <c r="CF2" s="60" t="s">
+      <c r="CH2" s="60" t="s">
         <v>302</v>
       </c>
-      <c r="CG2" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="CH2" s="4" t="s">
-        <v>85</v>
-      </c>
       <c r="CI2" s="4" t="s">
         <v>85</v>
       </c>
       <c r="CJ2" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="CK2" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="CL2" s="69" t="s">
+      <c r="CK2" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="CL2" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="CM2" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="CN2" s="69" t="s">
         <v>146</v>
       </c>
-      <c r="CM2" s="13" t="s">
+      <c r="CO2" s="13" t="s">
         <v>194</v>
       </c>
-      <c r="CN2" s="13" t="s">
+      <c r="CP2" s="13" t="s">
         <v>195</v>
       </c>
-      <c r="CO2" s="13" t="s">
+      <c r="CQ2" s="13" t="s">
         <v>196</v>
       </c>
-      <c r="CP2" s="13" t="s">
+      <c r="CR2" s="13" t="s">
         <v>197</v>
       </c>
-      <c r="CQ2" s="13" t="s">
+      <c r="CS2" s="13" t="s">
         <v>198</v>
       </c>
-      <c r="CR2" s="13" t="s">
+      <c r="CT2" s="13" t="s">
         <v>199</v>
       </c>
-      <c r="CS2" s="13" t="s">
+      <c r="CU2" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="CT2" s="13">
+      <c r="CV2" s="13">
         <v>8218828905</v>
       </c>
-      <c r="CU2" s="32" t="s">
+      <c r="CW2" s="32" t="s">
         <v>200</v>
       </c>
-      <c r="CV2" s="13" t="s">
+      <c r="CX2" s="13" t="s">
         <v>201</v>
       </c>
-      <c r="CW2" s="13" t="s">
+      <c r="CY2" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="CX2" s="13">
+      <c r="CZ2" s="13">
         <v>8218828905</v>
       </c>
-      <c r="CY2" s="32" t="s">
+      <c r="DA2" s="32" t="s">
         <v>202</v>
       </c>
-      <c r="CZ2" s="16" t="s">
+      <c r="DB2" s="16" t="s">
         <v>89</v>
       </c>
-      <c r="DA2" s="15" t="s">
+      <c r="DC2" s="16" t="s">
+        <v>418</v>
+      </c>
+      <c r="DD2" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="DB2" s="16" t="s">
+      <c r="DE2" s="16" t="s">
         <v>329</v>
       </c>
-      <c r="DC2" s="15" t="s">
+      <c r="DF2" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="DD2" s="1" t="s">
-        <v>426</v>
-      </c>
-      <c r="DE2" s="7" t="s">
+      <c r="DG2" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="DH2" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="DF2" s="1" t="s">
+      <c r="DI2" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="DG2" t="s" s="0">
+      <c r="DJ2" t="s" s="0">
         <v>166</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="BD1:BJ1">
+  <conditionalFormatting sqref="BF1:BL1">
     <cfRule type="duplicateValues" dxfId="10" priority="1"/>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="CU2" r:id="rId1" xr:uid="{00000000-0004-0000-0A00-000000000000}"/>
-    <hyperlink ref="CY2" r:id="rId2" xr:uid="{00000000-0004-0000-0A00-000001000000}"/>
-    <hyperlink ref="L2" r:id="rId3" xr:uid="{FFF5DB8F-5356-4B3F-9CA1-EC35C3F474CC}"/>
+    <hyperlink ref="CW2" r:id="rId1" xr:uid="{00000000-0004-0000-0A00-000000000000}"/>
+    <hyperlink ref="DA2" r:id="rId2" xr:uid="{00000000-0004-0000-0A00-000001000000}"/>
+    <hyperlink ref="M2" r:id="rId3" xr:uid="{FFF5DB8F-5356-4B3F-9CA1-EC35C3F474CC}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId4"/>

--- a/src/test/java/testData/TestSuite1Data.xlsx
+++ b/src/test/java/testData/TestSuite1Data.xlsx
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9298" uniqueCount="485">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9300" uniqueCount="487">
   <si>
     <t>Gateway_PartnerCode</t>
   </si>
@@ -1514,6 +1514,12 @@
   </si>
   <si>
     <t>547568</t>
+  </si>
+  <si>
+    <t>547655</t>
+  </si>
+  <si>
+    <t>547657</t>
   </si>
 </sst>
 </file>
@@ -6175,7 +6181,7 @@
         <v>93</v>
       </c>
       <c r="DG2" s="1" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="DH2" s="7" t="s">
         <v>87</v>
